--- a/migforecasting/clustering/AN-method.xlsx
+++ b/migforecasting/clustering/AN-method.xlsx
@@ -648,12 +648,15 @@
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Cluster 0</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -666,7 +669,7 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:strRef>
               <c:f>'Анализ мун-районы'!$D$24:$R$24</c:f>
               <c:strCache>
@@ -718,8 +721,8 @@
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'Анализ мун-районы'!$D$25:$R$25</c:f>
               <c:numCache>
@@ -772,7 +775,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -783,6 +786,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Cluster 1</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -795,7 +801,7 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:strRef>
               <c:f>'Анализ мун-районы'!$D$24:$R$24</c:f>
               <c:strCache>
@@ -847,8 +853,8 @@
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'Анализ мун-районы'!$D$26:$R$26</c:f>
               <c:numCache>
@@ -901,7 +907,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -912,6 +918,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>Cluster 2</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -924,7 +933,7 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:strRef>
               <c:f>'Анализ мун-районы'!$D$24:$R$24</c:f>
               <c:strCache>
@@ -976,8 +985,8 @@
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'Анализ мун-районы'!$D$27:$R$27</c:f>
               <c:numCache>
@@ -1030,7 +1039,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1041,6 +1050,9 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:v>Cluster 3</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1053,7 +1065,7 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:strRef>
               <c:f>'Анализ мун-районы'!$D$24:$R$24</c:f>
               <c:strCache>
@@ -1105,8 +1117,8 @@
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'Анализ мун-районы'!$D$28:$R$28</c:f>
               <c:numCache>
@@ -1159,7 +1171,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1170,6 +1182,9 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:v>Cluster 4</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1182,7 +1197,7 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:strRef>
               <c:f>'Анализ мун-районы'!$D$24:$R$24</c:f>
               <c:strCache>
@@ -1234,8 +1249,8 @@
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'Анализ мун-районы'!$D$29:$R$29</c:f>
               <c:numCache>
@@ -1288,7 +1303,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1299,6 +1314,9 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
+          <c:tx>
+            <c:v>Cluster 5</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1311,7 +1329,7 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:strRef>
               <c:f>'Анализ мун-районы'!$D$24:$R$24</c:f>
               <c:strCache>
@@ -1363,8 +1381,8 @@
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'Анализ мун-районы'!$D$30:$R$30</c:f>
               <c:numCache>
@@ -1417,7 +1435,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1433,10 +1451,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="2128226767"/>
         <c:axId val="2128228015"/>
-      </c:scatterChart>
-      <c:valAx>
+      </c:lineChart>
+      <c:catAx>
         <c:axId val="2128226767"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -1457,9 +1476,10 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1495,8 +1515,11 @@
         </c:txPr>
         <c:crossAx val="2128228015"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="2128228015"/>
         <c:scaling>
@@ -1518,8 +1541,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>Разница положительного субкластера от отрицательного</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1557,7 +1637,7 @@
         </c:txPr>
         <c:crossAx val="2128226767"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1568,7 +1648,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1659,6 +1739,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Cluster 0</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="15875" cap="rnd">
               <a:solidFill>
@@ -1793,6 +1876,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Cluster 1</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="15875" cap="rnd">
               <a:solidFill>
@@ -1927,6 +2013,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>Cluster 2</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="15875" cap="rnd">
               <a:solidFill>
@@ -2061,6 +2150,9 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:v>Cluster 3</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="15875" cap="rnd">
               <a:solidFill>
@@ -2195,6 +2287,9 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:v>Cluster 4</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="15875" cap="rnd">
               <a:solidFill>
@@ -2329,6 +2424,9 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
+          <c:tx>
+            <c:v>Cluster 5</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="15875" cap="rnd">
               <a:solidFill>
@@ -2587,7 +2685,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3594,6 +3692,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4598,6 +4697,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7318,8 +7418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8609,7 +8709,7 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <f t="shared" ref="A27:A30" si="2">A26+1</f>
+        <f>A26+1</f>
         <v>2</v>
       </c>
       <c r="C27" s="15">
@@ -8617,63 +8717,63 @@
         <v>0.19751783979247906</v>
       </c>
       <c r="D27" s="15">
-        <f t="shared" ref="D27:R27" si="3">(D8/D9)-1</f>
+        <f t="shared" ref="D27:R27" si="2">(D8/D9)-1</f>
         <v>-9.276436666696275E-2</v>
       </c>
       <c r="E27" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.1698938401325076E-2</v>
       </c>
       <c r="F27" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-5.9032691128102055E-2</v>
       </c>
       <c r="G27" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.6753767380775439E-2</v>
       </c>
       <c r="H27" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.4221794072617753E-2</v>
       </c>
       <c r="I27" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-4.3140747587474548E-2</v>
       </c>
       <c r="J27" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-0.10280391950165912</v>
       </c>
       <c r="K27" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-3.6766206269346235E-2</v>
       </c>
       <c r="L27" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-9.2545168457396798E-2</v>
       </c>
       <c r="M27" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-3.9219342480681485E-2</v>
       </c>
       <c r="N27" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.18908855007090697</v>
       </c>
       <c r="O27" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.24984082909823457</v>
       </c>
       <c r="P27" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-0.14188101151990107</v>
       </c>
       <c r="Q27" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-0.10721056495603187</v>
       </c>
       <c r="R27" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.18010938619017747</v>
       </c>
       <c r="T27" s="15"/>
@@ -8687,7 +8787,7 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <f t="shared" si="2"/>
+        <f>A27+1</f>
         <v>3</v>
       </c>
       <c r="C28" s="15">
@@ -8695,63 +8795,63 @@
         <v>0.25646268672830819</v>
       </c>
       <c r="D28" s="15">
-        <f t="shared" ref="D28:R28" si="4">(D11/D12)-1</f>
+        <f t="shared" ref="D28:R28" si="3">(D11/D12)-1</f>
         <v>-8.8491683697801138E-3</v>
       </c>
       <c r="E28" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6.3840254470228563E-2</v>
       </c>
       <c r="F28" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-3.1317383830811063E-2</v>
       </c>
       <c r="G28" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-3.1905172992594988E-2</v>
       </c>
       <c r="H28" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5.2260209641986632E-2</v>
       </c>
       <c r="I28" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.913781536360637E-2</v>
       </c>
       <c r="J28" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-0.10205138645053313</v>
       </c>
       <c r="K28" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-2.3710136465821319E-2</v>
       </c>
       <c r="L28" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-4.7758610082039299E-3</v>
       </c>
       <c r="M28" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-6.8334115734363099E-3</v>
       </c>
       <c r="N28" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.18277773424703936</v>
       </c>
       <c r="O28" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-1.3312773550577583E-2</v>
       </c>
       <c r="P28" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-6.2561852170983534E-2</v>
       </c>
       <c r="Q28" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-5.8890452041020835E-2</v>
       </c>
       <c r="R28" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.1669857489501978</v>
       </c>
       <c r="T28" s="15"/>
@@ -8765,7 +8865,7 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <f t="shared" si="2"/>
+        <f>A28+1</f>
         <v>4</v>
       </c>
       <c r="C29" s="15">
@@ -8773,63 +8873,63 @@
         <v>2.2617581670861808E-2</v>
       </c>
       <c r="D29" s="15">
-        <f t="shared" ref="D29:R29" si="5">(D14/D15)-1</f>
+        <f t="shared" ref="D29:R29" si="4">(D14/D15)-1</f>
         <v>-1.0808853999729751E-3</v>
       </c>
       <c r="E29" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.8306416665261578E-2</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-2.1999354749875355E-3</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-1.1917326009136531E-2</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.0016609646382761E-2</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.5923299143229244E-2</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-3.385898197895254E-2</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-0.10476866889154923</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.696950280521996E-2</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-8.3030329097429356E-2</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.14078501293855417</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.15861999003068639</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-6.7326038437284574E-2</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-0.10523703005015461</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.24930036235826813</v>
       </c>
       <c r="T29" s="15"/>
@@ -8843,7 +8943,7 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <f t="shared" si="2"/>
+        <f>A29+1</f>
         <v>5</v>
       </c>
       <c r="C30" s="15">
@@ -8851,63 +8951,63 @@
         <v>7.3143376976864793E-2</v>
       </c>
       <c r="D30" s="15">
-        <f t="shared" ref="D30:R30" si="6">(D17/D18)-1</f>
+        <f t="shared" ref="D30:R30" si="5">(D17/D18)-1</f>
         <v>-8.3641311857414191E-2</v>
       </c>
       <c r="E30" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-5.1515123253855766E-3</v>
       </c>
       <c r="F30" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7.3094188465290033E-2</v>
       </c>
       <c r="G30" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.12294637825966181</v>
       </c>
       <c r="H30" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.22275591448484011</v>
       </c>
       <c r="I30" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6.1350861922453204E-2</v>
       </c>
       <c r="J30" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-0.10377296264968261</v>
       </c>
       <c r="K30" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-1.5478618546968193E-2</v>
       </c>
       <c r="L30" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3.1459923244266941E-2</v>
       </c>
       <c r="M30" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-0.16501618699201137</v>
       </c>
       <c r="N30" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.20763657163752081</v>
       </c>
       <c r="O30" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.15441602399973542</v>
       </c>
       <c r="P30" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-9.2363423757613416E-2</v>
       </c>
       <c r="Q30" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-0.10786277277313128</v>
       </c>
       <c r="R30" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.1508407556542597E-2</v>
       </c>
       <c r="T30" s="15"/>
@@ -8928,63 +9028,63 @@
         <v>0.13050881125927671</v>
       </c>
       <c r="D31" s="50">
-        <f t="shared" ref="D31:R31" si="7">AVERAGE(D25:D30)</f>
+        <f t="shared" ref="D31:R31" si="6">AVERAGE(D25:D30)</f>
         <v>-3.3594884196866993E-2</v>
       </c>
       <c r="E31" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3.5143064018565817E-2</v>
       </c>
       <c r="F31" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-3.5499050789590997E-4</v>
       </c>
       <c r="G31" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4.8696598540065104E-2</v>
       </c>
       <c r="H31" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.10837281717997134</v>
       </c>
       <c r="I31" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3.1613221550583548E-2</v>
       </c>
       <c r="J31" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-8.139185127145461E-2</v>
       </c>
       <c r="K31" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-2.208688542905372E-2</v>
       </c>
       <c r="L31" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-1.3806987148756908E-2</v>
       </c>
       <c r="M31" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-3.5218115892731085E-2</v>
       </c>
       <c r="N31" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.16711052990026221</v>
       </c>
       <c r="O31" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.14706803585360498</v>
       </c>
       <c r="P31" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-0.10463262295720582</v>
       </c>
       <c r="Q31" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-0.10425277483083284</v>
       </c>
       <c r="R31" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.17853857942672188</v>
       </c>
       <c r="T31" s="15"/>
@@ -10241,8 +10341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8:S11"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14098,8 +14198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N29" sqref="M29:N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16739,7 +16839,7 @@
   <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/migforecasting/clustering/AN-method.xlsx
+++ b/migforecasting/clustering/AN-method.xlsx
@@ -3692,7 +3692,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4697,7 +4696,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7419,7 +7417,7 @@
   <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S35" sqref="S35"/>
+      <selection activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/migforecasting/clustering/AN-method.xlsx
+++ b/migforecasting/clustering/AN-method.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ мун-районы" sheetId="1" r:id="rId1"/>
@@ -3692,6 +3692,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4696,6 +4697,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7000,15 +7002,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
+      <xdr:colOff>361948</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:rowOff>33336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>819149</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7029,16 +7031,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7416,8 +7418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S38" sqref="S38"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14196,7 +14198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N29" sqref="M29:N29"/>
     </sheetView>
   </sheetViews>

--- a/migforecasting/clustering/AN-method.xlsx
+++ b/migforecasting/clustering/AN-method.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12255" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ мун-районы" sheetId="1" r:id="rId1"/>
@@ -1498,12 +1498,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1620,12 +1617,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1663,12 +1657,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -7418,8 +7409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10342,7 +10333,7 @@
   <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q43" sqref="Q43"/>
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14198,8 +14189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N29" sqref="M29:N29"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/migforecasting/clustering/AN-method.xlsx
+++ b/migforecasting/clustering/AN-method.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="32">
   <si>
     <t>clust</t>
   </si>
@@ -78,18 +78,6 @@
     <t>factoriescap</t>
   </si>
   <si>
-    <t>profile</t>
-  </si>
-  <si>
-    <t>сельхоз (скот)</t>
-  </si>
-  <si>
-    <t>сельхоз (посев)</t>
-  </si>
-  <si>
-    <t>промыш</t>
-  </si>
-  <si>
     <t>superfeature</t>
   </si>
   <si>
@@ -128,6 +116,9 @@
   <si>
     <t>pred saldo (24-balanced)</t>
   </si>
+  <si>
+    <t>hospitals abs</t>
+  </si>
 </sst>
 </file>
 
@@ -137,20 +128,12 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,13 +158,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -457,11 +433,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -476,7 +452,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -486,81 +462,74 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -577,7 +546,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -586,13 +555,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -610,9 +579,13 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3683,7 +3656,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4688,7 +4660,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7409,8 +7380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="E13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7453,10 +7424,10 @@
       <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
@@ -7477,10 +7448,10 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="20" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="13" t="s">
@@ -7498,17 +7469,16 @@
       <c r="R1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
+      <c r="S1" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="32"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -7517,13 +7487,13 @@
       <c r="B2" s="4">
         <v>77.993670886075904</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="27">
         <v>12466.2215189873</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="17">
         <v>0.15537792827527699</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="25">
         <v>19572.777895253101</v>
       </c>
       <c r="F2" s="3">
@@ -7544,10 +7514,10 @@
       <c r="K2" s="3">
         <v>2.17877692228757E-3</v>
       </c>
-      <c r="L2" s="19">
+      <c r="L2" s="17">
         <v>4.4741021307432398E-2</v>
       </c>
-      <c r="M2" s="23">
+      <c r="M2" s="21">
         <v>2.2083498388787102</v>
       </c>
       <c r="N2" s="8">
@@ -7565,14 +7535,17 @@
       <c r="R2" s="8">
         <v>75.817080209307306</v>
       </c>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="41"/>
+      <c r="S2" s="54">
+        <f>P2*C2</f>
+        <v>18.040731997842698</v>
+      </c>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="38"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -7581,13 +7554,13 @@
       <c r="B3" s="4">
         <v>-123.419235511713</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="27">
         <v>12193.522811343901</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="17">
         <v>0.16282611547518699</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="25">
         <v>19043.8474208507</v>
       </c>
       <c r="F3" s="3">
@@ -7608,10 +7581,10 @@
       <c r="K3" s="3">
         <v>2.1262597811619499E-3</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="17">
         <v>4.65465301395614E-2</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3" s="21">
         <v>1.9414065525437001</v>
       </c>
       <c r="N3" s="8">
@@ -7629,42 +7602,45 @@
       <c r="R3" s="8">
         <v>63.455594640242197</v>
       </c>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="42"/>
+      <c r="S3" s="54">
+        <f>P3*C3</f>
+        <v>19.609042079700028</v>
+      </c>
+      <c r="U3" s="36"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="39"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="25"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="8"/>
       <c r="I4" s="3"/>
       <c r="J4" s="8"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="23"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="21"/>
       <c r="N4" s="8"/>
       <c r="O4" s="3"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="42"/>
+      <c r="S4" s="54"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="39"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -7673,13 +7649,13 @@
       <c r="B5" s="4">
         <v>169.482758620689</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="27">
         <v>34342.793103448203</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="17">
         <v>0.140599216047296</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="25">
         <v>20210.003367155099</v>
       </c>
       <c r="F5" s="3">
@@ -7700,10 +7676,10 @@
       <c r="K5" s="3">
         <v>1.95814363189694E-3</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="17">
         <v>1.7680319496344001E-2</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="21">
         <v>2.9557867543708398</v>
       </c>
       <c r="N5" s="8">
@@ -7721,17 +7697,17 @@
       <c r="R5" s="8">
         <v>118.263281060987</v>
       </c>
-      <c r="S5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="41"/>
+      <c r="S5" s="54">
+        <f>P5*C5</f>
+        <v>33.039354309095614</v>
+      </c>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="38"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -7740,13 +7716,13 @@
       <c r="B6" s="4">
         <v>-201.71624266144701</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="27">
         <v>28360.273972602699</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="17">
         <v>0.13643658696081901</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="25">
         <v>18810.678194148699</v>
       </c>
       <c r="F6" s="3">
@@ -7767,10 +7743,10 @@
       <c r="K6" s="3">
         <v>1.9131781830096701E-3</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="17">
         <v>1.8516544942192299E-2</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="21">
         <v>3.1268550100544799</v>
       </c>
       <c r="N6" s="8">
@@ -7788,46 +7764,45 @@
       <c r="R6" s="8">
         <v>93.969954189535301</v>
       </c>
-      <c r="S6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
-      <c r="AA6" s="42"/>
+      <c r="S6" s="54">
+        <f>P6*C6</f>
+        <v>32.619031111887118</v>
+      </c>
+      <c r="U6" s="36"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="39"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="25"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="8"/>
       <c r="I7" s="3"/>
       <c r="J7" s="8"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="23"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="21"/>
       <c r="N7" s="8"/>
       <c r="O7" s="3"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="42"/>
+      <c r="S7" s="54"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="39"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -7836,13 +7811,13 @@
       <c r="B8" s="5">
         <v>150.11787819253399</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="27">
         <v>38381.222003929201</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="17">
         <v>0.149972072188887</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="25">
         <v>21023.171959174801</v>
       </c>
       <c r="F8" s="3">
@@ -7863,10 +7838,10 @@
       <c r="K8" s="3">
         <v>2.18425076030584E-3</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="17">
         <v>1.4035777899736901E-2</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="21">
         <v>1.7095834867900701</v>
       </c>
       <c r="N8" s="8">
@@ -7884,15 +7859,17 @@
       <c r="R8" s="8">
         <v>83.250391101316396</v>
       </c>
-      <c r="S8" s="17"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="41"/>
+      <c r="S8" s="54">
+        <f>P8*C8</f>
+        <v>29.164228617921733</v>
+      </c>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="38"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -7901,13 +7878,13 @@
       <c r="B9" s="5">
         <v>-210.86457780137999</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="27">
         <v>32050.647371216099</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="17">
         <v>0.16530663774516199</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="25">
         <v>20780.067232644698</v>
       </c>
       <c r="F9" s="3">
@@ -7928,10 +7905,10 @@
       <c r="K9" s="3">
         <v>2.2676226421065701E-3</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="17">
         <v>1.5467191767415201E-2</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="21">
         <v>1.77936917589923</v>
       </c>
       <c r="N9" s="8">
@@ -7949,44 +7926,45 @@
       <c r="R9" s="8">
         <v>70.544639399978806</v>
       </c>
-      <c r="S9" s="17"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="42"/>
+      <c r="S9" s="54">
+        <f>P9*C9</f>
+        <v>28.380561912594022</v>
+      </c>
+      <c r="U9" s="36"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="39"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="25"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="8"/>
       <c r="I10" s="3"/>
       <c r="J10" s="8"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="23"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="21"/>
       <c r="N10" s="8"/>
       <c r="O10" s="3"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="42"/>
+      <c r="S10" s="54"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="39"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -7995,13 +7973,13 @@
       <c r="B11" s="5">
         <v>190.13690476190399</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="27">
         <v>35649.398809523802</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="17">
         <v>0.15775027305643</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="25">
         <v>20557.532877559501</v>
       </c>
       <c r="F11" s="3">
@@ -8022,10 +8000,10 @@
       <c r="K11" s="3">
         <v>2.1869503982130801E-3</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="17">
         <v>1.8858009986420302E-2</v>
       </c>
-      <c r="M11" s="23">
+      <c r="M11" s="21">
         <v>12.5095739121479</v>
       </c>
       <c r="N11" s="8">
@@ -8043,17 +8021,17 @@
       <c r="R11" s="8">
         <v>155.613070376834</v>
       </c>
-      <c r="S11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="39"/>
-      <c r="AA11" s="41"/>
+      <c r="S11" s="54">
+        <f>P11*C11</f>
+        <v>36.194193885499985</v>
+      </c>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="38"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -8062,13 +8040,13 @@
       <c r="B12" s="5">
         <v>-178.119402985074</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="27">
         <v>28372.8272921108</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="17">
         <v>0.15915869514730299</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="25">
         <v>19323.890773240899</v>
       </c>
       <c r="F12" s="3">
@@ -8089,10 +8067,10 @@
       <c r="K12" s="3">
         <v>2.2400625878632998E-3</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L12" s="17">
         <v>1.89485054145936E-2</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="21">
         <v>12.595645139418499</v>
       </c>
       <c r="N12" s="8">
@@ -8110,46 +8088,45 @@
       <c r="R12" s="8">
         <v>133.34616169633699</v>
       </c>
-      <c r="S12" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="40"/>
-      <c r="Z12" s="40"/>
-      <c r="AA12" s="42"/>
+      <c r="S12" s="54">
+        <f>P12*C12</f>
+        <v>30.728877070163868</v>
+      </c>
+      <c r="U12" s="36"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="39"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="8"/>
       <c r="I13" s="3"/>
       <c r="J13" s="8"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="23"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="21"/>
       <c r="N13" s="8"/>
       <c r="O13" s="3"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
-      <c r="AA13" s="42"/>
+      <c r="S13" s="54"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="39"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -8158,13 +8135,13 @@
       <c r="B14" s="5">
         <v>74.800766283524794</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="27">
         <v>18071.360153256599</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="17">
         <v>0.14688569170663399</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="25">
         <v>19058.719056245202</v>
       </c>
       <c r="F14" s="3">
@@ -8185,10 +8162,10 @@
       <c r="K14" s="3">
         <v>1.9321186749371199E-3</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L14" s="17">
         <v>2.1467873108114599E-2</v>
       </c>
-      <c r="M14" s="23">
+      <c r="M14" s="21">
         <v>3.1891703495100101</v>
       </c>
       <c r="N14" s="8">
@@ -8206,17 +8183,17 @@
       <c r="R14" s="8">
         <v>73.125417192873499</v>
       </c>
-      <c r="S14" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="39"/>
-      <c r="AA14" s="41"/>
+      <c r="S14" s="54">
+        <f>P14*C14</f>
+        <v>28.443195591325427</v>
+      </c>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="38"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -8225,13 +8202,13 @@
       <c r="B15" s="5">
         <v>-157.806106870229</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="27">
         <v>17671.669720101701</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="17">
         <v>0.14704463010045399</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="25">
         <v>18355.582466162799</v>
       </c>
       <c r="F15" s="3">
@@ -8252,10 +8229,10 @@
       <c r="K15" s="3">
         <v>2.1582339757309698E-3</v>
       </c>
-      <c r="L15" s="19">
+      <c r="L15" s="17">
         <v>2.0120418673328901E-2</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M15" s="21">
         <v>3.4779452916593399</v>
       </c>
       <c r="N15" s="8">
@@ -8273,46 +8250,45 @@
       <c r="R15" s="8">
         <v>58.533095319716999</v>
       </c>
-      <c r="S15" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
-      <c r="AA15" s="42"/>
+      <c r="S15" s="54">
+        <f>P15*C15</f>
+        <v>29.821897988185309</v>
+      </c>
+      <c r="U15" s="36"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="39"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="25"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="8"/>
       <c r="I16" s="3"/>
       <c r="J16" s="8"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="23"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="21"/>
       <c r="N16" s="8"/>
       <c r="O16" s="3"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="40"/>
-      <c r="AA16" s="42"/>
+      <c r="S16" s="54"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="39"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -8321,13 +8297,13 @@
       <c r="B17" s="5">
         <v>162.36574074073999</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="27">
         <v>40421.106481481402</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="17">
         <v>0.19879719706364901</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="25">
         <v>25443.955409953702</v>
       </c>
       <c r="F17" s="3">
@@ -8348,10 +8324,10 @@
       <c r="K17" s="3">
         <v>2.52828399277238E-3</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L17" s="17">
         <v>1.6408419923949501E-2</v>
       </c>
-      <c r="M17" s="23">
+      <c r="M17" s="21">
         <v>1.30316756609832</v>
       </c>
       <c r="N17" s="8">
@@ -8369,17 +8345,17 @@
       <c r="R17" s="8">
         <v>351.86731958595101</v>
       </c>
-      <c r="S17" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="39"/>
-      <c r="AA17" s="41"/>
+      <c r="S17" s="54">
+        <f>P17*C17</f>
+        <v>33.079177230216096</v>
+      </c>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="38"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -8388,13 +8364,13 @@
       <c r="B18" s="5">
         <v>-253.02631578947299</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="27">
         <v>37666.082043343602</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="17">
         <v>0.21694255714058999</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="25">
         <v>25575.708990046402</v>
       </c>
       <c r="F18" s="3">
@@ -8415,10 +8391,10 @@
       <c r="K18" s="3">
         <v>2.56803360536563E-3</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L18" s="17">
         <v>1.59079568233149E-2</v>
       </c>
-      <c r="M18" s="23">
+      <c r="M18" s="21">
         <v>1.56070997520745</v>
       </c>
       <c r="N18" s="8">
@@ -8436,118 +8412,122 @@
       <c r="R18" s="8">
         <v>344.45856439656802</v>
       </c>
-      <c r="S18" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="T18" s="40"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="40"/>
-      <c r="X18" s="40"/>
-      <c r="Y18" s="40"/>
-      <c r="Z18" s="40"/>
+      <c r="S18" s="54">
+        <f>P18*C18</f>
+        <v>33.961351157991949</v>
+      </c>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
     </row>
     <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="30"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="33"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="31"/>
       <c r="H19" s="9"/>
       <c r="J19" s="9"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="24"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="22"/>
       <c r="N19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
+      <c r="S19" s="55"/>
     </row>
     <row r="20" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="30"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="25" t="s">
-        <v>23</v>
+      <c r="C20" s="28"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" s="21"/>
-      <c r="M20" s="28" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="L20" s="19"/>
+      <c r="M20" s="26" t="s">
+        <v>19</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O20" s="28" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="O20" s="26" t="s">
+        <v>19</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
+        <v>18</v>
+      </c>
+      <c r="S20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="H23" s="36" t="s">
-        <v>24</v>
+      <c r="H23" s="34" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="37" t="s">
+      <c r="E24" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="37" t="s">
+      <c r="F24" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="37" t="s">
+      <c r="G24" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="37" t="s">
+      <c r="H24" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="37" t="s">
+      <c r="I24" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="37" t="s">
+      <c r="J24" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="K24" s="37" t="s">
+      <c r="K24" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="L24" s="37" t="s">
+      <c r="L24" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="M24" s="37" t="s">
+      <c r="M24" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="37" t="s">
+      <c r="N24" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="O24" s="37" t="s">
+      <c r="O24" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="P24" s="37" t="s">
+      <c r="P24" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="Q24" s="37" t="s">
+      <c r="Q24" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="R24" s="37" t="s">
+      <c r="R24" s="35" t="s">
         <v>17</v>
+      </c>
+      <c r="S24" s="35" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
@@ -8618,6 +8598,10 @@
       <c r="R25" s="15">
         <f t="shared" si="0"/>
         <v>0.19480529083602205</v>
+      </c>
+      <c r="S25" s="15">
+        <f t="shared" ref="S25" si="1">(S2/S3)-1</f>
+        <v>-7.9978923778275757E-2</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
@@ -8630,73 +8614,76 @@
         <v>0.21094715575120637</v>
       </c>
       <c r="D26" s="15">
-        <f t="shared" ref="D26:R26" si="1">(D5/D6)-1</f>
+        <f t="shared" ref="D26:R26" si="2">(D5/D6)-1</f>
         <v>3.0509624868235496E-2</v>
       </c>
       <c r="E26" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.438993738363342E-2</v>
       </c>
       <c r="F26" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1978388733416834E-2</v>
       </c>
       <c r="G26" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-8.3145081627309381E-3</v>
       </c>
       <c r="H26" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16127795903622766</v>
       </c>
       <c r="I26" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9608327240562282E-2</v>
       </c>
       <c r="J26" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.8922843263540248E-2</v>
       </c>
       <c r="K26" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3503011526366802E-2</v>
       </c>
       <c r="L26" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.5160987023170396E-2</v>
       </c>
       <c r="M26" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.4709366162986717E-2</v>
       </c>
       <c r="N26" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3761624816903248E-2</v>
       </c>
       <c r="O26" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1230402599800573</v>
       </c>
       <c r="P26" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.16355901877733359</v>
       </c>
       <c r="Q26" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-6.7763340025902341E-2</v>
       </c>
       <c r="R26" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25852228066912319</v>
       </c>
-      <c r="T26" s="34"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="34"/>
-      <c r="X26" s="34"/>
-      <c r="Y26" s="34"/>
-      <c r="Z26" s="34"/>
-      <c r="AA26" s="34"/>
+      <c r="S26" s="15">
+        <f t="shared" ref="S26" si="3">(S5/S6)-1</f>
+        <v>1.2885827165336039E-2</v>
+      </c>
+      <c r="U26" s="32"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="32"/>
+      <c r="AA26" s="32"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -8708,66 +8695,69 @@
         <v>0.19751783979247906</v>
       </c>
       <c r="D27" s="15">
-        <f t="shared" ref="D27:R27" si="2">(D8/D9)-1</f>
+        <f t="shared" ref="D27:R27" si="4">(D8/D9)-1</f>
         <v>-9.276436666696275E-2</v>
       </c>
       <c r="E27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1698938401325076E-2</v>
       </c>
       <c r="F27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-5.9032691128102055E-2</v>
       </c>
       <c r="G27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.6753767380775439E-2</v>
       </c>
       <c r="H27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.4221794072617753E-2</v>
       </c>
       <c r="I27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-4.3140747587474548E-2</v>
       </c>
       <c r="J27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.10280391950165912</v>
       </c>
       <c r="K27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-3.6766206269346235E-2</v>
       </c>
       <c r="L27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-9.2545168457396798E-2</v>
       </c>
       <c r="M27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-3.9219342480681485E-2</v>
       </c>
       <c r="N27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.18908855007090697</v>
       </c>
       <c r="O27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.24984082909823457</v>
       </c>
       <c r="P27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.14188101151990107</v>
       </c>
       <c r="Q27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.10721056495603187</v>
       </c>
       <c r="R27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.18010938619017747</v>
       </c>
-      <c r="T27" s="15"/>
+      <c r="S27" s="15">
+        <f t="shared" ref="S27" si="5">(S8/S9)-1</f>
+        <v>2.761279736959521E-2</v>
+      </c>
       <c r="U27" s="15"/>
       <c r="V27" s="15"/>
       <c r="W27" s="15"/>
@@ -8786,66 +8776,69 @@
         <v>0.25646268672830819</v>
       </c>
       <c r="D28" s="15">
-        <f t="shared" ref="D28:R28" si="3">(D11/D12)-1</f>
+        <f t="shared" ref="D28:R28" si="6">(D11/D12)-1</f>
         <v>-8.8491683697801138E-3</v>
       </c>
       <c r="E28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.3840254470228563E-2</v>
       </c>
       <c r="F28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-3.1317383830811063E-2</v>
       </c>
       <c r="G28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-3.1905172992594988E-2</v>
       </c>
       <c r="H28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.2260209641986632E-2</v>
       </c>
       <c r="I28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.913781536360637E-2</v>
       </c>
       <c r="J28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.10205138645053313</v>
       </c>
       <c r="K28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-2.3710136465821319E-2</v>
       </c>
       <c r="L28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-4.7758610082039299E-3</v>
       </c>
       <c r="M28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-6.8334115734363099E-3</v>
       </c>
       <c r="N28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.18277773424703936</v>
       </c>
       <c r="O28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1.3312773550577583E-2</v>
       </c>
       <c r="P28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-6.2561852170983534E-2</v>
       </c>
       <c r="Q28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-5.8890452041020835E-2</v>
       </c>
       <c r="R28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.1669857489501978</v>
       </c>
-      <c r="T28" s="15"/>
+      <c r="S28" s="15">
+        <f t="shared" ref="S28" si="7">(S11/S12)-1</f>
+        <v>0.17785605386285508</v>
+      </c>
       <c r="U28" s="15"/>
       <c r="V28" s="15"/>
       <c r="W28" s="15"/>
@@ -8864,66 +8857,69 @@
         <v>2.2617581670861808E-2</v>
       </c>
       <c r="D29" s="15">
-        <f t="shared" ref="D29:R29" si="4">(D14/D15)-1</f>
+        <f t="shared" ref="D29:R29" si="8">(D14/D15)-1</f>
         <v>-1.0808853999729751E-3</v>
       </c>
       <c r="E29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.8306416665261578E-2</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-2.1999354749875355E-3</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-1.1917326009136531E-2</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.0016609646382761E-2</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.5923299143229244E-2</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-3.385898197895254E-2</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-0.10476866889154923</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.696950280521996E-2</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-8.3030329097429356E-2</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.14078501293855417</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.15861999003068639</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-6.7326038437284574E-2</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-0.10523703005015461</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.24930036235826813</v>
       </c>
-      <c r="T29" s="15"/>
+      <c r="S29" s="15">
+        <f t="shared" ref="S29" si="9">(S14/S15)-1</f>
+        <v>-4.6231208939353508E-2</v>
+      </c>
       <c r="U29" s="15"/>
       <c r="V29" s="15"/>
       <c r="W29" s="15"/>
@@ -8942,66 +8938,69 @@
         <v>7.3143376976864793E-2</v>
       </c>
       <c r="D30" s="15">
-        <f t="shared" ref="D30:R30" si="5">(D17/D18)-1</f>
+        <f t="shared" ref="D30:R30" si="10">(D17/D18)-1</f>
         <v>-8.3641311857414191E-2</v>
       </c>
       <c r="E30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-5.1515123253855766E-3</v>
       </c>
       <c r="F30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>7.3094188465290033E-2</v>
       </c>
       <c r="G30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.12294637825966181</v>
       </c>
       <c r="H30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.22275591448484011</v>
       </c>
       <c r="I30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>6.1350861922453204E-2</v>
       </c>
       <c r="J30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-0.10377296264968261</v>
       </c>
       <c r="K30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-1.5478618546968193E-2</v>
       </c>
       <c r="L30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3.1459923244266941E-2</v>
       </c>
       <c r="M30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-0.16501618699201137</v>
       </c>
       <c r="N30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.20763657163752081</v>
       </c>
       <c r="O30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.15441602399973542</v>
       </c>
       <c r="P30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-9.2363423757613416E-2</v>
       </c>
       <c r="Q30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-0.10786277277313128</v>
       </c>
       <c r="R30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.1508407556542597E-2</v>
       </c>
-      <c r="T30" s="15"/>
+      <c r="S30" s="15">
+        <f t="shared" ref="S30" si="11">(S17/S18)-1</f>
+        <v>-2.5975819503525677E-2</v>
+      </c>
       <c r="U30" s="15"/>
       <c r="V30" s="15"/>
       <c r="W30" s="15"/>
@@ -9011,74 +9010,77 @@
       <c r="AA30" s="15"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="50">
+      <c r="A31" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="47">
         <f>AVERAGE(C25:C30)</f>
         <v>0.13050881125927671</v>
       </c>
-      <c r="D31" s="50">
-        <f t="shared" ref="D31:R31" si="6">AVERAGE(D25:D30)</f>
+      <c r="D31" s="47">
+        <f t="shared" ref="D31:R31" si="12">AVERAGE(D25:D30)</f>
         <v>-3.3594884196866993E-2</v>
       </c>
-      <c r="E31" s="50">
-        <f t="shared" si="6"/>
+      <c r="E31" s="47">
+        <f t="shared" si="12"/>
         <v>3.5143064018565817E-2</v>
       </c>
-      <c r="F31" s="50">
-        <f t="shared" si="6"/>
+      <c r="F31" s="47">
+        <f t="shared" si="12"/>
         <v>-3.5499050789590997E-4</v>
       </c>
-      <c r="G31" s="50">
-        <f t="shared" si="6"/>
+      <c r="G31" s="47">
+        <f t="shared" si="12"/>
         <v>4.8696598540065104E-2</v>
       </c>
-      <c r="H31" s="50">
-        <f t="shared" si="6"/>
+      <c r="H31" s="47">
+        <f t="shared" si="12"/>
         <v>0.10837281717997134</v>
       </c>
-      <c r="I31" s="50">
-        <f t="shared" si="6"/>
+      <c r="I31" s="47">
+        <f t="shared" si="12"/>
         <v>3.1613221550583548E-2</v>
       </c>
-      <c r="J31" s="50">
-        <f t="shared" si="6"/>
+      <c r="J31" s="47">
+        <f t="shared" si="12"/>
         <v>-8.139185127145461E-2</v>
       </c>
-      <c r="K31" s="50">
-        <f t="shared" si="6"/>
+      <c r="K31" s="47">
+        <f t="shared" si="12"/>
         <v>-2.208688542905372E-2</v>
       </c>
-      <c r="L31" s="50">
-        <f t="shared" si="6"/>
+      <c r="L31" s="47">
+        <f t="shared" si="12"/>
         <v>-1.3806987148756908E-2</v>
       </c>
-      <c r="M31" s="50">
-        <f t="shared" si="6"/>
+      <c r="M31" s="47">
+        <f t="shared" si="12"/>
         <v>-3.5218115892731085E-2</v>
       </c>
-      <c r="N31" s="50">
-        <f t="shared" si="6"/>
+      <c r="N31" s="47">
+        <f t="shared" si="12"/>
         <v>0.16711052990026221</v>
       </c>
-      <c r="O31" s="50">
-        <f t="shared" si="6"/>
+      <c r="O31" s="47">
+        <f t="shared" si="12"/>
         <v>0.14706803585360498</v>
       </c>
-      <c r="P31" s="50">
-        <f t="shared" si="6"/>
+      <c r="P31" s="47">
+        <f t="shared" si="12"/>
         <v>-0.10463262295720582</v>
       </c>
-      <c r="Q31" s="50">
-        <f t="shared" si="6"/>
+      <c r="Q31" s="47">
+        <f t="shared" si="12"/>
         <v>-0.10425277483083284</v>
       </c>
-      <c r="R31" s="50">
-        <f t="shared" si="6"/>
+      <c r="R31" s="47">
+        <f t="shared" si="12"/>
         <v>0.17853857942672188</v>
       </c>
-      <c r="T31" s="15"/>
+      <c r="S31" s="47">
+        <f t="shared" ref="S31" si="13">AVERAGE(S25:S30)</f>
+        <v>1.1028121029438565E-2</v>
+      </c>
       <c r="U31" s="15"/>
       <c r="V31" s="15"/>
       <c r="W31" s="15"/>
@@ -9099,6 +9101,162 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C3">
+    <cfRule type="colorScale" priority="117">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D3">
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="colorScale" priority="115">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F3">
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G3">
+    <cfRule type="colorScale" priority="113">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H3">
+    <cfRule type="colorScale" priority="112">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I3">
+    <cfRule type="colorScale" priority="111">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J3">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K3">
+    <cfRule type="colorScale" priority="109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L3">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M3">
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N3">
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O3">
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P3">
     <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="min"/>
@@ -9110,7 +9268,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D3">
+  <conditionalFormatting sqref="Q2:Q3">
     <cfRule type="colorScale" priority="103">
       <colorScale>
         <cfvo type="min"/>
@@ -9122,7 +9280,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="R2:R3">
     <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="min"/>
@@ -9134,31 +9292,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F3">
-    <cfRule type="colorScale" priority="101">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G3">
-    <cfRule type="colorScale" priority="100">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H3">
+  <conditionalFormatting sqref="C5:C6">
     <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="min"/>
@@ -9170,7 +9304,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I3">
+  <conditionalFormatting sqref="D5:D6">
     <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="min"/>
@@ -9182,7 +9316,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J3">
+  <conditionalFormatting sqref="E5:E6">
     <cfRule type="colorScale" priority="97">
       <colorScale>
         <cfvo type="min"/>
@@ -9194,7 +9328,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K3">
+  <conditionalFormatting sqref="F5:F6">
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="min"/>
@@ -9206,7 +9340,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L3">
+  <conditionalFormatting sqref="G5:G6">
     <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
@@ -9218,7 +9352,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M3">
+  <conditionalFormatting sqref="H5:H6">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
@@ -9230,7 +9364,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N3">
+  <conditionalFormatting sqref="I5:I6">
     <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
@@ -9242,7 +9376,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O3">
+  <conditionalFormatting sqref="J5:J6">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
@@ -9254,7 +9388,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P3">
+  <conditionalFormatting sqref="K5:K6">
     <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="min"/>
@@ -9266,7 +9400,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q3">
+  <conditionalFormatting sqref="L5:L6">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min"/>
@@ -9278,7 +9412,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R3">
+  <conditionalFormatting sqref="M5:M6">
     <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min"/>
@@ -9290,7 +9424,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C6">
+  <conditionalFormatting sqref="N5:N6">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:O6">
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5:P6">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
@@ -9302,7 +9460,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D6">
+  <conditionalFormatting sqref="Q5:Q6">
     <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="min"/>
@@ -9314,7 +9472,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E6">
+  <conditionalFormatting sqref="R5:R6">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
@@ -9326,7 +9484,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F6">
+  <conditionalFormatting sqref="C8:C9">
     <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
@@ -9338,7 +9496,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G6">
+  <conditionalFormatting sqref="D8:D9">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
@@ -9350,7 +9508,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H6">
+  <conditionalFormatting sqref="E8:E9">
     <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
@@ -9362,7 +9520,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I6">
+  <conditionalFormatting sqref="F8:F9">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
@@ -9374,7 +9532,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J6">
+  <conditionalFormatting sqref="G8:G9">
     <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
@@ -9386,7 +9544,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K6">
+  <conditionalFormatting sqref="H8:H9">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
@@ -9398,7 +9556,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L6">
+  <conditionalFormatting sqref="I8:I9">
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
@@ -9410,7 +9568,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M6">
+  <conditionalFormatting sqref="J8:J9">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
@@ -9422,7 +9580,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:N6">
+  <conditionalFormatting sqref="K8:K9">
     <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
@@ -9434,7 +9592,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5:O6">
+  <conditionalFormatting sqref="L8:L9">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
@@ -9446,7 +9604,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P5:P6">
+  <conditionalFormatting sqref="M8:M9">
     <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
@@ -9458,7 +9616,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:Q6">
+  <conditionalFormatting sqref="N8:N9">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
@@ -9470,7 +9628,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R5:R6">
+  <conditionalFormatting sqref="O8:O9">
     <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
@@ -9482,7 +9640,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8:C9">
+  <conditionalFormatting sqref="P8:P9">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
@@ -9494,7 +9652,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D9">
+  <conditionalFormatting sqref="Q8:Q9">
     <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
@@ -9506,7 +9664,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E9">
+  <conditionalFormatting sqref="R8:R9">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
@@ -9518,7 +9676,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F9">
+  <conditionalFormatting sqref="C11:C12">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
@@ -9530,7 +9688,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G9">
+  <conditionalFormatting sqref="D11:D12">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -9542,7 +9700,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H9">
+  <conditionalFormatting sqref="E11:E12">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -9554,7 +9712,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I9">
+  <conditionalFormatting sqref="F11:F12">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -9566,7 +9724,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:J9">
+  <conditionalFormatting sqref="G11:G12">
     <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
@@ -9578,7 +9736,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K9">
+  <conditionalFormatting sqref="H11:H12">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
@@ -9590,7 +9748,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8:L9">
+  <conditionalFormatting sqref="I11:I12">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
@@ -9602,7 +9760,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8:M9">
+  <conditionalFormatting sqref="C14:C15">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -9614,7 +9772,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8:N9">
+  <conditionalFormatting sqref="D14:D15">
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
@@ -9626,7 +9784,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O8:O9">
+  <conditionalFormatting sqref="E14:E15">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -9638,7 +9796,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P8:P9">
+  <conditionalFormatting sqref="F14:F15">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -9650,7 +9808,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q8:Q9">
+  <conditionalFormatting sqref="G14:G15">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -9662,7 +9820,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R8:R9">
+  <conditionalFormatting sqref="J11:J12">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -9674,7 +9832,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C12">
+  <conditionalFormatting sqref="K11:K12">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -9686,7 +9844,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D12">
+  <conditionalFormatting sqref="L11:L12">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -9698,7 +9856,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E12">
+  <conditionalFormatting sqref="M11:M12">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -9710,7 +9868,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F12">
+  <conditionalFormatting sqref="N11:N12">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -9722,7 +9880,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11:G12">
+  <conditionalFormatting sqref="O11:O12">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -9734,7 +9892,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H12">
+  <conditionalFormatting sqref="P11:P12">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -9746,7 +9904,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11:I12">
+  <conditionalFormatting sqref="Q11:Q12">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -9758,7 +9916,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14:C15">
+  <conditionalFormatting sqref="R11:R12">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -9770,7 +9928,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
+  <conditionalFormatting sqref="H14:H15">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -9782,7 +9940,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E15">
+  <conditionalFormatting sqref="I14:I15">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -9794,7 +9952,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:F15">
+  <conditionalFormatting sqref="J14:J15">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -9806,7 +9964,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G15">
+  <conditionalFormatting sqref="K14:K15">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -9818,7 +9976,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11:J12">
+  <conditionalFormatting sqref="L14:L15">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -9830,7 +9988,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:K12">
+  <conditionalFormatting sqref="M14:M15">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -9842,7 +10000,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L11:L12">
+  <conditionalFormatting sqref="N14:N15">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -9854,7 +10012,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M11:M12">
+  <conditionalFormatting sqref="O14:O15">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -9866,7 +10024,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N11:N12">
+  <conditionalFormatting sqref="P14:P15">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -9878,7 +10036,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O11:O12">
+  <conditionalFormatting sqref="Q14:Q15">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -9890,7 +10048,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P11:P12">
+  <conditionalFormatting sqref="R14:R15">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -9902,7 +10060,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q11:Q12">
+  <conditionalFormatting sqref="R17:R18">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -9914,7 +10072,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R11:R12">
+  <conditionalFormatting sqref="C17:C18">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -9926,7 +10084,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:H15">
+  <conditionalFormatting sqref="D17:D18">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -9938,7 +10096,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14:I15">
+  <conditionalFormatting sqref="E17:E18">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -9950,7 +10108,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J14:J15">
+  <conditionalFormatting sqref="F17:F18">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -9962,7 +10120,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:K15">
+  <conditionalFormatting sqref="G17:G18">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -9974,7 +10132,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14:L15">
+  <conditionalFormatting sqref="H17:H18">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -9986,7 +10144,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14:M15">
+  <conditionalFormatting sqref="I17:I18">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -9998,7 +10156,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N14:N15">
+  <conditionalFormatting sqref="J17:J18">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -10010,7 +10168,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O14:O15">
+  <conditionalFormatting sqref="K17:K18">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -10022,7 +10180,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P14:P15">
+  <conditionalFormatting sqref="L17:L18">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -10034,7 +10192,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q14:Q15">
+  <conditionalFormatting sqref="M17:M18">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -10046,7 +10204,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R14:R15">
+  <conditionalFormatting sqref="N17:N18">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -10058,7 +10216,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R17:R18">
+  <conditionalFormatting sqref="O17:O18">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -10070,7 +10228,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C18">
+  <conditionalFormatting sqref="P17:P18">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -10082,7 +10240,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D18">
+  <conditionalFormatting sqref="Q17:Q18">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -10094,7 +10252,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E18">
+  <conditionalFormatting sqref="C25:R25">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -10106,7 +10264,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17:F18">
+  <conditionalFormatting sqref="C26:R26">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -10118,7 +10276,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17:G18">
+  <conditionalFormatting sqref="C27:R27">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -10130,7 +10288,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17:H18">
+  <conditionalFormatting sqref="C28:R28">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -10142,7 +10300,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17:I18">
+  <conditionalFormatting sqref="C29:R29">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -10154,7 +10312,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17:J18">
+  <conditionalFormatting sqref="C30:R30">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -10166,7 +10324,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:K18">
+  <conditionalFormatting sqref="S2:S3">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -10178,7 +10336,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L17:L18">
+  <conditionalFormatting sqref="S5:S6">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -10190,7 +10348,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M17:M18">
+  <conditionalFormatting sqref="S8:S9">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -10202,7 +10360,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N17:N18">
+  <conditionalFormatting sqref="S11:S12">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -10214,7 +10372,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O17:O18">
+  <conditionalFormatting sqref="S14:S15">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -10226,7 +10384,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P17:P18">
+  <conditionalFormatting sqref="S17:S18">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -10238,7 +10396,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q17:Q18">
+  <conditionalFormatting sqref="S25">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -10250,7 +10408,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:R25">
+  <conditionalFormatting sqref="S26">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -10262,7 +10420,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:R26">
+  <conditionalFormatting sqref="S27">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -10274,7 +10432,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:R27">
+  <conditionalFormatting sqref="S28">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -10286,7 +10444,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:R28">
+  <conditionalFormatting sqref="S29">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -10298,7 +10456,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:R29">
+  <conditionalFormatting sqref="S30">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -10310,7 +10468,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30:R30">
+  <conditionalFormatting sqref="S25:S30">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -10360,11 +10518,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
-        <v>25</v>
+      <c r="B1" s="42" t="s">
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -10414,78 +10572,78 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="V1" s="48" t="s">
-        <v>34</v>
+      <c r="S1" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="45" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="43">
+      <c r="B2" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="40">
         <v>12466.2215189873</v>
       </c>
-      <c r="D2" s="44">
+      <c r="D2" s="41">
         <v>0.15537792827527699</v>
       </c>
-      <c r="E2" s="44">
+      <c r="E2" s="41">
         <v>19572.777895253101</v>
       </c>
-      <c r="F2" s="44">
+      <c r="F2" s="41">
         <v>0.59943388972022804</v>
       </c>
-      <c r="G2" s="44">
+      <c r="G2" s="41">
         <v>2.1408653018402099E-2</v>
       </c>
-      <c r="H2" s="44">
+      <c r="H2" s="41">
         <v>31.763283585238799</v>
       </c>
-      <c r="I2" s="44">
+      <c r="I2" s="41">
         <v>36.797278481012597</v>
       </c>
-      <c r="J2" s="44">
+      <c r="J2" s="41">
         <v>3.1782259483334901E-3</v>
       </c>
-      <c r="K2" s="44">
+      <c r="K2" s="41">
         <v>2.17877692228757E-3</v>
       </c>
-      <c r="L2" s="44">
+      <c r="L2" s="41">
         <v>4.4741021307432398E-2</v>
       </c>
-      <c r="M2" s="44">
+      <c r="M2" s="41">
         <v>2.2083498388787102</v>
       </c>
-      <c r="N2" s="44">
+      <c r="N2" s="41">
         <v>0.95033878347038303</v>
       </c>
-      <c r="O2" s="44">
+      <c r="O2" s="41">
         <v>63.417090477938302</v>
       </c>
-      <c r="P2" s="44">
+      <c r="P2" s="41">
         <v>1.44716921405294E-3</v>
       </c>
-      <c r="Q2" s="44">
+      <c r="Q2" s="41">
         <v>4.3844441259593803E-2</v>
       </c>
-      <c r="R2" s="44">
+      <c r="R2" s="41">
         <v>75.817080209307306</v>
       </c>
-      <c r="S2" s="51">
+      <c r="S2" s="48">
         <v>-62.559999999999967</v>
       </c>
-      <c r="T2" s="49">
+      <c r="T2" s="46">
         <v>-79.189999999999955</v>
       </c>
       <c r="U2" s="2">
@@ -10499,61 +10657,61 @@
       <c r="A3" s="2">
         <v>0</v>
       </c>
-      <c r="B3" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="43">
+      <c r="B3" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="40">
         <v>12193.522811343901</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="41">
         <v>0.16282611547518699</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="41">
         <v>19043.8474208507</v>
       </c>
-      <c r="F3" s="44">
+      <c r="F3" s="41">
         <v>0.59624547290434105</v>
       </c>
-      <c r="G3" s="44">
+      <c r="G3" s="41">
         <v>1.8703778865572899E-2</v>
       </c>
-      <c r="H3" s="44">
+      <c r="H3" s="41">
         <v>28.8834737020156</v>
       </c>
-      <c r="I3" s="44">
+      <c r="I3" s="41">
         <v>34.493144266337701</v>
       </c>
-      <c r="J3" s="44">
+      <c r="J3" s="41">
         <v>3.48085501190487E-3</v>
       </c>
-      <c r="K3" s="44">
+      <c r="K3" s="41">
         <v>2.1262597811619499E-3</v>
       </c>
-      <c r="L3" s="44">
+      <c r="L3" s="41">
         <v>4.65465301395614E-2</v>
       </c>
-      <c r="M3" s="44">
+      <c r="M3" s="41">
         <v>1.9414065525437001</v>
       </c>
-      <c r="N3" s="44">
+      <c r="N3" s="41">
         <v>0.75506789277354502</v>
       </c>
-      <c r="O3" s="44">
+      <c r="O3" s="41">
         <v>52.419314596927698</v>
       </c>
-      <c r="P3" s="44">
+      <c r="P3" s="41">
         <v>1.60815232669736E-3</v>
       </c>
-      <c r="Q3" s="44">
+      <c r="Q3" s="41">
         <v>5.3374610890993199E-2</v>
       </c>
-      <c r="R3" s="44">
+      <c r="R3" s="41">
         <v>63.455594640242197</v>
       </c>
-      <c r="S3" s="51">
+      <c r="S3" s="48">
         <v>-53.989999999999988</v>
       </c>
-      <c r="T3" s="49">
+      <c r="T3" s="46">
         <v>-95.529999999999973</v>
       </c>
       <c r="U3" s="2">
@@ -10567,61 +10725,61 @@
       <c r="A4" s="2">
         <v>0</v>
       </c>
-      <c r="B4" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="43">
+      <c r="B4" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="40">
         <v>12193.522811343901</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="41">
         <v>0.16282611547518699</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="41">
         <v>19572.777895253101</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="41">
         <v>0.59624547290434105</v>
       </c>
-      <c r="G4" s="44">
+      <c r="G4" s="41">
         <v>1.8703778865572899E-2</v>
       </c>
-      <c r="H4" s="44">
+      <c r="H4" s="41">
         <v>31.763283585238799</v>
       </c>
-      <c r="I4" s="44">
+      <c r="I4" s="41">
         <v>34.493144266337701</v>
       </c>
-      <c r="J4" s="44">
+      <c r="J4" s="41">
         <v>3.48085501190487E-3</v>
       </c>
-      <c r="K4" s="44">
+      <c r="K4" s="41">
         <v>2.1262597811619499E-3</v>
       </c>
-      <c r="L4" s="44">
+      <c r="L4" s="41">
         <v>4.65465301395614E-2</v>
       </c>
-      <c r="M4" s="44">
+      <c r="M4" s="41">
         <v>1.9414065525437001</v>
       </c>
-      <c r="N4" s="44">
+      <c r="N4" s="41">
         <v>0.95033878347038303</v>
       </c>
-      <c r="O4" s="44">
+      <c r="O4" s="41">
         <v>63.417090477938302</v>
       </c>
-      <c r="P4" s="44">
+      <c r="P4" s="41">
         <v>1.60815232669736E-3</v>
       </c>
-      <c r="Q4" s="44">
+      <c r="Q4" s="41">
         <v>5.3374610890993199E-2</v>
       </c>
-      <c r="R4" s="44">
+      <c r="R4" s="41">
         <v>75.817080209307306</v>
       </c>
-      <c r="S4" s="51">
+      <c r="S4" s="48">
         <v>-56.77999999999998</v>
       </c>
-      <c r="T4" s="49">
+      <c r="T4" s="46">
         <v>-84.299999999999969</v>
       </c>
       <c r="U4" s="2">
@@ -10635,61 +10793,61 @@
       <c r="A5" s="2">
         <v>0</v>
       </c>
-      <c r="B5" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="46">
+      <c r="B5" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="43">
         <v>12193.522811343901</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="44">
         <v>0.16282611547518699</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="41">
         <v>19572.777895253101</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="41">
         <v>0.59943388972022804</v>
       </c>
-      <c r="G5" s="44">
+      <c r="G5" s="41">
         <v>2.1408653018402099E-2</v>
       </c>
-      <c r="H5" s="44">
+      <c r="H5" s="41">
         <v>31.763283585238799</v>
       </c>
-      <c r="I5" s="44">
+      <c r="I5" s="41">
         <v>36.797278481012597</v>
       </c>
-      <c r="J5" s="47">
+      <c r="J5" s="44">
         <v>3.48085501190487E-3</v>
       </c>
-      <c r="K5" s="44">
+      <c r="K5" s="41">
         <v>2.17877692228757E-3</v>
       </c>
-      <c r="L5" s="47">
+      <c r="L5" s="44">
         <v>4.65465301395614E-2</v>
       </c>
-      <c r="M5" s="44">
+      <c r="M5" s="41">
         <v>2.2083498388787102</v>
       </c>
-      <c r="N5" s="44">
+      <c r="N5" s="41">
         <v>0.95033878347038303</v>
       </c>
-      <c r="O5" s="44">
+      <c r="O5" s="41">
         <v>63.417090477938302</v>
       </c>
-      <c r="P5" s="47">
+      <c r="P5" s="44">
         <v>1.60815232669736E-3</v>
       </c>
-      <c r="Q5" s="47">
+      <c r="Q5" s="44">
         <v>5.3374610890993199E-2</v>
       </c>
-      <c r="R5" s="44">
+      <c r="R5" s="41">
         <v>75.817080209307306</v>
       </c>
-      <c r="S5" s="51">
+      <c r="S5" s="48">
         <v>-65.919999999999973</v>
       </c>
-      <c r="T5" s="49">
+      <c r="T5" s="46">
         <v>-76.569999999999993</v>
       </c>
       <c r="U5" s="2">
@@ -10700,88 +10858,88 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S6" s="49"/>
+      <c r="S6" s="46"/>
       <c r="U6" s="2"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="49"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="46"/>
       <c r="U7" s="2"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
-      <c r="B8" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="43">
+      <c r="B8" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="40">
         <v>34342.793103448203</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="41">
         <v>0.140599216047296</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="41">
         <v>20210.003367155099</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="41">
         <v>0.49025275181269201</v>
       </c>
-      <c r="G8" s="44">
+      <c r="G8" s="41">
         <v>2.2640969387253299E-2</v>
       </c>
-      <c r="H8" s="44">
+      <c r="H8" s="41">
         <v>26.1633889114254</v>
       </c>
-      <c r="I8" s="44">
+      <c r="I8" s="41">
         <v>31.4955172413793</v>
       </c>
-      <c r="J8" s="44">
+      <c r="J8" s="41">
         <v>3.34276484095325E-3</v>
       </c>
-      <c r="K8" s="44">
+      <c r="K8" s="41">
         <v>1.95814363189694E-3</v>
       </c>
-      <c r="L8" s="44">
+      <c r="L8" s="41">
         <v>1.7680319496344001E-2</v>
       </c>
-      <c r="M8" s="44">
+      <c r="M8" s="41">
         <v>2.9557867543708398</v>
       </c>
-      <c r="N8" s="44">
+      <c r="N8" s="41">
         <v>3.4553795455496301</v>
       </c>
-      <c r="O8" s="44">
+      <c r="O8" s="41">
         <v>127.008591583068</v>
       </c>
-      <c r="P8" s="44">
+      <c r="P8" s="41">
         <v>9.62046220573081E-4</v>
       </c>
-      <c r="Q8" s="44">
+      <c r="Q8" s="41">
         <v>4.0239335372280499E-2</v>
       </c>
-      <c r="R8" s="44">
+      <c r="R8" s="41">
         <v>118.263281060987</v>
       </c>
-      <c r="S8" s="49">
+      <c r="S8" s="46">
         <v>-99.51</v>
       </c>
-      <c r="T8" s="49">
+      <c r="T8" s="46">
         <v>-94.350000000000023</v>
       </c>
       <c r="U8" s="2">
@@ -10795,61 +10953,61 @@
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="43">
+      <c r="B9" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="40">
         <v>28360.273972602699</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="41">
         <v>0.13643658696081901</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="41">
         <v>18810.678194148699</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="41">
         <v>0.484449823504915</v>
       </c>
-      <c r="G9" s="44">
+      <c r="G9" s="41">
         <v>2.28307962288598E-2</v>
       </c>
-      <c r="H9" s="44">
+      <c r="H9" s="41">
         <v>22.529824757148599</v>
       </c>
-      <c r="I9" s="44">
+      <c r="I9" s="41">
         <v>30.5898043052837</v>
       </c>
-      <c r="J9" s="44">
+      <c r="J9" s="41">
         <v>3.5520624605803299E-3</v>
       </c>
-      <c r="K9" s="44">
+      <c r="K9" s="41">
         <v>1.9131781830096701E-3</v>
       </c>
-      <c r="L9" s="44">
+      <c r="L9" s="41">
         <v>1.8516544942192299E-2</v>
       </c>
-      <c r="M9" s="44">
+      <c r="M9" s="41">
         <v>3.1268550100544799</v>
       </c>
-      <c r="N9" s="44">
+      <c r="N9" s="41">
         <v>3.37517978969725</v>
       </c>
-      <c r="O9" s="44">
+      <c r="O9" s="41">
         <v>113.09353378419701</v>
       </c>
-      <c r="P9" s="44">
+      <c r="P9" s="41">
         <v>1.1501662904737299E-3</v>
       </c>
-      <c r="Q9" s="44">
+      <c r="Q9" s="41">
         <v>4.3164291965731703E-2</v>
       </c>
-      <c r="R9" s="44">
+      <c r="R9" s="41">
         <v>93.969954189535301</v>
       </c>
-      <c r="S9" s="49">
+      <c r="S9" s="46">
         <v>-131.99</v>
       </c>
-      <c r="T9" s="49">
+      <c r="T9" s="46">
         <v>-181.42</v>
       </c>
       <c r="U9" s="2">
@@ -10863,61 +11021,61 @@
       <c r="A10" s="2">
         <v>1</v>
       </c>
-      <c r="B10" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="43">
+      <c r="B10" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="40">
         <v>28360.273972602699</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="41">
         <v>0.13643658696081901</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="41">
         <v>20210.003367155099</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="41">
         <v>0.484449823504915</v>
       </c>
-      <c r="G10" s="44">
+      <c r="G10" s="41">
         <v>2.28307962288598E-2</v>
       </c>
-      <c r="H10" s="44">
+      <c r="H10" s="41">
         <v>26.1633889114254</v>
       </c>
-      <c r="I10" s="44">
+      <c r="I10" s="41">
         <v>30.5898043052837</v>
       </c>
-      <c r="J10" s="44">
+      <c r="J10" s="41">
         <v>3.5520624605803299E-3</v>
       </c>
-      <c r="K10" s="44">
+      <c r="K10" s="41">
         <v>1.9131781830096701E-3</v>
       </c>
-      <c r="L10" s="44">
+      <c r="L10" s="41">
         <v>1.8516544942192299E-2</v>
       </c>
-      <c r="M10" s="44">
+      <c r="M10" s="41">
         <v>3.1268550100544799</v>
       </c>
-      <c r="N10" s="44">
+      <c r="N10" s="41">
         <v>3.4553795455496301</v>
       </c>
-      <c r="O10" s="44">
+      <c r="O10" s="41">
         <v>127.008591583068</v>
       </c>
-      <c r="P10" s="44">
+      <c r="P10" s="41">
         <v>1.1501662904737299E-3</v>
       </c>
-      <c r="Q10" s="44">
+      <c r="Q10" s="41">
         <v>4.3164291965731703E-2</v>
       </c>
-      <c r="R10" s="44">
+      <c r="R10" s="41">
         <v>118.263281060987</v>
       </c>
-      <c r="S10" s="49">
+      <c r="S10" s="46">
         <v>-126.19</v>
       </c>
-      <c r="T10" s="49">
+      <c r="T10" s="46">
         <v>-118.52</v>
       </c>
       <c r="U10" s="2">
@@ -10931,61 +11089,61 @@
       <c r="A11" s="2">
         <v>1</v>
       </c>
-      <c r="B11" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="43">
+      <c r="B11" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="40">
         <v>28360.273972602699</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="41">
         <v>0.140599216047296</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="41">
         <v>20210.003367155099</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="41">
         <v>0.49025275181269201</v>
       </c>
-      <c r="G11" s="44">
+      <c r="G11" s="41">
         <v>2.28307962288598E-2</v>
       </c>
-      <c r="H11" s="44">
+      <c r="H11" s="41">
         <v>26.1633889114254</v>
       </c>
-      <c r="I11" s="44">
+      <c r="I11" s="41">
         <v>31.4955172413793</v>
       </c>
-      <c r="J11" s="44">
+      <c r="J11" s="41">
         <v>3.5520624605803299E-3</v>
       </c>
-      <c r="K11" s="44">
+      <c r="K11" s="41">
         <v>1.95814363189694E-3</v>
       </c>
-      <c r="L11" s="44">
+      <c r="L11" s="41">
         <v>1.8516544942192299E-2</v>
       </c>
-      <c r="M11" s="44">
+      <c r="M11" s="41">
         <v>3.1268550100544799</v>
       </c>
-      <c r="N11" s="44">
+      <c r="N11" s="41">
         <v>3.4553795455496301</v>
       </c>
-      <c r="O11" s="44">
+      <c r="O11" s="41">
         <v>127.008591583068</v>
       </c>
-      <c r="P11" s="44">
+      <c r="P11" s="41">
         <v>1.1501662904737299E-3</v>
       </c>
-      <c r="Q11" s="44">
+      <c r="Q11" s="41">
         <v>4.3164291965731703E-2</v>
       </c>
-      <c r="R11" s="44">
+      <c r="R11" s="41">
         <v>118.263281060987</v>
       </c>
-      <c r="S11" s="49">
+      <c r="S11" s="46">
         <v>-101.26</v>
       </c>
-      <c r="T11" s="49">
+      <c r="T11" s="46">
         <v>-106.18</v>
       </c>
       <c r="U11" s="2">
@@ -10996,75 +11154,75 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S12" s="49"/>
+      <c r="S12" s="46"/>
       <c r="U12" s="2"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S13" s="49"/>
+      <c r="S13" s="46"/>
       <c r="U13" s="2"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2</v>
       </c>
-      <c r="B14" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="43">
+      <c r="B14" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="40">
         <v>38381.222003929201</v>
       </c>
-      <c r="D14" s="44">
+      <c r="D14" s="41">
         <v>0.149972072188887</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="41">
         <v>21023.171959174801</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="41">
         <v>0.54991739186712396</v>
       </c>
-      <c r="G14" s="44">
+      <c r="G14" s="41">
         <v>2.2864117909977499E-2</v>
       </c>
-      <c r="H14" s="44">
+      <c r="H14" s="41">
         <v>25.205377310320099</v>
       </c>
-      <c r="I14" s="44">
+      <c r="I14" s="41">
         <v>26.198664047151201</v>
       </c>
-      <c r="J14" s="44">
+      <c r="J14" s="41">
         <v>2.4254841735263798E-3</v>
       </c>
-      <c r="K14" s="44">
+      <c r="K14" s="41">
         <v>2.18425076030584E-3</v>
       </c>
-      <c r="L14" s="44">
+      <c r="L14" s="41">
         <v>1.4035777899736901E-2</v>
       </c>
-      <c r="M14" s="44">
+      <c r="M14" s="41">
         <v>1.7095834867900701</v>
       </c>
-      <c r="N14" s="44">
+      <c r="N14" s="41">
         <v>0.86923486513663195</v>
       </c>
-      <c r="O14" s="44">
+      <c r="O14" s="41">
         <v>57.732322228729799</v>
       </c>
-      <c r="P14" s="44">
+      <c r="P14" s="41">
         <v>7.59856698021134E-4</v>
       </c>
-      <c r="Q14" s="44">
+      <c r="Q14" s="41">
         <v>4.5827935875661002E-2</v>
       </c>
-      <c r="R14" s="44">
+      <c r="R14" s="41">
         <v>83.250391101316396</v>
       </c>
-      <c r="S14" s="51">
+      <c r="S14" s="48">
         <v>-206.67999999999989</v>
       </c>
-      <c r="T14" s="49">
+      <c r="T14" s="46">
         <v>-153.0499999999999</v>
       </c>
-      <c r="U14" s="52">
+      <c r="U14" s="49">
         <v>-168.05</v>
       </c>
       <c r="V14" s="2">
@@ -11075,64 +11233,64 @@
       <c r="A15" s="2">
         <v>2</v>
       </c>
-      <c r="B15" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="43">
+      <c r="B15" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="40">
         <v>32050.647371216099</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="41">
         <v>0.16530663774516199</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="41">
         <v>20780.067232644698</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="41">
         <v>0.584417106399165</v>
       </c>
-      <c r="G15" s="44">
+      <c r="G15" s="41">
         <v>2.1234305003264502E-2</v>
       </c>
-      <c r="H15" s="44">
+      <c r="H15" s="41">
         <v>23.463848387176</v>
       </c>
-      <c r="I15" s="44">
+      <c r="I15" s="41">
         <v>27.379851301115199</v>
       </c>
-      <c r="J15" s="44">
+      <c r="J15" s="41">
         <v>2.70340478101416E-3</v>
       </c>
-      <c r="K15" s="44">
+      <c r="K15" s="41">
         <v>2.2676226421065701E-3</v>
       </c>
-      <c r="L15" s="44">
+      <c r="L15" s="41">
         <v>1.5467191767415201E-2</v>
       </c>
-      <c r="M15" s="44">
+      <c r="M15" s="41">
         <v>1.77936917589923</v>
       </c>
-      <c r="N15" s="44">
+      <c r="N15" s="41">
         <v>0.73100936434447905</v>
       </c>
-      <c r="O15" s="44">
+      <c r="O15" s="41">
         <v>46.191739687671998</v>
       </c>
-      <c r="P15" s="44">
+      <c r="P15" s="41">
         <v>8.8549106618301596E-4</v>
       </c>
-      <c r="Q15" s="44">
+      <c r="Q15" s="41">
         <v>5.13311807653773E-2</v>
       </c>
-      <c r="R15" s="44">
+      <c r="R15" s="41">
         <v>70.544639399978806</v>
       </c>
-      <c r="S15" s="51">
+      <c r="S15" s="48">
         <v>-161.32</v>
       </c>
-      <c r="T15" s="49">
+      <c r="T15" s="46">
         <v>-160.75</v>
       </c>
-      <c r="U15" s="52">
+      <c r="U15" s="49">
         <v>-124.14</v>
       </c>
       <c r="V15" s="2">
@@ -11143,61 +11301,61 @@
       <c r="A16" s="2">
         <v>2</v>
       </c>
-      <c r="B16" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="43">
+      <c r="B16" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="40">
         <v>32050.647371216099</v>
       </c>
-      <c r="D16" s="44">
+      <c r="D16" s="41">
         <v>0.16530663774516199</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="41">
         <v>21023.171959174801</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="41">
         <v>0.584417106399165</v>
       </c>
-      <c r="G16" s="44">
+      <c r="G16" s="41">
         <v>2.1234305003264502E-2</v>
       </c>
-      <c r="H16" s="44">
+      <c r="H16" s="41">
         <v>25.205377310320099</v>
       </c>
-      <c r="I16" s="44">
+      <c r="I16" s="41">
         <v>27.379851301115199</v>
       </c>
-      <c r="J16" s="44">
+      <c r="J16" s="41">
         <v>2.70340478101416E-3</v>
       </c>
-      <c r="K16" s="44">
+      <c r="K16" s="41">
         <v>2.2676226421065701E-3</v>
       </c>
-      <c r="L16" s="44">
+      <c r="L16" s="41">
         <v>1.5467191767415201E-2</v>
       </c>
-      <c r="M16" s="44">
+      <c r="M16" s="41">
         <v>1.77936917589923</v>
       </c>
-      <c r="N16" s="44">
+      <c r="N16" s="41">
         <v>0.86923486513663195</v>
       </c>
-      <c r="O16" s="44">
+      <c r="O16" s="41">
         <v>57.732322228729799</v>
       </c>
-      <c r="P16" s="44">
+      <c r="P16" s="41">
         <v>8.8549106618301596E-4</v>
       </c>
-      <c r="Q16" s="44">
+      <c r="Q16" s="41">
         <v>5.13311807653773E-2</v>
       </c>
-      <c r="R16" s="44">
+      <c r="R16" s="41">
         <v>83.250391101316396</v>
       </c>
-      <c r="S16" s="51">
+      <c r="S16" s="48">
         <v>-190</v>
       </c>
-      <c r="T16" s="49">
+      <c r="T16" s="46">
         <v>-138.36000000000001</v>
       </c>
       <c r="U16" s="2">
@@ -11211,61 +11369,61 @@
       <c r="A17" s="2">
         <v>2</v>
       </c>
-      <c r="B17" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="43">
+      <c r="B17" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="40">
         <v>32050.647371216099</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="41">
         <v>0.16530663774516199</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="41">
         <v>21023.171959174801</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="41">
         <v>0.584417106399165</v>
       </c>
-      <c r="G17" s="44">
+      <c r="G17" s="41">
         <v>2.2864117909977499E-2</v>
       </c>
-      <c r="H17" s="44">
+      <c r="H17" s="41">
         <v>25.205377310320099</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="41">
         <v>27.379851301115199</v>
       </c>
-      <c r="J17" s="44">
+      <c r="J17" s="41">
         <v>2.70340478101416E-3</v>
       </c>
-      <c r="K17" s="44">
+      <c r="K17" s="41">
         <v>2.2676226421065701E-3</v>
       </c>
-      <c r="L17" s="44">
+      <c r="L17" s="41">
         <v>1.5467191767415201E-2</v>
       </c>
-      <c r="M17" s="44">
+      <c r="M17" s="41">
         <v>1.77936917589923</v>
       </c>
-      <c r="N17" s="44">
+      <c r="N17" s="41">
         <v>0.86923486513663195</v>
       </c>
-      <c r="O17" s="44">
+      <c r="O17" s="41">
         <v>57.732322228729799</v>
       </c>
-      <c r="P17" s="44">
+      <c r="P17" s="41">
         <v>8.8549106618301596E-4</v>
       </c>
-      <c r="Q17" s="44">
+      <c r="Q17" s="41">
         <v>5.13311807653773E-2</v>
       </c>
-      <c r="R17" s="44">
+      <c r="R17" s="41">
         <v>83.250391101316396</v>
       </c>
-      <c r="S17" s="51">
+      <c r="S17" s="48">
         <v>-186.16</v>
       </c>
-      <c r="T17" s="49">
+      <c r="T17" s="46">
         <v>-140.6</v>
       </c>
       <c r="U17" s="2">
@@ -11276,75 +11434,75 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S18" s="49"/>
+      <c r="S18" s="46"/>
       <c r="U18" s="2"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S19" s="49"/>
+      <c r="S19" s="46"/>
       <c r="U19" s="2"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>3</v>
       </c>
-      <c r="B20" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="43">
+      <c r="B20" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="40">
         <v>35649.398809523802</v>
       </c>
-      <c r="D20" s="44">
+      <c r="D20" s="41">
         <v>0.15775027305643</v>
       </c>
-      <c r="E20" s="44">
+      <c r="E20" s="41">
         <v>20557.532877559501</v>
       </c>
-      <c r="F20" s="44">
+      <c r="F20" s="41">
         <v>0.51272478123941201</v>
       </c>
-      <c r="G20" s="44">
+      <c r="G20" s="41">
         <v>1.86604099983875E-2</v>
       </c>
-      <c r="H20" s="44">
+      <c r="H20" s="41">
         <v>22.870114979037599</v>
       </c>
-      <c r="I20" s="44">
+      <c r="I20" s="41">
         <v>29.107619047619</v>
       </c>
-      <c r="J20" s="44">
+      <c r="J20" s="41">
         <v>3.0670489109887798E-3</v>
       </c>
-      <c r="K20" s="44">
+      <c r="K20" s="41">
         <v>2.1869503982130801E-3</v>
       </c>
-      <c r="L20" s="44">
+      <c r="L20" s="41">
         <v>1.8858009986420302E-2</v>
       </c>
-      <c r="M20" s="44">
+      <c r="M20" s="41">
         <v>12.5095739121479</v>
       </c>
-      <c r="N20" s="44">
+      <c r="N20" s="41">
         <v>1.4224047319879001</v>
       </c>
-      <c r="O20" s="44">
+      <c r="O20" s="41">
         <v>150.386727642507</v>
       </c>
-      <c r="P20" s="44">
+      <c r="P20" s="41">
         <v>1.0152820270234301E-3</v>
       </c>
-      <c r="Q20" s="44">
+      <c r="Q20" s="41">
         <v>4.3068937853294097E-2</v>
       </c>
-      <c r="R20" s="44">
+      <c r="R20" s="41">
         <v>155.613070376834</v>
       </c>
-      <c r="S20" s="51">
+      <c r="S20" s="48">
         <v>-122.37</v>
       </c>
-      <c r="T20" s="49">
+      <c r="T20" s="46">
         <v>-113.55</v>
       </c>
-      <c r="U20" s="52">
+      <c r="U20" s="49">
         <v>-142.30000000000001</v>
       </c>
       <c r="V20" s="2">
@@ -11355,64 +11513,64 @@
       <c r="A21" s="2">
         <v>3</v>
       </c>
-      <c r="B21" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="43">
+      <c r="B21" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="40">
         <v>28372.8272921108</v>
       </c>
-      <c r="D21" s="44">
+      <c r="D21" s="41">
         <v>0.15915869514730299</v>
       </c>
-      <c r="E21" s="44">
+      <c r="E21" s="41">
         <v>19323.890773240899</v>
       </c>
-      <c r="F21" s="44">
+      <c r="F21" s="41">
         <v>0.52930110717488099</v>
       </c>
-      <c r="G21" s="44">
+      <c r="G21" s="41">
         <v>1.9275394804113302E-2</v>
       </c>
-      <c r="H21" s="44">
+      <c r="H21" s="41">
         <v>21.734277101306301</v>
       </c>
-      <c r="I21" s="44">
+      <c r="I21" s="41">
         <v>28.561023454157699</v>
       </c>
-      <c r="J21" s="44">
+      <c r="J21" s="41">
         <v>3.4156174024983E-3</v>
       </c>
-      <c r="K21" s="44">
+      <c r="K21" s="41">
         <v>2.2400625878632998E-3</v>
       </c>
-      <c r="L21" s="44">
+      <c r="L21" s="41">
         <v>1.89485054145936E-2</v>
       </c>
-      <c r="M21" s="44">
+      <c r="M21" s="41">
         <v>12.595645139418499</v>
       </c>
-      <c r="N21" s="44">
+      <c r="N21" s="41">
         <v>1.2025968115585199</v>
       </c>
-      <c r="O21" s="44">
+      <c r="O21" s="41">
         <v>152.41580473649299</v>
       </c>
-      <c r="P21" s="44">
+      <c r="P21" s="41">
         <v>1.08303894968931E-3</v>
       </c>
-      <c r="Q21" s="44">
+      <c r="Q21" s="41">
         <v>4.5764000531818401E-2</v>
       </c>
-      <c r="R21" s="44">
+      <c r="R21" s="41">
         <v>133.34616169633699</v>
       </c>
-      <c r="S21" s="51">
+      <c r="S21" s="48">
         <v>-119.82</v>
       </c>
-      <c r="T21" s="49">
+      <c r="T21" s="46">
         <v>-117.28</v>
       </c>
-      <c r="U21" s="52">
+      <c r="U21" s="49">
         <v>-116.92</v>
       </c>
       <c r="V21" s="2">
@@ -11423,61 +11581,61 @@
       <c r="A22" s="2">
         <v>3</v>
       </c>
-      <c r="B22" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="43">
+      <c r="B22" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="40">
         <v>28372.8272921108</v>
       </c>
-      <c r="D22" s="44">
+      <c r="D22" s="41">
         <v>0.15915869514730299</v>
       </c>
-      <c r="E22" s="44">
+      <c r="E22" s="41">
         <v>20557.532877559501</v>
       </c>
-      <c r="F22" s="44">
+      <c r="F22" s="41">
         <v>0.52930110717488099</v>
       </c>
-      <c r="G22" s="44">
+      <c r="G22" s="41">
         <v>1.9275394804113302E-2</v>
       </c>
-      <c r="H22" s="44">
+      <c r="H22" s="41">
         <v>22.870114979037599</v>
       </c>
-      <c r="I22" s="44">
+      <c r="I22" s="41">
         <v>28.561023454157699</v>
       </c>
-      <c r="J22" s="44">
+      <c r="J22" s="41">
         <v>3.4156174024983E-3</v>
       </c>
-      <c r="K22" s="44">
+      <c r="K22" s="41">
         <v>2.2400625878632998E-3</v>
       </c>
-      <c r="L22" s="44">
+      <c r="L22" s="41">
         <v>1.89485054145936E-2</v>
       </c>
-      <c r="M22" s="44">
+      <c r="M22" s="41">
         <v>12.595645139418499</v>
       </c>
-      <c r="N22" s="44">
+      <c r="N22" s="41">
         <v>1.4224047319879001</v>
       </c>
-      <c r="O22" s="44">
+      <c r="O22" s="41">
         <v>152.41580473649299</v>
       </c>
-      <c r="P22" s="44">
+      <c r="P22" s="41">
         <v>1.08303894968931E-3</v>
       </c>
-      <c r="Q22" s="44">
+      <c r="Q22" s="41">
         <v>4.5764000531818401E-2</v>
       </c>
-      <c r="R22" s="44">
+      <c r="R22" s="41">
         <v>155.613070376834</v>
       </c>
-      <c r="S22" s="51">
+      <c r="S22" s="48">
         <v>-120.83</v>
       </c>
-      <c r="T22" s="49">
+      <c r="T22" s="46">
         <v>-85.64</v>
       </c>
       <c r="U22" s="2">
@@ -11491,61 +11649,61 @@
       <c r="A23" s="2">
         <v>3</v>
       </c>
-      <c r="B23" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="43">
+      <c r="B23" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="40">
         <v>28372.8272921108</v>
       </c>
-      <c r="D23" s="44">
+      <c r="D23" s="41">
         <v>0.15915869514730299</v>
       </c>
-      <c r="E23" s="44">
+      <c r="E23" s="41">
         <v>20557.532877559501</v>
       </c>
-      <c r="F23" s="44">
+      <c r="F23" s="41">
         <v>0.52930110717488099</v>
       </c>
-      <c r="G23" s="44">
+      <c r="G23" s="41">
         <v>1.9275394804113302E-2</v>
       </c>
-      <c r="H23" s="44">
+      <c r="H23" s="41">
         <v>22.870114979037599</v>
       </c>
-      <c r="I23" s="44">
+      <c r="I23" s="41">
         <v>29.107619047619</v>
       </c>
-      <c r="J23" s="44">
+      <c r="J23" s="41">
         <v>3.4156174024983E-3</v>
       </c>
-      <c r="K23" s="44">
+      <c r="K23" s="41">
         <v>2.2400625878632998E-3</v>
       </c>
-      <c r="L23" s="44">
+      <c r="L23" s="41">
         <v>1.89485054145936E-2</v>
       </c>
-      <c r="M23" s="44">
+      <c r="M23" s="41">
         <v>12.595645139418499</v>
       </c>
-      <c r="N23" s="44">
+      <c r="N23" s="41">
         <v>1.4224047319879001</v>
       </c>
-      <c r="O23" s="44">
+      <c r="O23" s="41">
         <v>152.41580473649299</v>
       </c>
-      <c r="P23" s="44">
+      <c r="P23" s="41">
         <v>1.08303894968931E-3</v>
       </c>
-      <c r="Q23" s="44">
+      <c r="Q23" s="41">
         <v>4.5764000531818401E-2</v>
       </c>
-      <c r="R23" s="44">
+      <c r="R23" s="41">
         <v>155.613070376834</v>
       </c>
-      <c r="S23" s="51">
+      <c r="S23" s="48">
         <v>-120.74</v>
       </c>
-      <c r="T23" s="49">
+      <c r="T23" s="46">
         <v>-88.47999999999999</v>
       </c>
       <c r="U23" s="2">
@@ -11556,72 +11714,72 @@
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S24" s="49"/>
+      <c r="S24" s="46"/>
       <c r="U24" s="2"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S25" s="49"/>
+      <c r="S25" s="46"/>
       <c r="U25" s="2"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>4</v>
       </c>
-      <c r="B26" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="43">
+      <c r="B26" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="40">
         <v>18071.360153256599</v>
       </c>
-      <c r="D26" s="44">
+      <c r="D26" s="41">
         <v>0.14688569170663399</v>
       </c>
-      <c r="E26" s="44">
+      <c r="E26" s="41">
         <v>19058.719056245202</v>
       </c>
-      <c r="F26" s="44">
+      <c r="F26" s="41">
         <v>0.50560211821628098</v>
       </c>
-      <c r="G26" s="44">
+      <c r="G26" s="41">
         <v>1.78661873338729E-2</v>
       </c>
-      <c r="H26" s="44">
+      <c r="H26" s="41">
         <v>19.711909146930299</v>
       </c>
-      <c r="I26" s="44">
+      <c r="I26" s="41">
         <v>31.278237547892701</v>
       </c>
-      <c r="J26" s="44">
+      <c r="J26" s="41">
         <v>4.3539840607562004E-3</v>
       </c>
-      <c r="K26" s="44">
+      <c r="K26" s="41">
         <v>1.9321186749371199E-3</v>
       </c>
-      <c r="L26" s="44">
+      <c r="L26" s="41">
         <v>2.1467873108114599E-2</v>
       </c>
-      <c r="M26" s="44">
+      <c r="M26" s="41">
         <v>3.1891703495100101</v>
       </c>
-      <c r="N26" s="44">
+      <c r="N26" s="41">
         <v>1.1431319745403701</v>
       </c>
-      <c r="O26" s="44">
+      <c r="O26" s="41">
         <v>123.95614681649</v>
       </c>
-      <c r="P26" s="44">
+      <c r="P26" s="41">
         <v>1.5739377307579E-3</v>
       </c>
-      <c r="Q26" s="44">
+      <c r="Q26" s="41">
         <v>4.48305819114279E-2</v>
       </c>
-      <c r="R26" s="44">
+      <c r="R26" s="41">
         <v>73.125417192873499</v>
       </c>
-      <c r="S26" s="49">
+      <c r="S26" s="46">
         <v>-142.04</v>
       </c>
-      <c r="T26" s="49">
+      <c r="T26" s="46">
         <v>-120.52</v>
       </c>
       <c r="U26" s="2">
@@ -11635,61 +11793,61 @@
       <c r="A27" s="2">
         <v>4</v>
       </c>
-      <c r="B27" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="43">
+      <c r="B27" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="40">
         <v>17671.669720101701</v>
       </c>
-      <c r="D27" s="44">
+      <c r="D27" s="41">
         <v>0.14704463010045399</v>
       </c>
-      <c r="E27" s="44">
+      <c r="E27" s="41">
         <v>18355.582466162799</v>
       </c>
-      <c r="F27" s="44">
+      <c r="F27" s="41">
         <v>0.50671686261812898</v>
       </c>
-      <c r="G27" s="44">
+      <c r="G27" s="41">
         <v>1.8081672520085201E-2</v>
       </c>
-      <c r="H27" s="44">
+      <c r="H27" s="41">
         <v>18.953456093006601</v>
       </c>
-      <c r="I27" s="44">
+      <c r="I27" s="41">
         <v>29.621694656488501</v>
       </c>
-      <c r="J27" s="44">
+      <c r="J27" s="41">
         <v>4.50657200092228E-3</v>
       </c>
-      <c r="K27" s="44">
+      <c r="K27" s="41">
         <v>2.1582339757309698E-3</v>
       </c>
-      <c r="L27" s="44">
+      <c r="L27" s="41">
         <v>2.0120418673328901E-2</v>
       </c>
-      <c r="M27" s="44">
+      <c r="M27" s="41">
         <v>3.4779452916593399</v>
       </c>
-      <c r="N27" s="44">
+      <c r="N27" s="41">
         <v>1.0020573215594499</v>
       </c>
-      <c r="O27" s="44">
+      <c r="O27" s="41">
         <v>106.986024652662</v>
       </c>
-      <c r="P27" s="44">
+      <c r="P27" s="41">
         <v>1.68755406028569E-3</v>
       </c>
-      <c r="Q27" s="44">
+      <c r="Q27" s="41">
         <v>5.01033049165421E-2</v>
       </c>
-      <c r="R27" s="44">
+      <c r="R27" s="41">
         <v>58.533095319716999</v>
       </c>
-      <c r="S27" s="49">
+      <c r="S27" s="46">
         <v>-153.9199999999999</v>
       </c>
-      <c r="T27" s="49">
+      <c r="T27" s="46">
         <v>-126.2</v>
       </c>
       <c r="U27" s="2">
@@ -11703,64 +11861,64 @@
       <c r="A28" s="2">
         <v>4</v>
       </c>
-      <c r="B28" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="43">
+      <c r="B28" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="40">
         <v>17671.669720101701</v>
       </c>
-      <c r="D28" s="44">
+      <c r="D28" s="41">
         <v>0.14704463010045399</v>
       </c>
-      <c r="E28" s="44">
+      <c r="E28" s="41">
         <v>19058.719056245202</v>
       </c>
-      <c r="F28" s="44">
+      <c r="F28" s="41">
         <v>0.50671686261812898</v>
       </c>
-      <c r="G28" s="44">
+      <c r="G28" s="41">
         <v>1.8081672520085201E-2</v>
       </c>
-      <c r="H28" s="44">
+      <c r="H28" s="41">
         <v>19.711909146930299</v>
       </c>
-      <c r="I28" s="44">
+      <c r="I28" s="41">
         <v>29.621694656488501</v>
       </c>
-      <c r="J28" s="44">
+      <c r="J28" s="41">
         <v>4.50657200092228E-3</v>
       </c>
-      <c r="K28" s="44">
+      <c r="K28" s="41">
         <v>2.1582339757309698E-3</v>
       </c>
-      <c r="L28" s="44">
+      <c r="L28" s="41">
         <v>2.0120418673328901E-2</v>
       </c>
-      <c r="M28" s="44">
+      <c r="M28" s="41">
         <v>3.4779452916593399</v>
       </c>
-      <c r="N28" s="44">
+      <c r="N28" s="41">
         <v>1.1431319745403701</v>
       </c>
-      <c r="O28" s="44">
+      <c r="O28" s="41">
         <v>123.95614681649</v>
       </c>
-      <c r="P28" s="44">
+      <c r="P28" s="41">
         <v>1.68755406028569E-3</v>
       </c>
-      <c r="Q28" s="44">
+      <c r="Q28" s="41">
         <v>5.01033049165421E-2</v>
       </c>
-      <c r="R28" s="44">
+      <c r="R28" s="41">
         <v>73.125417192873499</v>
       </c>
-      <c r="S28" s="49">
+      <c r="S28" s="46">
         <v>-145.21</v>
       </c>
-      <c r="T28" s="49">
+      <c r="T28" s="46">
         <v>-122.17</v>
       </c>
-      <c r="U28" s="52">
+      <c r="U28" s="49">
         <v>-105.05</v>
       </c>
       <c r="V28" s="2">
@@ -11771,64 +11929,64 @@
       <c r="A29" s="2">
         <v>4</v>
       </c>
-      <c r="B29" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="43">
+      <c r="B29" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="40">
         <v>17671.669720101701</v>
       </c>
-      <c r="D29" s="44">
+      <c r="D29" s="41">
         <v>0.14704463010045399</v>
       </c>
-      <c r="E29" s="44">
+      <c r="E29" s="41">
         <v>19058.719056245202</v>
       </c>
-      <c r="F29" s="44">
+      <c r="F29" s="41">
         <v>0.50671686261812898</v>
       </c>
-      <c r="G29" s="44">
+      <c r="G29" s="41">
         <v>1.8081672520085201E-2</v>
       </c>
-      <c r="H29" s="44">
+      <c r="H29" s="41">
         <v>19.711909146930299</v>
       </c>
-      <c r="I29" s="44">
+      <c r="I29" s="41">
         <v>31.278237547892701</v>
       </c>
-      <c r="J29" s="44">
+      <c r="J29" s="41">
         <v>4.50657200092228E-3</v>
       </c>
-      <c r="K29" s="44">
+      <c r="K29" s="41">
         <v>2.1582339757309698E-3</v>
       </c>
-      <c r="L29" s="44">
+      <c r="L29" s="41">
         <v>2.1467873108114599E-2</v>
       </c>
-      <c r="M29" s="44">
+      <c r="M29" s="41">
         <v>3.4779452916593399</v>
       </c>
-      <c r="N29" s="44">
+      <c r="N29" s="41">
         <v>1.1431319745403701</v>
       </c>
-      <c r="O29" s="44">
+      <c r="O29" s="41">
         <v>123.95614681649</v>
       </c>
-      <c r="P29" s="44">
+      <c r="P29" s="41">
         <v>1.68755406028569E-3</v>
       </c>
-      <c r="Q29" s="44">
+      <c r="Q29" s="41">
         <v>5.01033049165421E-2</v>
       </c>
-      <c r="R29" s="44">
+      <c r="R29" s="41">
         <v>73.125417192873499</v>
       </c>
-      <c r="S29" s="49">
+      <c r="S29" s="46">
         <v>-156.91</v>
       </c>
-      <c r="T29" s="49">
+      <c r="T29" s="46">
         <v>-118.21</v>
       </c>
-      <c r="U29" s="52">
+      <c r="U29" s="49">
         <v>-104.18</v>
       </c>
       <c r="V29" s="2">
@@ -11836,72 +11994,72 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S30" s="49"/>
+      <c r="S30" s="46"/>
       <c r="U30" s="2"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S31" s="49"/>
+      <c r="S31" s="46"/>
       <c r="U31" s="2"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>5</v>
       </c>
-      <c r="B32" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="43">
+      <c r="B32" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="40">
         <v>40421.106481481402</v>
       </c>
-      <c r="D32" s="44">
+      <c r="D32" s="41">
         <v>0.19879719706364901</v>
       </c>
-      <c r="E32" s="44">
+      <c r="E32" s="41">
         <v>25443.955409953702</v>
       </c>
-      <c r="F32" s="44">
+      <c r="F32" s="41">
         <v>0.69725770152667399</v>
       </c>
-      <c r="G32" s="44">
+      <c r="G32" s="41">
         <v>2.7366643327838901E-2</v>
       </c>
-      <c r="H32" s="44">
+      <c r="H32" s="41">
         <v>38.744814159246801</v>
       </c>
-      <c r="I32" s="44">
+      <c r="I32" s="41">
         <v>30.995601851851799</v>
       </c>
-      <c r="J32" s="44">
+      <c r="J32" s="41">
         <v>2.7293966388769E-3</v>
       </c>
-      <c r="K32" s="44">
+      <c r="K32" s="41">
         <v>2.52828399277238E-3</v>
       </c>
-      <c r="L32" s="44">
+      <c r="L32" s="41">
         <v>1.6408419923949501E-2</v>
       </c>
-      <c r="M32" s="44">
+      <c r="M32" s="41">
         <v>1.30316756609832</v>
       </c>
-      <c r="N32" s="44">
+      <c r="N32" s="41">
         <v>0.98281653355162102</v>
       </c>
-      <c r="O32" s="44">
+      <c r="O32" s="41">
         <v>60.970441955093797</v>
       </c>
-      <c r="P32" s="44">
+      <c r="P32" s="41">
         <v>8.1836397144078796E-4</v>
       </c>
-      <c r="Q32" s="44">
+      <c r="Q32" s="41">
         <v>5.1905160878513698E-2</v>
       </c>
-      <c r="R32" s="44">
+      <c r="R32" s="41">
         <v>351.86731958595101</v>
       </c>
-      <c r="S32" s="49">
+      <c r="S32" s="46">
         <v>-105.14</v>
       </c>
-      <c r="T32" s="49">
+      <c r="T32" s="46">
         <v>-59.569999999999958</v>
       </c>
       <c r="U32" s="2">
@@ -11915,61 +12073,61 @@
       <c r="A33" s="2">
         <v>5</v>
       </c>
-      <c r="B33" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="43">
+      <c r="B33" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="40">
         <v>37666.082043343602</v>
       </c>
-      <c r="D33" s="44">
+      <c r="D33" s="41">
         <v>0.21694255714058999</v>
       </c>
-      <c r="E33" s="44">
+      <c r="E33" s="41">
         <v>25575.708990046402</v>
       </c>
-      <c r="F33" s="44">
+      <c r="F33" s="41">
         <v>0.64976374769475997</v>
       </c>
-      <c r="G33" s="44">
+      <c r="G33" s="41">
         <v>2.4370391906202701E-2</v>
       </c>
-      <c r="H33" s="44">
+      <c r="H33" s="41">
         <v>31.6864663668958</v>
       </c>
-      <c r="I33" s="44">
+      <c r="I33" s="41">
         <v>29.2039164086687</v>
       </c>
-      <c r="J33" s="44">
+      <c r="J33" s="41">
         <v>3.0454299247056E-3</v>
       </c>
-      <c r="K33" s="44">
+      <c r="K33" s="41">
         <v>2.56803360536563E-3</v>
       </c>
-      <c r="L33" s="44">
+      <c r="L33" s="41">
         <v>1.59079568233149E-2</v>
       </c>
-      <c r="M33" s="44">
+      <c r="M33" s="41">
         <v>1.56070997520745</v>
       </c>
-      <c r="N33" s="44">
+      <c r="N33" s="41">
         <v>0.81383468887411203</v>
       </c>
-      <c r="O33" s="44">
+      <c r="O33" s="41">
         <v>52.8149650451385</v>
       </c>
-      <c r="P33" s="44">
+      <c r="P33" s="41">
         <v>9.0164278617859697E-4</v>
       </c>
-      <c r="Q33" s="44">
+      <c r="Q33" s="41">
         <v>5.8180691595906601E-2</v>
       </c>
-      <c r="R33" s="44">
+      <c r="R33" s="41">
         <v>344.45856439656802</v>
       </c>
-      <c r="S33" s="49">
+      <c r="S33" s="46">
         <v>-153.07</v>
       </c>
-      <c r="T33" s="49">
+      <c r="T33" s="46">
         <v>-181.83999999999989</v>
       </c>
       <c r="U33" s="2">
@@ -11983,61 +12141,61 @@
       <c r="A34" s="2">
         <v>5</v>
       </c>
-      <c r="B34" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="43">
+      <c r="B34" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="40">
         <v>37666.082043343602</v>
       </c>
-      <c r="D34" s="44">
+      <c r="D34" s="41">
         <v>0.21694255714058999</v>
       </c>
-      <c r="E34" s="44">
+      <c r="E34" s="41">
         <v>25575.708990046402</v>
       </c>
-      <c r="F34" s="44">
+      <c r="F34" s="41">
         <v>0.64976374769475997</v>
       </c>
-      <c r="G34" s="44">
+      <c r="G34" s="41">
         <v>2.4370391906202701E-2</v>
       </c>
-      <c r="H34" s="44">
+      <c r="H34" s="41">
         <v>38.744814159246801</v>
       </c>
-      <c r="I34" s="44">
+      <c r="I34" s="41">
         <v>29.2039164086687</v>
       </c>
-      <c r="J34" s="44">
+      <c r="J34" s="41">
         <v>3.0454299247056E-3</v>
       </c>
-      <c r="K34" s="44">
+      <c r="K34" s="41">
         <v>2.56803360536563E-3</v>
       </c>
-      <c r="L34" s="44">
+      <c r="L34" s="41">
         <v>1.59079568233149E-2</v>
       </c>
-      <c r="M34" s="44">
+      <c r="M34" s="41">
         <v>1.56070997520745</v>
       </c>
-      <c r="N34" s="44">
+      <c r="N34" s="41">
         <v>0.98281653355162102</v>
       </c>
-      <c r="O34" s="44">
+      <c r="O34" s="41">
         <v>60.970441955093797</v>
       </c>
-      <c r="P34" s="44">
+      <c r="P34" s="41">
         <v>9.0164278617859697E-4</v>
       </c>
-      <c r="Q34" s="44">
+      <c r="Q34" s="41">
         <v>5.8180691595906601E-2</v>
       </c>
-      <c r="R34" s="44">
+      <c r="R34" s="41">
         <v>351.86731958595101</v>
       </c>
-      <c r="S34" s="49">
+      <c r="S34" s="46">
         <v>-122.7699999999999</v>
       </c>
-      <c r="T34" s="49">
+      <c r="T34" s="46">
         <v>-112.07</v>
       </c>
       <c r="U34" s="2">
@@ -12051,61 +12209,61 @@
       <c r="A35" s="2">
         <v>5</v>
       </c>
-      <c r="B35" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="43">
+      <c r="B35" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="40">
         <v>37666.082043343602</v>
       </c>
-      <c r="D35" s="44">
+      <c r="D35" s="41">
         <v>0.21694255714058999</v>
       </c>
-      <c r="E35" s="44">
+      <c r="E35" s="41">
         <v>25575.708990046402</v>
       </c>
-      <c r="F35" s="44">
+      <c r="F35" s="41">
         <v>0.69725770152667399</v>
       </c>
-      <c r="G35" s="44">
+      <c r="G35" s="41">
         <v>2.7366643327838901E-2</v>
       </c>
-      <c r="H35" s="44">
+      <c r="H35" s="41">
         <v>38.744814159246801</v>
       </c>
-      <c r="I35" s="44">
+      <c r="I35" s="41">
         <v>30.995601851851799</v>
       </c>
-      <c r="J35" s="44">
+      <c r="J35" s="41">
         <v>3.0454299247056E-3</v>
       </c>
-      <c r="K35" s="44">
+      <c r="K35" s="41">
         <v>2.56803360536563E-3</v>
       </c>
-      <c r="L35" s="44">
+      <c r="L35" s="41">
         <v>1.6408419923949501E-2</v>
       </c>
-      <c r="M35" s="44">
+      <c r="M35" s="41">
         <v>1.56070997520745</v>
       </c>
-      <c r="N35" s="44">
+      <c r="N35" s="41">
         <v>0.98281653355162102</v>
       </c>
-      <c r="O35" s="44">
+      <c r="O35" s="41">
         <v>60.970441955093797</v>
       </c>
-      <c r="P35" s="44">
+      <c r="P35" s="41">
         <v>9.0164278617859697E-4</v>
       </c>
-      <c r="Q35" s="44">
+      <c r="Q35" s="41">
         <v>5.8180691595906601E-2</v>
       </c>
-      <c r="R35" s="44">
+      <c r="R35" s="41">
         <v>351.86731958595101</v>
       </c>
-      <c r="S35" s="49">
+      <c r="S35" s="46">
         <v>-102.32</v>
       </c>
-      <c r="T35" s="49">
+      <c r="T35" s="46">
         <v>-92.949999999999932</v>
       </c>
       <c r="U35" s="2">
@@ -14271,10 +14429,10 @@
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="49">
+      <c r="B2" s="46">
         <v>701.62666666666598</v>
       </c>
-      <c r="C2" s="49">
+      <c r="C2" s="46">
         <v>164807.99111111101</v>
       </c>
       <c r="D2" s="3">
@@ -14313,7 +14471,7 @@
       <c r="O2" s="3">
         <v>2.7362961348447499</v>
       </c>
-      <c r="P2" s="53">
+      <c r="P2" s="50">
         <v>3.6724036200784001E-4</v>
       </c>
       <c r="Q2" s="3">
@@ -14327,10 +14485,10 @@
       <c r="A3" s="2">
         <v>0</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="46">
         <v>-480.20103092783501</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="46">
         <v>131645.14432989599</v>
       </c>
       <c r="D3" s="3">
@@ -14369,7 +14527,7 @@
       <c r="O3" s="3">
         <v>2.7514922487599902</v>
       </c>
-      <c r="P3" s="53">
+      <c r="P3" s="50">
         <v>3.4140684121260098E-4</v>
       </c>
       <c r="Q3" s="3">
@@ -14381,8 +14539,8 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -14395,7 +14553,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="53"/>
+      <c r="P4" s="50"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
     </row>
@@ -14403,10 +14561,10 @@
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="46">
         <v>316.12621359223198</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="46">
         <v>72566.171521035605</v>
       </c>
       <c r="D5" s="3">
@@ -14445,7 +14603,7 @@
       <c r="O5" s="3">
         <v>2.9265367600548799</v>
       </c>
-      <c r="P5" s="53">
+      <c r="P5" s="50">
         <v>1.8333715088117699E-4</v>
       </c>
       <c r="Q5" s="3">
@@ -14459,10 +14617,10 @@
       <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="46">
         <v>-303.66205533596798</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="46">
         <v>73801.019762845797</v>
       </c>
       <c r="D6" s="3">
@@ -14501,7 +14659,7 @@
       <c r="O6" s="3">
         <v>3.40365018026902</v>
       </c>
-      <c r="P6" s="53">
+      <c r="P6" s="50">
         <v>1.9956967010239599E-4</v>
       </c>
       <c r="Q6" s="3">
@@ -14513,8 +14671,8 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -14527,7 +14685,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="53"/>
+      <c r="P7" s="50"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
     </row>
@@ -14535,10 +14693,10 @@
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="46">
         <v>341.68686868686802</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="46">
         <v>68564.535353535306</v>
       </c>
       <c r="D8" s="3">
@@ -14577,7 +14735,7 @@
       <c r="O8" s="3">
         <v>9.6041584244655507</v>
       </c>
-      <c r="P8" s="53">
+      <c r="P8" s="50">
         <v>2.7891952968457401E-4</v>
       </c>
       <c r="Q8" s="3">
@@ -14591,10 +14749,10 @@
       <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9" s="49">
+      <c r="B9" s="46">
         <v>-278.63120567375802</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="46">
         <v>59076.652482269397</v>
       </c>
       <c r="D9" s="3">
@@ -14633,7 +14791,7 @@
       <c r="O9" s="3">
         <v>8.4609746898260401</v>
       </c>
-      <c r="P9" s="53">
+      <c r="P9" s="50">
         <v>2.6764459457439399E-4</v>
       </c>
       <c r="Q9" s="3">
@@ -14645,8 +14803,8 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -14659,7 +14817,7 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="53"/>
+      <c r="P10" s="50"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
@@ -14667,10 +14825,10 @@
       <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B11" s="49">
+      <c r="B11" s="46">
         <v>387.06862745097999</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="46">
         <v>111014.81372549001</v>
       </c>
       <c r="D11" s="3">
@@ -14709,7 +14867,7 @@
       <c r="O11" s="3">
         <v>2.86389544791649</v>
       </c>
-      <c r="P11" s="53">
+      <c r="P11" s="50">
         <v>2.6414080743661101E-4</v>
       </c>
       <c r="Q11" s="3">
@@ -14723,10 +14881,10 @@
       <c r="A12" s="2">
         <v>3</v>
       </c>
-      <c r="B12" s="49">
+      <c r="B12" s="46">
         <v>-475.69198312236301</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="46">
         <v>88443.299578058999</v>
       </c>
       <c r="D12" s="3">
@@ -14765,7 +14923,7 @@
       <c r="O12" s="3">
         <v>2.8729539348869002</v>
       </c>
-      <c r="P12" s="53">
+      <c r="P12" s="50">
         <v>2.6245664983897299E-4</v>
       </c>
       <c r="Q12" s="3">
@@ -14777,8 +14935,8 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -14791,7 +14949,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="53"/>
+      <c r="P13" s="50"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
     </row>
@@ -14799,10 +14957,10 @@
       <c r="A14" s="2">
         <v>4</v>
       </c>
-      <c r="B14" s="49">
+      <c r="B14" s="46">
         <v>140.29999999999899</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="46">
         <v>34346.433333333298</v>
       </c>
       <c r="D14" s="3">
@@ -14841,7 +14999,7 @@
       <c r="O14" s="3">
         <v>12.534415451913601</v>
       </c>
-      <c r="P14" s="53">
+      <c r="P14" s="50">
         <v>5.7502760830474499E-4</v>
       </c>
       <c r="Q14" s="3">
@@ -14855,10 +15013,10 @@
       <c r="A15" s="2">
         <v>4</v>
       </c>
-      <c r="B15" s="49">
+      <c r="B15" s="46">
         <v>-155.322033898304</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="46">
         <v>26444.322033898199</v>
       </c>
       <c r="D15" s="3">
@@ -14897,7 +15055,7 @@
       <c r="O15" s="3">
         <v>8.7696547847163107</v>
       </c>
-      <c r="P15" s="53">
+      <c r="P15" s="50">
         <v>5.8060175953319202E-4</v>
       </c>
       <c r="Q15" s="3">
@@ -14909,8 +15067,8 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -14923,7 +15081,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="53"/>
+      <c r="P16" s="50"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
     </row>
@@ -14931,10 +15089,10 @@
       <c r="A17" s="2">
         <v>5</v>
       </c>
-      <c r="B17" s="49">
+      <c r="B17" s="46">
         <v>174.058823529411</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="46">
         <v>31693.882352941098</v>
       </c>
       <c r="D17" s="3">
@@ -14973,7 +15131,7 @@
       <c r="O17" s="3">
         <v>22.535907071104901</v>
       </c>
-      <c r="P17" s="53">
+      <c r="P17" s="50">
         <v>5.6204664330488903E-4</v>
       </c>
       <c r="Q17" s="3">
@@ -14987,10 +15145,10 @@
       <c r="A18" s="2">
         <v>5</v>
       </c>
-      <c r="B18" s="49">
+      <c r="B18" s="46">
         <v>-182.914285714285</v>
       </c>
-      <c r="C18" s="49">
+      <c r="C18" s="46">
         <v>32717.342857142801</v>
       </c>
       <c r="D18" s="3">
@@ -15029,7 +15187,7 @@
       <c r="O18" s="3">
         <v>22.845238599246301</v>
       </c>
-      <c r="P18" s="53">
+      <c r="P18" s="50">
         <v>7.0640901064990096E-4</v>
       </c>
       <c r="Q18" s="3">
@@ -15040,68 +15198,68 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D19" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q19" s="45" t="s">
-        <v>23</v>
+      <c r="D19" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="42" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H23" s="36" t="s">
-        <v>24</v>
+      <c r="H23" s="34" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="37" t="s">
+      <c r="E24" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="37" t="s">
+      <c r="F24" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="37" t="s">
+      <c r="G24" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="37" t="s">
+      <c r="H24" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="37" t="s">
+      <c r="I24" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="37" t="s">
+      <c r="J24" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="K24" s="37" t="s">
+      <c r="K24" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="L24" s="37" t="s">
+      <c r="L24" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="M24" s="37" t="s">
+      <c r="M24" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="37" t="s">
+      <c r="N24" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="O24" s="37" t="s">
+      <c r="O24" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="P24" s="37" t="s">
+      <c r="P24" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="Q24" s="37" t="s">
+      <c r="Q24" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="R24" s="37" t="s">
+      <c r="R24" s="35" t="s">
         <v>17</v>
       </c>
     </row>
@@ -15526,70 +15684,70 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="50">
+      <c r="A31" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="47">
         <f t="shared" ref="C31:R31" si="6">AVERAGE(C25:C30)</f>
         <v>0.1530882296273029</v>
       </c>
-      <c r="D31" s="50">
+      <c r="D31" s="47">
         <f t="shared" si="6"/>
         <v>-4.3158937537187657E-2</v>
       </c>
-      <c r="E31" s="50">
+      <c r="E31" s="47">
         <f t="shared" si="6"/>
         <v>4.3246496906242902E-2</v>
       </c>
-      <c r="F31" s="50">
+      <c r="F31" s="47">
         <f t="shared" si="6"/>
         <v>3.8713878631365585E-2</v>
       </c>
-      <c r="G31" s="50">
+      <c r="G31" s="47">
         <f t="shared" si="6"/>
         <v>0.17756314057400535</v>
       </c>
-      <c r="H31" s="50">
+      <c r="H31" s="47">
         <f t="shared" si="6"/>
         <v>0.22431998874260226</v>
       </c>
-      <c r="I31" s="50">
+      <c r="I31" s="47">
         <f t="shared" si="6"/>
         <v>2.0717030584713875E-2</v>
       </c>
-      <c r="J31" s="50">
+      <c r="J31" s="47">
         <f t="shared" si="6"/>
         <v>2.1836382204897253E-3</v>
       </c>
-      <c r="K31" s="50">
+      <c r="K31" s="47">
         <f t="shared" si="6"/>
         <v>9.2850431550950217E-3</v>
       </c>
-      <c r="L31" s="50">
+      <c r="L31" s="47">
         <f t="shared" si="6"/>
         <v>-7.1040558569823622E-2</v>
       </c>
-      <c r="M31" s="50">
+      <c r="M31" s="47">
         <f t="shared" si="6"/>
         <v>-3.4643133764610402E-2</v>
       </c>
-      <c r="N31" s="50">
+      <c r="N31" s="47">
         <f t="shared" si="6"/>
         <v>7.06504684645584E-2</v>
       </c>
-      <c r="O31" s="50">
+      <c r="O31" s="47">
         <f t="shared" si="6"/>
         <v>6.7002235654687617E-2</v>
       </c>
-      <c r="P31" s="50">
+      <c r="P31" s="47">
         <f t="shared" si="6"/>
         <v>-2.851464442612241E-2</v>
       </c>
-      <c r="Q31" s="50">
+      <c r="Q31" s="47">
         <f t="shared" si="6"/>
         <v>-3.5058627549486278E-2</v>
       </c>
-      <c r="R31" s="50">
+      <c r="R31" s="47">
         <f t="shared" si="6"/>
         <v>-3.6035858668642083E-2</v>
       </c>
@@ -16852,11 +17010,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
-        <v>25</v>
+      <c r="B1" s="53" t="s">
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -16906,27 +17064,27 @@
       <c r="R1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="V1" s="48" t="s">
-        <v>34</v>
+      <c r="S1" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="45" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="49">
+      <c r="B2" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="46">
         <v>164807.99111111101</v>
       </c>
       <c r="D2" s="3">
@@ -16965,7 +17123,7 @@
       <c r="O2" s="3">
         <v>2.7362961348447499</v>
       </c>
-      <c r="P2" s="53">
+      <c r="P2" s="50">
         <v>3.6724036200784001E-4</v>
       </c>
       <c r="Q2" s="3">
@@ -16974,16 +17132,16 @@
       <c r="R2" s="3">
         <v>264.58127835258301</v>
       </c>
-      <c r="S2" s="54">
+      <c r="S2" s="51">
         <v>1.0000000000003581E-2</v>
       </c>
-      <c r="T2" s="55">
+      <c r="T2" s="52">
         <v>155.77000000000001</v>
       </c>
-      <c r="U2" s="55">
+      <c r="U2" s="52">
         <v>-30.060000000000009</v>
       </c>
-      <c r="V2" s="55">
+      <c r="V2" s="52">
         <v>-59.210000000000022</v>
       </c>
     </row>
@@ -16991,10 +17149,10 @@
       <c r="A3" s="2">
         <v>0</v>
       </c>
-      <c r="B3" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="49">
+      <c r="B3" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="46">
         <v>131645.14432989599</v>
       </c>
       <c r="D3" s="3">
@@ -17033,7 +17191,7 @@
       <c r="O3" s="3">
         <v>2.7514922487599902</v>
       </c>
-      <c r="P3" s="53">
+      <c r="P3" s="50">
         <v>3.4140684121260098E-4</v>
       </c>
       <c r="Q3" s="3">
@@ -17042,16 +17200,16 @@
       <c r="R3" s="3">
         <v>265.87990616144202</v>
       </c>
-      <c r="S3" s="54">
+      <c r="S3" s="51">
         <v>-14.14</v>
       </c>
-      <c r="T3" s="55">
+      <c r="T3" s="52">
         <v>211.64</v>
       </c>
-      <c r="U3" s="55">
+      <c r="U3" s="52">
         <v>-25.02000000000001</v>
       </c>
-      <c r="V3" s="55">
+      <c r="V3" s="52">
         <v>21.609999999999989</v>
       </c>
     </row>
@@ -17059,10 +17217,10 @@
       <c r="A4" s="2">
         <v>0</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="49">
+      <c r="B4" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="46">
         <v>131645.14432989599</v>
       </c>
       <c r="D4" s="3">
@@ -17101,7 +17259,7 @@
       <c r="O4" s="3">
         <v>2.7514922487599902</v>
       </c>
-      <c r="P4" s="53">
+      <c r="P4" s="50">
         <v>3.6724036200784001E-4</v>
       </c>
       <c r="Q4" s="3">
@@ -17110,40 +17268,40 @@
       <c r="R4" s="3">
         <v>265.87990616144202</v>
       </c>
-      <c r="S4" s="54">
+      <c r="S4" s="51">
         <v>-12.670000000000011</v>
       </c>
-      <c r="T4" s="55">
+      <c r="T4" s="52">
         <v>186.94</v>
       </c>
-      <c r="U4" s="55">
+      <c r="U4" s="52">
         <v>-31.88999999999999</v>
       </c>
-      <c r="V4" s="55">
+      <c r="V4" s="52">
         <v>12.23999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="49">
+      <c r="B7" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="46">
         <v>72566.171521035605</v>
       </c>
       <c r="D7" s="3">
@@ -17182,7 +17340,7 @@
       <c r="O7" s="3">
         <v>2.9265367600548799</v>
       </c>
-      <c r="P7" s="53">
+      <c r="P7" s="50">
         <v>1.8333715088117699E-4</v>
       </c>
       <c r="Q7" s="3">
@@ -17191,16 +17349,16 @@
       <c r="R7" s="3">
         <v>160.88126020636</v>
       </c>
-      <c r="S7" s="54">
+      <c r="S7" s="51">
         <v>-104.2700000000001</v>
       </c>
-      <c r="T7" s="54">
+      <c r="T7" s="51">
         <v>-27.77</v>
       </c>
-      <c r="U7" s="54">
+      <c r="U7" s="51">
         <v>-240.8599999999999</v>
       </c>
-      <c r="V7" s="54">
+      <c r="V7" s="51">
         <v>90.629999999999939</v>
       </c>
     </row>
@@ -17208,10 +17366,10 @@
       <c r="A8" s="2">
         <v>1</v>
       </c>
-      <c r="B8" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="49">
+      <c r="B8" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="46">
         <v>73801.019762845797</v>
       </c>
       <c r="D8" s="3">
@@ -17250,7 +17408,7 @@
       <c r="O8" s="3">
         <v>3.40365018026902</v>
       </c>
-      <c r="P8" s="53">
+      <c r="P8" s="50">
         <v>1.9956967010239599E-4</v>
       </c>
       <c r="Q8" s="3">
@@ -17259,16 +17417,16 @@
       <c r="R8" s="3">
         <v>168.31403626084099</v>
       </c>
-      <c r="S8" s="54">
+      <c r="S8" s="51">
         <v>-161.3300000000001</v>
       </c>
-      <c r="T8" s="54">
+      <c r="T8" s="51">
         <v>-80.730000000000018</v>
       </c>
-      <c r="U8" s="54">
+      <c r="U8" s="51">
         <v>-269.43999999999988</v>
       </c>
-      <c r="V8" s="54">
+      <c r="V8" s="51">
         <v>57.88</v>
       </c>
     </row>
@@ -17276,10 +17434,10 @@
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="49">
+      <c r="B9" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="46">
         <v>73801.019762845797</v>
       </c>
       <c r="D9" s="3">
@@ -17318,7 +17476,7 @@
       <c r="O9" s="3">
         <v>3.40365018026902</v>
       </c>
-      <c r="P9" s="53">
+      <c r="P9" s="50">
         <v>1.9956967010239599E-4</v>
       </c>
       <c r="Q9" s="3">
@@ -17327,39 +17485,39 @@
       <c r="R9" s="3">
         <v>168.31403626084099</v>
       </c>
-      <c r="S9" s="54">
+      <c r="S9" s="51">
         <v>-144.47</v>
       </c>
-      <c r="T9" s="54">
+      <c r="T9" s="51">
         <v>-46.459999999999972</v>
       </c>
-      <c r="U9" s="54">
+      <c r="U9" s="51">
         <v>-266.83999999999997</v>
       </c>
-      <c r="V9" s="54">
+      <c r="V9" s="51">
         <v>54.61999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2</v>
       </c>
-      <c r="B12" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="49">
+      <c r="B12" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="46">
         <v>68564.535353535306</v>
       </c>
       <c r="D12" s="3">
@@ -17398,7 +17556,7 @@
       <c r="O12" s="3">
         <v>9.6041584244655507</v>
       </c>
-      <c r="P12" s="53">
+      <c r="P12" s="50">
         <v>2.7891952968457401E-4</v>
       </c>
       <c r="Q12" s="3">
@@ -17407,16 +17565,16 @@
       <c r="R12" s="3">
         <v>267.76056498903802</v>
       </c>
-      <c r="S12" s="55">
+      <c r="S12" s="52">
         <v>-137.96</v>
       </c>
-      <c r="T12" s="55">
+      <c r="T12" s="52">
         <v>-171.7399999999999</v>
       </c>
-      <c r="U12" s="55">
+      <c r="U12" s="52">
         <v>-223.4</v>
       </c>
-      <c r="V12" s="54">
+      <c r="V12" s="51">
         <v>103.63</v>
       </c>
     </row>
@@ -17424,10 +17582,10 @@
       <c r="A13" s="2">
         <v>2</v>
       </c>
-      <c r="B13" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="49">
+      <c r="B13" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="46">
         <v>59076.652482269397</v>
       </c>
       <c r="D13" s="3">
@@ -17466,7 +17624,7 @@
       <c r="O13" s="3">
         <v>8.4609746898260401</v>
       </c>
-      <c r="P13" s="53">
+      <c r="P13" s="50">
         <v>2.6764459457439399E-4</v>
       </c>
       <c r="Q13" s="3">
@@ -17475,16 +17633,16 @@
       <c r="R13" s="3">
         <v>215.08277428894999</v>
       </c>
-      <c r="S13" s="55">
+      <c r="S13" s="52">
         <v>-89.789999999999992</v>
       </c>
-      <c r="T13" s="55">
+      <c r="T13" s="52">
         <v>-107.1</v>
       </c>
-      <c r="U13" s="54">
+      <c r="U13" s="51">
         <v>-164.1399999999999</v>
       </c>
-      <c r="V13" s="54">
+      <c r="V13" s="51">
         <v>55.029999999999987</v>
       </c>
     </row>
@@ -17492,10 +17650,10 @@
       <c r="A14" s="2">
         <v>2</v>
       </c>
-      <c r="B14" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="49">
+      <c r="B14" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="46">
         <v>59076.652482269397</v>
       </c>
       <c r="D14" s="3">
@@ -17534,7 +17692,7 @@
       <c r="O14" s="3">
         <v>9.6041584244655507</v>
       </c>
-      <c r="P14" s="53">
+      <c r="P14" s="50">
         <v>2.7891952968457401E-4</v>
       </c>
       <c r="Q14" s="3">
@@ -17543,39 +17701,39 @@
       <c r="R14" s="3">
         <v>267.76056498903802</v>
       </c>
-      <c r="S14" s="55">
+      <c r="S14" s="52">
         <v>-123.01</v>
       </c>
-      <c r="T14" s="55">
+      <c r="T14" s="52">
         <v>-126.81</v>
       </c>
-      <c r="U14" s="54">
+      <c r="U14" s="51">
         <v>-60.959999999999987</v>
       </c>
-      <c r="V14" s="55">
+      <c r="V14" s="52">
         <v>90.630000000000024</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>3</v>
       </c>
-      <c r="B17" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="49">
+      <c r="B17" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="46">
         <v>111014.81372549001</v>
       </c>
       <c r="D17" s="3">
@@ -17614,7 +17772,7 @@
       <c r="O17" s="3">
         <v>2.86389544791649</v>
       </c>
-      <c r="P17" s="53">
+      <c r="P17" s="50">
         <v>2.6414080743661101E-4</v>
       </c>
       <c r="Q17" s="3">
@@ -17623,16 +17781,16 @@
       <c r="R17" s="3">
         <v>814.51301889204206</v>
       </c>
-      <c r="S17" s="54">
+      <c r="S17" s="51">
         <v>-31.059999999999992</v>
       </c>
-      <c r="T17" s="54">
+      <c r="T17" s="51">
         <v>-97.589999999999975</v>
       </c>
-      <c r="U17" s="54">
+      <c r="U17" s="51">
         <v>-55.929999999999993</v>
       </c>
-      <c r="V17" s="54">
+      <c r="V17" s="51">
         <v>-6.78000000000001</v>
       </c>
     </row>
@@ -17640,10 +17798,10 @@
       <c r="A18" s="2">
         <v>3</v>
       </c>
-      <c r="B18" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="49">
+      <c r="B18" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="46">
         <v>88443.299578058999</v>
       </c>
       <c r="D18" s="3">
@@ -17682,7 +17840,7 @@
       <c r="O18" s="3">
         <v>2.8729539348869002</v>
       </c>
-      <c r="P18" s="53">
+      <c r="P18" s="50">
         <v>2.6245664983897299E-4</v>
       </c>
       <c r="Q18" s="3">
@@ -17691,16 +17849,16 @@
       <c r="R18" s="3">
         <v>814.86215366019201</v>
       </c>
-      <c r="S18" s="54">
+      <c r="S18" s="51">
         <v>-114.01</v>
       </c>
-      <c r="T18" s="54">
+      <c r="T18" s="51">
         <v>-152.83999999999989</v>
       </c>
-      <c r="U18" s="54">
+      <c r="U18" s="51">
         <v>-207.3400000000002</v>
       </c>
-      <c r="V18" s="54">
+      <c r="V18" s="51">
         <v>-103.52</v>
       </c>
     </row>
@@ -17708,10 +17866,10 @@
       <c r="A19" s="2">
         <v>3</v>
       </c>
-      <c r="B19" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="49">
+      <c r="B19" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="46">
         <v>88443.299578058999</v>
       </c>
       <c r="D19" s="3">
@@ -17750,7 +17908,7 @@
       <c r="O19" s="3">
         <v>2.8729539348869002</v>
       </c>
-      <c r="P19" s="53">
+      <c r="P19" s="50">
         <v>2.6414080743661101E-4</v>
       </c>
       <c r="Q19" s="3">
@@ -17759,39 +17917,39 @@
       <c r="R19" s="3">
         <v>814.86215366019201</v>
       </c>
-      <c r="S19" s="54">
+      <c r="S19" s="51">
         <v>-22.27999999999999</v>
       </c>
-      <c r="T19" s="54">
+      <c r="T19" s="51">
         <v>-122.74</v>
       </c>
-      <c r="U19" s="54">
+      <c r="U19" s="51">
         <v>-140.4</v>
       </c>
-      <c r="V19" s="55">
+      <c r="V19" s="52">
         <v>-134.9</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>4</v>
       </c>
-      <c r="B22" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="49">
+      <c r="B22" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="46">
         <v>34346.433333333298</v>
       </c>
       <c r="D22" s="3">
@@ -17830,7 +17988,7 @@
       <c r="O22" s="3">
         <v>12.534415451913601</v>
       </c>
-      <c r="P22" s="53">
+      <c r="P22" s="50">
         <v>5.7502760830474499E-4</v>
       </c>
       <c r="Q22" s="3">
@@ -17839,16 +17997,16 @@
       <c r="R22" s="3">
         <v>272.65362399689297</v>
       </c>
-      <c r="S22" s="54">
+      <c r="S22" s="51">
         <v>-108.99000000000009</v>
       </c>
-      <c r="T22" s="55">
+      <c r="T22" s="52">
         <v>-119.38</v>
       </c>
-      <c r="U22" s="54">
+      <c r="U22" s="51">
         <v>-90.629999999999981</v>
       </c>
-      <c r="V22" s="54">
+      <c r="V22" s="51">
         <v>40.689999999999969</v>
       </c>
     </row>
@@ -17856,10 +18014,10 @@
       <c r="A23" s="2">
         <v>4</v>
       </c>
-      <c r="B23" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="49">
+      <c r="B23" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="46">
         <v>26444.322033898199</v>
       </c>
       <c r="D23" s="3">
@@ -17898,7 +18056,7 @@
       <c r="O23" s="3">
         <v>8.7696547847163107</v>
       </c>
-      <c r="P23" s="53">
+      <c r="P23" s="50">
         <v>5.8060175953319202E-4</v>
       </c>
       <c r="Q23" s="3">
@@ -17907,16 +18065,16 @@
       <c r="R23" s="3">
         <v>255.66572324290701</v>
       </c>
-      <c r="S23" s="54">
+      <c r="S23" s="51">
         <v>-185.66</v>
       </c>
-      <c r="T23" s="55">
+      <c r="T23" s="52">
         <v>-186.2299999999999</v>
       </c>
-      <c r="U23" s="54">
+      <c r="U23" s="51">
         <v>-157.86999999999989</v>
       </c>
-      <c r="V23" s="54">
+      <c r="V23" s="51">
         <v>-55.640000000000008</v>
       </c>
     </row>
@@ -17924,10 +18082,10 @@
       <c r="A24" s="2">
         <v>4</v>
       </c>
-      <c r="B24" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="49">
+      <c r="B24" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="46">
         <v>26444.322033898199</v>
       </c>
       <c r="D24" s="3">
@@ -17966,7 +18124,7 @@
       <c r="O24" s="3">
         <v>12.534415451913601</v>
       </c>
-      <c r="P24" s="53">
+      <c r="P24" s="50">
         <v>5.8060175953319202E-4</v>
       </c>
       <c r="Q24" s="3">
@@ -17975,39 +18133,39 @@
       <c r="R24" s="3">
         <v>272.65362399689297</v>
       </c>
-      <c r="S24" s="54">
+      <c r="S24" s="51">
         <v>-133.52000000000001</v>
       </c>
-      <c r="T24" s="55">
+      <c r="T24" s="52">
         <v>-126.28</v>
       </c>
-      <c r="U24" s="55">
+      <c r="U24" s="52">
         <v>-158.71999999999991</v>
       </c>
-      <c r="V24" s="54">
+      <c r="V24" s="51">
         <v>-3.8700000000000072</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>5</v>
       </c>
-      <c r="B27" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="49">
+      <c r="B27" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="46">
         <v>31693.882352941098</v>
       </c>
       <c r="D27" s="3">
@@ -18046,7 +18204,7 @@
       <c r="O27" s="3">
         <v>22.535907071104901</v>
       </c>
-      <c r="P27" s="53">
+      <c r="P27" s="50">
         <v>5.6204664330488903E-4</v>
       </c>
       <c r="Q27" s="3">
@@ -18055,16 +18213,16 @@
       <c r="R27" s="3">
         <v>86.674616944433694</v>
       </c>
-      <c r="S27" s="54">
+      <c r="S27" s="51">
         <v>-96.879999999999967</v>
       </c>
-      <c r="T27" s="54">
+      <c r="T27" s="51">
         <v>-116.2</v>
       </c>
-      <c r="U27" s="54">
+      <c r="U27" s="51">
         <v>-126.74</v>
       </c>
-      <c r="V27" s="54">
+      <c r="V27" s="51">
         <v>23.849999999999952</v>
       </c>
     </row>
@@ -18072,10 +18230,10 @@
       <c r="A28" s="2">
         <v>5</v>
       </c>
-      <c r="B28" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="49">
+      <c r="B28" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="46">
         <v>32717.342857142801</v>
       </c>
       <c r="D28" s="3">
@@ -18114,7 +18272,7 @@
       <c r="O28" s="3">
         <v>22.845238599246301</v>
       </c>
-      <c r="P28" s="53">
+      <c r="P28" s="50">
         <v>7.0640901064990096E-4</v>
       </c>
       <c r="Q28" s="3">
@@ -18123,16 +18281,16 @@
       <c r="R28" s="3">
         <v>166.077274161171</v>
       </c>
-      <c r="S28" s="54">
+      <c r="S28" s="51">
         <v>-222.17999999999989</v>
       </c>
-      <c r="T28" s="54">
+      <c r="T28" s="51">
         <v>-162.32</v>
       </c>
-      <c r="U28" s="54">
+      <c r="U28" s="51">
         <v>-197.11999999999989</v>
       </c>
-      <c r="V28" s="54">
+      <c r="V28" s="51">
         <v>-28.920000000000009</v>
       </c>
     </row>
@@ -18140,10 +18298,10 @@
       <c r="A29" s="2">
         <v>5</v>
       </c>
-      <c r="B29" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="49">
+      <c r="B29" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="46">
         <v>32717.342857142801</v>
       </c>
       <c r="D29" s="3">
@@ -18182,7 +18340,7 @@
       <c r="O29" s="3">
         <v>22.845238599246301</v>
       </c>
-      <c r="P29" s="53">
+      <c r="P29" s="50">
         <v>7.0640901064990096E-4</v>
       </c>
       <c r="Q29" s="3">
@@ -18191,16 +18349,16 @@
       <c r="R29" s="3">
         <v>166.077274161171</v>
       </c>
-      <c r="S29" s="54">
+      <c r="S29" s="51">
         <v>-93.949999999999989</v>
       </c>
-      <c r="T29" s="54">
+      <c r="T29" s="51">
         <v>-137.75</v>
       </c>
-      <c r="U29" s="54">
+      <c r="U29" s="51">
         <v>-134.6</v>
       </c>
-      <c r="V29" s="54">
+      <c r="V29" s="51">
         <v>4.3299999999999983</v>
       </c>
     </row>

--- a/migforecasting/clustering/AN-method.xlsx
+++ b/migforecasting/clustering/AN-method.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ мун-районы" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="32">
   <si>
     <t>clust</t>
   </si>
@@ -3656,6 +3656,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4660,6 +4661,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7380,7 +7382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
@@ -14345,10 +14347,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14367,9 +14369,10 @@
     <col min="15" max="15" width="12.85546875" customWidth="1"/>
     <col min="16" max="17" width="14.5703125" customWidth="1"/>
     <col min="18" max="18" width="14.140625" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14424,8 +14427,11 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -14480,8 +14486,12 @@
       <c r="R2" s="3">
         <v>264.58127835258301</v>
       </c>
+      <c r="S2" s="50">
+        <f>P2*C2</f>
+        <v>60.524146317429285</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -14536,8 +14546,12 @@
       <c r="R3" s="3">
         <v>265.87990616144202</v>
       </c>
+      <c r="S3" s="50">
+        <f>P3*C3</f>
+        <v>44.94455288664674</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="46"/>
       <c r="C4" s="46"/>
@@ -14556,8 +14570,9 @@
       <c r="P4" s="50"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
+      <c r="S4" s="50"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -14612,8 +14627,12 @@
       <c r="R5" s="3">
         <v>160.88126020636</v>
       </c>
+      <c r="S5" s="50">
+        <f>P5*C5</f>
+        <v>13.304075137021472</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -14668,8 +14687,12 @@
       <c r="R6" s="3">
         <v>168.31403626084099</v>
       </c>
+      <c r="S6" s="50">
+        <f>P6*C6</f>
+        <v>14.728445167291543</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="46"/>
       <c r="C7" s="46"/>
@@ -14688,8 +14711,9 @@
       <c r="P7" s="50"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
+      <c r="S7" s="50"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -14744,8 +14768,12 @@
       <c r="R8" s="3">
         <v>267.76056498903802</v>
       </c>
+      <c r="S8" s="50">
+        <f>P8*C8</f>
+        <v>19.123987953849415</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -14800,8 +14828,12 @@
       <c r="R9" s="3">
         <v>215.08277428894999</v>
       </c>
+      <c r="S9" s="50">
+        <f>P9*C9</f>
+        <v>15.811546702429359</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="46"/>
       <c r="C10" s="46"/>
@@ -14820,8 +14852,9 @@
       <c r="P10" s="50"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
+      <c r="S10" s="50"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3</v>
       </c>
@@ -14876,8 +14909,12 @@
       <c r="R11" s="3">
         <v>814.51301889204206</v>
       </c>
+      <c r="S11" s="50">
+        <f>P11*C11</f>
+        <v>29.323542534875898</v>
+      </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>3</v>
       </c>
@@ -14932,8 +14969,12 @@
       <c r="R12" s="3">
         <v>814.86215366019201</v>
       </c>
+      <c r="S12" s="50">
+        <f>P12*C12</f>
+        <v>23.212532107962019</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="46"/>
       <c r="C13" s="46"/>
@@ -14952,8 +14993,9 @@
       <c r="P13" s="50"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
+      <c r="S13" s="50"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>4</v>
       </c>
@@ -15008,8 +15050,12 @@
       <c r="R14" s="3">
         <v>272.65362399689297</v>
       </c>
+      <c r="S14" s="50">
+        <f>P14*C14</f>
+        <v>19.750147413465015</v>
+      </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>4</v>
       </c>
@@ -15064,8 +15110,12 @@
       <c r="R15" s="3">
         <v>255.66572324290701</v>
       </c>
+      <c r="S15" s="50">
+        <f>P15*C15</f>
+        <v>15.353619902543654</v>
+      </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="46"/>
       <c r="C16" s="46"/>
@@ -15084,8 +15134,9 @@
       <c r="P16" s="50"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
+      <c r="S16" s="50"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>5</v>
       </c>
@@ -15140,8 +15191,12 @@
       <c r="R17" s="3">
         <v>86.674616944433694</v>
       </c>
+      <c r="S17" s="50">
+        <f>P17*C17</f>
+        <v>17.813440189770603</v>
+      </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>5</v>
       </c>
@@ -15196,8 +15251,12 @@
       <c r="R18" s="3">
         <v>166.077274161171</v>
       </c>
+      <c r="S18" s="50">
+        <f>P18*C18</f>
+        <v>23.11182579880785</v>
+      </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D19" s="42" t="s">
         <v>19</v>
       </c>
@@ -15208,12 +15267,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H23" s="34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C24" s="35" t="s">
         <v>2</v>
       </c>
@@ -15262,8 +15321,11 @@
       <c r="R24" s="35" t="s">
         <v>17</v>
       </c>
+      <c r="S24" s="35" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>0</v>
       </c>
@@ -15332,428 +15394,672 @@
         <f t="shared" si="0"/>
         <v>-4.8842645824859199E-3</v>
       </c>
+      <c r="S25" s="15">
+        <f t="shared" ref="S25" si="1">(S2/S3)-1</f>
+        <v>0.34664030299901638</v>
+      </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f>A25+1</f>
         <v>1</v>
       </c>
       <c r="C26" s="15">
-        <f t="shared" ref="C26:R26" si="1">(C5/C6)-1</f>
+        <f t="shared" ref="C26:R26" si="2">(C5/C6)-1</f>
         <v>-1.673212979682781E-2</v>
       </c>
       <c r="D26" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-9.3824012719521899E-2</v>
       </c>
       <c r="E26" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-7.7254603342790107E-3</v>
       </c>
       <c r="F26" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3431274833336531E-3</v>
       </c>
       <c r="G26" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.8317830507823389E-2</v>
       </c>
       <c r="H26" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.8967578120533677E-2</v>
       </c>
       <c r="I26" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.5105421145699238E-2</v>
       </c>
       <c r="J26" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.9046743490098068E-2</v>
       </c>
       <c r="K26" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.3664854944583831E-2</v>
       </c>
       <c r="L26" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.7609630540268908E-2</v>
       </c>
       <c r="M26" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.514600381121936E-2</v>
       </c>
       <c r="N26" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2579523387723945E-2</v>
       </c>
       <c r="O26" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.14017698498511078</v>
       </c>
       <c r="P26" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-8.1337606124669892E-2</v>
       </c>
       <c r="Q26" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.6517507065374617E-2</v>
       </c>
       <c r="R26" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.4160167622397273E-2</v>
       </c>
+      <c r="S26" s="15">
+        <f t="shared" ref="S26" si="3">(S5/S6)-1</f>
+        <v>-9.670878453845666E-2</v>
+      </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f>A26+1</f>
         <v>2</v>
       </c>
       <c r="C27" s="15">
-        <f t="shared" ref="C27:R27" si="2">(C8/C9)-1</f>
+        <f t="shared" ref="C27:R27" si="4">(C8/C9)-1</f>
         <v>0.16060291964094442</v>
       </c>
       <c r="D27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-8.4341933241086187E-2</v>
       </c>
       <c r="E27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.3733011221135181E-2</v>
       </c>
       <c r="F27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-4.1644849900267511E-2</v>
       </c>
       <c r="G27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-6.2400909610806243E-2</v>
       </c>
       <c r="H27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.24235660505046708</v>
       </c>
       <c r="I27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.7737102726677056E-2</v>
       </c>
       <c r="J27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-4.7016377499118467E-2</v>
       </c>
       <c r="K27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.14605522349194267</v>
       </c>
       <c r="L27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5941719393562934E-4</v>
       </c>
       <c r="M27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.16940984771998702</v>
       </c>
       <c r="N27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.1392885901069667</v>
       </c>
       <c r="O27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.1351125344948898</v>
       </c>
       <c r="P27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.2126519043320654E-2</v>
       </c>
       <c r="Q27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-4.1893826488067831E-2</v>
       </c>
       <c r="R27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.24491868711586728</v>
       </c>
+      <c r="S27" s="15">
+        <f t="shared" ref="S27" si="5">(S8/S9)-1</f>
+        <v>0.20949508063693201</v>
+      </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f>A27+1</f>
         <v>3</v>
       </c>
       <c r="C28" s="15">
-        <f t="shared" ref="C28:R28" si="3">(C11/C12)-1</f>
+        <f t="shared" ref="C28:R28" si="6">(C11/C12)-1</f>
         <v>0.25520886551173572</v>
       </c>
       <c r="D28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.8362720666948373E-2</v>
       </c>
       <c r="E28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8.5279988922746242E-2</v>
       </c>
       <c r="F28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-7.1324198083567714E-3</v>
       </c>
       <c r="G28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.14018819821411821</v>
       </c>
       <c r="H28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.25341726605924064</v>
       </c>
       <c r="I28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-3.6848247063848927E-2</v>
       </c>
       <c r="J28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.0675354317002181E-2</v>
       </c>
       <c r="K28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.6344382501624546E-2</v>
       </c>
       <c r="L28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.1343585956437946</v>
       </c>
       <c r="M28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.29187965274483951</v>
       </c>
       <c r="N28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-3.1630369165327132E-2</v>
       </c>
       <c r="O28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-3.1530220030370204E-3</v>
       </c>
       <c r="P28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.4168981760275301E-3</v>
       </c>
       <c r="Q28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-6.0072140160480347E-2</v>
       </c>
       <c r="R28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-4.2845868664009856E-4</v>
       </c>
+      <c r="S28" s="15">
+        <f t="shared" ref="S28" si="7">(S11/S12)-1</f>
+        <v>0.26326341299137157</v>
+      </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f>A28+1</f>
         <v>4</v>
       </c>
       <c r="C29" s="15">
-        <f t="shared" ref="C29:R29" si="4">(C14/C15)-1</f>
+        <f t="shared" ref="C29:R29" si="8">(C14/C15)-1</f>
         <v>0.29882071808479771</v>
       </c>
       <c r="D29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-2.0798451859692424E-2</v>
       </c>
       <c r="E29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.555163464248805E-2</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.7105487105711541E-2</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-5.8644934466312248E-2</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.20229854082897192</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.934204270972689E-3</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.2811583891146912E-2</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.9053934183301857E-2</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-0.13331375111461341</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.23224719217273293</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.26307355281910216</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.42929405542376498</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-9.6006447395693417E-3</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.0396453985097152E-2</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.6445750093163003E-2</v>
       </c>
+      <c r="S29" s="15">
+        <f t="shared" ref="S29" si="9">(S14/S15)-1</f>
+        <v>0.28635120179007312</v>
+      </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <f>A29+1</f>
         <v>5</v>
       </c>
       <c r="C30" s="15">
-        <f t="shared" ref="C30:R30" si="5">(C17/C18)-1</f>
+        <f t="shared" ref="C30:R30" si="10">(C17/C18)-1</f>
         <v>-3.1281895619413413E-2</v>
       </c>
       <c r="D30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-0.10073130340202863</v>
       </c>
       <c r="E30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-1.7567405519244184E-2</v>
       </c>
       <c r="F30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.23437658305202325</v>
       </c>
       <c r="G30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.88438632413259799</v>
       </c>
       <c r="H30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.50843593810748544</v>
       </c>
       <c r="I30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.12544201723063519</v>
       </c>
       <c r="J30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.13762365966795143</v>
       </c>
       <c r="K30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.14029215163370412</v>
       </c>
       <c r="L30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.11249726237776181</v>
       </c>
       <c r="M30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-0.14075630791504701</v>
       </c>
       <c r="N30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>7.2756922110159383E-2</v>
       </c>
       <c r="O30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-1.3540306300482419E-2</v>
       </c>
       <c r="P30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-0.20436088040864253</v>
       </c>
       <c r="Q30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-1.4957189300934259E-2</v>
       </c>
       <c r="R30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-0.47810669832935948</v>
       </c>
+      <c r="S30" s="15">
+        <f t="shared" ref="S30" si="11">(S17/S18)-1</f>
+        <v>-0.22924998029842136</v>
+      </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
         <v>26</v>
       </c>
       <c r="C31" s="47">
-        <f t="shared" ref="C31:R31" si="6">AVERAGE(C25:C30)</f>
+        <f t="shared" ref="C31:R31" si="12">AVERAGE(C25:C30)</f>
         <v>0.1530882296273029</v>
       </c>
       <c r="D31" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-4.3158937537187657E-2</v>
       </c>
       <c r="E31" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4.3246496906242902E-2</v>
       </c>
       <c r="F31" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>3.8713878631365585E-2</v>
       </c>
       <c r="G31" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.17756314057400535</v>
       </c>
       <c r="H31" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.22431998874260226</v>
       </c>
       <c r="I31" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2.0717030584713875E-2</v>
       </c>
       <c r="J31" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2.1836382204897253E-3</v>
       </c>
       <c r="K31" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>9.2850431550950217E-3</v>
       </c>
       <c r="L31" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-7.1040558569823622E-2</v>
       </c>
       <c r="M31" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-3.4643133764610402E-2</v>
       </c>
       <c r="N31" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.06504684645584E-2</v>
       </c>
       <c r="O31" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>6.7002235654687617E-2</v>
       </c>
       <c r="P31" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-2.851464442612241E-2</v>
       </c>
       <c r="Q31" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-3.5058627549486278E-2</v>
       </c>
       <c r="R31" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-3.6035858668642083E-2</v>
+      </c>
+      <c r="S31" s="47">
+        <f t="shared" ref="S31" si="13">AVERAGE(S25:S30)</f>
+        <v>0.12996520559675251</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C3">
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C6">
+    <cfRule type="colorScale" priority="119">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D3">
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="colorScale" priority="117">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F3">
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G3">
+    <cfRule type="colorScale" priority="115">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H3">
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I3">
+    <cfRule type="colorScale" priority="113">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J3">
+    <cfRule type="colorScale" priority="112">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K3">
+    <cfRule type="colorScale" priority="111">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L3">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M3">
+    <cfRule type="colorScale" priority="109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N3">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O3">
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P3">
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q3">
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:R3">
+    <cfRule type="colorScale" priority="104">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D6">
+    <cfRule type="colorScale" priority="103">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E6">
     <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="min"/>
@@ -15765,7 +16071,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C6">
+  <conditionalFormatting sqref="F5:F6">
     <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="min"/>
@@ -15777,7 +16083,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D3">
+  <conditionalFormatting sqref="G5:G6">
     <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="min"/>
@@ -15789,7 +16095,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="H5:H6">
     <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="min"/>
@@ -15801,7 +16107,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F3">
+  <conditionalFormatting sqref="I5:I6">
     <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="min"/>
@@ -15813,7 +16119,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G3">
+  <conditionalFormatting sqref="J5:J6">
     <cfRule type="colorScale" priority="97">
       <colorScale>
         <cfvo type="min"/>
@@ -15825,7 +16131,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H3">
+  <conditionalFormatting sqref="K5:K6">
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="min"/>
@@ -15837,7 +16143,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I3">
+  <conditionalFormatting sqref="L5:L6">
     <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
@@ -15849,7 +16155,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J3">
+  <conditionalFormatting sqref="M5:M6">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
@@ -15861,7 +16167,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K3">
+  <conditionalFormatting sqref="N5:N6">
     <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
@@ -15873,7 +16179,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L3">
+  <conditionalFormatting sqref="O5:O6">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
@@ -15885,7 +16191,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M3">
+  <conditionalFormatting sqref="P5:P6">
     <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="min"/>
@@ -15897,7 +16203,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N3">
+  <conditionalFormatting sqref="Q5:Q6">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min"/>
@@ -15909,7 +16215,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O3">
+  <conditionalFormatting sqref="R5:R6">
     <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min"/>
@@ -15921,7 +16227,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P3">
+  <conditionalFormatting sqref="C8:C9">
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min"/>
@@ -15933,7 +16239,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q3">
+  <conditionalFormatting sqref="D8:D9">
     <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="min"/>
@@ -15945,7 +16251,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R3">
+  <conditionalFormatting sqref="E8:E9">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
@@ -15957,7 +16263,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D6">
+  <conditionalFormatting sqref="F8:F9">
     <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="min"/>
@@ -15969,7 +16275,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E6">
+  <conditionalFormatting sqref="G8:G9">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
@@ -15981,7 +16287,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F6">
+  <conditionalFormatting sqref="H8:H9">
     <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
@@ -15993,7 +16299,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G6">
+  <conditionalFormatting sqref="I8:I9">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
@@ -16005,7 +16311,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H6">
+  <conditionalFormatting sqref="J8:J9">
     <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
@@ -16017,7 +16323,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I6">
+  <conditionalFormatting sqref="K8:K9">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
@@ -16029,7 +16335,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J6">
+  <conditionalFormatting sqref="L8:L9">
     <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
@@ -16041,7 +16347,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K6">
+  <conditionalFormatting sqref="M8:M9">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
@@ -16053,7 +16359,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L6">
+  <conditionalFormatting sqref="N8:N9">
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
@@ -16065,7 +16371,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M6">
+  <conditionalFormatting sqref="O8:O9">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
@@ -16077,7 +16383,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:N6">
+  <conditionalFormatting sqref="P8:P9">
     <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
@@ -16089,7 +16395,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5:O6">
+  <conditionalFormatting sqref="Q8:Q9">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
@@ -16101,7 +16407,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P5:P6">
+  <conditionalFormatting sqref="R8:R9">
     <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
@@ -16113,7 +16419,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:Q6">
+  <conditionalFormatting sqref="C11:C12">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
@@ -16125,7 +16431,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R5:R6">
+  <conditionalFormatting sqref="D11:D12">
     <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
@@ -16137,7 +16443,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8:C9">
+  <conditionalFormatting sqref="E11:E12">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
@@ -16149,7 +16455,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D9">
+  <conditionalFormatting sqref="F11:F12">
     <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
@@ -16161,7 +16467,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E9">
+  <conditionalFormatting sqref="G11:G12">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
@@ -16173,7 +16479,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F9">
+  <conditionalFormatting sqref="H11:H12">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
@@ -16185,7 +16491,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G9">
+  <conditionalFormatting sqref="I11:I12">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -16197,7 +16503,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H9">
+  <conditionalFormatting sqref="J11:J12">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -16209,7 +16515,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I9">
+  <conditionalFormatting sqref="K11:K12">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -16221,7 +16527,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:J9">
+  <conditionalFormatting sqref="L11:L12">
     <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
@@ -16233,7 +16539,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K9">
+  <conditionalFormatting sqref="M11:M12">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
@@ -16245,7 +16551,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8:L9">
+  <conditionalFormatting sqref="N11:N12">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
@@ -16257,7 +16563,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8:M9">
+  <conditionalFormatting sqref="O11:O12">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -16269,7 +16575,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8:N9">
+  <conditionalFormatting sqref="P11:P12">
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
@@ -16281,7 +16587,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O8:O9">
+  <conditionalFormatting sqref="Q11:Q12">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -16293,7 +16599,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P8:P9">
+  <conditionalFormatting sqref="R11:R12">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -16305,7 +16611,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q8:Q9">
+  <conditionalFormatting sqref="C14:C15">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -16317,7 +16623,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R8:R9">
+  <conditionalFormatting sqref="D14:D15">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -16329,7 +16635,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C12">
+  <conditionalFormatting sqref="E14:E15">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -16341,7 +16647,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D12">
+  <conditionalFormatting sqref="F14:F15">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -16353,7 +16659,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E12">
+  <conditionalFormatting sqref="G14:G15">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -16365,7 +16671,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F12">
+  <conditionalFormatting sqref="H14:H15">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -16377,7 +16683,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11:G12">
+  <conditionalFormatting sqref="I14:I15">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -16389,7 +16695,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H12">
+  <conditionalFormatting sqref="J14:J15">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -16401,7 +16707,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11:I12">
+  <conditionalFormatting sqref="K14:K15">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -16413,7 +16719,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11:J12">
+  <conditionalFormatting sqref="L14:L15">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -16425,7 +16731,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:K12">
+  <conditionalFormatting sqref="M14:M15">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -16437,7 +16743,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L11:L12">
+  <conditionalFormatting sqref="N14:N15">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -16449,7 +16755,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M11:M12">
+  <conditionalFormatting sqref="O14:O15">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -16461,7 +16767,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N11:N12">
+  <conditionalFormatting sqref="P14:P15">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -16473,7 +16779,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O11:O12">
+  <conditionalFormatting sqref="Q14:Q15">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -16485,7 +16791,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P11:P12">
+  <conditionalFormatting sqref="R14:R15">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -16497,7 +16803,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q11:Q12">
+  <conditionalFormatting sqref="C17:C18">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -16509,7 +16815,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R11:R12">
+  <conditionalFormatting sqref="D17:D18">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -16521,7 +16827,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14:C15">
+  <conditionalFormatting sqref="E17:E18">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -16533,7 +16839,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
+  <conditionalFormatting sqref="F17:F18">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -16545,7 +16851,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E15">
+  <conditionalFormatting sqref="G17:G18">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -16557,7 +16863,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:F15">
+  <conditionalFormatting sqref="H17:H18">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -16569,7 +16875,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G15">
+  <conditionalFormatting sqref="I17:I18">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -16581,7 +16887,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:H15">
+  <conditionalFormatting sqref="J17:J18">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -16593,7 +16899,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14:I15">
+  <conditionalFormatting sqref="K17:K18">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -16605,7 +16911,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J14:J15">
+  <conditionalFormatting sqref="L17:L18">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -16617,7 +16923,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:K15">
+  <conditionalFormatting sqref="M17:M18">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -16629,7 +16935,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14:L15">
+  <conditionalFormatting sqref="N17:N18">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -16641,7 +16947,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14:M15">
+  <conditionalFormatting sqref="O17:O18">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -16653,7 +16959,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N14:N15">
+  <conditionalFormatting sqref="P17:P18">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -16665,7 +16971,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O14:O15">
+  <conditionalFormatting sqref="Q17:Q18">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -16677,7 +16983,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P14:P15">
+  <conditionalFormatting sqref="R17:R18">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -16689,7 +16995,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q14:Q15">
+  <conditionalFormatting sqref="C25:R25">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -16701,7 +17007,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R14:R15">
+  <conditionalFormatting sqref="C26:R26">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -16713,7 +17019,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C18">
+  <conditionalFormatting sqref="C27:R27">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -16725,7 +17031,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D18">
+  <conditionalFormatting sqref="C28:R28">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -16737,7 +17043,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E18">
+  <conditionalFormatting sqref="C29:R29">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -16749,7 +17055,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17:F18">
+  <conditionalFormatting sqref="C30:R30">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -16761,7 +17067,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17:G18">
+  <conditionalFormatting sqref="S2:S3">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -16773,67 +17079,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17:H18">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17:I18">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J17:J18">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17:K18">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L17:L18">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M17:M18">
+  <conditionalFormatting sqref="S5:S6">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -16845,7 +17091,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N17:N18">
+  <conditionalFormatting sqref="S8:S9">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -16857,7 +17103,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O17:O18">
+  <conditionalFormatting sqref="S11:S12">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -16869,7 +17115,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P17:P18">
+  <conditionalFormatting sqref="S14:S15">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -16881,7 +17127,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q17:Q18">
+  <conditionalFormatting sqref="S17:S18">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -16893,7 +17139,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R17:R18">
+  <conditionalFormatting sqref="S25">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -16905,7 +17151,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:R25">
+  <conditionalFormatting sqref="S26">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -16917,7 +17163,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:R26">
+  <conditionalFormatting sqref="S27">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -16929,7 +17175,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:R27">
+  <conditionalFormatting sqref="S28">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -16941,7 +17187,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:R28">
+  <conditionalFormatting sqref="S29">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -16953,7 +17199,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:R29">
+  <conditionalFormatting sqref="S30">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -16965,7 +17211,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30:R30">
+  <conditionalFormatting sqref="S25:S30">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/migforecasting/clustering/AN-method.xlsx
+++ b/migforecasting/clustering/AN-method.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12255" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ мун-районы" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="33">
   <si>
     <t>clust</t>
   </si>
@@ -119,14 +119,18 @@
   <si>
     <t>hospitals abs</t>
   </si>
+  <si>
+    <t>beforeschool abs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -435,7 +439,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -586,6 +590,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -7382,8 +7390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView topLeftCell="E13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7406,7 +7414,7 @@
     <col min="17" max="17" width="16.140625" customWidth="1"/>
     <col min="18" max="18" width="14.28515625" customWidth="1"/>
     <col min="19" max="19" width="15.85546875" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" customWidth="1"/>
     <col min="21" max="21" width="16.140625" customWidth="1"/>
     <col min="22" max="22" width="13.140625" customWidth="1"/>
     <col min="23" max="23" width="13.28515625" customWidth="1"/>
@@ -7474,6 +7482,9 @@
       <c r="S1" s="32" t="s">
         <v>31</v>
       </c>
+      <c r="T1" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="U1" s="32"/>
       <c r="V1" s="33"/>
       <c r="W1" s="32"/>
@@ -7541,6 +7552,10 @@
         <f>P2*C2</f>
         <v>18.040731997842698</v>
       </c>
+      <c r="T2" s="56">
+        <f>Q2*C2</f>
+        <v>546.57451711832289</v>
+      </c>
       <c r="U2" s="36"/>
       <c r="V2" s="36"/>
       <c r="W2" s="36"/>
@@ -7607,6 +7622,10 @@
       <c r="S3" s="54">
         <f>P3*C3</f>
         <v>19.609042079700028</v>
+      </c>
+      <c r="T3" s="56">
+        <f>Q3*C3</f>
+        <v>650.82453544593022</v>
       </c>
       <c r="U3" s="36"/>
       <c r="V3" s="37"/>
@@ -7636,6 +7655,7 @@
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
       <c r="S4" s="54"/>
+      <c r="T4" s="56"/>
       <c r="U4" s="36"/>
       <c r="V4" s="37"/>
       <c r="W4" s="36"/>
@@ -7703,6 +7723,10 @@
         <f>P5*C5</f>
         <v>33.039354309095614</v>
       </c>
+      <c r="T5" s="56">
+        <f>Q5*C5</f>
+        <v>1381.9311693104939</v>
+      </c>
       <c r="U5" s="36"/>
       <c r="V5" s="36"/>
       <c r="W5" s="36"/>
@@ -7769,6 +7793,10 @@
       <c r="S6" s="54">
         <f>P6*C6</f>
         <v>32.619031111887118</v>
+      </c>
+      <c r="T6" s="56">
+        <f>Q6*C6</f>
+        <v>1224.1511459815647</v>
       </c>
       <c r="U6" s="36"/>
       <c r="V6" s="37"/>
@@ -7798,6 +7826,7 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="54"/>
+      <c r="T7" s="56"/>
       <c r="U7" s="36"/>
       <c r="V7" s="37"/>
       <c r="W7" s="36"/>
@@ -7865,6 +7894,10 @@
         <f>P8*C8</f>
         <v>29.164228617921733</v>
       </c>
+      <c r="T8" s="56">
+        <f>Q8*C8</f>
+        <v>1758.9321808255766</v>
+      </c>
       <c r="U8" s="36"/>
       <c r="V8" s="36"/>
       <c r="W8" s="36"/>
@@ -7931,6 +7964,10 @@
       <c r="S9" s="54">
         <f>P9*C9</f>
         <v>28.380561912594022</v>
+      </c>
+      <c r="T9" s="56">
+        <f>Q9*C9</f>
+        <v>1645.1975738592582</v>
       </c>
       <c r="U9" s="36"/>
       <c r="V9" s="37"/>
@@ -7960,6 +7997,7 @@
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="54"/>
+      <c r="T10" s="56"/>
       <c r="U10" s="36"/>
       <c r="V10" s="37"/>
       <c r="W10" s="36"/>
@@ -8027,6 +8065,10 @@
         <f>P11*C11</f>
         <v>36.194193885499985</v>
       </c>
+      <c r="T11" s="56">
+        <f>Q11*C11</f>
+        <v>1535.3817418346771</v>
+      </c>
       <c r="U11" s="36"/>
       <c r="V11" s="36"/>
       <c r="W11" s="36"/>
@@ -8093,6 +8135,10 @@
       <c r="S12" s="54">
         <f>P12*C12</f>
         <v>30.728877070163868</v>
+      </c>
+      <c r="T12" s="56">
+        <f>Q12*C12</f>
+        <v>1298.4540832853504</v>
       </c>
       <c r="U12" s="36"/>
       <c r="V12" s="37"/>
@@ -8122,6 +8168,7 @@
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
       <c r="S13" s="54"/>
+      <c r="T13" s="56"/>
       <c r="U13" s="36"/>
       <c r="V13" s="37"/>
       <c r="W13" s="36"/>
@@ -8189,6 +8236,10 @@
         <f>P14*C14</f>
         <v>28.443195591325427</v>
       </c>
+      <c r="T14" s="56">
+        <f>Q14*C14</f>
+        <v>810.14959160148419</v>
+      </c>
       <c r="U14" s="36"/>
       <c r="V14" s="36"/>
       <c r="W14" s="36"/>
@@ -8255,6 +8306,10 @@
       <c r="S15" s="54">
         <f>P15*C15</f>
         <v>29.821897988185309</v>
+      </c>
+      <c r="T15" s="56">
+        <f>Q15*C15</f>
+        <v>885.40905637067976</v>
       </c>
       <c r="U15" s="36"/>
       <c r="V15" s="37"/>
@@ -8284,6 +8339,7 @@
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="54"/>
+      <c r="T16" s="56"/>
       <c r="U16" s="36"/>
       <c r="V16" s="37"/>
       <c r="W16" s="36"/>
@@ -8351,6 +8407,10 @@
         <f>P17*C17</f>
         <v>33.079177230216096</v>
       </c>
+      <c r="T17" s="56">
+        <f>Q17*C17</f>
+        <v>2098.064034808825</v>
+      </c>
       <c r="U17" s="36"/>
       <c r="V17" s="36"/>
       <c r="W17" s="36"/>
@@ -8417,6 +8477,10 @@
       <c r="S18" s="54">
         <f>P18*C18</f>
         <v>33.961351157991949</v>
+      </c>
+      <c r="T18" s="56">
+        <f>Q18*C18</f>
+        <v>2191.4387029898899</v>
       </c>
       <c r="U18" s="37"/>
       <c r="V18" s="37"/>
@@ -8531,6 +8595,9 @@
       <c r="S24" s="35" t="s">
         <v>31</v>
       </c>
+      <c r="T24" s="35" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
@@ -8602,8 +8669,12 @@
         <v>0.19480529083602205</v>
       </c>
       <c r="S25" s="15">
-        <f t="shared" ref="S25" si="1">(S2/S3)-1</f>
+        <f t="shared" ref="S25:T25" si="1">(S2/S3)-1</f>
         <v>-7.9978923778275757E-2</v>
+      </c>
+      <c r="T25" s="15">
+        <f t="shared" si="1"/>
+        <v>-0.16018145083632651</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
@@ -8676,8 +8747,12 @@
         <v>0.25852228066912319</v>
       </c>
       <c r="S26" s="15">
-        <f t="shared" ref="S26" si="3">(S5/S6)-1</f>
+        <f t="shared" ref="S26:T26" si="3">(S5/S6)-1</f>
         <v>1.2885827165336039E-2</v>
+      </c>
+      <c r="T26" s="15">
+        <f t="shared" si="3"/>
+        <v>0.12888933188263785</v>
       </c>
       <c r="U26" s="32"/>
       <c r="V26" s="33"/>
@@ -8757,8 +8832,12 @@
         <v>0.18010938619017747</v>
       </c>
       <c r="S27" s="15">
-        <f t="shared" ref="S27" si="5">(S8/S9)-1</f>
+        <f t="shared" ref="S27:T27" si="5">(S8/S9)-1</f>
         <v>2.761279736959521E-2</v>
+      </c>
+      <c r="T27" s="15">
+        <f t="shared" si="5"/>
+        <v>6.9131275643400603E-2</v>
       </c>
       <c r="U27" s="15"/>
       <c r="V27" s="15"/>
@@ -8838,8 +8917,12 @@
         <v>0.1669857489501978</v>
       </c>
       <c r="S28" s="15">
-        <f t="shared" ref="S28" si="7">(S11/S12)-1</f>
+        <f t="shared" ref="S28:T28" si="7">(S11/S12)-1</f>
         <v>0.17785605386285508</v>
+      </c>
+      <c r="T28" s="15">
+        <f t="shared" si="7"/>
+        <v>0.18246903113420232</v>
       </c>
       <c r="U28" s="15"/>
       <c r="V28" s="15"/>
@@ -8919,8 +9002,12 @@
         <v>0.24930036235826813</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" ref="S29" si="9">(S14/S15)-1</f>
+        <f t="shared" ref="S29:T29" si="9">(S14/S15)-1</f>
         <v>-4.6231208939353508E-2</v>
+      </c>
+      <c r="T29" s="15">
+        <f t="shared" si="9"/>
+        <v>-8.4999655501251103E-2</v>
       </c>
       <c r="U29" s="15"/>
       <c r="V29" s="15"/>
@@ -9000,8 +9087,12 @@
         <v>2.1508407556542597E-2</v>
       </c>
       <c r="S30" s="15">
-        <f t="shared" ref="S30" si="11">(S17/S18)-1</f>
+        <f t="shared" ref="S30:T30" si="11">(S17/S18)-1</f>
         <v>-2.5975819503525677E-2</v>
+      </c>
+      <c r="T30" s="15">
+        <f t="shared" si="11"/>
+        <v>-4.2608843246981554E-2</v>
       </c>
       <c r="U30" s="15"/>
       <c r="V30" s="15"/>
@@ -9080,8 +9171,12 @@
         <v>0.17853857942672188</v>
       </c>
       <c r="S31" s="47">
-        <f t="shared" ref="S31" si="13">AVERAGE(S25:S30)</f>
+        <f t="shared" ref="S31:T31" si="13">AVERAGE(S25:S30)</f>
         <v>1.1028121029438565E-2</v>
+      </c>
+      <c r="T31" s="47">
+        <f t="shared" si="13"/>
+        <v>1.5449948179280268E-2</v>
       </c>
       <c r="U31" s="15"/>
       <c r="V31" s="15"/>
@@ -9103,6 +9198,162 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C3">
+    <cfRule type="colorScale" priority="130">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D3">
+    <cfRule type="colorScale" priority="129">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="colorScale" priority="128">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F3">
+    <cfRule type="colorScale" priority="127">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G3">
+    <cfRule type="colorScale" priority="126">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H3">
+    <cfRule type="colorScale" priority="125">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I3">
+    <cfRule type="colorScale" priority="124">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J3">
+    <cfRule type="colorScale" priority="123">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K3">
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L3">
+    <cfRule type="colorScale" priority="121">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M3">
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N3">
+    <cfRule type="colorScale" priority="119">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O3">
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P3">
     <cfRule type="colorScale" priority="117">
       <colorScale>
         <cfvo type="min"/>
@@ -9114,7 +9365,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D3">
+  <conditionalFormatting sqref="Q2:Q3">
     <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="min"/>
@@ -9126,7 +9377,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="R2:R3">
     <cfRule type="colorScale" priority="115">
       <colorScale>
         <cfvo type="min"/>
@@ -9138,31 +9389,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F3">
-    <cfRule type="colorScale" priority="114">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G3">
-    <cfRule type="colorScale" priority="113">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H3">
+  <conditionalFormatting sqref="C5:C6">
     <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="min"/>
@@ -9174,7 +9401,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I3">
+  <conditionalFormatting sqref="D5:D6">
     <cfRule type="colorScale" priority="111">
       <colorScale>
         <cfvo type="min"/>
@@ -9186,7 +9413,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J3">
+  <conditionalFormatting sqref="E5:E6">
     <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="min"/>
@@ -9198,7 +9425,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K3">
+  <conditionalFormatting sqref="F5:F6">
     <cfRule type="colorScale" priority="109">
       <colorScale>
         <cfvo type="min"/>
@@ -9210,7 +9437,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L3">
+  <conditionalFormatting sqref="G5:G6">
     <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="min"/>
@@ -9222,7 +9449,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M3">
+  <conditionalFormatting sqref="H5:H6">
     <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min"/>
@@ -9234,7 +9461,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N3">
+  <conditionalFormatting sqref="I5:I6">
     <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="min"/>
@@ -9246,7 +9473,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O3">
+  <conditionalFormatting sqref="J5:J6">
     <cfRule type="colorScale" priority="105">
       <colorScale>
         <cfvo type="min"/>
@@ -9258,7 +9485,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P3">
+  <conditionalFormatting sqref="K5:K6">
     <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="min"/>
@@ -9270,7 +9497,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q3">
+  <conditionalFormatting sqref="L5:L6">
     <cfRule type="colorScale" priority="103">
       <colorScale>
         <cfvo type="min"/>
@@ -9282,7 +9509,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R3">
+  <conditionalFormatting sqref="M5:M6">
     <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="min"/>
@@ -9294,7 +9521,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C6">
+  <conditionalFormatting sqref="N5:N6">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:O6">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5:P6">
     <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="min"/>
@@ -9306,7 +9557,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D6">
+  <conditionalFormatting sqref="Q5:Q6">
     <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="min"/>
@@ -9318,7 +9569,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E6">
+  <conditionalFormatting sqref="R5:R6">
     <cfRule type="colorScale" priority="97">
       <colorScale>
         <cfvo type="min"/>
@@ -9330,7 +9581,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F6">
+  <conditionalFormatting sqref="C8:C9">
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="min"/>
@@ -9342,7 +9593,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G6">
+  <conditionalFormatting sqref="D8:D9">
     <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
@@ -9354,7 +9605,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H6">
+  <conditionalFormatting sqref="E8:E9">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
@@ -9366,7 +9617,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I6">
+  <conditionalFormatting sqref="F8:F9">
     <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
@@ -9378,7 +9629,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J6">
+  <conditionalFormatting sqref="G8:G9">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
@@ -9390,7 +9641,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K6">
+  <conditionalFormatting sqref="H8:H9">
     <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="min"/>
@@ -9402,7 +9653,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L6">
+  <conditionalFormatting sqref="I8:I9">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min"/>
@@ -9414,7 +9665,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M6">
+  <conditionalFormatting sqref="J8:J9">
     <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min"/>
@@ -9426,7 +9677,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:N6">
+  <conditionalFormatting sqref="K8:K9">
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min"/>
@@ -9438,7 +9689,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5:O6">
+  <conditionalFormatting sqref="L8:L9">
     <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="min"/>
@@ -9450,7 +9701,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P5:P6">
+  <conditionalFormatting sqref="M8:M9">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
@@ -9462,7 +9713,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:Q6">
+  <conditionalFormatting sqref="N8:N9">
     <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="min"/>
@@ -9474,7 +9725,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R5:R6">
+  <conditionalFormatting sqref="O8:O9">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
@@ -9486,7 +9737,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8:C9">
+  <conditionalFormatting sqref="P8:P9">
     <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
@@ -9498,7 +9749,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D9">
+  <conditionalFormatting sqref="Q8:Q9">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
@@ -9510,7 +9761,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E9">
+  <conditionalFormatting sqref="R8:R9">
     <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
@@ -9522,7 +9773,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F9">
+  <conditionalFormatting sqref="C11:C12">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
@@ -9534,7 +9785,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G9">
+  <conditionalFormatting sqref="D11:D12">
     <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
@@ -9546,7 +9797,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H9">
+  <conditionalFormatting sqref="E11:E12">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
@@ -9558,7 +9809,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I9">
+  <conditionalFormatting sqref="F11:F12">
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
@@ -9570,7 +9821,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:J9">
+  <conditionalFormatting sqref="G11:G12">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
@@ -9582,7 +9833,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K9">
+  <conditionalFormatting sqref="H11:H12">
     <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
@@ -9594,7 +9845,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8:L9">
+  <conditionalFormatting sqref="I11:I12">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
@@ -9606,7 +9857,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8:M9">
+  <conditionalFormatting sqref="C14:C15">
     <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
@@ -9618,7 +9869,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8:N9">
+  <conditionalFormatting sqref="D14:D15">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
@@ -9630,7 +9881,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O8:O9">
+  <conditionalFormatting sqref="E14:E15">
     <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
@@ -9642,7 +9893,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P8:P9">
+  <conditionalFormatting sqref="F14:F15">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
@@ -9654,7 +9905,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q8:Q9">
+  <conditionalFormatting sqref="G14:G15">
     <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
@@ -9666,7 +9917,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R8:R9">
+  <conditionalFormatting sqref="J11:J12">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
@@ -9678,7 +9929,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C12">
+  <conditionalFormatting sqref="K11:K12">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
@@ -9690,7 +9941,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D12">
+  <conditionalFormatting sqref="L11:L12">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -9702,7 +9953,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E12">
+  <conditionalFormatting sqref="M11:M12">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -9714,7 +9965,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F12">
+  <conditionalFormatting sqref="N11:N12">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -9726,7 +9977,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11:G12">
+  <conditionalFormatting sqref="O11:O12">
     <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
@@ -9738,7 +9989,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H12">
+  <conditionalFormatting sqref="P11:P12">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
@@ -9750,7 +10001,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11:I12">
+  <conditionalFormatting sqref="Q11:Q12">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
@@ -9762,7 +10013,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14:C15">
+  <conditionalFormatting sqref="R11:R12">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -9774,7 +10025,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
+  <conditionalFormatting sqref="H14:H15">
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
@@ -9786,7 +10037,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E15">
+  <conditionalFormatting sqref="I14:I15">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -9798,7 +10049,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:F15">
+  <conditionalFormatting sqref="J14:J15">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -9810,7 +10061,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G15">
+  <conditionalFormatting sqref="K14:K15">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -9822,7 +10073,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11:J12">
+  <conditionalFormatting sqref="L14:L15">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -9834,7 +10085,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:K12">
+  <conditionalFormatting sqref="M14:M15">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -9846,7 +10097,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L11:L12">
+  <conditionalFormatting sqref="N14:N15">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -9858,7 +10109,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M11:M12">
+  <conditionalFormatting sqref="O14:O15">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -9870,7 +10121,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N11:N12">
+  <conditionalFormatting sqref="P14:P15">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -9882,7 +10133,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O11:O12">
+  <conditionalFormatting sqref="Q14:Q15">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -9894,7 +10145,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P11:P12">
+  <conditionalFormatting sqref="R14:R15">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -9906,7 +10157,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q11:Q12">
+  <conditionalFormatting sqref="R17:R18">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -9918,7 +10169,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R11:R12">
+  <conditionalFormatting sqref="C17:C18">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -9930,7 +10181,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:H15">
+  <conditionalFormatting sqref="D17:D18">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -9942,7 +10193,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14:I15">
+  <conditionalFormatting sqref="E17:E18">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -9954,7 +10205,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J14:J15">
+  <conditionalFormatting sqref="F17:F18">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -9966,7 +10217,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:K15">
+  <conditionalFormatting sqref="G17:G18">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -9978,7 +10229,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14:L15">
+  <conditionalFormatting sqref="H17:H18">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -9990,7 +10241,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14:M15">
+  <conditionalFormatting sqref="I17:I18">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -10002,7 +10253,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N14:N15">
+  <conditionalFormatting sqref="J17:J18">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -10014,7 +10265,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O14:O15">
+  <conditionalFormatting sqref="K17:K18">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -10026,7 +10277,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P14:P15">
+  <conditionalFormatting sqref="L17:L18">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -10038,7 +10289,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q14:Q15">
+  <conditionalFormatting sqref="M17:M18">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -10050,7 +10301,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R14:R15">
+  <conditionalFormatting sqref="N17:N18">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -10062,7 +10313,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R17:R18">
+  <conditionalFormatting sqref="O17:O18">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -10074,7 +10325,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C18">
+  <conditionalFormatting sqref="P17:P18">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -10086,7 +10337,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D18">
+  <conditionalFormatting sqref="Q17:Q18">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -10098,7 +10349,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E18">
+  <conditionalFormatting sqref="C25:R25">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -10110,7 +10361,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17:F18">
+  <conditionalFormatting sqref="C26:R26">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -10122,7 +10373,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17:G18">
+  <conditionalFormatting sqref="C27:R27">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -10134,7 +10385,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17:H18">
+  <conditionalFormatting sqref="C28:R28">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -10146,7 +10397,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17:I18">
+  <conditionalFormatting sqref="C29:R29">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -10158,7 +10409,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17:J18">
+  <conditionalFormatting sqref="C30:R30">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -10170,7 +10421,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:K18">
+  <conditionalFormatting sqref="S2:S3">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -10182,7 +10433,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L17:L18">
+  <conditionalFormatting sqref="S5:S6">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -10194,7 +10445,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M17:M18">
+  <conditionalFormatting sqref="S8:S9">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -10206,7 +10457,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N17:N18">
+  <conditionalFormatting sqref="S11:S12">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -10218,7 +10469,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O17:O18">
+  <conditionalFormatting sqref="S14:S15">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -10230,7 +10481,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P17:P18">
+  <conditionalFormatting sqref="S17:S18">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -10242,7 +10493,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q17:Q18">
+  <conditionalFormatting sqref="S25">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -10254,7 +10505,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:R25">
+  <conditionalFormatting sqref="S26">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -10266,7 +10517,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:R26">
+  <conditionalFormatting sqref="S27">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -10278,7 +10529,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:R27">
+  <conditionalFormatting sqref="S28">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -10290,7 +10541,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:R28">
+  <conditionalFormatting sqref="S29">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -10302,7 +10553,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:R29">
+  <conditionalFormatting sqref="S30">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -10314,7 +10565,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30:R30">
+  <conditionalFormatting sqref="S25:S30">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -10326,7 +10577,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S3">
+  <conditionalFormatting sqref="T2:T3">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -10338,7 +10589,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S5:S6">
+  <conditionalFormatting sqref="T5:T6">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -10350,7 +10601,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:S9">
+  <conditionalFormatting sqref="T8:T9">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -10362,7 +10613,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S11:S12">
+  <conditionalFormatting sqref="T11:T12">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -10374,7 +10625,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S14:S15">
+  <conditionalFormatting sqref="T14:T15">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -10386,7 +10637,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S17:S18">
+  <conditionalFormatting sqref="T17:T18">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -10398,7 +10649,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S25">
+  <conditionalFormatting sqref="T25">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -10410,7 +10661,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S26">
+  <conditionalFormatting sqref="T26">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -10422,7 +10673,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S27">
+  <conditionalFormatting sqref="T27">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -10434,7 +10685,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S28">
+  <conditionalFormatting sqref="T28">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -10446,7 +10697,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S29">
+  <conditionalFormatting sqref="T29">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -10458,7 +10709,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S30">
+  <conditionalFormatting sqref="T30">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -10470,7 +10721,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S25:S30">
+  <conditionalFormatting sqref="T25:T30">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -14347,10 +14598,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14370,9 +14621,10 @@
     <col min="16" max="17" width="14.5703125" customWidth="1"/>
     <col min="18" max="18" width="14.140625" customWidth="1"/>
     <col min="19" max="19" width="13.42578125" customWidth="1"/>
+    <col min="20" max="20" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14430,8 +14682,11 @@
       <c r="S1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -14490,8 +14745,12 @@
         <f>P2*C2</f>
         <v>60.524146317429285</v>
       </c>
+      <c r="T2" s="56">
+        <f>Q2*C2</f>
+        <v>9502.6790134746934</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -14550,8 +14809,12 @@
         <f>P3*C3</f>
         <v>44.94455288664674</v>
       </c>
+      <c r="T3" s="56">
+        <f>Q3*C3</f>
+        <v>8051.9786195351744</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="46"/>
       <c r="C4" s="46"/>
@@ -14571,8 +14834,9 @@
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="50"/>
+      <c r="T4" s="57"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -14631,8 +14895,12 @@
         <f>P5*C5</f>
         <v>13.304075137021472</v>
       </c>
+      <c r="T5" s="56">
+        <f>Q5*C5</f>
+        <v>3809.7400328158965</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -14691,8 +14959,12 @@
         <f>P6*C6</f>
         <v>14.728445167291543</v>
       </c>
+      <c r="T6" s="56">
+        <f>Q6*C6</f>
+        <v>4106.668504473193</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="46"/>
       <c r="C7" s="46"/>
@@ -14712,8 +14984,9 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="50"/>
+      <c r="T7" s="57"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -14772,8 +15045,12 @@
         <f>P8*C8</f>
         <v>19.123987953849415</v>
       </c>
+      <c r="T8" s="56">
+        <f>Q8*C8</f>
+        <v>3594.2373397464489</v>
+      </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -14832,8 +15109,12 @@
         <f>P9*C9</f>
         <v>15.811546702429359</v>
       </c>
+      <c r="T9" s="56">
+        <f>Q9*C9</f>
+        <v>3232.283567894086</v>
+      </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="46"/>
       <c r="C10" s="46"/>
@@ -14853,8 +15134,9 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="50"/>
+      <c r="T10" s="57"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3</v>
       </c>
@@ -14913,8 +15195,12 @@
         <f>P11*C11</f>
         <v>29.323542534875898</v>
       </c>
+      <c r="T11" s="56">
+        <f>Q11*C11</f>
+        <v>6669.7784250554032</v>
+      </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>3</v>
       </c>
@@ -14973,8 +15259,12 @@
         <f>P12*C12</f>
         <v>23.212532107962019</v>
       </c>
+      <c r="T12" s="56">
+        <f>Q12*C12</f>
+        <v>5653.2850773869004</v>
+      </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="46"/>
       <c r="C13" s="46"/>
@@ -14994,8 +15284,9 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="50"/>
+      <c r="T13" s="57"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>4</v>
       </c>
@@ -15054,8 +15345,12 @@
         <f>P14*C14</f>
         <v>19.750147413465015</v>
       </c>
+      <c r="T14" s="56">
+        <f>Q14*C14</f>
+        <v>2082.9882269908358</v>
+      </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>4</v>
       </c>
@@ -15114,8 +15409,12 @@
         <f>P15*C15</f>
         <v>15.353619902543654</v>
       </c>
+      <c r="T15" s="56">
+        <f>Q15*C15</f>
+        <v>1571.6964310264179</v>
+      </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="46"/>
       <c r="C16" s="46"/>
@@ -15135,8 +15434,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="50"/>
+      <c r="T16" s="57"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>5</v>
       </c>
@@ -15195,8 +15495,12 @@
         <f>P17*C17</f>
         <v>17.813440189770603</v>
       </c>
+      <c r="T17" s="56">
+        <f>Q17*C17</f>
+        <v>1784.2548980060244</v>
+      </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>5</v>
       </c>
@@ -15255,8 +15559,12 @@
         <f>P18*C18</f>
         <v>23.11182579880785</v>
       </c>
+      <c r="T18" s="56">
+        <f>Q18*C18</f>
+        <v>1869.8396966632158</v>
+      </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D19" s="42" t="s">
         <v>19</v>
       </c>
@@ -15267,12 +15575,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H23" s="34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C24" s="35" t="s">
         <v>2</v>
       </c>
@@ -15324,8 +15632,11 @@
       <c r="S24" s="35" t="s">
         <v>31</v>
       </c>
+      <c r="T24" s="35" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>0</v>
       </c>
@@ -15395,11 +15706,15 @@
         <v>-4.8842645824859199E-3</v>
       </c>
       <c r="S25" s="15">
-        <f t="shared" ref="S25" si="1">(S2/S3)-1</f>
+        <f t="shared" ref="S25:T25" si="1">(S2/S3)-1</f>
         <v>0.34664030299901638</v>
       </c>
+      <c r="T25" s="15">
+        <f t="shared" si="1"/>
+        <v>0.18016694560265312</v>
+      </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f>A25+1</f>
         <v>1</v>
@@ -15469,11 +15784,15 @@
         <v>-4.4160167622397273E-2</v>
       </c>
       <c r="S26" s="15">
-        <f t="shared" ref="S26" si="3">(S5/S6)-1</f>
+        <f t="shared" ref="S26:T26" si="3">(S5/S6)-1</f>
         <v>-9.670878453845666E-2</v>
       </c>
+      <c r="T26" s="15">
+        <f t="shared" si="3"/>
+        <v>-7.2303978598191376E-2</v>
+      </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f>A26+1</f>
         <v>2</v>
@@ -15543,11 +15862,15 @@
         <v>0.24491868711586728</v>
       </c>
       <c r="S27" s="15">
-        <f t="shared" ref="S27" si="5">(S8/S9)-1</f>
+        <f t="shared" ref="S27:T27" si="5">(S8/S9)-1</f>
         <v>0.20949508063693201</v>
       </c>
+      <c r="T27" s="15">
+        <f t="shared" si="5"/>
+        <v>0.11198082230396178</v>
+      </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f>A27+1</f>
         <v>3</v>
@@ -15617,11 +15940,15 @@
         <v>-4.2845868664009856E-4</v>
       </c>
       <c r="S28" s="15">
-        <f t="shared" ref="S28" si="7">(S11/S12)-1</f>
+        <f t="shared" ref="S28:T28" si="7">(S11/S12)-1</f>
         <v>0.26326341299137157</v>
       </c>
+      <c r="T28" s="15">
+        <f t="shared" si="7"/>
+        <v>0.17980578261203717</v>
+      </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f>A28+1</f>
         <v>4</v>
@@ -15691,11 +16018,15 @@
         <v>6.6445750093163003E-2</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" ref="S29" si="9">(S14/S15)-1</f>
+        <f t="shared" ref="S29:T29" si="9">(S14/S15)-1</f>
         <v>0.28635120179007312</v>
       </c>
+      <c r="T29" s="15">
+        <f t="shared" si="9"/>
+        <v>0.32531205509610506</v>
+      </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <f>A29+1</f>
         <v>5</v>
@@ -15765,11 +16096,15 @@
         <v>-0.47810669832935948</v>
       </c>
       <c r="S30" s="15">
-        <f t="shared" ref="S30" si="11">(S17/S18)-1</f>
+        <f t="shared" ref="S30:T30" si="11">(S17/S18)-1</f>
         <v>-0.22924998029842136</v>
       </c>
+      <c r="T30" s="15">
+        <f t="shared" si="11"/>
+        <v>-4.5771195685876176E-2</v>
+      </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
         <v>26</v>
       </c>
@@ -15838,12 +16173,172 @@
         <v>-3.6035858668642083E-2</v>
       </c>
       <c r="S31" s="47">
-        <f t="shared" ref="S31" si="13">AVERAGE(S25:S30)</f>
+        <f t="shared" ref="S31:T31" si="13">AVERAGE(S25:S30)</f>
         <v>0.12996520559675251</v>
+      </c>
+      <c r="T31" s="47">
+        <f t="shared" si="13"/>
+        <v>0.1131984052217816</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C3">
+    <cfRule type="colorScale" priority="133">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C6">
+    <cfRule type="colorScale" priority="132">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D3">
+    <cfRule type="colorScale" priority="131">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="colorScale" priority="130">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F3">
+    <cfRule type="colorScale" priority="129">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G3">
+    <cfRule type="colorScale" priority="128">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H3">
+    <cfRule type="colorScale" priority="127">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I3">
+    <cfRule type="colorScale" priority="126">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J3">
+    <cfRule type="colorScale" priority="125">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K3">
+    <cfRule type="colorScale" priority="124">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L3">
+    <cfRule type="colorScale" priority="123">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M3">
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N3">
+    <cfRule type="colorScale" priority="121">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O3">
     <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="min"/>
@@ -15855,7 +16350,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C6">
+  <conditionalFormatting sqref="P2:P3">
     <cfRule type="colorScale" priority="119">
       <colorScale>
         <cfvo type="min"/>
@@ -15867,7 +16362,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D3">
+  <conditionalFormatting sqref="Q2:Q3">
     <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="min"/>
@@ -15879,7 +16374,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="R2:R3">
     <cfRule type="colorScale" priority="117">
       <colorScale>
         <cfvo type="min"/>
@@ -15891,7 +16386,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F3">
+  <conditionalFormatting sqref="D5:D6">
     <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="min"/>
@@ -15903,7 +16398,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G3">
+  <conditionalFormatting sqref="E5:E6">
     <cfRule type="colorScale" priority="115">
       <colorScale>
         <cfvo type="min"/>
@@ -15915,7 +16410,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H3">
+  <conditionalFormatting sqref="F5:F6">
     <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="min"/>
@@ -15927,7 +16422,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I3">
+  <conditionalFormatting sqref="G5:G6">
     <cfRule type="colorScale" priority="113">
       <colorScale>
         <cfvo type="min"/>
@@ -15939,7 +16434,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J3">
+  <conditionalFormatting sqref="H5:H6">
     <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="min"/>
@@ -15951,7 +16446,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K3">
+  <conditionalFormatting sqref="I5:I6">
     <cfRule type="colorScale" priority="111">
       <colorScale>
         <cfvo type="min"/>
@@ -15963,7 +16458,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L3">
+  <conditionalFormatting sqref="J5:J6">
     <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="min"/>
@@ -15975,7 +16470,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M3">
+  <conditionalFormatting sqref="K5:K6">
     <cfRule type="colorScale" priority="109">
       <colorScale>
         <cfvo type="min"/>
@@ -15987,7 +16482,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N3">
+  <conditionalFormatting sqref="L5:L6">
     <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="min"/>
@@ -15999,7 +16494,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O3">
+  <conditionalFormatting sqref="M5:M6">
     <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min"/>
@@ -16011,7 +16506,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P3">
+  <conditionalFormatting sqref="N5:N6">
     <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="min"/>
@@ -16023,7 +16518,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q3">
+  <conditionalFormatting sqref="O5:O6">
     <cfRule type="colorScale" priority="105">
       <colorScale>
         <cfvo type="min"/>
@@ -16035,7 +16530,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R3">
+  <conditionalFormatting sqref="P5:P6">
     <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="min"/>
@@ -16047,7 +16542,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D6">
+  <conditionalFormatting sqref="Q5:Q6">
     <cfRule type="colorScale" priority="103">
       <colorScale>
         <cfvo type="min"/>
@@ -16059,7 +16554,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E6">
+  <conditionalFormatting sqref="R5:R6">
     <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="min"/>
@@ -16071,7 +16566,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F6">
+  <conditionalFormatting sqref="C8:C9">
     <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="min"/>
@@ -16083,7 +16578,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G6">
+  <conditionalFormatting sqref="D8:D9">
     <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="min"/>
@@ -16095,7 +16590,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H6">
+  <conditionalFormatting sqref="E8:E9">
     <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="min"/>
@@ -16107,7 +16602,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I6">
+  <conditionalFormatting sqref="F8:F9">
     <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="min"/>
@@ -16119,7 +16614,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J6">
+  <conditionalFormatting sqref="G8:G9">
     <cfRule type="colorScale" priority="97">
       <colorScale>
         <cfvo type="min"/>
@@ -16131,7 +16626,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K6">
+  <conditionalFormatting sqref="H8:H9">
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="min"/>
@@ -16143,7 +16638,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L6">
+  <conditionalFormatting sqref="I8:I9">
     <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
@@ -16155,7 +16650,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M6">
+  <conditionalFormatting sqref="J8:J9">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
@@ -16167,7 +16662,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:N6">
+  <conditionalFormatting sqref="K8:K9">
     <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
@@ -16179,7 +16674,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5:O6">
+  <conditionalFormatting sqref="L8:L9">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
@@ -16191,7 +16686,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P5:P6">
+  <conditionalFormatting sqref="M8:M9">
     <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="min"/>
@@ -16203,7 +16698,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:Q6">
+  <conditionalFormatting sqref="N8:N9">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min"/>
@@ -16215,7 +16710,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R5:R6">
+  <conditionalFormatting sqref="O8:O9">
     <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min"/>
@@ -16227,7 +16722,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8:C9">
+  <conditionalFormatting sqref="P8:P9">
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min"/>
@@ -16239,7 +16734,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D9">
+  <conditionalFormatting sqref="Q8:Q9">
     <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="min"/>
@@ -16251,7 +16746,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E9">
+  <conditionalFormatting sqref="R8:R9">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
@@ -16263,7 +16758,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F9">
+  <conditionalFormatting sqref="C11:C12">
     <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="min"/>
@@ -16275,7 +16770,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G9">
+  <conditionalFormatting sqref="D11:D12">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
@@ -16287,7 +16782,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H9">
+  <conditionalFormatting sqref="E11:E12">
     <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
@@ -16299,7 +16794,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I9">
+  <conditionalFormatting sqref="F11:F12">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
@@ -16311,7 +16806,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:J9">
+  <conditionalFormatting sqref="G11:G12">
     <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
@@ -16323,7 +16818,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K9">
+  <conditionalFormatting sqref="H11:H12">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
@@ -16335,7 +16830,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8:L9">
+  <conditionalFormatting sqref="I11:I12">
     <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
@@ -16347,7 +16842,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8:M9">
+  <conditionalFormatting sqref="J11:J12">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
@@ -16359,7 +16854,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8:N9">
+  <conditionalFormatting sqref="K11:K12">
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
@@ -16371,7 +16866,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O8:O9">
+  <conditionalFormatting sqref="L11:L12">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
@@ -16383,7 +16878,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P8:P9">
+  <conditionalFormatting sqref="M11:M12">
     <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
@@ -16395,7 +16890,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q8:Q9">
+  <conditionalFormatting sqref="N11:N12">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
@@ -16407,7 +16902,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R8:R9">
+  <conditionalFormatting sqref="O11:O12">
     <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
@@ -16419,7 +16914,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C12">
+  <conditionalFormatting sqref="P11:P12">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
@@ -16431,7 +16926,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D12">
+  <conditionalFormatting sqref="Q11:Q12">
     <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
@@ -16443,7 +16938,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E12">
+  <conditionalFormatting sqref="R11:R12">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
@@ -16455,7 +16950,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F12">
+  <conditionalFormatting sqref="C14:C15">
     <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
@@ -16467,7 +16962,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11:G12">
+  <conditionalFormatting sqref="D14:D15">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
@@ -16479,7 +16974,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H12">
+  <conditionalFormatting sqref="E14:E15">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
@@ -16491,7 +16986,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11:I12">
+  <conditionalFormatting sqref="F14:F15">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -16503,7 +16998,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11:J12">
+  <conditionalFormatting sqref="G14:G15">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -16515,7 +17010,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:K12">
+  <conditionalFormatting sqref="H14:H15">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -16527,7 +17022,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L11:L12">
+  <conditionalFormatting sqref="I14:I15">
     <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
@@ -16539,7 +17034,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M11:M12">
+  <conditionalFormatting sqref="J14:J15">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
@@ -16551,7 +17046,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N11:N12">
+  <conditionalFormatting sqref="K14:K15">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
@@ -16563,7 +17058,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O11:O12">
+  <conditionalFormatting sqref="L14:L15">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -16575,7 +17070,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P11:P12">
+  <conditionalFormatting sqref="M14:M15">
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
@@ -16587,7 +17082,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q11:Q12">
+  <conditionalFormatting sqref="N14:N15">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -16599,7 +17094,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R11:R12">
+  <conditionalFormatting sqref="O14:O15">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -16611,7 +17106,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14:C15">
+  <conditionalFormatting sqref="P14:P15">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -16623,7 +17118,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
+  <conditionalFormatting sqref="Q14:Q15">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -16635,7 +17130,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E15">
+  <conditionalFormatting sqref="R14:R15">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -16647,7 +17142,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:F15">
+  <conditionalFormatting sqref="C17:C18">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -16659,7 +17154,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G15">
+  <conditionalFormatting sqref="D17:D18">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -16671,7 +17166,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:H15">
+  <conditionalFormatting sqref="E17:E18">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -16683,7 +17178,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14:I15">
+  <conditionalFormatting sqref="F17:F18">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -16695,7 +17190,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J14:J15">
+  <conditionalFormatting sqref="G17:G18">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -16707,7 +17202,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:K15">
+  <conditionalFormatting sqref="H17:H18">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -16719,7 +17214,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14:L15">
+  <conditionalFormatting sqref="I17:I18">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -16731,7 +17226,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14:M15">
+  <conditionalFormatting sqref="J17:J18">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -16743,7 +17238,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N14:N15">
+  <conditionalFormatting sqref="K17:K18">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -16755,7 +17250,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O14:O15">
+  <conditionalFormatting sqref="L17:L18">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -16767,7 +17262,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P14:P15">
+  <conditionalFormatting sqref="M17:M18">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -16779,7 +17274,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q14:Q15">
+  <conditionalFormatting sqref="N17:N18">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -16791,7 +17286,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R14:R15">
+  <conditionalFormatting sqref="O17:O18">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -16803,7 +17298,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C18">
+  <conditionalFormatting sqref="P17:P18">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -16815,7 +17310,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D18">
+  <conditionalFormatting sqref="Q17:Q18">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -16827,7 +17322,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E18">
+  <conditionalFormatting sqref="R17:R18">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -16839,7 +17334,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17:F18">
+  <conditionalFormatting sqref="C25:R25">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -16851,7 +17346,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17:G18">
+  <conditionalFormatting sqref="C26:R26">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -16863,7 +17358,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17:H18">
+  <conditionalFormatting sqref="C27:R27">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -16875,7 +17370,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17:I18">
+  <conditionalFormatting sqref="C28:R28">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -16887,7 +17382,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17:J18">
+  <conditionalFormatting sqref="C29:R29">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -16899,7 +17394,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:K18">
+  <conditionalFormatting sqref="C30:R30">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -16911,7 +17406,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L17:L18">
+  <conditionalFormatting sqref="S2:S3">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -16923,67 +17418,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M17:M18">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N17:N18">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O17:O18">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P17:P18">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q17:Q18">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R17:R18">
+  <conditionalFormatting sqref="S5:S6">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -16995,7 +17430,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:R25">
+  <conditionalFormatting sqref="S8:S9">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -17007,7 +17442,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:R26">
+  <conditionalFormatting sqref="S11:S12">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -17019,7 +17454,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:R27">
+  <conditionalFormatting sqref="S14:S15">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -17031,7 +17466,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:R28">
+  <conditionalFormatting sqref="S17:S18">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -17043,7 +17478,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:R29">
+  <conditionalFormatting sqref="S25">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -17055,7 +17490,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30:R30">
+  <conditionalFormatting sqref="S26">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -17067,7 +17502,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S3">
+  <conditionalFormatting sqref="S27">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -17079,7 +17514,67 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S5:S6">
+  <conditionalFormatting sqref="S28">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S29">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S30">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S25:S30">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T2:T3">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T5:T6">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -17091,7 +17586,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:S9">
+  <conditionalFormatting sqref="T8:T9">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -17103,7 +17598,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S11:S12">
+  <conditionalFormatting sqref="T11:T12">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -17115,7 +17610,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S14:S15">
+  <conditionalFormatting sqref="T14:T15">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -17127,7 +17622,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S17:S18">
+  <conditionalFormatting sqref="T17:T18">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -17139,7 +17634,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S25">
+  <conditionalFormatting sqref="T25">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -17151,7 +17646,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S26">
+  <conditionalFormatting sqref="T26">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -17163,7 +17658,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S27">
+  <conditionalFormatting sqref="T27">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -17175,7 +17670,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S28">
+  <conditionalFormatting sqref="T28">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -17187,7 +17682,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S29">
+  <conditionalFormatting sqref="T29">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -17199,7 +17694,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S30">
+  <conditionalFormatting sqref="T30">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -17211,7 +17706,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S25:S30">
+  <conditionalFormatting sqref="T25:T30">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/migforecasting/clustering/AN-method.xlsx
+++ b/migforecasting/clustering/AN-method.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ мун-районы" sheetId="1" r:id="rId1"/>
@@ -7390,7 +7390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
@@ -14600,8 +14600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/migforecasting/clustering/AN-method.xlsx
+++ b/migforecasting/clustering/AN-method.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12255" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ мун-районы" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="34">
   <si>
     <t>clust</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>beforeschool abs</t>
+  </si>
+  <si>
+    <t>sportsvenue abs</t>
   </si>
 </sst>
 </file>
@@ -639,7 +642,7 @@
             <c:v>Cluster 0</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -652,52 +655,55 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Анализ мун-районы'!$D$24:$R$24</c:f>
+              <c:f>'Анализ мун-районы'!$C$24:$R$24</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>popsize</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>avgemployers</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>avgsalary</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>shoparea</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>foodseats</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>retailturnover</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>livarea</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>sportsvenue</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>servicesnum</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>roadslen</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>livestock</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>harvest</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>agrprod</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>hospitals</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>beforeschool</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>factoriescap</c:v>
                 </c:pt>
               </c:strCache>
@@ -705,53 +711,56 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Анализ мун-районы'!$D$25:$R$25</c:f>
+              <c:f>'Анализ мун-районы'!$C$25:$R$25</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>2.2364226635940065E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-4.5743197755307441E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2.7774349516331842E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>5.3474901878183267E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.14461645276441581</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>9.9704416197773149E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6.6799773221124736E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>-8.6941013784360033E-2</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>-6.6521155684651889E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2.4699306072995864E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>-3.8789332453257219E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.13749994095015872</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.25861368569064869</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>0.20980388556349383</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.10010439308011876</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.1785524891387561</c:v>
+                  <c:v>-7.9978923778275757E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>-0.16018145083632651</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.19480529083602205</c:v>
                 </c:pt>
               </c:numCache>
@@ -771,7 +780,7 @@
             <c:v>Cluster 1</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -784,52 +793,55 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Анализ мун-районы'!$D$24:$R$24</c:f>
+              <c:f>'Анализ мун-районы'!$C$24:$R$24</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>popsize</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>avgemployers</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>avgsalary</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>shoparea</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>foodseats</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>retailturnover</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>livarea</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>sportsvenue</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>servicesnum</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>roadslen</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>livestock</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>harvest</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>agrprod</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>hospitals</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>beforeschool</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>factoriescap</c:v>
                 </c:pt>
               </c:strCache>
@@ -837,53 +849,56 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Анализ мун-районы'!$D$26:$R$26</c:f>
+              <c:f>'Анализ мун-районы'!$C$26:$R$26</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>0.21094715575120637</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>3.0509624868235496E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>7.438993738363342E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1.1978388733416834E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>-8.3145081627309381E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.16127795903622766</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2.9608327240562282E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>-5.8922843263540248E-2</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.13959470629244808</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2.3503011526366802E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>-4.5160987023170396E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>-5.4709366162986717E-2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>2.3761624816903248E-2</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>0.1230402599800573</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.16355901877733359</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>-6.7763340025902341E-2</c:v>
+                  <c:v>1.2885827165336039E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>0.12888933188263785</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.25852228066912319</c:v>
                 </c:pt>
               </c:numCache>
@@ -903,7 +918,7 @@
             <c:v>Cluster 2</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -916,52 +931,55 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Анализ мун-районы'!$D$24:$R$24</c:f>
+              <c:f>'Анализ мун-районы'!$C$24:$R$24</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>popsize</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>avgemployers</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>avgsalary</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>shoparea</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>foodseats</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>retailturnover</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>livarea</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>sportsvenue</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>servicesnum</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>roadslen</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>livestock</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>harvest</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>agrprod</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>hospitals</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>beforeschool</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>factoriescap</c:v>
                 </c:pt>
               </c:strCache>
@@ -969,53 +987,56 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Анализ мун-районы'!$D$27:$R$27</c:f>
+              <c:f>'Анализ мун-районы'!$C$27:$R$27</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>0.19751783979247906</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-9.276436666696275E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1.1698938401325076E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>-5.9032691128102055E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>7.6753767380775439E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>7.4221794072617753E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>-4.3140747587474548E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.10280391950165912</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>7.4408312188652292E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>-3.6766206269346235E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>-9.2545168457396798E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>-3.9219342480681485E-2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.18908855007090697</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>0.24984082909823457</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.14188101151990107</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.10721056495603187</c:v>
+                  <c:v>2.761279736959521E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>6.9131275643400603E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.18010938619017747</c:v>
                 </c:pt>
               </c:numCache>
@@ -1035,7 +1056,7 @@
             <c:v>Cluster 3</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -1048,52 +1069,55 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Анализ мун-районы'!$D$24:$R$24</c:f>
+              <c:f>'Анализ мун-районы'!$C$24:$R$24</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>popsize</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>avgemployers</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>avgsalary</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>shoparea</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>foodseats</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>retailturnover</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>livarea</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>sportsvenue</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>servicesnum</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>roadslen</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>livestock</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>harvest</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>agrprod</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>hospitals</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>beforeschool</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>factoriescap</c:v>
                 </c:pt>
               </c:strCache>
@@ -1101,53 +1125,56 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Анализ мун-районы'!$D$28:$R$28</c:f>
+              <c:f>'Анализ мун-районы'!$C$28:$R$28</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>0.25646268672830819</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-8.8491683697801138E-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>6.3840254470228563E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>-3.1317383830811063E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>-3.1905172992594988E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5.2260209641986632E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1.913781536360637E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.10205138645053313</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.12823892752432231</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>-2.3710136465821319E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>-4.7758610082039299E-3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>-6.8334115734363099E-3</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.18277773424703936</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>-1.3312773550577583E-2</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>-6.2561852170983534E-2</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>-5.8890452041020835E-2</c:v>
+                  <c:v>0.17785605386285508</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>0.18246903113420232</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.1669857489501978</c:v>
                 </c:pt>
               </c:numCache>
@@ -1167,7 +1194,7 @@
             <c:v>Cluster 4</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -1180,52 +1207,55 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Анализ мун-районы'!$D$24:$R$24</c:f>
+              <c:f>'Анализ мун-районы'!$C$24:$R$24</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>popsize</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>avgemployers</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>avgsalary</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>shoparea</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>foodseats</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>retailturnover</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>livarea</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>sportsvenue</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>servicesnum</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>roadslen</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>livestock</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>harvest</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>agrprod</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>hospitals</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>beforeschool</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>factoriescap</c:v>
                 </c:pt>
               </c:strCache>
@@ -1233,53 +1263,56 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Анализ мун-районы'!$D$29:$R$29</c:f>
+              <c:f>'Анализ мун-районы'!$C$29:$R$29</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>2.2617581670861808E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-1.0808853999729751E-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>3.8306416665261578E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>-2.1999354749875355E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>-1.1917326009136531E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>4.0016609646382761E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>5.5923299143229244E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>-3.385898197895254E-2</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>-1.2007208598291852E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>-0.10476866889154923</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>6.696950280521996E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>-8.3030329097429356E-2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.14078501293855417</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>0.15861999003068639</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>-6.7326038437284574E-2</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.10523703005015461</c:v>
+                  <c:v>-4.6231208939353508E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>-8.4999655501251103E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.24930036235826813</c:v>
                 </c:pt>
               </c:numCache>
@@ -1299,7 +1332,7 @@
             <c:v>Cluster 5</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -1312,52 +1345,55 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Анализ мун-районы'!$D$24:$R$24</c:f>
+              <c:f>'Анализ мун-районы'!$C$24:$R$24</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>popsize</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>avgemployers</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>avgsalary</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>shoparea</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>foodseats</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>retailturnover</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>livarea</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>sportsvenue</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>servicesnum</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>roadslen</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>livestock</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>harvest</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>agrprod</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>hospitals</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>beforeschool</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>factoriescap</c:v>
                 </c:pt>
               </c:strCache>
@@ -1365,53 +1401,56 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Анализ мун-районы'!$D$30:$R$30</c:f>
+              <c:f>'Анализ мун-районы'!$C$30:$R$30</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>7.3143376976864793E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-8.3641311857414191E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>-5.1515123253855766E-3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>7.3094188465290033E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.12294637825966181</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.22275591448484011</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6.1350861922453204E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.10377296264968261</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>-3.8219890599909712E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>-1.5478618546968193E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>3.1459923244266941E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>-0.16501618699201137</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.20763657163752081</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>0.15441602399973542</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>-9.2363423757613416E-2</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.10786277277313128</c:v>
+                  <c:v>-2.5975819503525677E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>-4.2608843246981554E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>2.1508407556542597E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1432,6 +1471,21 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                  <a:alpha val="33000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
         <c:axId val="2128226767"/>
         <c:axId val="2128228015"/>
@@ -1443,31 +1497,17 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1479,7 +1519,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -1505,91 +1545,14 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t>Разница положительного субкластера от отрицательного</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1598,7 +1561,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -1615,7 +1578,19 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1623,7 +1598,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1638,7 +1613,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1657,11 +1632,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1734,52 +1709,55 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Анализ мун-районы'!$D$24:$R$24</c:f>
+              <c:f>'Анализ мун-районы'!$C$24:$R$24</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>popsize</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>avgemployers</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>avgsalary</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>shoparea</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>foodseats</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>retailturnover</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>livarea</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>sportsvenue</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>servicesnum</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>roadslen</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>livestock</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>harvest</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>agrprod</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>hospitals</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>beforeschool</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>factoriescap</c:v>
                 </c:pt>
               </c:strCache>
@@ -1787,53 +1765,56 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Анализ мун-районы'!$D$25:$R$25</c:f>
+              <c:f>'Анализ мун-районы'!$C$25:$R$25</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>2.2364226635940065E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-4.5743197755307441E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2.7774349516331842E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>5.3474901878183267E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.14461645276441581</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>9.9704416197773149E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6.6799773221124736E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>-8.6941013784360033E-2</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>-6.6521155684651889E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2.4699306072995864E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>-3.8789332453257219E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.13749994095015872</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.25861368569064869</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>0.20980388556349383</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.10010439308011876</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.1785524891387561</c:v>
+                  <c:v>-7.9978923778275757E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>-0.16018145083632651</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.19480529083602205</c:v>
                 </c:pt>
               </c:numCache>
@@ -1871,52 +1852,55 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Анализ мун-районы'!$D$24:$R$24</c:f>
+              <c:f>'Анализ мун-районы'!$C$24:$R$24</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>popsize</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>avgemployers</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>avgsalary</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>shoparea</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>foodseats</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>retailturnover</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>livarea</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>sportsvenue</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>servicesnum</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>roadslen</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>livestock</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>harvest</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>agrprod</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>hospitals</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>beforeschool</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>factoriescap</c:v>
                 </c:pt>
               </c:strCache>
@@ -1924,53 +1908,56 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Анализ мун-районы'!$D$26:$R$26</c:f>
+              <c:f>'Анализ мун-районы'!$C$26:$R$26</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>0.21094715575120637</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>3.0509624868235496E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>7.438993738363342E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1.1978388733416834E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>-8.3145081627309381E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.16127795903622766</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2.9608327240562282E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>-5.8922843263540248E-2</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.13959470629244808</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2.3503011526366802E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>-4.5160987023170396E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>-5.4709366162986717E-2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>2.3761624816903248E-2</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>0.1230402599800573</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.16355901877733359</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>-6.7763340025902341E-2</c:v>
+                  <c:v>1.2885827165336039E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>0.12888933188263785</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.25852228066912319</c:v>
                 </c:pt>
               </c:numCache>
@@ -2008,52 +1995,55 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Анализ мун-районы'!$D$24:$R$24</c:f>
+              <c:f>'Анализ мун-районы'!$C$24:$R$24</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>popsize</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>avgemployers</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>avgsalary</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>shoparea</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>foodseats</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>retailturnover</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>livarea</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>sportsvenue</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>servicesnum</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>roadslen</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>livestock</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>harvest</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>agrprod</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>hospitals</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>beforeschool</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>factoriescap</c:v>
                 </c:pt>
               </c:strCache>
@@ -2061,53 +2051,56 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Анализ мун-районы'!$D$27:$R$27</c:f>
+              <c:f>'Анализ мун-районы'!$C$27:$R$27</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>0.19751783979247906</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-9.276436666696275E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1.1698938401325076E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>-5.9032691128102055E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>7.6753767380775439E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>7.4221794072617753E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>-4.3140747587474548E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.10280391950165912</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>7.4408312188652292E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>-3.6766206269346235E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>-9.2545168457396798E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>-3.9219342480681485E-2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.18908855007090697</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>0.24984082909823457</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.14188101151990107</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.10721056495603187</c:v>
+                  <c:v>2.761279736959521E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>6.9131275643400603E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.18010938619017747</c:v>
                 </c:pt>
               </c:numCache>
@@ -2145,52 +2138,55 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Анализ мун-районы'!$D$24:$R$24</c:f>
+              <c:f>'Анализ мун-районы'!$C$24:$R$24</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>popsize</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>avgemployers</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>avgsalary</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>shoparea</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>foodseats</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>retailturnover</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>livarea</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>sportsvenue</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>servicesnum</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>roadslen</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>livestock</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>harvest</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>agrprod</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>hospitals</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>beforeschool</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>factoriescap</c:v>
                 </c:pt>
               </c:strCache>
@@ -2198,53 +2194,56 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Анализ мун-районы'!$D$28:$R$28</c:f>
+              <c:f>'Анализ мун-районы'!$C$28:$R$28</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>0.25646268672830819</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-8.8491683697801138E-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>6.3840254470228563E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>-3.1317383830811063E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>-3.1905172992594988E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5.2260209641986632E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1.913781536360637E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.10205138645053313</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.12823892752432231</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>-2.3710136465821319E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>-4.7758610082039299E-3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>-6.8334115734363099E-3</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.18277773424703936</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>-1.3312773550577583E-2</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>-6.2561852170983534E-2</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>-5.8890452041020835E-2</c:v>
+                  <c:v>0.17785605386285508</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>0.18246903113420232</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.1669857489501978</c:v>
                 </c:pt>
               </c:numCache>
@@ -2282,52 +2281,55 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Анализ мун-районы'!$D$24:$R$24</c:f>
+              <c:f>'Анализ мун-районы'!$C$24:$R$24</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>popsize</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>avgemployers</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>avgsalary</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>shoparea</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>foodseats</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>retailturnover</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>livarea</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>sportsvenue</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>servicesnum</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>roadslen</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>livestock</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>harvest</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>agrprod</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>hospitals</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>beforeschool</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>factoriescap</c:v>
                 </c:pt>
               </c:strCache>
@@ -2335,53 +2337,56 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Анализ мун-районы'!$D$29:$R$29</c:f>
+              <c:f>'Анализ мун-районы'!$C$29:$R$29</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>2.2617581670861808E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-1.0808853999729751E-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>3.8306416665261578E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>-2.1999354749875355E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>-1.1917326009136531E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>4.0016609646382761E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>5.5923299143229244E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>-3.385898197895254E-2</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>-1.2007208598291852E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>-0.10476866889154923</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>6.696950280521996E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>-8.3030329097429356E-2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.14078501293855417</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>0.15861999003068639</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>-6.7326038437284574E-2</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.10523703005015461</c:v>
+                  <c:v>-4.6231208939353508E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>-8.4999655501251103E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.24930036235826813</c:v>
                 </c:pt>
               </c:numCache>
@@ -2419,52 +2424,55 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Анализ мун-районы'!$D$24:$R$24</c:f>
+              <c:f>'Анализ мун-районы'!$C$24:$R$24</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>popsize</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>avgemployers</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>avgsalary</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>shoparea</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>foodseats</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>retailturnover</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>livarea</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>sportsvenue</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>servicesnum</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>roadslen</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>livestock</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>harvest</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>agrprod</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>hospitals</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>beforeschool</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>factoriescap</c:v>
                 </c:pt>
               </c:strCache>
@@ -2472,53 +2480,56 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Анализ мун-районы'!$D$30:$R$30</c:f>
+              <c:f>'Анализ мун-районы'!$C$30:$R$30</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>7.3143376976864793E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-8.3641311857414191E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>-5.1515123253855766E-3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>7.3094188465290033E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.12294637825966181</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.22275591448484011</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6.1350861922453204E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.10377296264968261</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>-3.8219890599909712E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>-1.5478618546968193E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>3.1459923244266941E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>-0.16501618699201137</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.20763657163752081</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>0.15441602399973542</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>-9.2363423757613416E-2</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.10786277277313128</c:v>
+                  <c:v>-2.5975819503525677E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>-4.2608843246981554E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>2.1508407556542597E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2570,11 +2581,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2604,10 +2615,11 @@
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2620,7 +2632,12 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2629,11 +2646,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2657,7 +2674,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2672,11 +2689,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -2856,10 +2873,10 @@
                   <c:v>-5.5228627018988341E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.5667847496799112E-2</c:v>
+                  <c:v>0.34664030299901638</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-5.7307556267157778E-2</c:v>
+                  <c:v>0.18016694560265312</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>-4.8842645824859199E-3</c:v>
@@ -2985,10 +3002,10 @@
                   <c:v>-0.14017698498511078</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-8.1337606124669892E-2</c:v>
+                  <c:v>-9.670878453845666E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-5.6517507065374617E-2</c:v>
+                  <c:v>-7.2303978598191376E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>-4.4160167622397273E-2</c:v>
@@ -3114,10 +3131,10 @@
                   <c:v>0.1351125344948898</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.2126519043320654E-2</c:v>
+                  <c:v>0.20949508063693201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-4.1893826488067831E-2</c:v>
+                  <c:v>0.11198082230396178</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.24491868711586728</c:v>
@@ -3243,10 +3260,10 @@
                   <c:v>-3.1530220030370204E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.4168981760275301E-3</c:v>
+                  <c:v>0.26326341299137157</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-6.0072140160480347E-2</c:v>
+                  <c:v>0.17980578261203717</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>-4.2845868664009856E-4</c:v>
@@ -3372,10 +3389,10 @@
                   <c:v>0.42929405542376498</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-9.6006447395693417E-3</c:v>
+                  <c:v>0.28635120179007312</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.0396453985097152E-2</c:v>
+                  <c:v>0.32531205509610506</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>6.6445750093163003E-2</c:v>
@@ -3501,10 +3518,10 @@
                   <c:v>-1.3540306300482419E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.20436088040864253</c:v>
+                  <c:v>-0.22924998029842136</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.4957189300934259E-2</c:v>
+                  <c:v>-4.5771195685876176E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>-0.47810669832935948</c:v>
@@ -3844,7 +3861,7 @@
                   <c:v>6.6799773221124736E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-8.6941013784360033E-2</c:v>
+                  <c:v>-6.6521155684651889E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.4699306072995864E-2</c:v>
@@ -3862,10 +3879,10 @@
                   <c:v>0.20980388556349383</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.10010439308011876</c:v>
+                  <c:v>-7.9978923778275757E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.1785524891387561</c:v>
+                  <c:v>-0.16018145083632651</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.19480529083602205</c:v>
@@ -3973,7 +3990,7 @@
                   <c:v>2.9608327240562282E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.8922843263540248E-2</c:v>
+                  <c:v>0.13959470629244808</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.3503011526366802E-2</c:v>
@@ -3991,10 +4008,10 @@
                   <c:v>0.1230402599800573</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.16355901877733359</c:v>
+                  <c:v>1.2885827165336039E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-6.7763340025902341E-2</c:v>
+                  <c:v>0.12888933188263785</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.25852228066912319</c:v>
@@ -4102,7 +4119,7 @@
                   <c:v>-4.3140747587474548E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.10280391950165912</c:v>
+                  <c:v>7.4408312188652292E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-3.6766206269346235E-2</c:v>
@@ -4120,10 +4137,10 @@
                   <c:v>0.24984082909823457</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.14188101151990107</c:v>
+                  <c:v>2.761279736959521E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.10721056495603187</c:v>
+                  <c:v>6.9131275643400603E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.18010938619017747</c:v>
@@ -4231,7 +4248,7 @@
                   <c:v>1.913781536360637E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.10205138645053313</c:v>
+                  <c:v>0.12823892752432231</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-2.3710136465821319E-2</c:v>
@@ -4249,10 +4266,10 @@
                   <c:v>-1.3312773550577583E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-6.2561852170983534E-2</c:v>
+                  <c:v>0.17785605386285508</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-5.8890452041020835E-2</c:v>
+                  <c:v>0.18246903113420232</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.1669857489501978</c:v>
@@ -4360,7 +4377,7 @@
                   <c:v>5.5923299143229244E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.385898197895254E-2</c:v>
+                  <c:v>-1.2007208598291852E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-0.10476866889154923</c:v>
@@ -4378,10 +4395,10 @@
                   <c:v>0.15861999003068639</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-6.7326038437284574E-2</c:v>
+                  <c:v>-4.6231208939353508E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.10523703005015461</c:v>
+                  <c:v>-8.4999655501251103E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.24930036235826813</c:v>
@@ -4489,7 +4506,7 @@
                   <c:v>6.1350861922453204E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.10377296264968261</c:v>
+                  <c:v>-3.8219890599909712E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-1.5478618546968193E-2</c:v>
@@ -4507,10 +4524,10 @@
                   <c:v>0.15441602399973542</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-9.2363423757613416E-2</c:v>
+                  <c:v>-2.5975819503525677E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.10786277277313128</c:v>
+                  <c:v>-4.2608843246981554E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2.1508407556542597E-2</c:v>
@@ -4897,25 +4914,25 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -4923,30 +4940,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -4954,16 +4948,39 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4997,36 +5014,60 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -5038,22 +5079,26 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -5077,21 +5122,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5101,7 +5144,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -5110,14 +5153,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5126,14 +5168,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
+            <a:alpha val="33000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5145,17 +5188,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -5164,31 +5206,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -5197,17 +5232,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -5216,17 +5250,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -5235,17 +5268,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -5254,27 +5286,42 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -5282,11 +5329,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -5294,17 +5352,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -5313,12 +5371,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -5327,14 +5385,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -5343,7 +5400,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -5355,20 +5412,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5377,37 +5433,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -6973,16 +7012,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>361948</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>33336</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>585167</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>31266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>819149</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>527188</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>140390</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7003,15 +7042,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1038226</xdr:colOff>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7390,8 +7429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView tabSelected="1" topLeftCell="C30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7485,7 +7524,9 @@
       <c r="T1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="32"/>
+      <c r="U1" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="V1" s="33"/>
       <c r="W1" s="32"/>
       <c r="X1" s="32"/>
@@ -7493,7 +7534,7 @@
       <c r="Z1" s="32"/>
       <c r="AA1" s="32"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -7556,7 +7597,10 @@
         <f>Q2*C2</f>
         <v>546.57451711832289</v>
       </c>
-      <c r="U2" s="36"/>
+      <c r="U2" s="7">
+        <f>J2*C2</f>
+        <v>39.620468709318772</v>
+      </c>
       <c r="V2" s="36"/>
       <c r="W2" s="36"/>
       <c r="X2" s="36"/>
@@ -7627,7 +7671,10 @@
         <f>Q3*C3</f>
         <v>650.82453544593022</v>
       </c>
-      <c r="U3" s="36"/>
+      <c r="U3" s="7">
+        <f>J3*C3</f>
+        <v>42.443884990642779</v>
+      </c>
       <c r="V3" s="37"/>
       <c r="W3" s="36"/>
       <c r="X3" s="37"/>
@@ -7635,7 +7682,7 @@
       <c r="Z3" s="37"/>
       <c r="AA3" s="39"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="4"/>
       <c r="C4" s="27"/>
@@ -7656,7 +7703,7 @@
       <c r="R4" s="8"/>
       <c r="S4" s="54"/>
       <c r="T4" s="56"/>
-      <c r="U4" s="36"/>
+      <c r="U4" s="8"/>
       <c r="V4" s="37"/>
       <c r="W4" s="36"/>
       <c r="X4" s="37"/>
@@ -7664,7 +7711,7 @@
       <c r="Z4" s="37"/>
       <c r="AA4" s="39"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -7727,7 +7774,10 @@
         <f>Q5*C5</f>
         <v>1381.9311693104939</v>
       </c>
-      <c r="U5" s="36"/>
+      <c r="U5" s="7">
+        <f>J5*C5</f>
+        <v>114.79988132633841</v>
+      </c>
       <c r="V5" s="36"/>
       <c r="W5" s="36"/>
       <c r="X5" s="36"/>
@@ -7798,7 +7848,10 @@
         <f>Q6*C6</f>
         <v>1224.1511459815647</v>
       </c>
-      <c r="U6" s="36"/>
+      <c r="U6" s="7">
+        <f>J6*C6</f>
+        <v>100.73746454985543</v>
+      </c>
       <c r="V6" s="37"/>
       <c r="W6" s="36"/>
       <c r="X6" s="37"/>
@@ -7806,7 +7859,7 @@
       <c r="Z6" s="37"/>
       <c r="AA6" s="39"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="5"/>
       <c r="C7" s="27"/>
@@ -7827,7 +7880,7 @@
       <c r="R7" s="8"/>
       <c r="S7" s="54"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="36"/>
+      <c r="U7" s="8"/>
       <c r="V7" s="37"/>
       <c r="W7" s="36"/>
       <c r="X7" s="37"/>
@@ -7835,7 +7888,7 @@
       <c r="Z7" s="37"/>
       <c r="AA7" s="39"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -7898,7 +7951,10 @@
         <f>Q8*C8</f>
         <v>1758.9321808255766</v>
       </c>
-      <c r="U8" s="36"/>
+      <c r="U8" s="7">
+        <f>J8*C8</f>
+        <v>93.093046531132714</v>
+      </c>
       <c r="V8" s="36"/>
       <c r="W8" s="36"/>
       <c r="X8" s="36"/>
@@ -7969,7 +8025,10 @@
         <f>Q9*C9</f>
         <v>1645.1975738592582</v>
       </c>
-      <c r="U9" s="36"/>
+      <c r="U9" s="7">
+        <f>J9*C9</f>
+        <v>86.645873337944522</v>
+      </c>
       <c r="V9" s="37"/>
       <c r="W9" s="36"/>
       <c r="X9" s="37"/>
@@ -7977,7 +8036,7 @@
       <c r="Z9" s="37"/>
       <c r="AA9" s="39"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="5"/>
       <c r="C10" s="27"/>
@@ -7998,7 +8057,7 @@
       <c r="R10" s="8"/>
       <c r="S10" s="54"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="36"/>
+      <c r="U10" s="8"/>
       <c r="V10" s="37"/>
       <c r="W10" s="36"/>
       <c r="X10" s="37"/>
@@ -8006,7 +8065,7 @@
       <c r="Z10" s="37"/>
       <c r="AA10" s="39"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>3</v>
       </c>
@@ -8069,7 +8128,10 @@
         <f>Q11*C11</f>
         <v>1535.3817418346771</v>
       </c>
-      <c r="U11" s="36"/>
+      <c r="U11" s="7">
+        <f>J11*C11</f>
+        <v>109.33844979615468</v>
+      </c>
       <c r="V11" s="36"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -8140,7 +8202,10 @@
         <f>Q12*C12</f>
         <v>1298.4540832853504</v>
       </c>
-      <c r="U12" s="36"/>
+      <c r="U12" s="7">
+        <f>J12*C12</f>
+        <v>96.910722657012371</v>
+      </c>
       <c r="V12" s="37"/>
       <c r="W12" s="36"/>
       <c r="X12" s="37"/>
@@ -8148,7 +8213,7 @@
       <c r="Z12" s="37"/>
       <c r="AA12" s="39"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="5"/>
       <c r="C13" s="27"/>
@@ -8169,7 +8234,7 @@
       <c r="R13" s="8"/>
       <c r="S13" s="54"/>
       <c r="T13" s="56"/>
-      <c r="U13" s="36"/>
+      <c r="U13" s="8"/>
       <c r="V13" s="37"/>
       <c r="W13" s="36"/>
       <c r="X13" s="37"/>
@@ -8177,7 +8242,7 @@
       <c r="Z13" s="37"/>
       <c r="AA13" s="39"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>4</v>
       </c>
@@ -8240,7 +8305,10 @@
         <f>Q14*C14</f>
         <v>810.14959160148419</v>
       </c>
-      <c r="U14" s="36"/>
+      <c r="U14" s="7">
+        <f>J14*C14</f>
+        <v>78.682414063463952</v>
+      </c>
       <c r="V14" s="36"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -8311,7 +8379,10 @@
         <f>Q15*C15</f>
         <v>885.40905637067976</v>
       </c>
-      <c r="U15" s="36"/>
+      <c r="U15" s="7">
+        <f>J15*C15</f>
+        <v>79.638651970156388</v>
+      </c>
       <c r="V15" s="37"/>
       <c r="W15" s="36"/>
       <c r="X15" s="37"/>
@@ -8319,7 +8390,7 @@
       <c r="Z15" s="37"/>
       <c r="AA15" s="39"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="5"/>
       <c r="C16" s="27"/>
@@ -8340,7 +8411,7 @@
       <c r="R16" s="8"/>
       <c r="S16" s="54"/>
       <c r="T16" s="56"/>
-      <c r="U16" s="36"/>
+      <c r="U16" s="8"/>
       <c r="V16" s="37"/>
       <c r="W16" s="36"/>
       <c r="X16" s="37"/>
@@ -8348,7 +8419,7 @@
       <c r="Z16" s="37"/>
       <c r="AA16" s="39"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>5</v>
       </c>
@@ -8411,7 +8482,10 @@
         <f>Q17*C17</f>
         <v>2098.064034808825</v>
       </c>
-      <c r="U17" s="36"/>
+      <c r="U17" s="7">
+        <f>J17*C17</f>
+        <v>110.32523217024061</v>
+      </c>
       <c r="V17" s="36"/>
       <c r="W17" s="36"/>
       <c r="X17" s="36"/>
@@ -8482,7 +8556,10 @@
         <f>Q18*C18</f>
         <v>2191.4387029898899</v>
       </c>
-      <c r="U18" s="37"/>
+      <c r="U18" s="7">
+        <f>J18*C18</f>
+        <v>114.70941340121486</v>
+      </c>
       <c r="V18" s="37"/>
       <c r="W18" s="37"/>
       <c r="X18" s="37"/>
@@ -8598,6 +8675,9 @@
       <c r="T24" s="35" t="s">
         <v>32</v>
       </c>
+      <c r="U24" s="35" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
@@ -8633,8 +8713,7 @@
         <v>6.6799773221124736E-2</v>
       </c>
       <c r="J25" s="15">
-        <f t="shared" si="0"/>
-        <v>-8.6941013784360033E-2</v>
+        <v>-6.6521155684651889E-2</v>
       </c>
       <c r="K25" s="15">
         <f t="shared" si="0"/>
@@ -8657,12 +8736,10 @@
         <v>0.20980388556349383</v>
       </c>
       <c r="P25" s="15">
-        <f t="shared" si="0"/>
-        <v>-0.10010439308011876</v>
+        <v>-7.9978923778275757E-2</v>
       </c>
       <c r="Q25" s="15">
-        <f t="shared" si="0"/>
-        <v>-0.1785524891387561</v>
+        <v>-0.16018145083632651</v>
       </c>
       <c r="R25" s="15">
         <f t="shared" si="0"/>
@@ -8675,6 +8752,10 @@
       <c r="T25" s="15">
         <f t="shared" si="1"/>
         <v>-0.16018145083632651</v>
+      </c>
+      <c r="U25" s="15">
+        <f t="shared" ref="U25" si="2">(U2/U3)-1</f>
+        <v>-6.6521155684651889E-2</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
@@ -8687,74 +8768,74 @@
         <v>0.21094715575120637</v>
       </c>
       <c r="D26" s="15">
-        <f t="shared" ref="D26:R26" si="2">(D5/D6)-1</f>
+        <f t="shared" ref="D26:R26" si="3">(D5/D6)-1</f>
         <v>3.0509624868235496E-2</v>
       </c>
       <c r="E26" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.438993738363342E-2</v>
       </c>
       <c r="F26" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1978388733416834E-2</v>
       </c>
       <c r="G26" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-8.3145081627309381E-3</v>
       </c>
       <c r="H26" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.16127795903622766</v>
       </c>
       <c r="I26" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9608327240562282E-2</v>
       </c>
       <c r="J26" s="15">
-        <f t="shared" si="2"/>
-        <v>-5.8922843263540248E-2</v>
+        <v>0.13959470629244808</v>
       </c>
       <c r="K26" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.3503011526366802E-2</v>
       </c>
       <c r="L26" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-4.5160987023170396E-2</v>
       </c>
       <c r="M26" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-5.4709366162986717E-2</v>
       </c>
       <c r="N26" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.3761624816903248E-2</v>
       </c>
       <c r="O26" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1230402599800573</v>
       </c>
       <c r="P26" s="15">
-        <f t="shared" si="2"/>
-        <v>-0.16355901877733359</v>
+        <v>1.2885827165336039E-2</v>
       </c>
       <c r="Q26" s="15">
-        <f t="shared" si="2"/>
-        <v>-6.7763340025902341E-2</v>
+        <v>0.12888933188263785</v>
       </c>
       <c r="R26" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.25852228066912319</v>
       </c>
       <c r="S26" s="15">
-        <f t="shared" ref="S26:T26" si="3">(S5/S6)-1</f>
+        <f t="shared" ref="S26:T26" si="4">(S5/S6)-1</f>
         <v>1.2885827165336039E-2</v>
       </c>
       <c r="T26" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.12888933188263785</v>
       </c>
-      <c r="U26" s="32"/>
+      <c r="U26" s="15">
+        <f t="shared" ref="U26" si="5">(U5/U6)-1</f>
+        <v>0.13959470629244808</v>
+      </c>
       <c r="V26" s="33"/>
       <c r="W26" s="32"/>
       <c r="X26" s="32"/>
@@ -8772,74 +8853,74 @@
         <v>0.19751783979247906</v>
       </c>
       <c r="D27" s="15">
-        <f t="shared" ref="D27:R27" si="4">(D8/D9)-1</f>
+        <f t="shared" ref="D27:R27" si="6">(D8/D9)-1</f>
         <v>-9.276436666696275E-2</v>
       </c>
       <c r="E27" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.1698938401325076E-2</v>
       </c>
       <c r="F27" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-5.9032691128102055E-2</v>
       </c>
       <c r="G27" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7.6753767380775439E-2</v>
       </c>
       <c r="H27" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7.4221794072617753E-2</v>
       </c>
       <c r="I27" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-4.3140747587474548E-2</v>
       </c>
       <c r="J27" s="15">
-        <f t="shared" si="4"/>
-        <v>-0.10280391950165912</v>
+        <v>7.4408312188652292E-2</v>
       </c>
       <c r="K27" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-3.6766206269346235E-2</v>
       </c>
       <c r="L27" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-9.2545168457396798E-2</v>
       </c>
       <c r="M27" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-3.9219342480681485E-2</v>
       </c>
       <c r="N27" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.18908855007090697</v>
       </c>
       <c r="O27" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.24984082909823457</v>
       </c>
       <c r="P27" s="15">
-        <f t="shared" si="4"/>
-        <v>-0.14188101151990107</v>
+        <v>2.761279736959521E-2</v>
       </c>
       <c r="Q27" s="15">
-        <f t="shared" si="4"/>
-        <v>-0.10721056495603187</v>
+        <v>6.9131275643400603E-2</v>
       </c>
       <c r="R27" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.18010938619017747</v>
       </c>
       <c r="S27" s="15">
-        <f t="shared" ref="S27:T27" si="5">(S8/S9)-1</f>
+        <f t="shared" ref="S27:T27" si="7">(S8/S9)-1</f>
         <v>2.761279736959521E-2</v>
       </c>
       <c r="T27" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.9131275643400603E-2</v>
       </c>
-      <c r="U27" s="15"/>
+      <c r="U27" s="15">
+        <f t="shared" ref="U27" si="8">(U8/U9)-1</f>
+        <v>7.4408312188652292E-2</v>
+      </c>
       <c r="V27" s="15"/>
       <c r="W27" s="15"/>
       <c r="X27" s="15"/>
@@ -8857,74 +8938,74 @@
         <v>0.25646268672830819</v>
       </c>
       <c r="D28" s="15">
-        <f t="shared" ref="D28:R28" si="6">(D11/D12)-1</f>
+        <f t="shared" ref="D28:R28" si="9">(D11/D12)-1</f>
         <v>-8.8491683697801138E-3</v>
       </c>
       <c r="E28" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6.3840254470228563E-2</v>
       </c>
       <c r="F28" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-3.1317383830811063E-2</v>
       </c>
       <c r="G28" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-3.1905172992594988E-2</v>
       </c>
       <c r="H28" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5.2260209641986632E-2</v>
       </c>
       <c r="I28" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.913781536360637E-2</v>
       </c>
       <c r="J28" s="15">
-        <f t="shared" si="6"/>
-        <v>-0.10205138645053313</v>
+        <v>0.12823892752432231</v>
       </c>
       <c r="K28" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2.3710136465821319E-2</v>
       </c>
       <c r="L28" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-4.7758610082039299E-3</v>
       </c>
       <c r="M28" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-6.8334115734363099E-3</v>
       </c>
       <c r="N28" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.18277773424703936</v>
       </c>
       <c r="O28" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1.3312773550577583E-2</v>
       </c>
       <c r="P28" s="15">
-        <f t="shared" si="6"/>
-        <v>-6.2561852170983534E-2</v>
+        <v>0.17785605386285508</v>
       </c>
       <c r="Q28" s="15">
-        <f t="shared" si="6"/>
-        <v>-5.8890452041020835E-2</v>
+        <v>0.18246903113420232</v>
       </c>
       <c r="R28" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.1669857489501978</v>
       </c>
       <c r="S28" s="15">
-        <f t="shared" ref="S28:T28" si="7">(S11/S12)-1</f>
+        <f t="shared" ref="S28:T28" si="10">(S11/S12)-1</f>
         <v>0.17785605386285508</v>
       </c>
       <c r="T28" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.18246903113420232</v>
       </c>
-      <c r="U28" s="15"/>
+      <c r="U28" s="15">
+        <f t="shared" ref="U28" si="11">(U11/U12)-1</f>
+        <v>0.12823892752432231</v>
+      </c>
       <c r="V28" s="15"/>
       <c r="W28" s="15"/>
       <c r="X28" s="15"/>
@@ -8942,74 +9023,74 @@
         <v>2.2617581670861808E-2</v>
       </c>
       <c r="D29" s="15">
-        <f t="shared" ref="D29:R29" si="8">(D14/D15)-1</f>
+        <f t="shared" ref="D29:R29" si="12">(D14/D15)-1</f>
         <v>-1.0808853999729751E-3</v>
       </c>
       <c r="E29" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.8306416665261578E-2</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-2.1999354749875355E-3</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-1.1917326009136531E-2</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.0016609646382761E-2</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5.5923299143229244E-2</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="8"/>
-        <v>-3.385898197895254E-2</v>
+        <v>-1.2007208598291852E-2</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-0.10476866889154923</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>6.696950280521996E-2</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-8.3030329097429356E-2</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.14078501293855417</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.15861999003068639</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="8"/>
-        <v>-6.7326038437284574E-2</v>
+        <v>-4.6231208939353508E-2</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.10523703005015461</v>
+        <v>-8.4999655501251103E-2</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.24930036235826813</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" ref="S29:T29" si="9">(S14/S15)-1</f>
+        <f t="shared" ref="S29:T29" si="13">(S14/S15)-1</f>
         <v>-4.6231208939353508E-2</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-8.4999655501251103E-2</v>
       </c>
-      <c r="U29" s="15"/>
+      <c r="U29" s="15">
+        <f t="shared" ref="U29" si="14">(U14/U15)-1</f>
+        <v>-1.2007208598291852E-2</v>
+      </c>
       <c r="V29" s="15"/>
       <c r="W29" s="15"/>
       <c r="X29" s="15"/>
@@ -9027,74 +9108,74 @@
         <v>7.3143376976864793E-2</v>
       </c>
       <c r="D30" s="15">
-        <f t="shared" ref="D30:R30" si="10">(D17/D18)-1</f>
+        <f t="shared" ref="D30:R30" si="15">(D17/D18)-1</f>
         <v>-8.3641311857414191E-2</v>
       </c>
       <c r="E30" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>-5.1515123253855766E-3</v>
       </c>
       <c r="F30" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>7.3094188465290033E-2</v>
       </c>
       <c r="G30" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.12294637825966181</v>
       </c>
       <c r="H30" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.22275591448484011</v>
       </c>
       <c r="I30" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>6.1350861922453204E-2</v>
       </c>
       <c r="J30" s="15">
-        <f t="shared" si="10"/>
-        <v>-0.10377296264968261</v>
+        <v>-3.8219890599909712E-2</v>
       </c>
       <c r="K30" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>-1.5478618546968193E-2</v>
       </c>
       <c r="L30" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3.1459923244266941E-2</v>
       </c>
       <c r="M30" s="15">
-        <f t="shared" si="10"/>
+        <f>(M17/M18)-1</f>
         <v>-0.16501618699201137</v>
       </c>
       <c r="N30" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.20763657163752081</v>
       </c>
       <c r="O30" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.15441602399973542</v>
       </c>
       <c r="P30" s="15">
-        <f t="shared" si="10"/>
-        <v>-9.2363423757613416E-2</v>
+        <v>-2.5975819503525677E-2</v>
       </c>
       <c r="Q30" s="15">
-        <f t="shared" si="10"/>
-        <v>-0.10786277277313128</v>
+        <v>-4.2608843246981554E-2</v>
       </c>
       <c r="R30" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2.1508407556542597E-2</v>
       </c>
       <c r="S30" s="15">
-        <f t="shared" ref="S30:T30" si="11">(S17/S18)-1</f>
+        <f t="shared" ref="S30:T30" si="16">(S17/S18)-1</f>
         <v>-2.5975819503525677E-2</v>
       </c>
       <c r="T30" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>-4.2608843246981554E-2</v>
       </c>
-      <c r="U30" s="15"/>
+      <c r="U30" s="15">
+        <f t="shared" ref="U30" si="17">(U17/U18)-1</f>
+        <v>-3.8219890599909712E-2</v>
+      </c>
       <c r="V30" s="15"/>
       <c r="W30" s="15"/>
       <c r="X30" s="15"/>
@@ -9111,74 +9192,76 @@
         <v>0.13050881125927671</v>
       </c>
       <c r="D31" s="47">
-        <f t="shared" ref="D31:R31" si="12">AVERAGE(D25:D30)</f>
+        <f t="shared" ref="D31:R31" si="18">AVERAGE(D25:D30)</f>
         <v>-3.3594884196866993E-2</v>
       </c>
       <c r="E31" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>3.5143064018565817E-2</v>
       </c>
       <c r="F31" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-3.5499050789590997E-4</v>
       </c>
       <c r="G31" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>4.8696598540065104E-2</v>
       </c>
       <c r="H31" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.10837281717997134</v>
       </c>
       <c r="I31" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>3.1613221550583548E-2</v>
       </c>
       <c r="J31" s="47">
-        <f t="shared" si="12"/>
-        <v>-8.139185127145461E-2</v>
+        <v>3.7582281853761536E-2</v>
       </c>
       <c r="K31" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-2.208688542905372E-2</v>
       </c>
       <c r="L31" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-1.3806987148756908E-2</v>
       </c>
       <c r="M31" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-3.5218115892731085E-2</v>
       </c>
       <c r="N31" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.16711052990026221</v>
       </c>
       <c r="O31" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.14706803585360498</v>
       </c>
       <c r="P31" s="47">
-        <f t="shared" si="12"/>
-        <v>-0.10463262295720582</v>
+        <f t="shared" si="18"/>
+        <v>1.1028121029438565E-2</v>
       </c>
       <c r="Q31" s="47">
-        <f t="shared" si="12"/>
-        <v>-0.10425277483083284</v>
+        <f t="shared" si="18"/>
+        <v>1.5449948179280268E-2</v>
       </c>
       <c r="R31" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.17853857942672188</v>
       </c>
       <c r="S31" s="47">
-        <f t="shared" ref="S31:T31" si="13">AVERAGE(S25:S30)</f>
+        <f t="shared" ref="S31:T31" si="19">AVERAGE(S25:S30)</f>
         <v>1.1028121029438565E-2</v>
       </c>
       <c r="T31" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.5449948179280268E-2</v>
       </c>
-      <c r="U31" s="15"/>
+      <c r="U31" s="47">
+        <f t="shared" ref="U31" si="20">AVERAGE(U25:U30)</f>
+        <v>3.7582281853761536E-2</v>
+      </c>
       <c r="V31" s="15"/>
       <c r="W31" s="15"/>
       <c r="X31" s="15"/>
@@ -9198,6 +9281,306 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C3">
+    <cfRule type="colorScale" priority="157">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D3">
+    <cfRule type="colorScale" priority="156">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="colorScale" priority="155">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F3">
+    <cfRule type="colorScale" priority="154">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G3">
+    <cfRule type="colorScale" priority="153">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H3">
+    <cfRule type="colorScale" priority="152">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I3">
+    <cfRule type="colorScale" priority="151">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J3">
+    <cfRule type="colorScale" priority="150">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K3">
+    <cfRule type="colorScale" priority="149">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L3">
+    <cfRule type="colorScale" priority="148">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M3">
+    <cfRule type="colorScale" priority="147">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N3">
+    <cfRule type="colorScale" priority="146">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O3">
+    <cfRule type="colorScale" priority="145">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P3">
+    <cfRule type="colorScale" priority="144">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q3">
+    <cfRule type="colorScale" priority="143">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:R3">
+    <cfRule type="colorScale" priority="142">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C6">
+    <cfRule type="colorScale" priority="139">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D6">
+    <cfRule type="colorScale" priority="138">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E6">
+    <cfRule type="colorScale" priority="137">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F6">
+    <cfRule type="colorScale" priority="136">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G6">
+    <cfRule type="colorScale" priority="135">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H6">
+    <cfRule type="colorScale" priority="134">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I6">
+    <cfRule type="colorScale" priority="133">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J6">
+    <cfRule type="colorScale" priority="132">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K6">
+    <cfRule type="colorScale" priority="131">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:L6">
     <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="min"/>
@@ -9209,7 +9592,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D3">
+  <conditionalFormatting sqref="M5:M6">
     <cfRule type="colorScale" priority="129">
       <colorScale>
         <cfvo type="min"/>
@@ -9221,7 +9604,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="N5:N6">
     <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="min"/>
@@ -9233,7 +9616,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F3">
+  <conditionalFormatting sqref="O5:O6">
     <cfRule type="colorScale" priority="127">
       <colorScale>
         <cfvo type="min"/>
@@ -9245,7 +9628,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G3">
+  <conditionalFormatting sqref="P5:P6">
     <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="min"/>
@@ -9257,7 +9640,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H3">
+  <conditionalFormatting sqref="Q5:Q6">
     <cfRule type="colorScale" priority="125">
       <colorScale>
         <cfvo type="min"/>
@@ -9269,7 +9652,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I3">
+  <conditionalFormatting sqref="R5:R6">
     <cfRule type="colorScale" priority="124">
       <colorScale>
         <cfvo type="min"/>
@@ -9281,7 +9664,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J3">
+  <conditionalFormatting sqref="C8:C9">
     <cfRule type="colorScale" priority="123">
       <colorScale>
         <cfvo type="min"/>
@@ -9293,7 +9676,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K3">
+  <conditionalFormatting sqref="D8:D9">
     <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="min"/>
@@ -9305,7 +9688,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L3">
+  <conditionalFormatting sqref="E8:E9">
     <cfRule type="colorScale" priority="121">
       <colorScale>
         <cfvo type="min"/>
@@ -9317,7 +9700,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M3">
+  <conditionalFormatting sqref="F8:F9">
     <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="min"/>
@@ -9329,7 +9712,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N3">
+  <conditionalFormatting sqref="G8:G9">
     <cfRule type="colorScale" priority="119">
       <colorScale>
         <cfvo type="min"/>
@@ -9341,7 +9724,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O3">
+  <conditionalFormatting sqref="H8:H9">
     <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="min"/>
@@ -9353,7 +9736,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P3">
+  <conditionalFormatting sqref="I8:I9">
     <cfRule type="colorScale" priority="117">
       <colorScale>
         <cfvo type="min"/>
@@ -9365,7 +9748,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q3">
+  <conditionalFormatting sqref="J8:J9">
     <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="min"/>
@@ -9377,7 +9760,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R3">
+  <conditionalFormatting sqref="K8:K9">
     <cfRule type="colorScale" priority="115">
       <colorScale>
         <cfvo type="min"/>
@@ -9389,7 +9772,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C6">
+  <conditionalFormatting sqref="L8:L9">
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M8:M9">
+    <cfRule type="colorScale" priority="113">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8:N9">
     <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="min"/>
@@ -9401,7 +9808,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D6">
+  <conditionalFormatting sqref="O8:O9">
     <cfRule type="colorScale" priority="111">
       <colorScale>
         <cfvo type="min"/>
@@ -9413,7 +9820,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E6">
+  <conditionalFormatting sqref="P8:P9">
     <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="min"/>
@@ -9425,7 +9832,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F6">
+  <conditionalFormatting sqref="Q8:Q9">
     <cfRule type="colorScale" priority="109">
       <colorScale>
         <cfvo type="min"/>
@@ -9437,7 +9844,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G6">
+  <conditionalFormatting sqref="R8:R9">
     <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="min"/>
@@ -9449,7 +9856,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H6">
+  <conditionalFormatting sqref="C11:C12">
     <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min"/>
@@ -9461,7 +9868,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I6">
+  <conditionalFormatting sqref="D11:D12">
     <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="min"/>
@@ -9473,7 +9880,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J6">
+  <conditionalFormatting sqref="E11:E12">
     <cfRule type="colorScale" priority="105">
       <colorScale>
         <cfvo type="min"/>
@@ -9485,7 +9892,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K6">
+  <conditionalFormatting sqref="F11:F12">
     <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="min"/>
@@ -9497,7 +9904,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L6">
+  <conditionalFormatting sqref="G11:G12">
     <cfRule type="colorScale" priority="103">
       <colorScale>
         <cfvo type="min"/>
@@ -9509,7 +9916,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M6">
+  <conditionalFormatting sqref="H11:H12">
     <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="min"/>
@@ -9521,7 +9928,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:N6">
+  <conditionalFormatting sqref="I11:I12">
     <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="min"/>
@@ -9533,7 +9940,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5:O6">
+  <conditionalFormatting sqref="C14:C15">
     <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="min"/>
@@ -9545,7 +9952,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P5:P6">
+  <conditionalFormatting sqref="D14:D15">
     <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="min"/>
@@ -9557,7 +9964,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:Q6">
+  <conditionalFormatting sqref="E14:E15">
     <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="min"/>
@@ -9569,7 +9976,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R5:R6">
+  <conditionalFormatting sqref="F14:F15">
     <cfRule type="colorScale" priority="97">
       <colorScale>
         <cfvo type="min"/>
@@ -9581,7 +9988,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8:C9">
+  <conditionalFormatting sqref="G14:G15">
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="min"/>
@@ -9593,7 +10000,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D9">
+  <conditionalFormatting sqref="J11:J12">
     <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
@@ -9605,7 +10012,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E9">
+  <conditionalFormatting sqref="K11:K12">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
@@ -9617,7 +10024,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F9">
+  <conditionalFormatting sqref="L11:L12">
     <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
@@ -9629,7 +10036,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G9">
+  <conditionalFormatting sqref="M11:M12">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
@@ -9641,7 +10048,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H9">
+  <conditionalFormatting sqref="N11:N12">
     <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="min"/>
@@ -9653,7 +10060,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I9">
+  <conditionalFormatting sqref="O11:O12">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min"/>
@@ -9665,7 +10072,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:J9">
+  <conditionalFormatting sqref="P11:P12">
     <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min"/>
@@ -9677,7 +10084,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K9">
+  <conditionalFormatting sqref="Q11:Q12">
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min"/>
@@ -9689,7 +10096,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8:L9">
+  <conditionalFormatting sqref="R11:R12">
     <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="min"/>
@@ -9701,7 +10108,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8:M9">
+  <conditionalFormatting sqref="H14:H15">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
@@ -9713,7 +10120,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8:N9">
+  <conditionalFormatting sqref="I14:I15">
     <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="min"/>
@@ -9725,7 +10132,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O8:O9">
+  <conditionalFormatting sqref="J14:J15">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
@@ -9737,7 +10144,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P8:P9">
+  <conditionalFormatting sqref="K14:K15">
     <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
@@ -9749,7 +10156,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q8:Q9">
+  <conditionalFormatting sqref="L14:L15">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
@@ -9761,7 +10168,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R8:R9">
+  <conditionalFormatting sqref="M14:M15">
     <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
@@ -9773,7 +10180,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C12">
+  <conditionalFormatting sqref="N14:N15">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
@@ -9785,7 +10192,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D12">
+  <conditionalFormatting sqref="O14:O15">
     <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
@@ -9797,7 +10204,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E12">
+  <conditionalFormatting sqref="P14:P15">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
@@ -9809,7 +10216,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F12">
+  <conditionalFormatting sqref="Q14:Q15">
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
@@ -9821,7 +10228,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11:G12">
+  <conditionalFormatting sqref="R14:R15">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
@@ -9833,7 +10240,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H12">
+  <conditionalFormatting sqref="R17:R18">
     <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
@@ -9845,7 +10252,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11:I12">
+  <conditionalFormatting sqref="C17:C18">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
@@ -9857,7 +10264,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14:C15">
+  <conditionalFormatting sqref="D17:D18">
     <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
@@ -9869,7 +10276,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
+  <conditionalFormatting sqref="E17:E18">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
@@ -9881,7 +10288,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E15">
+  <conditionalFormatting sqref="F17:F18">
     <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
@@ -9893,7 +10300,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:F15">
+  <conditionalFormatting sqref="G17:G18">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
@@ -9905,7 +10312,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G15">
+  <conditionalFormatting sqref="H17:H18">
     <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
@@ -9917,7 +10324,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11:J12">
+  <conditionalFormatting sqref="I17:I18">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
@@ -9929,7 +10336,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:K12">
+  <conditionalFormatting sqref="J17:J18">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
@@ -9941,7 +10348,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L11:L12">
+  <conditionalFormatting sqref="K17:K18">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -9953,7 +10360,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M11:M12">
+  <conditionalFormatting sqref="L17:L18">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -9965,7 +10372,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N11:N12">
+  <conditionalFormatting sqref="M17:M18">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -9977,7 +10384,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O11:O12">
+  <conditionalFormatting sqref="N17:N18">
     <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
@@ -9989,7 +10396,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P11:P12">
+  <conditionalFormatting sqref="O17:O18">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
@@ -10001,7 +10408,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q11:Q12">
+  <conditionalFormatting sqref="P17:P18">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
@@ -10013,7 +10420,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R11:R12">
+  <conditionalFormatting sqref="Q17:Q18">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -10025,7 +10432,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:H15">
+  <conditionalFormatting sqref="C25:R25">
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
@@ -10037,7 +10444,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14:I15">
+  <conditionalFormatting sqref="C26:R26">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -10049,7 +10456,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J14:J15">
+  <conditionalFormatting sqref="C27:R27">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -10061,7 +10468,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:K15">
+  <conditionalFormatting sqref="C28:R28">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -10073,7 +10480,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14:L15">
+  <conditionalFormatting sqref="C29:R29">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -10085,7 +10492,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14:M15">
+  <conditionalFormatting sqref="C30:R30">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -10097,7 +10504,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N14:N15">
+  <conditionalFormatting sqref="S2:S3">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -10109,7 +10516,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O14:O15">
+  <conditionalFormatting sqref="S5:S6">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -10121,7 +10528,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P14:P15">
+  <conditionalFormatting sqref="S8:S9">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -10133,7 +10540,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q14:Q15">
+  <conditionalFormatting sqref="S11:S12">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -10145,7 +10552,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R14:R15">
+  <conditionalFormatting sqref="S14:S15">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -10157,7 +10564,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R17:R18">
+  <conditionalFormatting sqref="S17:S18">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -10169,7 +10576,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C18">
+  <conditionalFormatting sqref="S25">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -10181,7 +10588,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D18">
+  <conditionalFormatting sqref="S26">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -10193,7 +10600,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E18">
+  <conditionalFormatting sqref="S27">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -10205,7 +10612,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17:F18">
+  <conditionalFormatting sqref="S28">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -10217,7 +10624,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17:G18">
+  <conditionalFormatting sqref="S29">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -10229,7 +10636,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17:H18">
+  <conditionalFormatting sqref="S30">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -10241,7 +10648,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17:I18">
+  <conditionalFormatting sqref="S25:S30">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -10253,7 +10660,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17:J18">
+  <conditionalFormatting sqref="T2:T3">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -10265,7 +10672,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:K18">
+  <conditionalFormatting sqref="T5:T6">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -10277,7 +10684,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L17:L18">
+  <conditionalFormatting sqref="T8:T9">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -10289,7 +10696,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M17:M18">
+  <conditionalFormatting sqref="T11:T12">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -10301,7 +10708,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N17:N18">
+  <conditionalFormatting sqref="T14:T15">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -10313,7 +10720,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O17:O18">
+  <conditionalFormatting sqref="T17:T18">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -10325,7 +10732,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P17:P18">
+  <conditionalFormatting sqref="T25">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -10337,7 +10744,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q17:Q18">
+  <conditionalFormatting sqref="T26">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -10349,7 +10756,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:R25">
+  <conditionalFormatting sqref="T27">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -10361,7 +10768,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:R26">
+  <conditionalFormatting sqref="T28">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -10373,7 +10780,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:R27">
+  <conditionalFormatting sqref="T29">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -10385,7 +10792,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:R28">
+  <conditionalFormatting sqref="T30">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -10397,7 +10804,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:R29">
+  <conditionalFormatting sqref="T25:T30">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -10409,151 +10816,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30:R30">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S3">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S5:S6">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S8:S9">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S11:S12">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S14:S15">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S17:S18">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S25">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S26">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S27">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S28">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S29">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S30">
+  <conditionalFormatting sqref="U2:U3">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -10565,7 +10828,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S25:S30">
+  <conditionalFormatting sqref="U5:U6">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -10577,7 +10840,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T3">
+  <conditionalFormatting sqref="U8:U9">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -10589,7 +10852,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T5:T6">
+  <conditionalFormatting sqref="U11:U12">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -10601,7 +10864,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T8:T9">
+  <conditionalFormatting sqref="U14:U15">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -10613,7 +10876,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T11:T12">
+  <conditionalFormatting sqref="U17:U18">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -10625,7 +10888,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T14:T15">
+  <conditionalFormatting sqref="U25">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -10637,7 +10900,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T17:T18">
+  <conditionalFormatting sqref="U26">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -10649,7 +10912,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T25">
+  <conditionalFormatting sqref="U27">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -10661,7 +10924,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T26">
+  <conditionalFormatting sqref="U28">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -10673,7 +10936,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T27">
+  <conditionalFormatting sqref="U29">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -10685,7 +10948,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T28">
+  <conditionalFormatting sqref="U30">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -10697,7 +10960,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T29">
+  <conditionalFormatting sqref="U25:U30">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -10709,7 +10972,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T30">
+  <conditionalFormatting sqref="P25:P30">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -10721,7 +10984,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T25:T30">
+  <conditionalFormatting sqref="Q25:Q30">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -14600,8 +14863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T31" sqref="T31"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15694,12 +15957,10 @@
         <v>-5.5228627018988341E-3</v>
       </c>
       <c r="P25" s="15">
-        <f t="shared" si="0"/>
-        <v>7.5667847496799112E-2</v>
+        <v>0.34664030299901638</v>
       </c>
       <c r="Q25" s="15">
-        <f t="shared" si="0"/>
-        <v>-5.7307556267157778E-2</v>
+        <v>0.18016694560265312</v>
       </c>
       <c r="R25" s="15">
         <f t="shared" si="0"/>
@@ -15772,12 +16033,10 @@
         <v>-0.14017698498511078</v>
       </c>
       <c r="P26" s="15">
-        <f t="shared" si="2"/>
-        <v>-8.1337606124669892E-2</v>
+        <v>-9.670878453845666E-2</v>
       </c>
       <c r="Q26" s="15">
-        <f t="shared" si="2"/>
-        <v>-5.6517507065374617E-2</v>
+        <v>-7.2303978598191376E-2</v>
       </c>
       <c r="R26" s="15">
         <f t="shared" si="2"/>
@@ -15850,12 +16109,10 @@
         <v>0.1351125344948898</v>
       </c>
       <c r="P27" s="15">
-        <f t="shared" si="4"/>
-        <v>4.2126519043320654E-2</v>
+        <v>0.20949508063693201</v>
       </c>
       <c r="Q27" s="15">
-        <f t="shared" si="4"/>
-        <v>-4.1893826488067831E-2</v>
+        <v>0.11198082230396178</v>
       </c>
       <c r="R27" s="15">
         <f t="shared" si="4"/>
@@ -15928,12 +16185,10 @@
         <v>-3.1530220030370204E-3</v>
       </c>
       <c r="P28" s="15">
-        <f t="shared" si="6"/>
-        <v>6.4168981760275301E-3</v>
+        <v>0.26326341299137157</v>
       </c>
       <c r="Q28" s="15">
-        <f t="shared" si="6"/>
-        <v>-6.0072140160480347E-2</v>
+        <v>0.17980578261203717</v>
       </c>
       <c r="R28" s="15">
         <f t="shared" si="6"/>
@@ -16006,12 +16261,10 @@
         <v>0.42929405542376498</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="8"/>
-        <v>-9.6006447395693417E-3</v>
+        <v>0.28635120179007312</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="8"/>
-        <v>2.0396453985097152E-2</v>
+        <v>0.32531205509610506</v>
       </c>
       <c r="R29" s="15">
         <f t="shared" si="8"/>
@@ -16084,12 +16337,10 @@
         <v>-1.3540306300482419E-2</v>
       </c>
       <c r="P30" s="15">
-        <f t="shared" si="10"/>
-        <v>-0.20436088040864253</v>
+        <v>-0.22924998029842136</v>
       </c>
       <c r="Q30" s="15">
-        <f t="shared" si="10"/>
-        <v>-1.4957189300934259E-2</v>
+        <v>-4.5771195685876176E-2</v>
       </c>
       <c r="R30" s="15">
         <f t="shared" si="10"/>
@@ -16162,11 +16413,11 @@
       </c>
       <c r="P31" s="47">
         <f t="shared" si="12"/>
-        <v>-2.851464442612241E-2</v>
+        <v>0.12996520559675251</v>
       </c>
       <c r="Q31" s="47">
         <f t="shared" si="12"/>
-        <v>-3.5058627549486278E-2</v>
+        <v>0.1131984052217816</v>
       </c>
       <c r="R31" s="47">
         <f t="shared" si="12"/>

--- a/migforecasting/clustering/AN-method.xlsx
+++ b/migforecasting/clustering/AN-method.xlsx
@@ -16,13 +16,14 @@
     <sheet name="Прогноз мун-районы" sheetId="2" r:id="rId2"/>
     <sheet name="Анализ поселения" sheetId="3" r:id="rId3"/>
     <sheet name="Прогноз поселения" sheetId="4" r:id="rId4"/>
+    <sheet name="Анализ совместный" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="36">
   <si>
     <t>clust</t>
   </si>
@@ -125,12 +126,19 @@
   <si>
     <t>sportsvenue abs</t>
   </si>
+  <si>
+    <t>roadslen abs</t>
+  </si>
+  <si>
+    <t>livestock abs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
@@ -438,11 +446,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -597,10 +606,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Процентный" xfId="1" builtinId="5"/>
+    <cellStyle name="Финансовый" xfId="2" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3681,7 +3697,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4686,7 +4701,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7429,8 +7443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K64" sqref="K64"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7527,8 +7541,12 @@
       <c r="U1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="V1" s="33"/>
-      <c r="W1" s="32"/>
+      <c r="V1" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="W1" s="32" t="s">
+        <v>35</v>
+      </c>
       <c r="X1" s="32"/>
       <c r="Y1" s="32"/>
       <c r="Z1" s="32"/>
@@ -7601,8 +7619,14 @@
         <f>J2*C2</f>
         <v>39.620468709318772</v>
       </c>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
+      <c r="V2" s="59">
+        <f>L2*C2</f>
+        <v>557.75148260418314</v>
+      </c>
+      <c r="W2" s="58">
+        <f>M2*C2</f>
+        <v>27529.778282881914</v>
+      </c>
       <c r="X2" s="36"/>
       <c r="Y2" s="36"/>
       <c r="Z2" s="36"/>
@@ -7675,8 +7699,14 @@
         <f>J3*C3</f>
         <v>42.443884990642779</v>
       </c>
-      <c r="V3" s="37"/>
-      <c r="W3" s="36"/>
+      <c r="V3" s="59">
+        <f>L3*C3</f>
+        <v>567.56617704564837</v>
+      </c>
+      <c r="W3" s="58">
+        <f>M3*C3</f>
+        <v>23672.585084534127</v>
+      </c>
       <c r="X3" s="37"/>
       <c r="Y3" s="37"/>
       <c r="Z3" s="37"/>
@@ -7704,8 +7734,8 @@
       <c r="S4" s="54"/>
       <c r="T4" s="56"/>
       <c r="U4" s="8"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="36"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="58"/>
       <c r="X4" s="37"/>
       <c r="Y4" s="37"/>
       <c r="Z4" s="37"/>
@@ -7778,8 +7808,14 @@
         <f>J5*C5</f>
         <v>114.79988132633841</v>
       </c>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
+      <c r="V5" s="59">
+        <f>L5*C5</f>
+        <v>607.19155446580351</v>
+      </c>
+      <c r="W5" s="58">
+        <f>M5*C5</f>
+        <v>101509.97296327043</v>
+      </c>
       <c r="X5" s="36"/>
       <c r="Y5" s="36"/>
       <c r="Z5" s="36"/>
@@ -7852,8 +7888,14 @@
         <f>J6*C6</f>
         <v>100.73746454985543</v>
       </c>
-      <c r="V6" s="37"/>
-      <c r="W6" s="36"/>
+      <c r="V6" s="59">
+        <f>L6*C6</f>
+        <v>525.13428758658438</v>
+      </c>
+      <c r="W6" s="58">
+        <f>M6*C6</f>
+        <v>88678.464757750422</v>
+      </c>
       <c r="X6" s="37"/>
       <c r="Y6" s="37"/>
       <c r="Z6" s="37"/>
@@ -7881,8 +7923,8 @@
       <c r="S7" s="54"/>
       <c r="T7" s="56"/>
       <c r="U7" s="8"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="36"/>
+      <c r="V7" s="59"/>
+      <c r="W7" s="58"/>
       <c r="X7" s="37"/>
       <c r="Y7" s="37"/>
       <c r="Z7" s="37"/>
@@ -7955,8 +7997,14 @@
         <f>J8*C8</f>
         <v>93.093046531132714</v>
       </c>
-      <c r="V8" s="36"/>
-      <c r="W8" s="36"/>
+      <c r="V8" s="59">
+        <f>L8*C8</f>
+        <v>538.71030756764515</v>
+      </c>
+      <c r="W8" s="58">
+        <f>M8*C8</f>
+        <v>65615.903340741046</v>
+      </c>
       <c r="X8" s="36"/>
       <c r="Y8" s="36"/>
       <c r="Z8" s="36"/>
@@ -8029,8 +8077,14 @@
         <f>J9*C9</f>
         <v>86.645873337944522</v>
       </c>
-      <c r="V9" s="37"/>
-      <c r="W9" s="36"/>
+      <c r="V9" s="59">
+        <f>L9*C9</f>
+        <v>495.7335091604013</v>
+      </c>
+      <c r="W9" s="58">
+        <f>M9*C9</f>
+        <v>57029.933999957611</v>
+      </c>
       <c r="X9" s="37"/>
       <c r="Y9" s="37"/>
       <c r="Z9" s="37"/>
@@ -8058,8 +8112,8 @@
       <c r="S10" s="54"/>
       <c r="T10" s="56"/>
       <c r="U10" s="8"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="36"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="58"/>
       <c r="X10" s="37"/>
       <c r="Y10" s="37"/>
       <c r="Z10" s="37"/>
@@ -8132,8 +8186,14 @@
         <f>J11*C11</f>
         <v>109.33844979615468</v>
       </c>
-      <c r="V11" s="36"/>
-      <c r="W11" s="36"/>
+      <c r="V11" s="59">
+        <f>L11*C11</f>
+        <v>672.27671875987983</v>
+      </c>
+      <c r="W11" s="58">
+        <f>M11*C11</f>
+        <v>445958.78933137533</v>
+      </c>
       <c r="X11" s="36"/>
       <c r="Y11" s="36"/>
       <c r="Z11" s="36"/>
@@ -8206,8 +8266,14 @@
         <f>J12*C12</f>
         <v>96.910722657012371</v>
       </c>
-      <c r="V12" s="37"/>
-      <c r="W12" s="36"/>
+      <c r="V12" s="59">
+        <f>L12*C12</f>
+        <v>537.62267157189058</v>
+      </c>
+      <c r="W12" s="58">
+        <f>M12*C12</f>
+        <v>357374.06417343591</v>
+      </c>
       <c r="X12" s="37"/>
       <c r="Y12" s="37"/>
       <c r="Z12" s="37"/>
@@ -8235,8 +8301,8 @@
       <c r="S13" s="54"/>
       <c r="T13" s="56"/>
       <c r="U13" s="8"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="36"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="58"/>
       <c r="X13" s="37"/>
       <c r="Y13" s="37"/>
       <c r="Z13" s="37"/>
@@ -8309,8 +8375,14 @@
         <f>J14*C14</f>
         <v>78.682414063463952</v>
       </c>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
+      <c r="V14" s="59">
+        <f>L14*C14</f>
+        <v>387.95366666115103</v>
+      </c>
+      <c r="W14" s="58">
+        <f>M14*C14</f>
+        <v>57632.645976082618</v>
+      </c>
       <c r="X14" s="36"/>
       <c r="Y14" s="36"/>
       <c r="Z14" s="36"/>
@@ -8383,8 +8455,14 @@
         <f>J15*C15</f>
         <v>79.638651970156388</v>
       </c>
-      <c r="V15" s="37"/>
-      <c r="W15" s="36"/>
+      <c r="V15" s="59">
+        <f>L15*C15</f>
+        <v>355.56139342523517</v>
+      </c>
+      <c r="W15" s="58">
+        <f>M15*C15</f>
+        <v>61461.10049878664</v>
+      </c>
       <c r="X15" s="37"/>
       <c r="Y15" s="37"/>
       <c r="Z15" s="37"/>
@@ -8412,8 +8490,8 @@
       <c r="S16" s="54"/>
       <c r="T16" s="56"/>
       <c r="U16" s="8"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="36"/>
+      <c r="V16" s="59"/>
+      <c r="W16" s="58"/>
       <c r="X16" s="37"/>
       <c r="Y16" s="37"/>
       <c r="Z16" s="37"/>
@@ -8486,8 +8564,14 @@
         <f>J17*C17</f>
         <v>110.32523217024061</v>
       </c>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
+      <c r="V17" s="59">
+        <f>L17*C17</f>
+        <v>663.24648893882375</v>
+      </c>
+      <c r="W17" s="58">
+        <f>M17*C17</f>
+        <v>52675.474952473145</v>
+      </c>
       <c r="X17" s="36"/>
       <c r="Y17" s="36"/>
       <c r="Z17" s="36"/>
@@ -8560,8 +8644,14 @@
         <f>J18*C18</f>
         <v>114.70941340121486</v>
       </c>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
+      <c r="V18" s="59">
+        <f>L18*C18</f>
+        <v>599.19040684894662</v>
+      </c>
+      <c r="W18" s="58">
+        <f>M18*C18</f>
+        <v>58785.829972028572</v>
+      </c>
       <c r="X18" s="37"/>
       <c r="Y18" s="37"/>
       <c r="Z18" s="37"/>
@@ -8678,6 +8768,12 @@
       <c r="U24" s="35" t="s">
         <v>33</v>
       </c>
+      <c r="V24" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="W24" s="35" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
@@ -8720,7 +8816,7 @@
         <v>2.4699306072995864E-2</v>
       </c>
       <c r="L25" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L25" si="1">(L2/L3)-1</f>
         <v>-3.8789332453257219E-2</v>
       </c>
       <c r="M25" s="15">
@@ -8746,16 +8842,24 @@
         <v>0.19480529083602205</v>
       </c>
       <c r="S25" s="15">
-        <f t="shared" ref="S25:T25" si="1">(S2/S3)-1</f>
+        <f t="shared" ref="S25:T25" si="2">(S2/S3)-1</f>
         <v>-7.9978923778275757E-2</v>
       </c>
       <c r="T25" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.16018145083632651</v>
       </c>
       <c r="U25" s="15">
-        <f t="shared" ref="U25" si="2">(U2/U3)-1</f>
+        <f t="shared" ref="U25:V25" si="3">(U2/U3)-1</f>
         <v>-6.6521155684651889E-2</v>
+      </c>
+      <c r="V25" s="15">
+        <f t="shared" si="3"/>
+        <v>-1.7292599239358553E-2</v>
+      </c>
+      <c r="W25" s="15">
+        <f t="shared" ref="W25" si="4">(W2/W3)-1</f>
+        <v>0.16293924742793653</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
@@ -8768,50 +8872,50 @@
         <v>0.21094715575120637</v>
       </c>
       <c r="D26" s="15">
-        <f t="shared" ref="D26:R26" si="3">(D5/D6)-1</f>
+        <f t="shared" ref="D26:R26" si="5">(D5/D6)-1</f>
         <v>3.0509624868235496E-2</v>
       </c>
       <c r="E26" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.438993738363342E-2</v>
       </c>
       <c r="F26" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.1978388733416834E-2</v>
       </c>
       <c r="G26" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-8.3145081627309381E-3</v>
       </c>
       <c r="H26" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.16127795903622766</v>
       </c>
       <c r="I26" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.9608327240562282E-2</v>
       </c>
       <c r="J26" s="15">
         <v>0.13959470629244808</v>
       </c>
       <c r="K26" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.3503011526366802E-2</v>
       </c>
       <c r="L26" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="L26" si="6">(L5/L6)-1</f>
         <v>-4.5160987023170396E-2</v>
       </c>
       <c r="M26" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-5.4709366162986717E-2</v>
       </c>
       <c r="N26" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.3761624816903248E-2</v>
       </c>
       <c r="O26" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.1230402599800573</v>
       </c>
       <c r="P26" s="15">
@@ -8821,23 +8925,29 @@
         <v>0.12888933188263785</v>
       </c>
       <c r="R26" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.25852228066912319</v>
       </c>
       <c r="S26" s="15">
-        <f t="shared" ref="S26:T26" si="4">(S5/S6)-1</f>
+        <f t="shared" ref="S26:T26" si="7">(S5/S6)-1</f>
         <v>1.2885827165336039E-2</v>
       </c>
       <c r="T26" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.12888933188263785</v>
       </c>
       <c r="U26" s="15">
-        <f t="shared" ref="U26" si="5">(U5/U6)-1</f>
+        <f t="shared" ref="U26:V26" si="8">(U5/U6)-1</f>
         <v>0.13959470629244808</v>
       </c>
-      <c r="V26" s="33"/>
-      <c r="W26" s="32"/>
+      <c r="V26" s="15">
+        <f t="shared" si="8"/>
+        <v>0.15625958696458087</v>
+      </c>
+      <c r="W26" s="15">
+        <f t="shared" ref="W26" si="9">(W5/W6)-1</f>
+        <v>0.14469700440318611</v>
+      </c>
       <c r="X26" s="32"/>
       <c r="Y26" s="32"/>
       <c r="Z26" s="32"/>
@@ -8853,50 +8963,50 @@
         <v>0.19751783979247906</v>
       </c>
       <c r="D27" s="15">
-        <f t="shared" ref="D27:R27" si="6">(D8/D9)-1</f>
+        <f t="shared" ref="D27:R27" si="10">(D8/D9)-1</f>
         <v>-9.276436666696275E-2</v>
       </c>
       <c r="E27" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.1698938401325076E-2</v>
       </c>
       <c r="F27" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-5.9032691128102055E-2</v>
       </c>
       <c r="G27" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>7.6753767380775439E-2</v>
       </c>
       <c r="H27" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>7.4221794072617753E-2</v>
       </c>
       <c r="I27" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-4.3140747587474548E-2</v>
       </c>
       <c r="J27" s="15">
         <v>7.4408312188652292E-2</v>
       </c>
       <c r="K27" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-3.6766206269346235E-2</v>
       </c>
       <c r="L27" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="L27" si="11">(L8/L9)-1</f>
         <v>-9.2545168457396798E-2</v>
       </c>
       <c r="M27" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-3.9219342480681485E-2</v>
       </c>
       <c r="N27" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.18908855007090697</v>
       </c>
       <c r="O27" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.24984082909823457</v>
       </c>
       <c r="P27" s="15">
@@ -8906,23 +9016,29 @@
         <v>6.9131275643400603E-2</v>
       </c>
       <c r="R27" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.18010938619017747</v>
       </c>
       <c r="S27" s="15">
-        <f t="shared" ref="S27:T27" si="7">(S8/S9)-1</f>
+        <f t="shared" ref="S27:T27" si="12">(S8/S9)-1</f>
         <v>2.761279736959521E-2</v>
       </c>
       <c r="T27" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>6.9131275643400603E-2</v>
       </c>
       <c r="U27" s="15">
-        <f t="shared" ref="U27" si="8">(U8/U9)-1</f>
+        <f t="shared" ref="U27:V27" si="13">(U8/U9)-1</f>
         <v>7.4408312188652292E-2</v>
       </c>
-      <c r="V27" s="15"/>
-      <c r="W27" s="15"/>
+      <c r="V27" s="15">
+        <f t="shared" si="13"/>
+        <v>8.6693349578146339E-2</v>
+      </c>
+      <c r="W27" s="15">
+        <f t="shared" ref="W27" si="14">(W8/W9)-1</f>
+        <v>0.15055197750693194</v>
+      </c>
       <c r="X27" s="15"/>
       <c r="Y27" s="15"/>
       <c r="Z27" s="15"/>
@@ -8938,50 +9054,50 @@
         <v>0.25646268672830819</v>
       </c>
       <c r="D28" s="15">
-        <f t="shared" ref="D28:R28" si="9">(D11/D12)-1</f>
+        <f t="shared" ref="D28:R28" si="15">(D11/D12)-1</f>
         <v>-8.8491683697801138E-3</v>
       </c>
       <c r="E28" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>6.3840254470228563E-2</v>
       </c>
       <c r="F28" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-3.1317383830811063E-2</v>
       </c>
       <c r="G28" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-3.1905172992594988E-2</v>
       </c>
       <c r="H28" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>5.2260209641986632E-2</v>
       </c>
       <c r="I28" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1.913781536360637E-2</v>
       </c>
       <c r="J28" s="15">
         <v>0.12823892752432231</v>
       </c>
       <c r="K28" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-2.3710136465821319E-2</v>
       </c>
       <c r="L28" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="L28" si="16">(L11/L12)-1</f>
         <v>-4.7758610082039299E-3</v>
       </c>
       <c r="M28" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-6.8334115734363099E-3</v>
       </c>
       <c r="N28" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.18277773424703936</v>
       </c>
       <c r="O28" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-1.3312773550577583E-2</v>
       </c>
       <c r="P28" s="15">
@@ -8991,23 +9107,29 @@
         <v>0.18246903113420232</v>
       </c>
       <c r="R28" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.1669857489501978</v>
       </c>
       <c r="S28" s="15">
-        <f t="shared" ref="S28:T28" si="10">(S11/S12)-1</f>
+        <f t="shared" ref="S28:T28" si="17">(S11/S12)-1</f>
         <v>0.17785605386285508</v>
       </c>
       <c r="T28" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0.18246903113420232</v>
       </c>
       <c r="U28" s="15">
-        <f t="shared" ref="U28" si="11">(U11/U12)-1</f>
+        <f t="shared" ref="U28:V28" si="18">(U11/U12)-1</f>
         <v>0.12823892752432231</v>
       </c>
-      <c r="V28" s="15"/>
-      <c r="W28" s="15"/>
+      <c r="V28" s="15">
+        <f t="shared" si="18"/>
+        <v>0.25046199557449911</v>
+      </c>
+      <c r="W28" s="15">
+        <f t="shared" ref="W28" si="19">(W11/W12)-1</f>
+        <v>0.24787676006322812</v>
+      </c>
       <c r="X28" s="15"/>
       <c r="Y28" s="15"/>
       <c r="Z28" s="15"/>
@@ -9023,50 +9145,50 @@
         <v>2.2617581670861808E-2</v>
       </c>
       <c r="D29" s="15">
-        <f t="shared" ref="D29:R29" si="12">(D14/D15)-1</f>
+        <f t="shared" ref="D29:R29" si="20">(D14/D15)-1</f>
         <v>-1.0808853999729751E-3</v>
       </c>
       <c r="E29" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>3.8306416665261578E-2</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>-2.1999354749875355E-3</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>-1.1917326009136531E-2</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>4.0016609646382761E-2</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>5.5923299143229244E-2</v>
       </c>
       <c r="J29" s="15">
         <v>-1.2007208598291852E-2</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>-0.10476866889154923</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="L29" si="21">(L14/L15)-1</f>
         <v>6.696950280521996E-2</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>-8.3030329097429356E-2</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.14078501293855417</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.15861999003068639</v>
       </c>
       <c r="P29" s="15">
@@ -9076,23 +9198,29 @@
         <v>-8.4999655501251103E-2</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.24930036235826813</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" ref="S29:T29" si="13">(S14/S15)-1</f>
+        <f t="shared" ref="S29:T29" si="22">(S14/S15)-1</f>
         <v>-4.6231208939353508E-2</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>-8.4999655501251103E-2</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" ref="U29" si="14">(U14/U15)-1</f>
+        <f t="shared" ref="U29:V29" si="23">(U14/U15)-1</f>
         <v>-1.2007208598291852E-2</v>
       </c>
-      <c r="V29" s="15"/>
-      <c r="W29" s="15"/>
+      <c r="V29" s="15">
+        <f t="shared" si="23"/>
+        <v>9.1101772675235893E-2</v>
+      </c>
+      <c r="W29" s="15">
+        <f t="shared" ref="W29" si="24">(W14/W15)-1</f>
+        <v>-6.2290692676087112E-2</v>
+      </c>
       <c r="X29" s="15"/>
       <c r="Y29" s="15"/>
       <c r="Z29" s="15"/>
@@ -9108,38 +9236,38 @@
         <v>7.3143376976864793E-2</v>
       </c>
       <c r="D30" s="15">
-        <f t="shared" ref="D30:R30" si="15">(D17/D18)-1</f>
+        <f t="shared" ref="D30:R30" si="25">(D17/D18)-1</f>
         <v>-8.3641311857414191E-2</v>
       </c>
       <c r="E30" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>-5.1515123253855766E-3</v>
       </c>
       <c r="F30" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>7.3094188465290033E-2</v>
       </c>
       <c r="G30" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>0.12294637825966181</v>
       </c>
       <c r="H30" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>0.22275591448484011</v>
       </c>
       <c r="I30" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>6.1350861922453204E-2</v>
       </c>
       <c r="J30" s="15">
         <v>-3.8219890599909712E-2</v>
       </c>
       <c r="K30" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>-1.5478618546968193E-2</v>
       </c>
       <c r="L30" s="15">
-        <f t="shared" si="15"/>
+        <f>(L17/L18)-1</f>
         <v>3.1459923244266941E-2</v>
       </c>
       <c r="M30" s="15">
@@ -9147,11 +9275,11 @@
         <v>-0.16501618699201137</v>
       </c>
       <c r="N30" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>0.20763657163752081</v>
       </c>
       <c r="O30" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>0.15441602399973542</v>
       </c>
       <c r="P30" s="15">
@@ -9161,23 +9289,29 @@
         <v>-4.2608843246981554E-2</v>
       </c>
       <c r="R30" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>2.1508407556542597E-2</v>
       </c>
       <c r="S30" s="15">
-        <f t="shared" ref="S30:T30" si="16">(S17/S18)-1</f>
+        <f t="shared" ref="S30:T30" si="26">(S17/S18)-1</f>
         <v>-2.5975819503525677E-2</v>
       </c>
       <c r="T30" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>-4.2608843246981554E-2</v>
       </c>
       <c r="U30" s="15">
-        <f t="shared" ref="U30" si="17">(U17/U18)-1</f>
+        <f t="shared" ref="U30:V30" si="27">(U17/U18)-1</f>
         <v>-3.8219890599909712E-2</v>
       </c>
-      <c r="V30" s="15"/>
-      <c r="W30" s="15"/>
+      <c r="V30" s="15">
+        <f t="shared" si="27"/>
+        <v>0.10690438524665069</v>
+      </c>
+      <c r="W30" s="15">
+        <f t="shared" ref="W30" si="28">(W17/W18)-1</f>
+        <v>-0.10394265118758805</v>
+      </c>
       <c r="X30" s="15"/>
       <c r="Y30" s="15"/>
       <c r="Z30" s="15"/>
@@ -9192,78 +9326,84 @@
         <v>0.13050881125927671</v>
       </c>
       <c r="D31" s="47">
-        <f t="shared" ref="D31:R31" si="18">AVERAGE(D25:D30)</f>
+        <f t="shared" ref="D31:R31" si="29">AVERAGE(D25:D30)</f>
         <v>-3.3594884196866993E-2</v>
       </c>
       <c r="E31" s="47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>3.5143064018565817E-2</v>
       </c>
       <c r="F31" s="47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>-3.5499050789590997E-4</v>
       </c>
       <c r="G31" s="47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>4.8696598540065104E-2</v>
       </c>
       <c r="H31" s="47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>0.10837281717997134</v>
       </c>
       <c r="I31" s="47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>3.1613221550583548E-2</v>
       </c>
       <c r="J31" s="47">
         <v>3.7582281853761536E-2</v>
       </c>
       <c r="K31" s="47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>-2.208688542905372E-2</v>
       </c>
       <c r="L31" s="47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>-1.3806987148756908E-2</v>
       </c>
       <c r="M31" s="47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>-3.5218115892731085E-2</v>
       </c>
       <c r="N31" s="47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>0.16711052990026221</v>
       </c>
       <c r="O31" s="47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>0.14706803585360498</v>
       </c>
       <c r="P31" s="47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>1.1028121029438565E-2</v>
       </c>
       <c r="Q31" s="47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>1.5449948179280268E-2</v>
       </c>
       <c r="R31" s="47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>0.17853857942672188</v>
       </c>
       <c r="S31" s="47">
-        <f t="shared" ref="S31:T31" si="19">AVERAGE(S25:S30)</f>
+        <f t="shared" ref="S31:T31" si="30">AVERAGE(S25:S30)</f>
         <v>1.1028121029438565E-2</v>
       </c>
       <c r="T31" s="47">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>1.5449948179280268E-2</v>
       </c>
       <c r="U31" s="47">
-        <f t="shared" ref="U31" si="20">AVERAGE(U25:U30)</f>
+        <f t="shared" ref="U31:V31" si="31">AVERAGE(U25:U30)</f>
         <v>3.7582281853761536E-2</v>
       </c>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
+      <c r="V31" s="47">
+        <f t="shared" si="31"/>
+        <v>0.11235474846662573</v>
+      </c>
+      <c r="W31" s="47">
+        <f t="shared" ref="W31" si="32">AVERAGE(W25:W30)</f>
+        <v>8.997194092293459E-2</v>
+      </c>
       <c r="X31" s="15"/>
       <c r="Y31" s="15"/>
       <c r="Z31" s="15"/>
@@ -9281,6 +9421,378 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C3">
+    <cfRule type="colorScale" priority="190">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D3">
+    <cfRule type="colorScale" priority="189">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="colorScale" priority="188">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F3">
+    <cfRule type="colorScale" priority="187">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G3">
+    <cfRule type="colorScale" priority="186">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H3">
+    <cfRule type="colorScale" priority="185">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I3">
+    <cfRule type="colorScale" priority="184">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J3">
+    <cfRule type="colorScale" priority="183">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K3">
+    <cfRule type="colorScale" priority="182">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L3">
+    <cfRule type="colorScale" priority="181">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M3">
+    <cfRule type="colorScale" priority="180">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N3">
+    <cfRule type="colorScale" priority="179">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O3">
+    <cfRule type="colorScale" priority="178">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P3">
+    <cfRule type="colorScale" priority="177">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q3">
+    <cfRule type="colorScale" priority="176">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:R3">
+    <cfRule type="colorScale" priority="175">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C6">
+    <cfRule type="colorScale" priority="172">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D6">
+    <cfRule type="colorScale" priority="171">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E6">
+    <cfRule type="colorScale" priority="170">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F6">
+    <cfRule type="colorScale" priority="169">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G6">
+    <cfRule type="colorScale" priority="168">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H6">
+    <cfRule type="colorScale" priority="167">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I6">
+    <cfRule type="colorScale" priority="166">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J6">
+    <cfRule type="colorScale" priority="165">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K6">
+    <cfRule type="colorScale" priority="164">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:L6">
+    <cfRule type="colorScale" priority="163">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M6">
+    <cfRule type="colorScale" priority="162">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5:N6">
+    <cfRule type="colorScale" priority="161">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:O6">
+    <cfRule type="colorScale" priority="160">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5:P6">
+    <cfRule type="colorScale" priority="159">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5:Q6">
+    <cfRule type="colorScale" priority="158">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5:R6">
     <cfRule type="colorScale" priority="157">
       <colorScale>
         <cfvo type="min"/>
@@ -9292,7 +9804,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D3">
+  <conditionalFormatting sqref="C8:C9">
     <cfRule type="colorScale" priority="156">
       <colorScale>
         <cfvo type="min"/>
@@ -9304,7 +9816,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="D8:D9">
     <cfRule type="colorScale" priority="155">
       <colorScale>
         <cfvo type="min"/>
@@ -9316,7 +9828,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F3">
+  <conditionalFormatting sqref="E8:E9">
     <cfRule type="colorScale" priority="154">
       <colorScale>
         <cfvo type="min"/>
@@ -9328,7 +9840,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G3">
+  <conditionalFormatting sqref="F8:F9">
     <cfRule type="colorScale" priority="153">
       <colorScale>
         <cfvo type="min"/>
@@ -9340,7 +9852,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H3">
+  <conditionalFormatting sqref="G8:G9">
     <cfRule type="colorScale" priority="152">
       <colorScale>
         <cfvo type="min"/>
@@ -9352,7 +9864,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I3">
+  <conditionalFormatting sqref="H8:H9">
     <cfRule type="colorScale" priority="151">
       <colorScale>
         <cfvo type="min"/>
@@ -9364,7 +9876,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J3">
+  <conditionalFormatting sqref="I8:I9">
     <cfRule type="colorScale" priority="150">
       <colorScale>
         <cfvo type="min"/>
@@ -9376,7 +9888,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K3">
+  <conditionalFormatting sqref="J8:J9">
     <cfRule type="colorScale" priority="149">
       <colorScale>
         <cfvo type="min"/>
@@ -9388,7 +9900,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L3">
+  <conditionalFormatting sqref="K8:K9">
     <cfRule type="colorScale" priority="148">
       <colorScale>
         <cfvo type="min"/>
@@ -9400,7 +9912,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M3">
+  <conditionalFormatting sqref="L8:L9">
     <cfRule type="colorScale" priority="147">
       <colorScale>
         <cfvo type="min"/>
@@ -9412,7 +9924,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N3">
+  <conditionalFormatting sqref="M8:M9">
     <cfRule type="colorScale" priority="146">
       <colorScale>
         <cfvo type="min"/>
@@ -9424,7 +9936,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O3">
+  <conditionalFormatting sqref="N8:N9">
     <cfRule type="colorScale" priority="145">
       <colorScale>
         <cfvo type="min"/>
@@ -9436,7 +9948,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P3">
+  <conditionalFormatting sqref="O8:O9">
     <cfRule type="colorScale" priority="144">
       <colorScale>
         <cfvo type="min"/>
@@ -9448,7 +9960,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q3">
+  <conditionalFormatting sqref="P8:P9">
     <cfRule type="colorScale" priority="143">
       <colorScale>
         <cfvo type="min"/>
@@ -9460,7 +9972,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R3">
+  <conditionalFormatting sqref="Q8:Q9">
     <cfRule type="colorScale" priority="142">
       <colorScale>
         <cfvo type="min"/>
@@ -9472,7 +9984,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C6">
+  <conditionalFormatting sqref="R8:R9">
+    <cfRule type="colorScale" priority="141">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:C12">
+    <cfRule type="colorScale" priority="140">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:D12">
     <cfRule type="colorScale" priority="139">
       <colorScale>
         <cfvo type="min"/>
@@ -9484,7 +10020,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D6">
+  <conditionalFormatting sqref="E11:E12">
     <cfRule type="colorScale" priority="138">
       <colorScale>
         <cfvo type="min"/>
@@ -9496,7 +10032,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E6">
+  <conditionalFormatting sqref="F11:F12">
     <cfRule type="colorScale" priority="137">
       <colorScale>
         <cfvo type="min"/>
@@ -9508,7 +10044,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F6">
+  <conditionalFormatting sqref="G11:G12">
     <cfRule type="colorScale" priority="136">
       <colorScale>
         <cfvo type="min"/>
@@ -9520,7 +10056,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G6">
+  <conditionalFormatting sqref="H11:H12">
     <cfRule type="colorScale" priority="135">
       <colorScale>
         <cfvo type="min"/>
@@ -9532,7 +10068,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H6">
+  <conditionalFormatting sqref="I11:I12">
     <cfRule type="colorScale" priority="134">
       <colorScale>
         <cfvo type="min"/>
@@ -9544,7 +10080,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I6">
+  <conditionalFormatting sqref="C14:C15">
     <cfRule type="colorScale" priority="133">
       <colorScale>
         <cfvo type="min"/>
@@ -9556,7 +10092,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J6">
+  <conditionalFormatting sqref="D14:D15">
     <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="min"/>
@@ -9568,7 +10104,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K6">
+  <conditionalFormatting sqref="E14:E15">
     <cfRule type="colorScale" priority="131">
       <colorScale>
         <cfvo type="min"/>
@@ -9580,7 +10116,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L6">
+  <conditionalFormatting sqref="F14:F15">
     <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="min"/>
@@ -9592,7 +10128,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M6">
+  <conditionalFormatting sqref="G14:G15">
     <cfRule type="colorScale" priority="129">
       <colorScale>
         <cfvo type="min"/>
@@ -9604,7 +10140,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:N6">
+  <conditionalFormatting sqref="J11:J12">
     <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="min"/>
@@ -9616,7 +10152,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5:O6">
+  <conditionalFormatting sqref="K11:K12">
     <cfRule type="colorScale" priority="127">
       <colorScale>
         <cfvo type="min"/>
@@ -9628,7 +10164,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P5:P6">
+  <conditionalFormatting sqref="L11:L12">
     <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="min"/>
@@ -9640,7 +10176,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:Q6">
+  <conditionalFormatting sqref="M11:M12">
     <cfRule type="colorScale" priority="125">
       <colorScale>
         <cfvo type="min"/>
@@ -9652,7 +10188,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R5:R6">
+  <conditionalFormatting sqref="N11:N12">
     <cfRule type="colorScale" priority="124">
       <colorScale>
         <cfvo type="min"/>
@@ -9664,7 +10200,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8:C9">
+  <conditionalFormatting sqref="O11:O12">
     <cfRule type="colorScale" priority="123">
       <colorScale>
         <cfvo type="min"/>
@@ -9676,7 +10212,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D9">
+  <conditionalFormatting sqref="P11:P12">
     <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="min"/>
@@ -9688,7 +10224,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E9">
+  <conditionalFormatting sqref="Q11:Q12">
     <cfRule type="colorScale" priority="121">
       <colorScale>
         <cfvo type="min"/>
@@ -9700,7 +10236,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F9">
+  <conditionalFormatting sqref="R11:R12">
     <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="min"/>
@@ -9712,7 +10248,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G9">
+  <conditionalFormatting sqref="H14:H15">
     <cfRule type="colorScale" priority="119">
       <colorScale>
         <cfvo type="min"/>
@@ -9724,7 +10260,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H9">
+  <conditionalFormatting sqref="I14:I15">
     <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="min"/>
@@ -9736,7 +10272,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I9">
+  <conditionalFormatting sqref="J14:J15">
     <cfRule type="colorScale" priority="117">
       <colorScale>
         <cfvo type="min"/>
@@ -9748,7 +10284,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:J9">
+  <conditionalFormatting sqref="K14:K15">
     <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="min"/>
@@ -9760,7 +10296,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K9">
+  <conditionalFormatting sqref="L14:L15">
     <cfRule type="colorScale" priority="115">
       <colorScale>
         <cfvo type="min"/>
@@ -9772,7 +10308,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8:L9">
+  <conditionalFormatting sqref="M14:M15">
     <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="min"/>
@@ -9784,7 +10320,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8:M9">
+  <conditionalFormatting sqref="N14:N15">
     <cfRule type="colorScale" priority="113">
       <colorScale>
         <cfvo type="min"/>
@@ -9796,7 +10332,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8:N9">
+  <conditionalFormatting sqref="O14:O15">
     <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="min"/>
@@ -9808,7 +10344,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O8:O9">
+  <conditionalFormatting sqref="P14:P15">
     <cfRule type="colorScale" priority="111">
       <colorScale>
         <cfvo type="min"/>
@@ -9820,7 +10356,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P8:P9">
+  <conditionalFormatting sqref="Q14:Q15">
     <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="min"/>
@@ -9832,7 +10368,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q8:Q9">
+  <conditionalFormatting sqref="R14:R15">
     <cfRule type="colorScale" priority="109">
       <colorScale>
         <cfvo type="min"/>
@@ -9844,7 +10380,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R8:R9">
+  <conditionalFormatting sqref="R17:R18">
     <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="min"/>
@@ -9856,7 +10392,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C12">
+  <conditionalFormatting sqref="C17:C18">
     <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min"/>
@@ -9868,7 +10404,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D12">
+  <conditionalFormatting sqref="D17:D18">
     <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="min"/>
@@ -9880,7 +10416,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E12">
+  <conditionalFormatting sqref="E17:E18">
     <cfRule type="colorScale" priority="105">
       <colorScale>
         <cfvo type="min"/>
@@ -9892,7 +10428,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F12">
+  <conditionalFormatting sqref="F17:F18">
     <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="min"/>
@@ -9904,7 +10440,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11:G12">
+  <conditionalFormatting sqref="G17:G18">
     <cfRule type="colorScale" priority="103">
       <colorScale>
         <cfvo type="min"/>
@@ -9916,7 +10452,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H12">
+  <conditionalFormatting sqref="H17:H18">
     <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="min"/>
@@ -9928,7 +10464,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11:I12">
+  <conditionalFormatting sqref="I17:I18">
     <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="min"/>
@@ -9940,7 +10476,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14:C15">
+  <conditionalFormatting sqref="J17:J18">
     <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="min"/>
@@ -9952,7 +10488,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
+  <conditionalFormatting sqref="K17:K18">
     <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="min"/>
@@ -9964,7 +10500,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E15">
+  <conditionalFormatting sqref="L17:L18">
     <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="min"/>
@@ -9976,7 +10512,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:F15">
+  <conditionalFormatting sqref="M17:M18">
     <cfRule type="colorScale" priority="97">
       <colorScale>
         <cfvo type="min"/>
@@ -9988,7 +10524,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G15">
+  <conditionalFormatting sqref="N17:N18">
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="min"/>
@@ -10000,7 +10536,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11:J12">
+  <conditionalFormatting sqref="O17:O18">
     <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
@@ -10012,7 +10548,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:K12">
+  <conditionalFormatting sqref="P17:P18">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
@@ -10024,7 +10560,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L11:L12">
+  <conditionalFormatting sqref="Q17:Q18">
     <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
@@ -10036,7 +10572,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M11:M12">
+  <conditionalFormatting sqref="C25:K25 M25:R25">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
@@ -10048,7 +10584,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N11:N12">
+  <conditionalFormatting sqref="C26:K26 M26:R26">
     <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="min"/>
@@ -10060,7 +10596,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O11:O12">
+  <conditionalFormatting sqref="C27:K27 M27:R27">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min"/>
@@ -10072,7 +10608,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P11:P12">
+  <conditionalFormatting sqref="C28:K28 M28:R28">
     <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min"/>
@@ -10084,7 +10620,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q11:Q12">
+  <conditionalFormatting sqref="C29:K29 M29:R29">
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min"/>
@@ -10096,7 +10632,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R11:R12">
+  <conditionalFormatting sqref="C30:K30 M30:R30">
     <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="min"/>
@@ -10108,7 +10644,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:H15">
+  <conditionalFormatting sqref="S2:S3">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
@@ -10120,7 +10656,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14:I15">
+  <conditionalFormatting sqref="S5:S6">
     <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="min"/>
@@ -10132,7 +10668,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J14:J15">
+  <conditionalFormatting sqref="S8:S9">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
@@ -10144,7 +10680,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:K15">
+  <conditionalFormatting sqref="S11:S12">
     <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
@@ -10156,7 +10692,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14:L15">
+  <conditionalFormatting sqref="S14:S15">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
@@ -10168,7 +10704,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14:M15">
+  <conditionalFormatting sqref="S17:S18">
     <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
@@ -10180,7 +10716,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N14:N15">
+  <conditionalFormatting sqref="S25">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
@@ -10192,7 +10728,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O14:O15">
+  <conditionalFormatting sqref="S26">
     <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
@@ -10204,7 +10740,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P14:P15">
+  <conditionalFormatting sqref="S27">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
@@ -10216,7 +10752,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q14:Q15">
+  <conditionalFormatting sqref="S28">
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
@@ -10228,7 +10764,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R14:R15">
+  <conditionalFormatting sqref="S29">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
@@ -10240,7 +10776,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R17:R18">
+  <conditionalFormatting sqref="S30">
     <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
@@ -10252,7 +10788,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C18">
+  <conditionalFormatting sqref="S25:S30">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
@@ -10264,7 +10800,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D18">
+  <conditionalFormatting sqref="T2:T3">
     <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
@@ -10276,7 +10812,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E18">
+  <conditionalFormatting sqref="T5:T6">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
@@ -10288,7 +10824,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17:F18">
+  <conditionalFormatting sqref="T8:T9">
     <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
@@ -10300,7 +10836,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17:G18">
+  <conditionalFormatting sqref="T11:T12">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
@@ -10312,7 +10848,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17:H18">
+  <conditionalFormatting sqref="T14:T15">
     <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
@@ -10324,7 +10860,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17:I18">
+  <conditionalFormatting sqref="T17:T18">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
@@ -10336,7 +10872,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17:J18">
+  <conditionalFormatting sqref="T25">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
@@ -10348,7 +10884,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:K18">
+  <conditionalFormatting sqref="T26">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -10360,7 +10896,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L17:L18">
+  <conditionalFormatting sqref="T27">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -10372,7 +10908,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M17:M18">
+  <conditionalFormatting sqref="T28">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -10384,7 +10920,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N17:N18">
+  <conditionalFormatting sqref="T29">
     <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
@@ -10396,7 +10932,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O17:O18">
+  <conditionalFormatting sqref="T30">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
@@ -10408,7 +10944,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P17:P18">
+  <conditionalFormatting sqref="T25:T30">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
@@ -10420,151 +10956,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q17:Q18">
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:R25">
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:R26">
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27:R27">
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28:R28">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29:R29">
-    <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30:R30">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S3">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S5:S6">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S8:S9">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S11:S12">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S14:S15">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S17:S18">
+  <conditionalFormatting sqref="U2:U3">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -10576,7 +10968,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S25">
+  <conditionalFormatting sqref="U5:U6">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -10588,7 +10980,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S26">
+  <conditionalFormatting sqref="U8:U9">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -10600,7 +10992,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S27">
+  <conditionalFormatting sqref="U11:U12">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -10612,7 +11004,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S28">
+  <conditionalFormatting sqref="U14:U15">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -10624,7 +11016,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S29">
+  <conditionalFormatting sqref="U17:U18">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -10636,7 +11028,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S30">
+  <conditionalFormatting sqref="U25">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -10648,7 +11040,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S25:S30">
+  <conditionalFormatting sqref="U26">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -10660,7 +11052,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T3">
+  <conditionalFormatting sqref="U27">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -10672,7 +11064,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T5:T6">
+  <conditionalFormatting sqref="U28">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -10684,7 +11076,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T8:T9">
+  <conditionalFormatting sqref="U29">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -10696,7 +11088,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T11:T12">
+  <conditionalFormatting sqref="U30">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -10708,7 +11100,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T14:T15">
+  <conditionalFormatting sqref="U25:U30">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -10720,7 +11112,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T17:T18">
+  <conditionalFormatting sqref="P25:P30">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -10732,7 +11124,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T25">
+  <conditionalFormatting sqref="Q25:Q30">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -10744,7 +11136,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T26">
+  <conditionalFormatting sqref="V2:V3">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -10756,7 +11148,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T27">
+  <conditionalFormatting sqref="V5:V6">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -10768,7 +11160,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T28">
+  <conditionalFormatting sqref="V8:V9">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -10780,7 +11172,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T29">
+  <conditionalFormatting sqref="V11:V12">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -10792,7 +11184,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T30">
+  <conditionalFormatting sqref="V14:V15">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -10804,7 +11196,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T25:T30">
+  <conditionalFormatting sqref="V17:V18">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -10816,7 +11208,151 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U3">
+  <conditionalFormatting sqref="V25">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V26">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V27">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V28">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V29">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V30">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V25:V30">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2:W3">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W5:W6">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W8:W9">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W11:W12">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W14:W15">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W17:W18">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -10828,7 +11364,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U5:U6">
+  <conditionalFormatting sqref="W25">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -10840,7 +11376,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U8:U9">
+  <conditionalFormatting sqref="W26">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -10852,7 +11388,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U11:U12">
+  <conditionalFormatting sqref="W27">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -10864,7 +11400,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U14:U15">
+  <conditionalFormatting sqref="W28">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -10876,7 +11412,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U17:U18">
+  <conditionalFormatting sqref="W29">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -10888,7 +11424,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U25">
+  <conditionalFormatting sqref="W30">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -10900,7 +11436,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U26">
+  <conditionalFormatting sqref="W25:W30">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -10912,7 +11448,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U27">
+  <conditionalFormatting sqref="L25">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -10924,7 +11460,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U28">
+  <conditionalFormatting sqref="L26">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -10936,7 +11472,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U29">
+  <conditionalFormatting sqref="L27">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -10948,7 +11484,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U30">
+  <conditionalFormatting sqref="L28">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -10960,7 +11496,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U25:U30">
+  <conditionalFormatting sqref="L29">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -10972,7 +11508,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P25:P30">
+  <conditionalFormatting sqref="L30">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -10984,7 +11520,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q25:Q30">
+  <conditionalFormatting sqref="L25:L30">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -21266,4 +21802,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/migforecasting/clustering/AN-method.xlsx
+++ b/migforecasting/clustering/AN-method.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12255" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ мун-районы" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="36">
   <si>
     <t>clust</t>
   </si>
@@ -143,7 +143,7 @@
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +182,11 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -451,7 +456,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -611,6 +616,9 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7443,7 +7451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
@@ -21806,14 +21814,2013 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="10" max="11" width="12.7109375" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>75.037234042553095</v>
+      </c>
+      <c r="C2" s="2">
+        <v>12573.0531914893</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.15558038036108199</v>
+      </c>
+      <c r="E2" s="2">
+        <v>19885.562721489299</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.58723634249128198</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2.05002306073255E-2</v>
+      </c>
+      <c r="H2" s="2">
+        <v>30.817666450301999</v>
+      </c>
+      <c r="I2" s="2">
+        <v>36.374361702127601</v>
+      </c>
+      <c r="J2" s="2">
+        <v>3.2121536295952702E-3</v>
+      </c>
+      <c r="K2" s="2">
+        <v>2.1840554780330401E-3</v>
+      </c>
+      <c r="L2" s="2">
+        <v>4.3678054086104298E-2</v>
+      </c>
+      <c r="M2" s="2">
+        <v>2.1880890335485201</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.90574598302250298</v>
+      </c>
+      <c r="O2" s="2">
+        <v>59.600191814415602</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1.4503024968158999E-3</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>4.4090691913930398E-2</v>
+      </c>
+      <c r="R2" s="2">
+        <v>83.2793254300705</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-124.39425051334599</v>
+      </c>
+      <c r="C3" s="2">
+        <v>12860.6344969199</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.16147391147472001</v>
+      </c>
+      <c r="E3" s="2">
+        <v>19054.6215081724</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.60419585231678397</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1.9180548695404701E-2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>28.6657704377226</v>
+      </c>
+      <c r="I3" s="2">
+        <v>34.025533880903403</v>
+      </c>
+      <c r="J3" s="2">
+        <v>3.4467516789212101E-3</v>
+      </c>
+      <c r="K3" s="2">
+        <v>2.20437230745458E-3</v>
+      </c>
+      <c r="L3" s="2">
+        <v>4.5159967486747499E-2</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1.9740070450265901</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0.74634462933009305</v>
+      </c>
+      <c r="O3" s="2">
+        <v>52.513636234152898</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1.55769285237246E-3</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>5.2838621486568101E-2</v>
+      </c>
+      <c r="R3" s="2">
+        <v>68.799777554228299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>239.229166666666</v>
+      </c>
+      <c r="C5" s="2">
+        <v>56172.090909090897</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.21594338081057701</v>
+      </c>
+      <c r="E5" s="2">
+        <v>27233.6110957329</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.88324577241690505</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2.9614798145032602E-2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>47.695703355097201</v>
+      </c>
+      <c r="I5" s="2">
+        <v>27.8749015151515</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2.3545876645067599E-3</v>
+      </c>
+      <c r="K5" s="2">
+        <v>3.08425120493109E-3</v>
+      </c>
+      <c r="L5" s="2">
+        <v>7.3636388960099403E-3</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.65138334153497401</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.54617086044708396</v>
+      </c>
+      <c r="O5" s="2">
+        <v>18.653966789129701</v>
+      </c>
+      <c r="P5" s="2">
+        <v>4.0755164568070901E-4</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>5.7881062586696397E-2</v>
+      </c>
+      <c r="R5" s="2">
+        <v>316.17242697155098</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-255.93286835222301</v>
+      </c>
+      <c r="C6" s="2">
+        <v>49280.569311246698</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.23461820197966901</v>
+      </c>
+      <c r="E6" s="2">
+        <v>27384.936002143801</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.82027278197082298</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2.7893682557853901E-2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>39.627431510876399</v>
+      </c>
+      <c r="I6" s="2">
+        <v>27.524319093286799</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2.6265221029554602E-3</v>
+      </c>
+      <c r="K6" s="2">
+        <v>3.0499946537023599E-3</v>
+      </c>
+      <c r="L6" s="2">
+        <v>9.2959498500742501E-3</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.73187744714639402</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.44853063547467698</v>
+      </c>
+      <c r="O6" s="2">
+        <v>17.125463976632599</v>
+      </c>
+      <c r="P6" s="2">
+        <v>5.0718279044316796E-4</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>6.0583620063315698E-2</v>
+      </c>
+      <c r="R6" s="2">
+        <v>335.26302648154399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2">
+        <v>209.935943060498</v>
+      </c>
+      <c r="C8" s="2">
+        <v>39336.647686832701</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.14477753840618399</v>
+      </c>
+      <c r="E8" s="2">
+        <v>20817.028133629799</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.51024517373063905</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2.2935105005096199E-2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>28.144900003098002</v>
+      </c>
+      <c r="I8" s="2">
+        <v>30.784626334519501</v>
+      </c>
+      <c r="J8" s="2">
+        <v>3.16383090490764E-3</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1.99301868063749E-3</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1.6449916025720102E-2</v>
+      </c>
+      <c r="M8" s="2">
+        <v>2.5298486173154502</v>
+      </c>
+      <c r="N8" s="2">
+        <v>3.1352590774876998</v>
+      </c>
+      <c r="O8" s="2">
+        <v>119.433344697607</v>
+      </c>
+      <c r="P8" s="2">
+        <v>9.0530264587115503E-4</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>4.0700810072744599E-2</v>
+      </c>
+      <c r="R8" s="2">
+        <v>133.58650544767801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-200.03407155025499</v>
+      </c>
+      <c r="C9" s="2">
+        <v>31621.354344122599</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.14107669830025499</v>
+      </c>
+      <c r="E9" s="2">
+        <v>19166.753224054501</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.50948935479565005</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2.2730278919381001E-2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>23.8862358368781</v>
+      </c>
+      <c r="I9" s="2">
+        <v>30.437848381601299</v>
+      </c>
+      <c r="J9" s="2">
+        <v>3.39338749316142E-3</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2.0147593408052899E-3</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1.8169232012194701E-2</v>
+      </c>
+      <c r="M9" s="2">
+        <v>2.8885725198122199</v>
+      </c>
+      <c r="N9" s="2">
+        <v>3.1458665643390402</v>
+      </c>
+      <c r="O9" s="2">
+        <v>109.292987749152</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1.10173159354591E-3</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>4.4166706129315697E-2</v>
+      </c>
+      <c r="R9" s="2">
+        <v>109.46314525318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2">
+        <v>165.71098265895901</v>
+      </c>
+      <c r="C11" s="2">
+        <v>40297.497109826501</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.15558031792642901</v>
+      </c>
+      <c r="E11" s="2">
+        <v>21328.275420968199</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.58064862629728498</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2.3328757653960901E-2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>26.960290290694498</v>
+      </c>
+      <c r="I11" s="2">
+        <v>26.0934132947976</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2.3345586019976701E-3</v>
+      </c>
+      <c r="K11" s="2">
+        <v>2.3007718804904302E-3</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1.1833635855989099E-2</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1.26440725525287</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0.72912922879486697</v>
+      </c>
+      <c r="O11" s="2">
+        <v>41.5198395187941</v>
+      </c>
+      <c r="P11" s="2">
+        <v>6.2006042220203198E-4</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>4.7609287045364802E-2</v>
+      </c>
+      <c r="R11" s="2">
+        <v>88.454082909619004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2">
+        <v>-221.81046351537299</v>
+      </c>
+      <c r="C12" s="2">
+        <v>36114.647085819102</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.16908557697035301</v>
+      </c>
+      <c r="E12" s="2">
+        <v>21250.057787608901</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.592190404779118</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2.01759608241809E-2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>24.009304048727699</v>
+      </c>
+      <c r="I12" s="2">
+        <v>26.9049793483249</v>
+      </c>
+      <c r="J12" s="2">
+        <v>2.5513833941012698E-3</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2.2936619404683302E-3</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1.34907990869629E-2</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1.45953028316424</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0.65671156466203096</v>
+      </c>
+      <c r="O12" s="2">
+        <v>37.661631090728598</v>
+      </c>
+      <c r="P12" s="2">
+        <v>7.6019708834509404E-4</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>5.2426121787214598E-2</v>
+      </c>
+      <c r="R12" s="2">
+        <v>82.0652891264277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2">
+        <v>219.14450867052</v>
+      </c>
+      <c r="C14" s="2">
+        <v>40149.913294797603</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.15654417674068899</v>
+      </c>
+      <c r="E14" s="2">
+        <v>20751.4032324855</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.50450486144259599</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1.92508404039319E-2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>22.571222266656001</v>
+      </c>
+      <c r="I14" s="2">
+        <v>28.5783815028901</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2.9571277712018402E-3</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2.1782330022583501E-3</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1.82647033998482E-2</v>
+      </c>
+      <c r="M14" s="2">
+        <v>11.5803641748772</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1.4281646360268501</v>
+      </c>
+      <c r="O14" s="2">
+        <v>133.679490960864</v>
+      </c>
+      <c r="P14" s="2">
+        <v>9.5635193697134896E-4</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>4.3639964178610401E-2</v>
+      </c>
+      <c r="R14" s="2">
+        <v>150.65945600836301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2">
+        <v>-190.50676982591801</v>
+      </c>
+      <c r="C15" s="2">
+        <v>29844.307543520299</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.15851866913503199</v>
+      </c>
+      <c r="E15" s="2">
+        <v>19537.151776731102</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.52806717439677198</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1.9316424298973799E-2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>20.915500760460802</v>
+      </c>
+      <c r="I15" s="2">
+        <v>28.2567504835589</v>
+      </c>
+      <c r="J15" s="2">
+        <v>3.4651037313576999E-3</v>
+      </c>
+      <c r="K15" s="2">
+        <v>2.3570455335997901E-3</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1.82704749837472E-2</v>
+      </c>
+      <c r="M15" s="2">
+        <v>11.759632236998399</v>
+      </c>
+      <c r="N15" s="2">
+        <v>1.20079201213774</v>
+      </c>
+      <c r="O15" s="2">
+        <v>144.675727124742</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1.08177750178526E-3</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>4.6499515579815E-2</v>
+      </c>
+      <c r="R15" s="2">
+        <v>135.069045673391</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2">
+        <v>89.056426332288297</v>
+      </c>
+      <c r="C17" s="2">
+        <v>19350.673981191201</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.15276458998838299</v>
+      </c>
+      <c r="E17" s="2">
+        <v>19482.065943855701</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.51169725299193802</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1.8797816259467401E-2</v>
+      </c>
+      <c r="H17" s="2">
+        <v>20.835019607373699</v>
+      </c>
+      <c r="I17" s="2">
+        <v>31.031598746081499</v>
+      </c>
+      <c r="J17" s="2">
+        <v>4.2460703763974404E-3</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1.91988106616875E-3</v>
+      </c>
+      <c r="L17" s="2">
+        <v>2.0356889546591098E-2</v>
+      </c>
+      <c r="M17" s="2">
+        <v>2.9280274001565001</v>
+      </c>
+      <c r="N17" s="2">
+        <v>1.11558178339156</v>
+      </c>
+      <c r="O17" s="2">
+        <v>132.369678813397</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1.5172682096336199E-3</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>4.5115759559384301E-2</v>
+      </c>
+      <c r="R17" s="2">
+        <v>101.963166421262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2">
+        <v>-159.611111111111</v>
+      </c>
+      <c r="C18" s="2">
+        <v>18166.9927140254</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.15205736624431701</v>
+      </c>
+      <c r="E18" s="2">
+        <v>18705.7539720446</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.51138641227932102</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1.84626496766058E-2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>19.547660620304399</v>
+      </c>
+      <c r="I18" s="2">
+        <v>29.5500546448087</v>
+      </c>
+      <c r="J18" s="2">
+        <v>4.41546134892103E-3</v>
+      </c>
+      <c r="K18" s="2">
+        <v>2.1477244689941401E-3</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1.9522984242629299E-2</v>
+      </c>
+      <c r="M18" s="2">
+        <v>3.2899959072475302</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0.99348289189728101</v>
+      </c>
+      <c r="O18" s="2">
+        <v>106.260747396517</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1.6565737973614999E-3</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>5.0346607736948698E-2</v>
+      </c>
+      <c r="R18" s="2">
+        <v>75.643798854421902</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C3">
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D3">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F3">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G3">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H3">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I3">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J3">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K3">
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L3">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M3">
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N3">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O3">
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P3">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q3">
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:R3">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C6">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D6">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E6">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F6">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G6">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H6">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I6">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J6">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K6">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:L6">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M6">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5:N6">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:R6">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:O6">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5:P6">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5:Q6">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5:R6">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:C9">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D9">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8:E9">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F9">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:G9">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:H9">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:I9">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:J9">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:K9">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8:L9">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M8:M9">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8:N9">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O8:O9">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P8:P9">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q8:Q9">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R8:R9">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R11:R12">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R14:R15">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R17:R18">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:C12">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:C15">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C18">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:D12">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E12">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:F12">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11:G12">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11:H12">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:I12">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:J12">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11:K12">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11:L12">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11:M12">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11:N12">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O11:O12">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P11:P12">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q11:Q12">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:D15">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E15">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F15">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:G15">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:H15">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:I15">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:J15">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14:K15">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14:L15">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14:M15">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14:N15">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O14:O15">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P14:P15">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q14:Q15">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D18">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:E18">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:F18">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:G18">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:H18">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17:I18">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17:J18">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17:K18">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17:L18">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M17:M18">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N17:N18">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O17:O18">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P17:P18">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q17:Q18">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/migforecasting/clustering/AN-method.xlsx
+++ b/migforecasting/clustering/AN-method.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12255" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ мун-районы" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="36">
   <si>
     <t>clust</t>
   </si>
@@ -4775,6 +4775,1047 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Анализ совместный'!$C$24:$R$24</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>popsize</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>avgemployers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>avgsalary</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>shoparea</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>foodseats</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>retailturnover</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>livarea</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sportsvenue</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>servicesnum</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>roadslen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>livestock</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>harvest</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>agrprod</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>hospitals</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>beforeschool</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>factoriescap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Анализ совместный'!$C$25:$R$25</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>-2.2361362147371167E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.6498348617514553E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3608381985468236E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.8069556850598865E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8803136598327264E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5068486899888764E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.9031328926258517E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6.8063519272547723E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-9.2166052680093813E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.2814757917575488E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1084504683310521</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.21357607119848376</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13494696022694908</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-6.8941932546585205E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.16555938301421202</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.21045922516870563</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-68D6-4CE0-9788-51638BD307F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Анализ совместный'!$C$24:$R$24</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>popsize</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>avgemployers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>avgsalary</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>shoparea</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>foodseats</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>retailturnover</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>livarea</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sportsvenue</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>servicesnum</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>roadslen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>livestock</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>harvest</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>agrprod</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>hospitals</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>beforeschool</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>factoriescap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Анализ совместный'!$C$26:$R$26</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.13984257272513756</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.9596642594295663E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.5258448074902988E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6770791168738306E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1702702165945977E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20360319951613137</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.27371878183975E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.10353403770815772</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1231675828397458E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.20786589700124891</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.10998303872495085</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.21768908799077913</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.9253220501512631E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.19644031035714538</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.4608715586735626E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-5.694215586592255E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-68D6-4CE0-9788-51638BD307F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Анализ совместный'!$C$24:$R$24</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>popsize</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>avgemployers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>avgsalary</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>shoparea</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>foodseats</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>retailturnover</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>livarea</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sportsvenue</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>servicesnum</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>roadslen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>livestock</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>harvest</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>agrprod</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>hospitals</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>beforeschool</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>factoriescap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Анализ совместный'!$C$27:$R$27</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.24398997142082024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6232823354374712E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6100910795062768E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4834832717793844E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0111558437828698E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17828946324162653</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1392985094433206E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6.764820955944395E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.0790698287126532E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-9.4627884399331785E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.12418725859792146</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.3718807312379528E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.2781404894237252E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.17829110903732071</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-7.8473048146794122E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.22037883288208548</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-68D6-4CE0-9788-51638BD307F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Анализ совместный'!$C$24:$R$24</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>popsize</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>avgemployers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>avgsalary</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>shoparea</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>foodseats</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>retailturnover</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>livarea</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sportsvenue</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>servicesnum</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>roadslen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>livestock</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>harvest</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>agrprod</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>hospitals</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>beforeschool</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>factoriescap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Анализ совместный'!$C$28:$R$28</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.11582142874240775</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.9872330247848233E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6808197954598665E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.9489978879576708E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15626501544359517</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1229101116791087</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.0164158203593971E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.4983226199908946E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0998203774739164E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.12283655106651414</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.1336889204438747</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11027316714013535</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.10244400776936358</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.18434254523143678</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-9.1878525010875345E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.7850134340584409E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-68D6-4CE0-9788-51638BD307F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Анализ совместный'!$C$24:$R$24</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>popsize</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>avgemployers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>avgsalary</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>shoparea</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>foodseats</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>retailturnover</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>livarea</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sportsvenue</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>servicesnum</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>roadslen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>livestock</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>harvest</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>agrprod</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>hospitals</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>beforeschool</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>factoriescap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Анализ совместный'!$C$29:$R$29</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.34531227559055311</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.2455898129330456E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2150894338681484E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.4619915981507385E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.3952399277843437E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.9162412851487618E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1382448930861377E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.14659762002473276</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-7.5862994071374201E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.1589676262577804E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.5244359560597665E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.18935221219895038</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.6006088805739003E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.11594395761320686</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-6.1496369705105081E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.11542548670012076</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-68D6-4CE0-9788-51638BD307F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Анализ совместный'!$C$24:$R$24</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>popsize</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>avgemployers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>avgsalary</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>shoparea</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>foodseats</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>retailturnover</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>livarea</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sportsvenue</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>servicesnum</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>roadslen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>livestock</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>harvest</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>agrprod</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>hospitals</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>beforeschool</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>factoriescap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Анализ совместный'!$C$30:$R$30</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>6.5155597615887517E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6510324460680152E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1501239296276582E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0783920955498338E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8153763881805896E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5857445147789351E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0136763504532889E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.8363142407527251E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.10608595567759105</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2714028429164497E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.11002095968984338</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12289984305729051</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.24570626554557617</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-8.4092593973029373E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.10389673530527754</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.34793820465696434</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-68D6-4CE0-9788-51638BD307F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1791104432"/>
+        <c:axId val="1791116080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1791104432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1791116080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1791116080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1791104432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4896,6 +5937,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7030,6 +8111,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7065,15 +8662,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>619126</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>714376</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>1038226</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7156,6 +8753,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>61911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7451,8 +9083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" topLeftCell="J9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9429,6 +11061,30 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C3">
+    <cfRule type="colorScale" priority="192">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D3">
+    <cfRule type="colorScale" priority="191">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
     <cfRule type="colorScale" priority="190">
       <colorScale>
         <cfvo type="min"/>
@@ -9440,7 +11096,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D3">
+  <conditionalFormatting sqref="F2:F3">
     <cfRule type="colorScale" priority="189">
       <colorScale>
         <cfvo type="min"/>
@@ -9452,7 +11108,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="G2:G3">
     <cfRule type="colorScale" priority="188">
       <colorScale>
         <cfvo type="min"/>
@@ -9464,7 +11120,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F3">
+  <conditionalFormatting sqref="H2:H3">
     <cfRule type="colorScale" priority="187">
       <colorScale>
         <cfvo type="min"/>
@@ -9476,7 +11132,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G3">
+  <conditionalFormatting sqref="I2:I3">
     <cfRule type="colorScale" priority="186">
       <colorScale>
         <cfvo type="min"/>
@@ -9488,7 +11144,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H3">
+  <conditionalFormatting sqref="J2:J3">
     <cfRule type="colorScale" priority="185">
       <colorScale>
         <cfvo type="min"/>
@@ -9500,7 +11156,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I3">
+  <conditionalFormatting sqref="K2:K3">
     <cfRule type="colorScale" priority="184">
       <colorScale>
         <cfvo type="min"/>
@@ -9512,7 +11168,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J3">
+  <conditionalFormatting sqref="L2:L3">
     <cfRule type="colorScale" priority="183">
       <colorScale>
         <cfvo type="min"/>
@@ -9524,7 +11180,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K3">
+  <conditionalFormatting sqref="M2:M3">
     <cfRule type="colorScale" priority="182">
       <colorScale>
         <cfvo type="min"/>
@@ -9536,7 +11192,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L3">
+  <conditionalFormatting sqref="N2:N3">
     <cfRule type="colorScale" priority="181">
       <colorScale>
         <cfvo type="min"/>
@@ -9548,7 +11204,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M3">
+  <conditionalFormatting sqref="O2:O3">
     <cfRule type="colorScale" priority="180">
       <colorScale>
         <cfvo type="min"/>
@@ -9560,7 +11216,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N3">
+  <conditionalFormatting sqref="P2:P3">
     <cfRule type="colorScale" priority="179">
       <colorScale>
         <cfvo type="min"/>
@@ -9572,7 +11228,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O3">
+  <conditionalFormatting sqref="Q2:Q3">
     <cfRule type="colorScale" priority="178">
       <colorScale>
         <cfvo type="min"/>
@@ -9584,7 +11240,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P3">
+  <conditionalFormatting sqref="R2:R3">
     <cfRule type="colorScale" priority="177">
       <colorScale>
         <cfvo type="min"/>
@@ -9596,31 +11252,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q3">
-    <cfRule type="colorScale" priority="176">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R3">
-    <cfRule type="colorScale" priority="175">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C5:C6">
+    <cfRule type="colorScale" priority="174">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D6">
+    <cfRule type="colorScale" priority="173">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E6">
     <cfRule type="colorScale" priority="172">
       <colorScale>
         <cfvo type="min"/>
@@ -9632,7 +11288,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D6">
+  <conditionalFormatting sqref="F5:F6">
     <cfRule type="colorScale" priority="171">
       <colorScale>
         <cfvo type="min"/>
@@ -9644,7 +11300,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E6">
+  <conditionalFormatting sqref="G5:G6">
     <cfRule type="colorScale" priority="170">
       <colorScale>
         <cfvo type="min"/>
@@ -9656,7 +11312,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F6">
+  <conditionalFormatting sqref="H5:H6">
     <cfRule type="colorScale" priority="169">
       <colorScale>
         <cfvo type="min"/>
@@ -9668,7 +11324,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G6">
+  <conditionalFormatting sqref="I5:I6">
     <cfRule type="colorScale" priority="168">
       <colorScale>
         <cfvo type="min"/>
@@ -9680,7 +11336,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H6">
+  <conditionalFormatting sqref="J5:J6">
     <cfRule type="colorScale" priority="167">
       <colorScale>
         <cfvo type="min"/>
@@ -9692,7 +11348,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I6">
+  <conditionalFormatting sqref="K5:K6">
     <cfRule type="colorScale" priority="166">
       <colorScale>
         <cfvo type="min"/>
@@ -9704,7 +11360,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J6">
+  <conditionalFormatting sqref="L5:L6">
     <cfRule type="colorScale" priority="165">
       <colorScale>
         <cfvo type="min"/>
@@ -9716,7 +11372,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K6">
+  <conditionalFormatting sqref="M5:M6">
     <cfRule type="colorScale" priority="164">
       <colorScale>
         <cfvo type="min"/>
@@ -9728,7 +11384,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L6">
+  <conditionalFormatting sqref="N5:N6">
     <cfRule type="colorScale" priority="163">
       <colorScale>
         <cfvo type="min"/>
@@ -9740,7 +11396,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M6">
+  <conditionalFormatting sqref="O5:O6">
     <cfRule type="colorScale" priority="162">
       <colorScale>
         <cfvo type="min"/>
@@ -9752,7 +11408,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:N6">
+  <conditionalFormatting sqref="P5:P6">
     <cfRule type="colorScale" priority="161">
       <colorScale>
         <cfvo type="min"/>
@@ -9764,7 +11420,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5:O6">
+  <conditionalFormatting sqref="Q5:Q6">
     <cfRule type="colorScale" priority="160">
       <colorScale>
         <cfvo type="min"/>
@@ -9776,7 +11432,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P5:P6">
+  <conditionalFormatting sqref="R5:R6">
     <cfRule type="colorScale" priority="159">
       <colorScale>
         <cfvo type="min"/>
@@ -9788,7 +11444,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:Q6">
+  <conditionalFormatting sqref="C8:C9">
     <cfRule type="colorScale" priority="158">
       <colorScale>
         <cfvo type="min"/>
@@ -9800,7 +11456,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R5:R6">
+  <conditionalFormatting sqref="D8:D9">
     <cfRule type="colorScale" priority="157">
       <colorScale>
         <cfvo type="min"/>
@@ -9812,7 +11468,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8:C9">
+  <conditionalFormatting sqref="E8:E9">
     <cfRule type="colorScale" priority="156">
       <colorScale>
         <cfvo type="min"/>
@@ -9824,7 +11480,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D9">
+  <conditionalFormatting sqref="F8:F9">
     <cfRule type="colorScale" priority="155">
       <colorScale>
         <cfvo type="min"/>
@@ -9836,7 +11492,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E9">
+  <conditionalFormatting sqref="G8:G9">
     <cfRule type="colorScale" priority="154">
       <colorScale>
         <cfvo type="min"/>
@@ -9848,7 +11504,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F9">
+  <conditionalFormatting sqref="H8:H9">
     <cfRule type="colorScale" priority="153">
       <colorScale>
         <cfvo type="min"/>
@@ -9860,7 +11516,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G9">
+  <conditionalFormatting sqref="I8:I9">
     <cfRule type="colorScale" priority="152">
       <colorScale>
         <cfvo type="min"/>
@@ -9872,7 +11528,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H9">
+  <conditionalFormatting sqref="J8:J9">
     <cfRule type="colorScale" priority="151">
       <colorScale>
         <cfvo type="min"/>
@@ -9884,7 +11540,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I9">
+  <conditionalFormatting sqref="K8:K9">
     <cfRule type="colorScale" priority="150">
       <colorScale>
         <cfvo type="min"/>
@@ -9896,7 +11552,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:J9">
+  <conditionalFormatting sqref="L8:L9">
     <cfRule type="colorScale" priority="149">
       <colorScale>
         <cfvo type="min"/>
@@ -9908,7 +11564,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K9">
+  <conditionalFormatting sqref="M8:M9">
     <cfRule type="colorScale" priority="148">
       <colorScale>
         <cfvo type="min"/>
@@ -9920,7 +11576,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8:L9">
+  <conditionalFormatting sqref="N8:N9">
     <cfRule type="colorScale" priority="147">
       <colorScale>
         <cfvo type="min"/>
@@ -9932,7 +11588,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8:M9">
+  <conditionalFormatting sqref="O8:O9">
     <cfRule type="colorScale" priority="146">
       <colorScale>
         <cfvo type="min"/>
@@ -9944,7 +11600,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8:N9">
+  <conditionalFormatting sqref="P8:P9">
     <cfRule type="colorScale" priority="145">
       <colorScale>
         <cfvo type="min"/>
@@ -9956,7 +11612,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O8:O9">
+  <conditionalFormatting sqref="Q8:Q9">
     <cfRule type="colorScale" priority="144">
       <colorScale>
         <cfvo type="min"/>
@@ -9968,7 +11624,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P8:P9">
+  <conditionalFormatting sqref="R8:R9">
     <cfRule type="colorScale" priority="143">
       <colorScale>
         <cfvo type="min"/>
@@ -9980,7 +11636,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q8:Q9">
+  <conditionalFormatting sqref="C11:C12">
     <cfRule type="colorScale" priority="142">
       <colorScale>
         <cfvo type="min"/>
@@ -9992,7 +11648,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R8:R9">
+  <conditionalFormatting sqref="D11:D12">
     <cfRule type="colorScale" priority="141">
       <colorScale>
         <cfvo type="min"/>
@@ -10004,7 +11660,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C12">
+  <conditionalFormatting sqref="E11:E12">
     <cfRule type="colorScale" priority="140">
       <colorScale>
         <cfvo type="min"/>
@@ -10016,7 +11672,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D12">
+  <conditionalFormatting sqref="F11:F12">
     <cfRule type="colorScale" priority="139">
       <colorScale>
         <cfvo type="min"/>
@@ -10028,7 +11684,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E12">
+  <conditionalFormatting sqref="G11:G12">
     <cfRule type="colorScale" priority="138">
       <colorScale>
         <cfvo type="min"/>
@@ -10040,7 +11696,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F12">
+  <conditionalFormatting sqref="H11:H12">
     <cfRule type="colorScale" priority="137">
       <colorScale>
         <cfvo type="min"/>
@@ -10052,7 +11708,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11:G12">
+  <conditionalFormatting sqref="I11:I12">
     <cfRule type="colorScale" priority="136">
       <colorScale>
         <cfvo type="min"/>
@@ -10064,7 +11720,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H12">
+  <conditionalFormatting sqref="C14:C15">
     <cfRule type="colorScale" priority="135">
       <colorScale>
         <cfvo type="min"/>
@@ -10076,7 +11732,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11:I12">
+  <conditionalFormatting sqref="D14:D15">
     <cfRule type="colorScale" priority="134">
       <colorScale>
         <cfvo type="min"/>
@@ -10088,7 +11744,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14:C15">
+  <conditionalFormatting sqref="E14:E15">
     <cfRule type="colorScale" priority="133">
       <colorScale>
         <cfvo type="min"/>
@@ -10100,7 +11756,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
+  <conditionalFormatting sqref="F14:F15">
     <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="min"/>
@@ -10112,7 +11768,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E15">
+  <conditionalFormatting sqref="G14:G15">
     <cfRule type="colorScale" priority="131">
       <colorScale>
         <cfvo type="min"/>
@@ -10124,7 +11780,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:F15">
+  <conditionalFormatting sqref="J11:J12">
     <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="min"/>
@@ -10136,7 +11792,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G15">
+  <conditionalFormatting sqref="K11:K12">
     <cfRule type="colorScale" priority="129">
       <colorScale>
         <cfvo type="min"/>
@@ -10148,7 +11804,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11:J12">
+  <conditionalFormatting sqref="L11:L12">
     <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="min"/>
@@ -10160,7 +11816,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:K12">
+  <conditionalFormatting sqref="M11:M12">
     <cfRule type="colorScale" priority="127">
       <colorScale>
         <cfvo type="min"/>
@@ -10172,7 +11828,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L11:L12">
+  <conditionalFormatting sqref="N11:N12">
     <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="min"/>
@@ -10184,7 +11840,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M11:M12">
+  <conditionalFormatting sqref="O11:O12">
     <cfRule type="colorScale" priority="125">
       <colorScale>
         <cfvo type="min"/>
@@ -10196,7 +11852,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N11:N12">
+  <conditionalFormatting sqref="P11:P12">
     <cfRule type="colorScale" priority="124">
       <colorScale>
         <cfvo type="min"/>
@@ -10208,7 +11864,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O11:O12">
+  <conditionalFormatting sqref="Q11:Q12">
     <cfRule type="colorScale" priority="123">
       <colorScale>
         <cfvo type="min"/>
@@ -10220,7 +11876,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P11:P12">
+  <conditionalFormatting sqref="R11:R12">
     <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="min"/>
@@ -10232,7 +11888,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q11:Q12">
+  <conditionalFormatting sqref="H14:H15">
     <cfRule type="colorScale" priority="121">
       <colorScale>
         <cfvo type="min"/>
@@ -10244,7 +11900,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R11:R12">
+  <conditionalFormatting sqref="I14:I15">
     <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="min"/>
@@ -10256,7 +11912,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:H15">
+  <conditionalFormatting sqref="J14:J15">
     <cfRule type="colorScale" priority="119">
       <colorScale>
         <cfvo type="min"/>
@@ -10268,7 +11924,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14:I15">
+  <conditionalFormatting sqref="K14:K15">
     <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="min"/>
@@ -10280,7 +11936,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J14:J15">
+  <conditionalFormatting sqref="L14:L15">
     <cfRule type="colorScale" priority="117">
       <colorScale>
         <cfvo type="min"/>
@@ -10292,7 +11948,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:K15">
+  <conditionalFormatting sqref="M14:M15">
     <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="min"/>
@@ -10304,7 +11960,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14:L15">
+  <conditionalFormatting sqref="N14:N15">
     <cfRule type="colorScale" priority="115">
       <colorScale>
         <cfvo type="min"/>
@@ -10316,7 +11972,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14:M15">
+  <conditionalFormatting sqref="O14:O15">
     <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="min"/>
@@ -10328,7 +11984,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N14:N15">
+  <conditionalFormatting sqref="P14:P15">
     <cfRule type="colorScale" priority="113">
       <colorScale>
         <cfvo type="min"/>
@@ -10340,7 +11996,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O14:O15">
+  <conditionalFormatting sqref="Q14:Q15">
     <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="min"/>
@@ -10352,7 +12008,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P14:P15">
+  <conditionalFormatting sqref="R14:R15">
     <cfRule type="colorScale" priority="111">
       <colorScale>
         <cfvo type="min"/>
@@ -10364,7 +12020,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q14:Q15">
+  <conditionalFormatting sqref="R17:R18">
     <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="min"/>
@@ -10376,7 +12032,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R14:R15">
+  <conditionalFormatting sqref="C17:C18">
     <cfRule type="colorScale" priority="109">
       <colorScale>
         <cfvo type="min"/>
@@ -10388,7 +12044,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R17:R18">
+  <conditionalFormatting sqref="D17:D18">
     <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="min"/>
@@ -10400,7 +12056,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C18">
+  <conditionalFormatting sqref="E17:E18">
     <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min"/>
@@ -10412,7 +12068,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D18">
+  <conditionalFormatting sqref="F17:F18">
     <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="min"/>
@@ -10424,7 +12080,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E18">
+  <conditionalFormatting sqref="G17:G18">
     <cfRule type="colorScale" priority="105">
       <colorScale>
         <cfvo type="min"/>
@@ -10436,7 +12092,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17:F18">
+  <conditionalFormatting sqref="H17:H18">
     <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="min"/>
@@ -10448,7 +12104,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17:G18">
+  <conditionalFormatting sqref="I17:I18">
     <cfRule type="colorScale" priority="103">
       <colorScale>
         <cfvo type="min"/>
@@ -10460,7 +12116,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17:H18">
+  <conditionalFormatting sqref="J17:J18">
     <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="min"/>
@@ -10472,7 +12128,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17:I18">
+  <conditionalFormatting sqref="K17:K18">
     <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="min"/>
@@ -10484,7 +12140,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17:J18">
+  <conditionalFormatting sqref="L17:L18">
     <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="min"/>
@@ -10496,7 +12152,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:K18">
+  <conditionalFormatting sqref="M17:M18">
     <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="min"/>
@@ -10508,7 +12164,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L17:L18">
+  <conditionalFormatting sqref="N17:N18">
     <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="min"/>
@@ -10520,7 +12176,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M17:M18">
+  <conditionalFormatting sqref="O17:O18">
     <cfRule type="colorScale" priority="97">
       <colorScale>
         <cfvo type="min"/>
@@ -10532,7 +12188,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N17:N18">
+  <conditionalFormatting sqref="P17:P18">
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="min"/>
@@ -10544,7 +12200,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O17:O18">
+  <conditionalFormatting sqref="Q17:Q18">
     <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
@@ -10556,7 +12212,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P17:P18">
+  <conditionalFormatting sqref="C25:K25 M25:Q25">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
@@ -10568,7 +12224,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q17:Q18">
+  <conditionalFormatting sqref="C26:K26 M26:Q26">
     <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
@@ -10580,7 +12236,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:K25 M25:R25">
+  <conditionalFormatting sqref="C27:K27 M27:Q27">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
@@ -10592,7 +12248,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:K26 M26:R26">
+  <conditionalFormatting sqref="C28:K28 M28:Q28">
     <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="min"/>
@@ -10604,7 +12260,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:K27 M27:R27">
+  <conditionalFormatting sqref="C29:K29 M29:Q29">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min"/>
@@ -10616,7 +12272,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:K28 M28:R28">
+  <conditionalFormatting sqref="C30:K30 M30:Q30">
     <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min"/>
@@ -10628,7 +12284,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:K29 M29:R29">
+  <conditionalFormatting sqref="S2:S3">
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min"/>
@@ -10640,7 +12296,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30:K30 M30:R30">
+  <conditionalFormatting sqref="S5:S6">
     <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="min"/>
@@ -10652,7 +12308,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S3">
+  <conditionalFormatting sqref="S8:S9">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
@@ -10664,7 +12320,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S5:S6">
+  <conditionalFormatting sqref="S11:S12">
     <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="min"/>
@@ -10676,7 +12332,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:S9">
+  <conditionalFormatting sqref="S14:S15">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
@@ -10688,7 +12344,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S11:S12">
+  <conditionalFormatting sqref="S17:S18">
     <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
@@ -10700,7 +12356,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S14:S15">
+  <conditionalFormatting sqref="S25">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
@@ -10712,7 +12368,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S17:S18">
+  <conditionalFormatting sqref="S26">
     <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
@@ -10724,7 +12380,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S25">
+  <conditionalFormatting sqref="S27">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
@@ -10736,7 +12392,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S26">
+  <conditionalFormatting sqref="S28">
     <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
@@ -10748,7 +12404,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S27">
+  <conditionalFormatting sqref="S29">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
@@ -10760,7 +12416,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S28">
+  <conditionalFormatting sqref="S30">
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
@@ -10772,7 +12428,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S29">
+  <conditionalFormatting sqref="S25:S30">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
@@ -10784,7 +12440,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S30">
+  <conditionalFormatting sqref="T2:T3">
     <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
@@ -10796,7 +12452,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S25:S30">
+  <conditionalFormatting sqref="T5:T6">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
@@ -10808,7 +12464,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T3">
+  <conditionalFormatting sqref="T8:T9">
     <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
@@ -10820,7 +12476,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T5:T6">
+  <conditionalFormatting sqref="T11:T12">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
@@ -10832,7 +12488,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T8:T9">
+  <conditionalFormatting sqref="T14:T15">
     <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
@@ -10844,7 +12500,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T11:T12">
+  <conditionalFormatting sqref="T17:T18">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
@@ -10856,7 +12512,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T14:T15">
+  <conditionalFormatting sqref="T25">
     <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
@@ -10868,7 +12524,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T17:T18">
+  <conditionalFormatting sqref="T26">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
@@ -10880,7 +12536,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T25">
+  <conditionalFormatting sqref="T27">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
@@ -10892,7 +12548,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T26">
+  <conditionalFormatting sqref="T28">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -10904,7 +12560,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T27">
+  <conditionalFormatting sqref="T29">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -10916,7 +12572,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T28">
+  <conditionalFormatting sqref="T30">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -10928,7 +12584,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T29">
+  <conditionalFormatting sqref="T25:T30">
     <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
@@ -10940,31 +12596,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T30">
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T25:T30">
-    <cfRule type="colorScale" priority="61">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="U2:U3">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U5:U6">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U8:U9">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -10976,7 +12632,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U5:U6">
+  <conditionalFormatting sqref="U11:U12">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -10988,7 +12644,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U8:U9">
+  <conditionalFormatting sqref="U14:U15">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -11000,7 +12656,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U11:U12">
+  <conditionalFormatting sqref="U17:U18">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -11012,7 +12668,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U14:U15">
+  <conditionalFormatting sqref="U25">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -11024,7 +12680,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U17:U18">
+  <conditionalFormatting sqref="U26">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -11036,7 +12692,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U25">
+  <conditionalFormatting sqref="U27">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -11048,7 +12704,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U26">
+  <conditionalFormatting sqref="U28">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -11060,7 +12716,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U27">
+  <conditionalFormatting sqref="U29">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -11072,7 +12728,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U28">
+  <conditionalFormatting sqref="U30">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -11084,7 +12740,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U29">
+  <conditionalFormatting sqref="U25:U30">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -11096,7 +12752,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U30">
+  <conditionalFormatting sqref="P25:P30">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -11108,7 +12764,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U25:U30">
+  <conditionalFormatting sqref="Q25:Q30">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -11120,7 +12776,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P25:P30">
+  <conditionalFormatting sqref="V2:V3">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -11132,7 +12788,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q25:Q30">
+  <conditionalFormatting sqref="V5:V6">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -11144,7 +12800,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V3">
+  <conditionalFormatting sqref="V8:V9">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -11156,7 +12812,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V5:V6">
+  <conditionalFormatting sqref="V11:V12">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -11168,7 +12824,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V8:V9">
+  <conditionalFormatting sqref="V14:V15">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -11180,7 +12836,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V11:V12">
+  <conditionalFormatting sqref="V17:V18">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -11192,7 +12848,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V14:V15">
+  <conditionalFormatting sqref="V25">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -11204,7 +12860,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V17:V18">
+  <conditionalFormatting sqref="V26">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -11216,7 +12872,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V25">
+  <conditionalFormatting sqref="V27">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -11228,7 +12884,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V26">
+  <conditionalFormatting sqref="V28">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -11240,7 +12896,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V27">
+  <conditionalFormatting sqref="V29">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -11252,7 +12908,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V28">
+  <conditionalFormatting sqref="V30">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -11264,7 +12920,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V29">
+  <conditionalFormatting sqref="V25:V30">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -11276,7 +12932,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V30">
+  <conditionalFormatting sqref="W2:W3">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -11288,7 +12944,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V25:V30">
+  <conditionalFormatting sqref="W5:W6">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -11300,7 +12956,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W3">
+  <conditionalFormatting sqref="W8:W9">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -11312,7 +12968,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W5:W6">
+  <conditionalFormatting sqref="W11:W12">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -11324,7 +12980,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W8:W9">
+  <conditionalFormatting sqref="W14:W15">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -11336,7 +12992,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W11:W12">
+  <conditionalFormatting sqref="W17:W18">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -11348,7 +13004,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W14:W15">
+  <conditionalFormatting sqref="W25">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -11360,7 +13016,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W17:W18">
+  <conditionalFormatting sqref="W26">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -11372,7 +13028,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W25">
+  <conditionalFormatting sqref="W27">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -11384,7 +13040,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W26">
+  <conditionalFormatting sqref="W28">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -11396,7 +13052,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W27">
+  <conditionalFormatting sqref="W29">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -11408,7 +13064,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W28">
+  <conditionalFormatting sqref="W30">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -11420,7 +13076,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W29">
+  <conditionalFormatting sqref="W25:W30">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -11432,7 +13088,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W30">
+  <conditionalFormatting sqref="L25">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -11444,7 +13100,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W25:W30">
+  <conditionalFormatting sqref="L26">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -11456,7 +13112,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L25">
+  <conditionalFormatting sqref="L27">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -11468,7 +13124,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L26">
+  <conditionalFormatting sqref="L28">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -11480,7 +13136,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L27">
+  <conditionalFormatting sqref="L29">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -11492,7 +13148,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L28">
+  <conditionalFormatting sqref="L30">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -11504,7 +13160,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L29">
+  <conditionalFormatting sqref="L25:L30">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -11516,19 +13172,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L30">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L25:L30">
+  <conditionalFormatting sqref="C25:R30">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -21814,16 +23458,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.5703125" customWidth="1"/>
     <col min="18" max="18" width="12.7109375" customWidth="1"/>
   </cols>
@@ -21888,55 +23539,55 @@
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>75.037234042553095</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>12573.0531914893</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>0.15558038036108199</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>19885.562721489299</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>0.58723634249128198</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <v>2.05002306073255E-2</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="3">
         <v>30.817666450301999</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3">
         <v>36.374361702127601</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="3">
         <v>3.2121536295952702E-3</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="3">
         <v>2.1840554780330401E-3</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="3">
         <v>4.3678054086104298E-2</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="3">
         <v>2.1880890335485201</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="3">
         <v>0.90574598302250298</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="3">
         <v>59.600191814415602</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="3">
         <v>1.4503024968158999E-3</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="3">
         <v>4.4090691913930398E-2</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="3">
         <v>83.2793254300705</v>
       </c>
     </row>
@@ -21944,131 +23595,131 @@
       <c r="A3" s="2">
         <v>0</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>-124.39425051334599</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>12860.6344969199</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>0.16147391147472001</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>19054.6215081724</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>0.60419585231678397</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>1.9180548695404701E-2</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <v>28.6657704377226</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <v>34.025533880903403</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="3">
         <v>3.4467516789212101E-3</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="3">
         <v>2.20437230745458E-3</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="3">
         <v>4.5159967486747499E-2</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="3">
         <v>1.9740070450265901</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="3">
         <v>0.74634462933009305</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="3">
         <v>52.513636234152898</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="3">
         <v>1.55769285237246E-3</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="3">
         <v>5.2838621486568101E-2</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="3">
         <v>68.799777554228299</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>239.229166666666</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>56172.090909090897</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>0.21594338081057701</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>27233.6110957329</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>0.88324577241690505</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>2.9614798145032602E-2</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <v>47.695703355097201</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <v>27.8749015151515</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="3">
         <v>2.3545876645067599E-3</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="3">
         <v>3.08425120493109E-3</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="3">
         <v>7.3636388960099403E-3</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="3">
         <v>0.65138334153497401</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="3">
         <v>0.54617086044708396</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="3">
         <v>18.653966789129701</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="3">
         <v>4.0755164568070901E-4</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="3">
         <v>5.7881062586696397E-2</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="3">
         <v>316.17242697155098</v>
       </c>
     </row>
@@ -22076,131 +23727,131 @@
       <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>-255.93286835222301</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>49280.569311246698</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>0.23461820197966901</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>27384.936002143801</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>0.82027278197082298</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>2.7893682557853901E-2</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <v>39.627431510876399</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="3">
         <v>27.524319093286799</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="3">
         <v>2.6265221029554602E-3</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="3">
         <v>3.0499946537023599E-3</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="3">
         <v>9.2959498500742501E-3</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="3">
         <v>0.73187744714639402</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="3">
         <v>0.44853063547467698</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="3">
         <v>17.125463976632599</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="3">
         <v>5.0718279044316796E-4</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="3">
         <v>6.0583620063315698E-2</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="3">
         <v>335.26302648154399</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>209.935943060498</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>39336.647686832701</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>0.14477753840618399</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>20817.028133629799</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>0.51024517373063905</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <v>2.2935105005096199E-2</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="3">
         <v>28.144900003098002</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="3">
         <v>30.784626334519501</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="3">
         <v>3.16383090490764E-3</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="3">
         <v>1.99301868063749E-3</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="3">
         <v>1.6449916025720102E-2</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="3">
         <v>2.5298486173154502</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="3">
         <v>3.1352590774876998</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="3">
         <v>119.433344697607</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="3">
         <v>9.0530264587115503E-4</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="3">
         <v>4.0700810072744599E-2</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="3">
         <v>133.58650544767801</v>
       </c>
     </row>
@@ -22208,131 +23859,131 @@
       <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>-200.03407155025499</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>31621.354344122599</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>0.14107669830025499</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>19166.753224054501</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>0.50948935479565005</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="3">
         <v>2.2730278919381001E-2</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="3">
         <v>23.8862358368781</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="3">
         <v>30.437848381601299</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="3">
         <v>3.39338749316142E-3</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="3">
         <v>2.0147593408052899E-3</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="3">
         <v>1.8169232012194701E-2</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="3">
         <v>2.8885725198122199</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="3">
         <v>3.1458665643390402</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="3">
         <v>109.292987749152</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="3">
         <v>1.10173159354591E-3</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="3">
         <v>4.4166706129315697E-2</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="3">
         <v>109.46314525318</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>165.71098265895901</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>40297.497109826501</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>0.15558031792642901</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>21328.275420968199</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>0.58064862629728498</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="3">
         <v>2.3328757653960901E-2</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="3">
         <v>26.960290290694498</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="3">
         <v>26.0934132947976</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="3">
         <v>2.3345586019976701E-3</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="3">
         <v>2.3007718804904302E-3</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="3">
         <v>1.1833635855989099E-2</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="3">
         <v>1.26440725525287</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="3">
         <v>0.72912922879486697</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="3">
         <v>41.5198395187941</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="3">
         <v>6.2006042220203198E-4</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="3">
         <v>4.7609287045364802E-2</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="3">
         <v>88.454082909619004</v>
       </c>
     </row>
@@ -22340,131 +23991,131 @@
       <c r="A12" s="2">
         <v>3</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>-221.81046351537299</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>36114.647085819102</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>0.16908557697035301</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>21250.057787608901</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <v>0.592190404779118</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="3">
         <v>2.01759608241809E-2</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="3">
         <v>24.009304048727699</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="3">
         <v>26.9049793483249</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="3">
         <v>2.5513833941012698E-3</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="3">
         <v>2.2936619404683302E-3</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="3">
         <v>1.34907990869629E-2</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="3">
         <v>1.45953028316424</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="3">
         <v>0.65671156466203096</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="3">
         <v>37.661631090728598</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="3">
         <v>7.6019708834509404E-4</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12" s="3">
         <v>5.2426121787214598E-2</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12" s="3">
         <v>82.0652891264277</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>4</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>219.14450867052</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>40149.913294797603</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>0.15654417674068899</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>20751.4032324855</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <v>0.50450486144259599</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="3">
         <v>1.92508404039319E-2</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="3">
         <v>22.571222266656001</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="3">
         <v>28.5783815028901</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="3">
         <v>2.9571277712018402E-3</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="3">
         <v>2.1782330022583501E-3</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="3">
         <v>1.82647033998482E-2</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="3">
         <v>11.5803641748772</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="3">
         <v>1.4281646360268501</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="3">
         <v>133.679490960864</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14" s="3">
         <v>9.5635193697134896E-4</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q14" s="3">
         <v>4.3639964178610401E-2</v>
       </c>
-      <c r="R14" s="2">
+      <c r="R14" s="3">
         <v>150.65945600836301</v>
       </c>
     </row>
@@ -22472,131 +24123,131 @@
       <c r="A15" s="2">
         <v>4</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>-190.50676982591801</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>29844.307543520299</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>0.15851866913503199</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>19537.151776731102</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
         <v>0.52806717439677198</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="3">
         <v>1.9316424298973799E-2</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="3">
         <v>20.915500760460802</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="3">
         <v>28.2567504835589</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="3">
         <v>3.4651037313576999E-3</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="3">
         <v>2.3570455335997901E-3</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="3">
         <v>1.82704749837472E-2</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="3">
         <v>11.759632236998399</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="3">
         <v>1.20079201213774</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="3">
         <v>144.675727124742</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15" s="3">
         <v>1.08177750178526E-3</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q15" s="3">
         <v>4.6499515579815E-2</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15" s="3">
         <v>135.069045673391</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>5</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>89.056426332288297</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>19350.673981191201</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <v>0.15276458998838299</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <v>19482.065943855701</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="3">
         <v>0.51169725299193802</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="3">
         <v>1.8797816259467401E-2</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="3">
         <v>20.835019607373699</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="3">
         <v>31.031598746081499</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="3">
         <v>4.2460703763974404E-3</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="3">
         <v>1.91988106616875E-3</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="3">
         <v>2.0356889546591098E-2</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="3">
         <v>2.9280274001565001</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17" s="3">
         <v>1.11558178339156</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17" s="3">
         <v>132.369678813397</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P17" s="3">
         <v>1.5172682096336199E-3</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="Q17" s="3">
         <v>4.5115759559384301E-2</v>
       </c>
-      <c r="R17" s="2">
+      <c r="R17" s="3">
         <v>101.963166421262</v>
       </c>
     </row>
@@ -22604,60 +24255,1083 @@
       <c r="A18" s="2">
         <v>5</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <v>-159.611111111111</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <v>18166.9927140254</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <v>0.15205736624431701</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <v>18705.7539720446</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3">
         <v>0.51138641227932102</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="3">
         <v>1.84626496766058E-2</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="3">
         <v>19.547660620304399</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="3">
         <v>29.5500546448087</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="3">
         <v>4.41546134892103E-3</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="3">
         <v>2.1477244689941401E-3</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="3">
         <v>1.9522984242629299E-2</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="3">
         <v>3.2899959072475302</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18" s="3">
         <v>0.99348289189728101</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O18" s="3">
         <v>106.260747396517</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P18" s="3">
         <v>1.6565737973614999E-3</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="Q18" s="3">
         <v>5.0346607736948698E-2</v>
       </c>
-      <c r="R18" s="2">
+      <c r="R18" s="3">
         <v>75.643798854421902</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H23" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C24" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="M24" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="O24" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="P24" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q24" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="R24" s="35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="15">
+        <f t="shared" ref="C25:R25" si="0">(C2/C3)-1</f>
+        <v>-2.2361362147371167E-2</v>
+      </c>
+      <c r="D25" s="15">
+        <f t="shared" si="0"/>
+        <v>-3.6498348617514553E-2</v>
+      </c>
+      <c r="E25" s="15">
+        <f t="shared" si="0"/>
+        <v>4.3608381985468236E-2</v>
+      </c>
+      <c r="F25" s="15">
+        <f t="shared" si="0"/>
+        <v>-2.8069556850598865E-2</v>
+      </c>
+      <c r="G25" s="15">
+        <f t="shared" si="0"/>
+        <v>6.8803136598327264E-2</v>
+      </c>
+      <c r="H25" s="15">
+        <f t="shared" si="0"/>
+        <v>7.5068486899888764E-2</v>
+      </c>
+      <c r="I25" s="15">
+        <f t="shared" si="0"/>
+        <v>6.9031328926258517E-2</v>
+      </c>
+      <c r="J25" s="15">
+        <f t="shared" ref="J25" si="1">(J2/J3)-1</f>
+        <v>-6.8063519272547723E-2</v>
+      </c>
+      <c r="K25" s="15">
+        <f t="shared" si="0"/>
+        <v>-9.2166052680093813E-3</v>
+      </c>
+      <c r="L25" s="15">
+        <f t="shared" si="0"/>
+        <v>-3.2814757917575488E-2</v>
+      </c>
+      <c r="M25" s="15">
+        <f t="shared" si="0"/>
+        <v>0.1084504683310521</v>
+      </c>
+      <c r="N25" s="15">
+        <f t="shared" si="0"/>
+        <v>0.21357607119848376</v>
+      </c>
+      <c r="O25" s="15">
+        <f t="shared" si="0"/>
+        <v>0.13494696022694908</v>
+      </c>
+      <c r="P25" s="15">
+        <f t="shared" ref="P25:Q25" si="2">(P2/P3)-1</f>
+        <v>-6.8941932546585205E-2</v>
+      </c>
+      <c r="Q25" s="15">
+        <f t="shared" si="2"/>
+        <v>-0.16555938301421202</v>
+      </c>
+      <c r="R25" s="15">
+        <f t="shared" si="0"/>
+        <v>0.21045922516870563</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <f>A25+1</f>
+        <v>1</v>
+      </c>
+      <c r="C26" s="15">
+        <f>(C5/C6)-1</f>
+        <v>0.13984257272513756</v>
+      </c>
+      <c r="D26" s="15">
+        <f t="shared" ref="D26:R26" si="3">(D5/D6)-1</f>
+        <v>-7.9596642594295663E-2</v>
+      </c>
+      <c r="E26" s="15">
+        <f t="shared" si="3"/>
+        <v>-5.5258448074902988E-3</v>
+      </c>
+      <c r="F26" s="15">
+        <f t="shared" si="3"/>
+        <v>7.6770791168738306E-2</v>
+      </c>
+      <c r="G26" s="15">
+        <f t="shared" si="3"/>
+        <v>6.1702702165945977E-2</v>
+      </c>
+      <c r="H26" s="15">
+        <f t="shared" si="3"/>
+        <v>0.20360319951613137</v>
+      </c>
+      <c r="I26" s="15">
+        <f t="shared" si="3"/>
+        <v>1.27371878183975E-2</v>
+      </c>
+      <c r="J26" s="15">
+        <f t="shared" ref="J26" si="4">(J5/J6)-1</f>
+        <v>-0.10353403770815772</v>
+      </c>
+      <c r="K26" s="15">
+        <f t="shared" si="3"/>
+        <v>1.1231675828397458E-2</v>
+      </c>
+      <c r="L26" s="15">
+        <f t="shared" si="3"/>
+        <v>-0.20786589700124891</v>
+      </c>
+      <c r="M26" s="15">
+        <f t="shared" si="3"/>
+        <v>-0.10998303872495085</v>
+      </c>
+      <c r="N26" s="15">
+        <f t="shared" si="3"/>
+        <v>0.21768908799077913</v>
+      </c>
+      <c r="O26" s="15">
+        <f t="shared" si="3"/>
+        <v>8.9253220501512631E-2</v>
+      </c>
+      <c r="P26" s="15">
+        <f t="shared" ref="P26:Q26" si="5">(P5/P6)-1</f>
+        <v>-0.19644031035714538</v>
+      </c>
+      <c r="Q26" s="15">
+        <f t="shared" si="5"/>
+        <v>-4.4608715586735626E-2</v>
+      </c>
+      <c r="R26" s="15">
+        <f t="shared" si="3"/>
+        <v>-5.694215586592255E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <f>A26+1</f>
+        <v>2</v>
+      </c>
+      <c r="C27" s="15">
+        <f>(C8/C9)-1</f>
+        <v>0.24398997142082024</v>
+      </c>
+      <c r="D27" s="15">
+        <f t="shared" ref="D27:R27" si="6">(D8/D9)-1</f>
+        <v>2.6232823354374712E-2</v>
+      </c>
+      <c r="E27" s="15">
+        <f t="shared" si="6"/>
+        <v>8.6100910795062768E-2</v>
+      </c>
+      <c r="F27" s="15">
+        <f t="shared" si="6"/>
+        <v>1.4834832717793844E-3</v>
+      </c>
+      <c r="G27" s="15">
+        <f t="shared" si="6"/>
+        <v>9.0111558437828698E-3</v>
+      </c>
+      <c r="H27" s="15">
+        <f t="shared" si="6"/>
+        <v>0.17828946324162653</v>
+      </c>
+      <c r="I27" s="15">
+        <f t="shared" si="6"/>
+        <v>1.1392985094433206E-2</v>
+      </c>
+      <c r="J27" s="15">
+        <f t="shared" ref="J27" si="7">(J8/J9)-1</f>
+        <v>-6.764820955944395E-2</v>
+      </c>
+      <c r="K27" s="15">
+        <f t="shared" si="6"/>
+        <v>-1.0790698287126532E-2</v>
+      </c>
+      <c r="L27" s="15">
+        <f t="shared" si="6"/>
+        <v>-9.4627884399331785E-2</v>
+      </c>
+      <c r="M27" s="15">
+        <f t="shared" si="6"/>
+        <v>-0.12418725859792146</v>
+      </c>
+      <c r="N27" s="15">
+        <f t="shared" si="6"/>
+        <v>-3.3718807312379528E-3</v>
+      </c>
+      <c r="O27" s="15">
+        <f t="shared" si="6"/>
+        <v>9.2781404894237252E-2</v>
+      </c>
+      <c r="P27" s="15">
+        <f t="shared" ref="P27:Q27" si="8">(P8/P9)-1</f>
+        <v>-0.17829110903732071</v>
+      </c>
+      <c r="Q27" s="15">
+        <f t="shared" si="8"/>
+        <v>-7.8473048146794122E-2</v>
+      </c>
+      <c r="R27" s="15">
+        <f t="shared" si="6"/>
+        <v>0.22037883288208548</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <f>A27+1</f>
+        <v>3</v>
+      </c>
+      <c r="C28" s="15">
+        <f>(C11/C12)-1</f>
+        <v>0.11582142874240775</v>
+      </c>
+      <c r="D28" s="15">
+        <f t="shared" ref="D28:R28" si="9">(D11/D12)-1</f>
+        <v>-7.9872330247848233E-2</v>
+      </c>
+      <c r="E28" s="15">
+        <f t="shared" si="9"/>
+        <v>3.6808197954598665E-3</v>
+      </c>
+      <c r="F28" s="15">
+        <f t="shared" si="9"/>
+        <v>-1.9489978879576708E-2</v>
+      </c>
+      <c r="G28" s="15">
+        <f t="shared" si="9"/>
+        <v>0.15626501544359517</v>
+      </c>
+      <c r="H28" s="15">
+        <f t="shared" si="9"/>
+        <v>0.1229101116791087</v>
+      </c>
+      <c r="I28" s="15">
+        <f t="shared" si="9"/>
+        <v>-3.0164158203593971E-2</v>
+      </c>
+      <c r="J28" s="15">
+        <f t="shared" ref="J28" si="10">(J11/J12)-1</f>
+        <v>-8.4983226199908946E-2</v>
+      </c>
+      <c r="K28" s="15">
+        <f t="shared" si="9"/>
+        <v>3.0998203774739164E-3</v>
+      </c>
+      <c r="L28" s="15">
+        <f t="shared" si="9"/>
+        <v>-0.12283655106651414</v>
+      </c>
+      <c r="M28" s="15">
+        <f t="shared" si="9"/>
+        <v>-0.1336889204438747</v>
+      </c>
+      <c r="N28" s="15">
+        <f t="shared" si="9"/>
+        <v>0.11027316714013535</v>
+      </c>
+      <c r="O28" s="15">
+        <f t="shared" si="9"/>
+        <v>0.10244400776936358</v>
+      </c>
+      <c r="P28" s="15">
+        <f t="shared" ref="P28:Q28" si="11">(P11/P12)-1</f>
+        <v>-0.18434254523143678</v>
+      </c>
+      <c r="Q28" s="15">
+        <f t="shared" si="11"/>
+        <v>-9.1878525010875345E-2</v>
+      </c>
+      <c r="R28" s="15">
+        <f t="shared" si="9"/>
+        <v>7.7850134340584409E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <f>A28+1</f>
+        <v>4</v>
+      </c>
+      <c r="C29" s="15">
+        <f>(C14/C15)-1</f>
+        <v>0.34531227559055311</v>
+      </c>
+      <c r="D29" s="15">
+        <f t="shared" ref="D29:R29" si="12">(D14/D15)-1</f>
+        <v>-1.2455898129330456E-2</v>
+      </c>
+      <c r="E29" s="15">
+        <f t="shared" si="12"/>
+        <v>6.2150894338681484E-2</v>
+      </c>
+      <c r="F29" s="15">
+        <f t="shared" si="12"/>
+        <v>-4.4619915981507385E-2</v>
+      </c>
+      <c r="G29" s="15">
+        <f t="shared" si="12"/>
+        <v>-3.3952399277843437E-3</v>
+      </c>
+      <c r="H29" s="15">
+        <f t="shared" si="12"/>
+        <v>7.9162412851487618E-2</v>
+      </c>
+      <c r="I29" s="15">
+        <f t="shared" si="12"/>
+        <v>1.1382448930861377E-2</v>
+      </c>
+      <c r="J29" s="15">
+        <f t="shared" ref="J29" si="13">(J14/J15)-1</f>
+        <v>-0.14659762002473276</v>
+      </c>
+      <c r="K29" s="15">
+        <f t="shared" si="12"/>
+        <v>-7.5862994071374201E-2</v>
+      </c>
+      <c r="L29" s="15">
+        <f t="shared" si="12"/>
+        <v>-3.1589676262577804E-4</v>
+      </c>
+      <c r="M29" s="15">
+        <f t="shared" si="12"/>
+        <v>-1.5244359560597665E-2</v>
+      </c>
+      <c r="N29" s="15">
+        <f t="shared" si="12"/>
+        <v>0.18935221219895038</v>
+      </c>
+      <c r="O29" s="15">
+        <f t="shared" si="12"/>
+        <v>-7.6006088805739003E-2</v>
+      </c>
+      <c r="P29" s="15">
+        <f t="shared" ref="P29:Q29" si="14">(P14/P15)-1</f>
+        <v>-0.11594395761320686</v>
+      </c>
+      <c r="Q29" s="15">
+        <f t="shared" si="14"/>
+        <v>-6.1496369705105081E-2</v>
+      </c>
+      <c r="R29" s="15">
+        <f t="shared" si="12"/>
+        <v>0.11542548670012076</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <f>A29+1</f>
+        <v>5</v>
+      </c>
+      <c r="C30" s="15">
+        <f>(C17/C18)-1</f>
+        <v>6.5155597615887517E-2</v>
+      </c>
+      <c r="D30" s="15">
+        <f t="shared" ref="D30:R30" si="15">(D17/D18)-1</f>
+        <v>4.6510324460680152E-3</v>
+      </c>
+      <c r="E30" s="15">
+        <f t="shared" si="15"/>
+        <v>4.1501239296276582E-2</v>
+      </c>
+      <c r="F30" s="15">
+        <f t="shared" si="15"/>
+        <v>6.0783920955498338E-4</v>
+      </c>
+      <c r="G30" s="15">
+        <f t="shared" si="15"/>
+        <v>1.8153763881805896E-2</v>
+      </c>
+      <c r="H30" s="15">
+        <f t="shared" si="15"/>
+        <v>6.5857445147789351E-2</v>
+      </c>
+      <c r="I30" s="15">
+        <f t="shared" si="15"/>
+        <v>5.0136763504532889E-2</v>
+      </c>
+      <c r="J30" s="15">
+        <f t="shared" ref="J30" si="16">(J17/J18)-1</f>
+        <v>-3.8363142407527251E-2</v>
+      </c>
+      <c r="K30" s="15">
+        <f t="shared" si="15"/>
+        <v>-0.10608595567759105</v>
+      </c>
+      <c r="L30" s="15">
+        <f>(L17/L18)-1</f>
+        <v>4.2714028429164497E-2</v>
+      </c>
+      <c r="M30" s="15">
+        <f>(M17/M18)-1</f>
+        <v>-0.11002095968984338</v>
+      </c>
+      <c r="N30" s="15">
+        <f t="shared" si="15"/>
+        <v>0.12289984305729051</v>
+      </c>
+      <c r="O30" s="15">
+        <f t="shared" si="15"/>
+        <v>0.24570626554557617</v>
+      </c>
+      <c r="P30" s="15">
+        <f t="shared" ref="P30:Q30" si="17">(P17/P18)-1</f>
+        <v>-8.4092593973029373E-2</v>
+      </c>
+      <c r="Q30" s="15">
+        <f t="shared" si="17"/>
+        <v>-0.10389673530527754</v>
+      </c>
+      <c r="R30" s="15">
+        <f t="shared" si="15"/>
+        <v>0.34793820465696434</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="47">
+        <f>AVERAGE(C25:C30)</f>
+        <v>0.14796008065790583</v>
+      </c>
+      <c r="D31" s="47">
+        <f t="shared" ref="D31:R31" si="18">AVERAGE(D25:D30)</f>
+        <v>-2.9589893964757696E-2</v>
+      </c>
+      <c r="E31" s="47">
+        <f t="shared" si="18"/>
+        <v>3.8586066900576442E-2</v>
+      </c>
+      <c r="F31" s="47">
+        <f t="shared" si="18"/>
+        <v>-2.2195563436017141E-3</v>
+      </c>
+      <c r="G31" s="47">
+        <f t="shared" si="18"/>
+        <v>5.1756755667612141E-2</v>
+      </c>
+      <c r="H31" s="47">
+        <f t="shared" si="18"/>
+        <v>0.12081518655600539</v>
+      </c>
+      <c r="I31" s="47">
+        <f t="shared" si="18"/>
+        <v>2.0752759345148253E-2</v>
+      </c>
+      <c r="J31" s="47">
+        <v>3.7582281853761536E-2</v>
+      </c>
+      <c r="K31" s="47">
+        <f t="shared" si="18"/>
+        <v>-3.1270792849704965E-2</v>
+      </c>
+      <c r="L31" s="47">
+        <f t="shared" si="18"/>
+        <v>-6.9291159786355264E-2</v>
+      </c>
+      <c r="M31" s="47">
+        <f t="shared" si="18"/>
+        <v>-6.4112344781022665E-2</v>
+      </c>
+      <c r="N31" s="47">
+        <f t="shared" si="18"/>
+        <v>0.14173641680906687</v>
+      </c>
+      <c r="O31" s="47">
+        <f t="shared" si="18"/>
+        <v>9.8187628355316622E-2</v>
+      </c>
+      <c r="P31" s="47">
+        <f t="shared" si="18"/>
+        <v>-0.13800874145978739</v>
+      </c>
+      <c r="Q31" s="47">
+        <f t="shared" si="18"/>
+        <v>-9.0985462794833286E-2</v>
+      </c>
+      <c r="R31" s="47">
+        <f t="shared" si="18"/>
+        <v>0.15251828798042302</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C3">
+    <cfRule type="colorScale" priority="137">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D3">
+    <cfRule type="colorScale" priority="136">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="colorScale" priority="135">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F3">
+    <cfRule type="colorScale" priority="134">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G3">
+    <cfRule type="colorScale" priority="133">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H3">
+    <cfRule type="colorScale" priority="132">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I3">
+    <cfRule type="colorScale" priority="131">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J3">
+    <cfRule type="colorScale" priority="130">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K3">
+    <cfRule type="colorScale" priority="129">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L3">
+    <cfRule type="colorScale" priority="128">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M3">
+    <cfRule type="colorScale" priority="127">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N3">
+    <cfRule type="colorScale" priority="126">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O3">
+    <cfRule type="colorScale" priority="125">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P3">
+    <cfRule type="colorScale" priority="124">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q3">
+    <cfRule type="colorScale" priority="123">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:R3">
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C6">
+    <cfRule type="colorScale" priority="121">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D6">
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E6">
+    <cfRule type="colorScale" priority="119">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F6">
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G6">
+    <cfRule type="colorScale" priority="117">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H6">
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I6">
+    <cfRule type="colorScale" priority="115">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J6">
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K6">
+    <cfRule type="colorScale" priority="113">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:L6">
+    <cfRule type="colorScale" priority="112">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M6">
+    <cfRule type="colorScale" priority="111">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5:N6">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:R6">
+    <cfRule type="colorScale" priority="109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:O6">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5:P6">
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5:Q6">
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5:R6">
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:C9">
+    <cfRule type="colorScale" priority="104">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D9">
+    <cfRule type="colorScale" priority="103">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8:E9">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F9">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:G9">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:H9">
+    <cfRule type="colorScale" priority="99">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:I9">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:J9">
     <cfRule type="colorScale" priority="97">
       <colorScale>
         <cfvo type="min"/>
@@ -22669,7 +25343,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D3">
+  <conditionalFormatting sqref="K8:K9">
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="min"/>
@@ -22681,7 +25355,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="L8:L9">
     <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
@@ -22693,7 +25367,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F3">
+  <conditionalFormatting sqref="M8:M9">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
@@ -22705,7 +25379,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G3">
+  <conditionalFormatting sqref="N8:N9">
     <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
@@ -22717,7 +25391,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H3">
+  <conditionalFormatting sqref="O8:O9">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
@@ -22729,7 +25403,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I3">
+  <conditionalFormatting sqref="P8:P9">
     <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="min"/>
@@ -22741,7 +25415,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J3">
+  <conditionalFormatting sqref="Q8:Q9">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min"/>
@@ -22753,7 +25427,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K3">
+  <conditionalFormatting sqref="R8:R9">
     <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min"/>
@@ -22765,7 +25439,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L3">
+  <conditionalFormatting sqref="R11:R12">
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min"/>
@@ -22777,7 +25451,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M3">
+  <conditionalFormatting sqref="R14:R15">
     <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="min"/>
@@ -22789,7 +25463,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N3">
+  <conditionalFormatting sqref="R17:R18">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
@@ -22801,7 +25475,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O3">
+  <conditionalFormatting sqref="C11:C12">
     <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="min"/>
@@ -22813,7 +25487,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P3">
+  <conditionalFormatting sqref="C14:C15">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
@@ -22825,7 +25499,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q3">
+  <conditionalFormatting sqref="C17:C18">
     <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
@@ -22837,7 +25511,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R3">
+  <conditionalFormatting sqref="D11:D12">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
@@ -22849,7 +25523,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C6">
+  <conditionalFormatting sqref="E11:E12">
     <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
@@ -22861,7 +25535,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D6">
+  <conditionalFormatting sqref="F11:F12">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
@@ -22873,7 +25547,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E6">
+  <conditionalFormatting sqref="G11:G12">
     <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
@@ -22885,7 +25559,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F6">
+  <conditionalFormatting sqref="H11:H12">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
@@ -22897,7 +25571,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G6">
+  <conditionalFormatting sqref="I11:I12">
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
@@ -22909,7 +25583,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H6">
+  <conditionalFormatting sqref="J11:J12">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
@@ -22921,7 +25595,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I6">
+  <conditionalFormatting sqref="K11:K12">
     <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
@@ -22933,7 +25607,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J6">
+  <conditionalFormatting sqref="L11:L12">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
@@ -22945,7 +25619,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K6">
+  <conditionalFormatting sqref="M11:M12">
     <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
@@ -22957,7 +25631,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L6">
+  <conditionalFormatting sqref="N11:N12">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
@@ -22969,7 +25643,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M6">
+  <conditionalFormatting sqref="O11:O12">
     <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
@@ -22981,7 +25655,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:N6">
+  <conditionalFormatting sqref="P11:P12">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
@@ -22993,7 +25667,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5:R6">
+  <conditionalFormatting sqref="Q11:Q12">
     <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
@@ -23005,7 +25679,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5:O6">
+  <conditionalFormatting sqref="D14:D15">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
@@ -23017,7 +25691,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P5:P6">
+  <conditionalFormatting sqref="E14:E15">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
@@ -23029,7 +25703,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:Q6">
+  <conditionalFormatting sqref="F14:F15">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -23041,7 +25715,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R5:R6">
+  <conditionalFormatting sqref="G14:G15">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -23053,7 +25727,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8:C9">
+  <conditionalFormatting sqref="H14:H15">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -23065,7 +25739,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D9">
+  <conditionalFormatting sqref="I14:I15">
     <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
@@ -23077,7 +25751,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E9">
+  <conditionalFormatting sqref="J14:J15">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
@@ -23089,7 +25763,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F9">
+  <conditionalFormatting sqref="K14:K15">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
@@ -23101,7 +25775,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G9">
+  <conditionalFormatting sqref="L14:L15">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -23113,7 +25787,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H9">
+  <conditionalFormatting sqref="M14:M15">
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
@@ -23125,7 +25799,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I9">
+  <conditionalFormatting sqref="N14:N15">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -23137,7 +25811,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:J9">
+  <conditionalFormatting sqref="O14:O15">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -23149,7 +25823,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K9">
+  <conditionalFormatting sqref="P14:P15">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -23161,7 +25835,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8:L9">
+  <conditionalFormatting sqref="Q14:Q15">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -23173,7 +25847,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8:M9">
+  <conditionalFormatting sqref="D17:D18">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -23185,7 +25859,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8:N9">
+  <conditionalFormatting sqref="E17:E18">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -23197,7 +25871,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O8:O9">
+  <conditionalFormatting sqref="F17:F18">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -23209,7 +25883,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P8:P9">
+  <conditionalFormatting sqref="G17:G18">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -23221,7 +25895,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q8:Q9">
+  <conditionalFormatting sqref="H17:H18">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -23233,7 +25907,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R8:R9">
+  <conditionalFormatting sqref="I17:I18">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -23245,7 +25919,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R11:R12">
+  <conditionalFormatting sqref="J17:J18">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -23257,7 +25931,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R14:R15">
+  <conditionalFormatting sqref="K17:K18">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -23269,7 +25943,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R17:R18">
+  <conditionalFormatting sqref="L17:L18">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -23281,7 +25955,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C12">
+  <conditionalFormatting sqref="M17:M18">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -23293,7 +25967,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14:C15">
+  <conditionalFormatting sqref="N17:N18">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -23305,7 +25979,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C18">
+  <conditionalFormatting sqref="O17:O18">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -23317,7 +25991,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D12">
+  <conditionalFormatting sqref="P17:P18">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -23329,7 +26003,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E12">
+  <conditionalFormatting sqref="Q17:Q18">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -23341,7 +26015,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F12">
+  <conditionalFormatting sqref="C25:G25 M25:O25 R25 K25 I25">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -23353,7 +26027,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11:G12">
+  <conditionalFormatting sqref="C26:G26 M26:O26 R26 K26 I26">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -23365,7 +26039,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H12">
+  <conditionalFormatting sqref="C27:G27 M27:O27 R27 K27 I27">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -23377,7 +26051,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11:I12">
+  <conditionalFormatting sqref="C28:G28 M28:O28 R28 K28 I28">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -23389,7 +26063,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11:J12">
+  <conditionalFormatting sqref="C29:G29 M29:O29 R29 K29 I29">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -23401,7 +26075,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:K12">
+  <conditionalFormatting sqref="C30:G30 M30:O30 R30 K30 I30">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -23413,31 +26087,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L11:L12">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M11:M12">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N11:N12">
+  <conditionalFormatting sqref="L25">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -23449,7 +26099,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O11:O12">
+  <conditionalFormatting sqref="L26">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -23461,7 +26111,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P11:P12">
+  <conditionalFormatting sqref="L27">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -23473,7 +26123,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q11:Q12">
+  <conditionalFormatting sqref="L28">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -23485,7 +26135,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
+  <conditionalFormatting sqref="L29">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -23497,7 +26147,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E15">
+  <conditionalFormatting sqref="L30">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -23509,7 +26159,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:F15">
+  <conditionalFormatting sqref="L25:L30">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -23521,7 +26171,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G15">
+  <conditionalFormatting sqref="P25">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -23533,7 +26183,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:H15">
+  <conditionalFormatting sqref="P26">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -23545,7 +26195,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14:I15">
+  <conditionalFormatting sqref="P27">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -23557,7 +26207,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J14:J15">
+  <conditionalFormatting sqref="P28">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -23569,7 +26219,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:K15">
+  <conditionalFormatting sqref="P29">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -23581,7 +26231,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14:L15">
+  <conditionalFormatting sqref="P30">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -23593,7 +26243,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14:M15">
+  <conditionalFormatting sqref="Q25">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -23605,7 +26255,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N14:N15">
+  <conditionalFormatting sqref="Q26">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -23617,7 +26267,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O14:O15">
+  <conditionalFormatting sqref="Q27">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -23629,7 +26279,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P14:P15">
+  <conditionalFormatting sqref="Q28">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -23641,7 +26291,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q14:Q15">
+  <conditionalFormatting sqref="Q29">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -23653,7 +26303,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D18">
+  <conditionalFormatting sqref="Q30">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -23665,7 +26315,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E18">
+  <conditionalFormatting sqref="P25:P30">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -23677,7 +26327,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17:F18">
+  <conditionalFormatting sqref="Q25:Q30">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -23689,7 +26339,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17:G18">
+  <conditionalFormatting sqref="J25">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -23701,7 +26351,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17:H18">
+  <conditionalFormatting sqref="J26">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -23713,7 +26363,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17:I18">
+  <conditionalFormatting sqref="J27">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -23725,7 +26375,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17:J18">
+  <conditionalFormatting sqref="J28">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -23737,7 +26387,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:K18">
+  <conditionalFormatting sqref="J29">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -23749,7 +26399,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L17:L18">
+  <conditionalFormatting sqref="J30">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -23761,7 +26411,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M17:M18">
+  <conditionalFormatting sqref="J25:J30">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -23773,31 +26423,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N17:N18">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O17:O18">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P17:P18">
+  <conditionalFormatting sqref="H25:H30">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -23809,7 +26435,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q17:Q18">
+  <conditionalFormatting sqref="C25:R30">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -23822,5 +26448,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/migforecasting/clustering/AN-method.xlsx
+++ b/migforecasting/clustering/AN-method.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12255" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ мун-районы" sheetId="1" r:id="rId1"/>
@@ -1623,7 +1623,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2699,7 +2698,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4873,52 +4871,52 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>-2.2361362147371167E-2</c:v>
+                  <c:v>0.22909919179535332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.6498348617514553E-2</c:v>
+                  <c:v>3.6382550652092949E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3608381985468236E-2</c:v>
+                  <c:v>9.0125200727525945E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.8069556850598865E-2</c:v>
+                  <c:v>2.9189878384101586E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.8803136598327264E-2</c:v>
+                  <c:v>-4.3042958042078805E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.5068486899888764E-2</c:v>
+                  <c:v>0.17816098881314479</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.9031328926258517E-2</c:v>
+                  <c:v>1.1073487309625873E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-6.8063519272547723E-2</c:v>
+                  <c:v>-5.4738771003485787E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-9.2166052680093813E-3</c:v>
+                  <c:v>-3.3656559926331653E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.2814757917575488E-2</c:v>
+                  <c:v>-7.1073423335624941E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1084504683310521</c:v>
+                  <c:v>-9.6161276220158576E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.21357607119848376</c:v>
+                  <c:v>-3.2366694132117679E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.13494696022694908</c:v>
+                  <c:v>0.10055050838750135</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-6.8941932546585205E-2</c:v>
+                  <c:v>-0.16806709282402021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.16555938301421202</c:v>
+                  <c:v>-6.4405769844172123E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.21045922516870563</c:v>
+                  <c:v>0.22663851188633211</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5008,52 +5006,52 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.13984257272513756</c:v>
+                  <c:v>8.36566528798941E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7.9596642594295663E-2</c:v>
+                  <c:v>-6.0186182889287454E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5.5258448074902988E-3</c:v>
+                  <c:v>1.8081939386427326E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.6770791168738306E-2</c:v>
+                  <c:v>2.536020587715182E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.1702702165945977E-2</c:v>
+                  <c:v>0.11601800876587154</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.20360319951613137</c:v>
+                  <c:v>0.13731349822507077</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.27371878183975E-2</c:v>
+                  <c:v>-6.6499369478166814E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.10353403770815772</c:v>
+                  <c:v>-8.0506407707561345E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1231675828397458E-2</c:v>
+                  <c:v>-3.4650993474598879E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.20786589700124891</c:v>
+                  <c:v>-0.22484666667296915</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.10998303872495085</c:v>
+                  <c:v>-0.1487460254898848</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.21768908799077913</c:v>
+                  <c:v>7.4562413847174547E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.9253220501512631E-2</c:v>
+                  <c:v>5.0614033975793227E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.19644031035714538</c:v>
+                  <c:v>-0.1651900337451182</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-4.4608715586735626E-2</c:v>
+                  <c:v>-3.6131811647346468E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-5.694215586592255E-2</c:v>
+                  <c:v>7.611727723797812E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5143,52 +5141,52 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.24398997142082024</c:v>
+                  <c:v>-7.6275991904954044E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6232823354374712E-2</c:v>
+                  <c:v>-1.0994855769997924E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6100910795062768E-2</c:v>
+                  <c:v>3.746910759519384E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4834832717793844E-3</c:v>
+                  <c:v>1.5083230852055429E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0111558437828698E-3</c:v>
+                  <c:v>5.1004915082374147E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17828946324162653</c:v>
+                  <c:v>0.15815664360496062</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1392985094433206E-2</c:v>
+                  <c:v>0.1012571234389299</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-6.764820955944395E-2</c:v>
+                  <c:v>-8.4789807608210199E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.0790698287126532E-2</c:v>
+                  <c:v>-6.7252544304793771E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-9.4627884399331785E-2</c:v>
+                  <c:v>0.12409461704433111</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.12418725859792146</c:v>
+                  <c:v>-0.12336625308754645</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3.3718807312379528E-3</c:v>
+                  <c:v>0.11559578275065086</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.2781404894237252E-2</c:v>
+                  <c:v>0.11814331159496128</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.17829110903732071</c:v>
+                  <c:v>-5.3715179708376248E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-7.8473048146794122E-2</c:v>
+                  <c:v>-0.13787170305301211</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.22037883288208548</c:v>
+                  <c:v>0.32954868892633638</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5278,52 +5276,52 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.11582142874240775</c:v>
+                  <c:v>0.35866079174714471</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7.9872330247848233E-2</c:v>
+                  <c:v>-1.4468145066554139E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6808197954598665E-3</c:v>
+                  <c:v>6.070097493711657E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.9489978879576708E-2</c:v>
+                  <c:v>-3.7611584439731116E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15626501544359517</c:v>
+                  <c:v>4.3536727863535463E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1229101116791087</c:v>
+                  <c:v>3.480927149526547E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.0164158203593971E-2</c:v>
+                  <c:v>8.4449872609724252E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-8.4983226199908946E-2</c:v>
+                  <c:v>-9.5119886243536844E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0998203774739164E-3</c:v>
+                  <c:v>-5.2878350684593123E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.12283655106651414</c:v>
+                  <c:v>-5.4368016439940714E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.1336889204438747</c:v>
+                  <c:v>1.9401759532022389E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.11027316714013535</c:v>
+                  <c:v>0.18480245732222089</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.10244400776936358</c:v>
+                  <c:v>-5.396561824582502E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.18434254523143678</c:v>
+                  <c:v>-0.14784361988836692</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-9.1878525010875345E-2</c:v>
+                  <c:v>-7.7503654230315133E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.7850134340584409E-2</c:v>
+                  <c:v>0.10100530650594952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5413,52 +5411,52 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.34531227559055311</c:v>
+                  <c:v>0.12341995166395225</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.2455898129330456E-2</c:v>
+                  <c:v>-8.0293497969244232E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.2150894338681484E-2</c:v>
+                  <c:v>1.9048783418865511E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.4619915981507385E-2</c:v>
+                  <c:v>8.0829091867249625E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.3952399277843437E-3</c:v>
+                  <c:v>6.7636167481690324E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.9162412851487618E-2</c:v>
+                  <c:v>0.27135922958945358</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1382448930861377E-2</c:v>
+                  <c:v>2.996755044017152E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.14659762002473276</c:v>
+                  <c:v>-0.11916821715685932</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-7.5862994071374201E-2</c:v>
+                  <c:v>2.064422955605294E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.1589676262577804E-4</c:v>
+                  <c:v>-0.12105723942707247</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.5244359560597665E-2</c:v>
+                  <c:v>-0.15118216615369795</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.18935221219895038</c:v>
+                  <c:v>0.28376841698322575</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-7.6006088805739003E-2</c:v>
+                  <c:v>9.5032351301696627E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.11594395761320686</c:v>
+                  <c:v>-0.20303444322299247</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-6.1496369705105081E-2</c:v>
+                  <c:v>-6.5850695713246643E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.11542548670012076</c:v>
+                  <c:v>7.6717396227572454E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5548,52 +5546,52 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>6.5155597615887517E-2</c:v>
+                  <c:v>0.20547900333798141</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6510324460680152E-3</c:v>
+                  <c:v>-7.1824841533745465E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1501239296276582E-2</c:v>
+                  <c:v>1.7387111341601758E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0783920955498338E-4</c:v>
+                  <c:v>-2.8357036764239507E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8153763881805896E-2</c:v>
+                  <c:v>7.8936594888496359E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.5857445147789351E-2</c:v>
+                  <c:v>9.2062749336874861E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0136763504532889E-2</c:v>
+                  <c:v>-2.5584674414756536E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.8363142407527251E-2</c:v>
+                  <c:v>-0.1078800943615037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.10608595567759105</c:v>
+                  <c:v>-2.128555386452069E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.2714028429164497E-2</c:v>
+                  <c:v>-9.125067528330455E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.11002095968984338</c:v>
+                  <c:v>-0.10966332275853963</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.12289984305729051</c:v>
+                  <c:v>0.12033544975239274</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.24570626554557617</c:v>
+                  <c:v>0.12699271130040213</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-8.4092593973029373E-2</c:v>
+                  <c:v>-0.17459136816537479</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.10389673530527754</c:v>
+                  <c:v>-0.10798314202040338</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.34793820465696434</c:v>
+                  <c:v>0.15747086548601064</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9083,7 +9081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="J9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L25" sqref="L25:L27"/>
     </sheetView>
   </sheetViews>
@@ -23460,8 +23458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="V30" sqref="V30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23539,772 +23537,687 @@
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
-        <v>75.037234042553095</v>
-      </c>
-      <c r="C2" s="3">
-        <v>12573.0531914893</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.15558038036108199</v>
-      </c>
-      <c r="E2" s="3">
-        <v>19885.562721489299</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.58723634249128198</v>
-      </c>
-      <c r="G2" s="3">
-        <v>2.05002306073255E-2</v>
-      </c>
-      <c r="H2" s="3">
-        <v>30.817666450301999</v>
-      </c>
-      <c r="I2" s="3">
-        <v>36.374361702127601</v>
-      </c>
-      <c r="J2" s="3">
-        <v>3.2121536295952702E-3</v>
-      </c>
-      <c r="K2" s="3">
-        <v>2.1840554780330401E-3</v>
-      </c>
-      <c r="L2" s="3">
-        <v>4.3678054086104298E-2</v>
-      </c>
-      <c r="M2" s="3">
-        <v>2.1880890335485201</v>
-      </c>
-      <c r="N2" s="3">
-        <v>0.90574598302250298</v>
-      </c>
-      <c r="O2" s="3">
-        <v>59.600191814415602</v>
-      </c>
-      <c r="P2" s="3">
-        <v>1.4503024968158999E-3</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>4.4090691913930398E-2</v>
-      </c>
-      <c r="R2" s="3">
-        <v>83.2793254300705</v>
+      <c r="B2">
+        <v>205.544217687074</v>
+      </c>
+      <c r="C2">
+        <v>38817.632653061199</v>
+      </c>
+      <c r="D2">
+        <v>0.14551526855531799</v>
+      </c>
+      <c r="E2">
+        <v>20815.4167831292</v>
+      </c>
+      <c r="F2">
+        <v>0.50806709098254499</v>
+      </c>
+      <c r="G2">
+        <v>2.2696068993786799E-2</v>
+      </c>
+      <c r="H2">
+        <v>28.1853061563917</v>
+      </c>
+      <c r="I2">
+        <v>30.831632653061199</v>
+      </c>
+      <c r="J2">
+        <v>3.2376325468473801E-3</v>
+      </c>
+      <c r="K2">
+        <v>2.0043947689098499E-3</v>
+      </c>
+      <c r="L2">
+        <v>1.69452715417714E-2</v>
+      </c>
+      <c r="M2">
+        <v>2.6045631518374601</v>
+      </c>
+      <c r="N2">
+        <v>3.1061706991838198</v>
+      </c>
+      <c r="O2">
+        <v>121.526092238272</v>
+      </c>
+      <c r="P2">
+        <v>9.2103120971854602E-4</v>
+      </c>
+      <c r="Q2">
+        <v>4.1196209328958601E-2</v>
+      </c>
+      <c r="R2">
+        <v>129.144339060086</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
-      <c r="B3" s="3">
-        <v>-124.39425051334599</v>
-      </c>
-      <c r="C3" s="3">
-        <v>12860.6344969199</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.16147391147472001</v>
-      </c>
-      <c r="E3" s="3">
-        <v>19054.6215081724</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.60419585231678397</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1.9180548695404701E-2</v>
-      </c>
-      <c r="H3" s="3">
-        <v>28.6657704377226</v>
-      </c>
-      <c r="I3" s="3">
-        <v>34.025533880903403</v>
-      </c>
-      <c r="J3" s="3">
-        <v>3.4467516789212101E-3</v>
-      </c>
-      <c r="K3" s="3">
-        <v>2.20437230745458E-3</v>
-      </c>
-      <c r="L3" s="3">
-        <v>4.5159967486747499E-2</v>
-      </c>
-      <c r="M3" s="3">
-        <v>1.9740070450265901</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0.74634462933009305</v>
-      </c>
-      <c r="O3" s="3">
-        <v>52.513636234152898</v>
-      </c>
-      <c r="P3" s="3">
-        <v>1.55769285237246E-3</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>5.2838621486568101E-2</v>
-      </c>
-      <c r="R3" s="3">
-        <v>68.799777554228299</v>
+      <c r="B3">
+        <v>-200.65217391304299</v>
+      </c>
+      <c r="C3">
+        <v>31582.1806020066</v>
+      </c>
+      <c r="D3">
+        <v>0.14040690714423901</v>
+      </c>
+      <c r="E3">
+        <v>19094.5193902842</v>
+      </c>
+      <c r="F3">
+        <v>0.50658836570397503</v>
+      </c>
+      <c r="G3">
+        <v>2.2794181895279E-2</v>
+      </c>
+      <c r="H3">
+        <v>23.923136501731399</v>
+      </c>
+      <c r="I3">
+        <v>30.4939581939799</v>
+      </c>
+      <c r="J3">
+        <v>3.4251193717999401E-3</v>
+      </c>
+      <c r="K3">
+        <v>2.0050696063634802E-3</v>
+      </c>
+      <c r="L3">
+        <v>1.8241777087075198E-2</v>
+      </c>
+      <c r="M3">
+        <v>2.8816680269519899</v>
+      </c>
+      <c r="N3">
+        <v>3.1162569928763699</v>
+      </c>
+      <c r="O3">
+        <v>110.423003135339</v>
+      </c>
+      <c r="P3">
+        <v>1.1070979423629401E-3</v>
+      </c>
+      <c r="Q3">
+        <v>4.40321327356809E-2</v>
+      </c>
+      <c r="R3">
+        <v>105.2831276767</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="3">
-        <v>239.229166666666</v>
-      </c>
-      <c r="C5" s="3">
-        <v>56172.090909090897</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.21594338081057701</v>
-      </c>
-      <c r="E5" s="3">
-        <v>27233.6110957329</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.88324577241690505</v>
-      </c>
-      <c r="G5" s="3">
-        <v>2.9614798145032602E-2</v>
-      </c>
-      <c r="H5" s="3">
-        <v>47.695703355097201</v>
-      </c>
-      <c r="I5" s="3">
-        <v>27.8749015151515</v>
-      </c>
-      <c r="J5" s="3">
-        <v>2.3545876645067599E-3</v>
-      </c>
-      <c r="K5" s="3">
-        <v>3.08425120493109E-3</v>
-      </c>
-      <c r="L5" s="3">
-        <v>7.3636388960099403E-3</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0.65138334153497401</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0.54617086044708396</v>
-      </c>
-      <c r="O5" s="3">
-        <v>18.653966789129701</v>
-      </c>
-      <c r="P5" s="3">
-        <v>4.0755164568070901E-4</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>5.7881062586696397E-2</v>
-      </c>
-      <c r="R5" s="3">
-        <v>316.17242697155098</v>
+      <c r="B5">
+        <v>221.57223264540301</v>
+      </c>
+      <c r="C5">
+        <v>52024.114446528998</v>
+      </c>
+      <c r="D5">
+        <v>0.19618415437127301</v>
+      </c>
+      <c r="E5">
+        <v>24430.417592114401</v>
+      </c>
+      <c r="F5">
+        <v>0.87398599647865705</v>
+      </c>
+      <c r="G5">
+        <v>3.1632274029230398E-2</v>
+      </c>
+      <c r="H5">
+        <v>45.407688133056197</v>
+      </c>
+      <c r="I5">
+        <v>27.620294559099399</v>
+      </c>
+      <c r="J5">
+        <v>2.3580112725698999E-3</v>
+      </c>
+      <c r="K5">
+        <v>3.19974667101738E-3</v>
+      </c>
+      <c r="L5">
+        <v>7.3963570904514398E-3</v>
+      </c>
+      <c r="M5">
+        <v>0.55701089556213002</v>
+      </c>
+      <c r="N5">
+        <v>0.47605329911414901</v>
+      </c>
+      <c r="O5">
+        <v>15.909738630711599</v>
+      </c>
+      <c r="P5">
+        <v>4.0549687404610902E-4</v>
+      </c>
+      <c r="Q5">
+        <v>5.56830046508218E-2</v>
+      </c>
+      <c r="R5">
+        <v>161.07488383280801</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="3">
-        <v>-255.93286835222301</v>
-      </c>
-      <c r="C6" s="3">
-        <v>49280.569311246698</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.23461820197966901</v>
-      </c>
-      <c r="E6" s="3">
-        <v>27384.936002143801</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.82027278197082298</v>
-      </c>
-      <c r="G6" s="3">
-        <v>2.7893682557853901E-2</v>
-      </c>
-      <c r="H6" s="3">
-        <v>39.627431510876399</v>
-      </c>
-      <c r="I6" s="3">
-        <v>27.524319093286799</v>
-      </c>
-      <c r="J6" s="3">
-        <v>2.6265221029554602E-3</v>
-      </c>
-      <c r="K6" s="3">
-        <v>3.0499946537023599E-3</v>
-      </c>
-      <c r="L6" s="3">
-        <v>9.2959498500742501E-3</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0.73187744714639402</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0.44853063547467698</v>
-      </c>
-      <c r="O6" s="3">
-        <v>17.125463976632599</v>
-      </c>
-      <c r="P6" s="3">
-        <v>5.0718279044316796E-4</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>6.0583620063315698E-2</v>
-      </c>
-      <c r="R6" s="3">
-        <v>335.26302648154399</v>
+      <c r="B6">
+        <v>-239.20964912280601</v>
+      </c>
+      <c r="C6">
+        <v>48007.931578947297</v>
+      </c>
+      <c r="D6">
+        <v>0.20874789325231</v>
+      </c>
+      <c r="E6">
+        <v>24386.322391779799</v>
+      </c>
+      <c r="F6">
+        <v>0.85236972477491402</v>
+      </c>
+      <c r="G6">
+        <v>2.8343874185516399E-2</v>
+      </c>
+      <c r="H6">
+        <v>39.925392782131702</v>
+      </c>
+      <c r="I6">
+        <v>27.805197368420998</v>
+      </c>
+      <c r="J6">
+        <v>2.5644673245530901E-3</v>
+      </c>
+      <c r="K6">
+        <v>3.3146008846420098E-3</v>
+      </c>
+      <c r="L6">
+        <v>9.5417987286535704E-3</v>
+      </c>
+      <c r="M6">
+        <v>0.65434160925084905</v>
+      </c>
+      <c r="N6">
+        <v>0.44302061283696997</v>
+      </c>
+      <c r="O6">
+        <v>15.829618545622401</v>
+      </c>
+      <c r="P6">
+        <v>4.8573554513878898E-4</v>
+      </c>
+      <c r="Q6">
+        <v>5.7770352132888197E-2</v>
+      </c>
+      <c r="R6">
+        <v>149.681533081814</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="3">
-        <v>209.935943060498</v>
-      </c>
-      <c r="C8" s="3">
-        <v>39336.647686832701</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.14477753840618399</v>
-      </c>
-      <c r="E8" s="3">
-        <v>20817.028133629799</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.51024517373063905</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2.2935105005096199E-2</v>
-      </c>
-      <c r="H8" s="3">
-        <v>28.144900003098002</v>
-      </c>
-      <c r="I8" s="3">
-        <v>30.784626334519501</v>
-      </c>
-      <c r="J8" s="3">
-        <v>3.16383090490764E-3</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1.99301868063749E-3</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1.6449916025720102E-2</v>
-      </c>
-      <c r="M8" s="3">
-        <v>2.5298486173154502</v>
-      </c>
-      <c r="N8" s="3">
-        <v>3.1352590774876998</v>
-      </c>
-      <c r="O8" s="3">
-        <v>119.433344697607</v>
-      </c>
-      <c r="P8" s="3">
-        <v>9.0530264587115503E-4</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>4.0700810072744599E-2</v>
-      </c>
-      <c r="R8" s="3">
-        <v>133.58650544767801</v>
+      <c r="B8">
+        <v>67.224299065420496</v>
+      </c>
+      <c r="C8">
+        <v>13790.127725856601</v>
+      </c>
+      <c r="D8">
+        <v>0.15143622707954499</v>
+      </c>
+      <c r="E8">
+        <v>19210.228831246099</v>
+      </c>
+      <c r="F8">
+        <v>0.562915404065223</v>
+      </c>
+      <c r="G8">
+        <v>2.0445076590462699E-2</v>
+      </c>
+      <c r="H8">
+        <v>27.180993998542601</v>
+      </c>
+      <c r="I8">
+        <v>35.438037383177502</v>
+      </c>
+      <c r="J8">
+        <v>3.9211032209132699E-3</v>
+      </c>
+      <c r="K8">
+        <v>2.0464810196956498E-3</v>
+      </c>
+      <c r="L8">
+        <v>3.4745621779695597E-2</v>
+      </c>
+      <c r="M8">
+        <v>2.3748857876563099</v>
+      </c>
+      <c r="N8">
+        <v>1.03400465670899</v>
+      </c>
+      <c r="O8">
+        <v>95.847996428119203</v>
+      </c>
+      <c r="P8">
+        <v>1.6466038302483E-3</v>
+      </c>
+      <c r="Q8">
+        <v>4.42042485312205E-2</v>
+      </c>
+      <c r="R8">
+        <v>87.960782523070307</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9" s="3">
-        <v>-200.03407155025499</v>
-      </c>
-      <c r="C9" s="3">
-        <v>31621.354344122599</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.14107669830025499</v>
-      </c>
-      <c r="E9" s="3">
-        <v>19166.753224054501</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.50948935479565005</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2.2730278919381001E-2</v>
-      </c>
-      <c r="H9" s="3">
-        <v>23.8862358368781</v>
-      </c>
-      <c r="I9" s="3">
-        <v>30.437848381601299</v>
-      </c>
-      <c r="J9" s="3">
-        <v>3.39338749316142E-3</v>
-      </c>
-      <c r="K9" s="3">
-        <v>2.0147593408052899E-3</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1.8169232012194701E-2</v>
-      </c>
-      <c r="M9" s="3">
-        <v>2.8885725198122199</v>
-      </c>
-      <c r="N9" s="3">
-        <v>3.1458665643390402</v>
-      </c>
-      <c r="O9" s="3">
-        <v>109.292987749152</v>
-      </c>
-      <c r="P9" s="3">
-        <v>1.10173159354591E-3</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>4.4166706129315697E-2</v>
-      </c>
-      <c r="R9" s="3">
-        <v>109.46314525318</v>
+      <c r="B9">
+        <v>-139.57658450704201</v>
+      </c>
+      <c r="C9">
+        <v>14928.839788732301</v>
+      </c>
+      <c r="D9">
+        <v>0.15311975672022099</v>
+      </c>
+      <c r="E9">
+        <v>18516.434552711198</v>
+      </c>
+      <c r="F9">
+        <v>0.55455098356093901</v>
+      </c>
+      <c r="G9">
+        <v>1.9452883899082701E-2</v>
+      </c>
+      <c r="H9">
+        <v>23.469186269948001</v>
+      </c>
+      <c r="I9">
+        <v>32.179621478873202</v>
+      </c>
+      <c r="J9">
+        <v>4.2843745114616201E-3</v>
+      </c>
+      <c r="K9">
+        <v>2.1940354885989399E-3</v>
+      </c>
+      <c r="L9">
+        <v>3.0909872934944699E-2</v>
+      </c>
+      <c r="M9">
+        <v>2.7090969244804599</v>
+      </c>
+      <c r="N9">
+        <v>0.92686318171579396</v>
+      </c>
+      <c r="O9">
+        <v>85.720672327233302</v>
+      </c>
+      <c r="P9">
+        <v>1.7400721167025099E-3</v>
+      </c>
+      <c r="Q9">
+        <v>5.1273399432264097E-2</v>
+      </c>
+      <c r="R9">
+        <v>66.1583763390434</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B11" s="3">
-        <v>165.71098265895901</v>
-      </c>
-      <c r="C11" s="3">
-        <v>40297.497109826501</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.15558031792642901</v>
-      </c>
-      <c r="E11" s="3">
-        <v>21328.275420968199</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0.58064862629728498</v>
-      </c>
-      <c r="G11" s="3">
-        <v>2.3328757653960901E-2</v>
-      </c>
-      <c r="H11" s="3">
-        <v>26.960290290694498</v>
-      </c>
-      <c r="I11" s="3">
-        <v>26.0934132947976</v>
-      </c>
-      <c r="J11" s="3">
-        <v>2.3345586019976701E-3</v>
-      </c>
-      <c r="K11" s="3">
-        <v>2.3007718804904302E-3</v>
-      </c>
-      <c r="L11" s="3">
-        <v>1.1833635855989099E-2</v>
-      </c>
-      <c r="M11" s="3">
-        <v>1.26440725525287</v>
-      </c>
-      <c r="N11" s="3">
-        <v>0.72912922879486697</v>
-      </c>
-      <c r="O11" s="3">
-        <v>41.5198395187941</v>
-      </c>
-      <c r="P11" s="3">
-        <v>6.2006042220203198E-4</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>4.7609287045364802E-2</v>
-      </c>
-      <c r="R11" s="3">
-        <v>88.454082909619004</v>
+      <c r="B11">
+        <v>196.473170731707</v>
+      </c>
+      <c r="C11">
+        <v>36476.658536585302</v>
+      </c>
+      <c r="D11">
+        <v>0.15666204865781599</v>
+      </c>
+      <c r="E11">
+        <v>20427.341848341399</v>
+      </c>
+      <c r="F11">
+        <v>0.51046557853376595</v>
+      </c>
+      <c r="G11">
+        <v>1.95720411048802E-2</v>
+      </c>
+      <c r="H11">
+        <v>21.7952969306833</v>
+      </c>
+      <c r="I11">
+        <v>28.859170731707302</v>
+      </c>
+      <c r="J11">
+        <v>3.3232085790642499E-3</v>
+      </c>
+      <c r="K11">
+        <v>2.2637529866715699E-3</v>
+      </c>
+      <c r="L11">
+        <v>1.85080136411469E-2</v>
+      </c>
+      <c r="M11">
+        <v>10.7090229693436</v>
+      </c>
+      <c r="N11">
+        <v>1.3753977530831301</v>
+      </c>
+      <c r="O11">
+        <v>141.753399713894</v>
+      </c>
+      <c r="P11">
+        <v>1.01538335249657E-3</v>
+      </c>
+      <c r="Q11">
+        <v>4.3261603894977199E-2</v>
+      </c>
+      <c r="R11">
+        <v>141.51643023285101</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>3</v>
       </c>
-      <c r="B12" s="3">
-        <v>-221.81046351537299</v>
-      </c>
-      <c r="C12" s="3">
-        <v>36114.647085819102</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.16908557697035301</v>
-      </c>
-      <c r="E12" s="3">
-        <v>21250.057787608901</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0.592190404779118</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2.01759608241809E-2</v>
-      </c>
-      <c r="H12" s="3">
-        <v>24.009304048727699</v>
-      </c>
-      <c r="I12" s="3">
-        <v>26.9049793483249</v>
-      </c>
-      <c r="J12" s="3">
-        <v>2.5513833941012698E-3</v>
-      </c>
-      <c r="K12" s="3">
-        <v>2.2936619404683302E-3</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1.34907990869629E-2</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1.45953028316424</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0.65671156466203096</v>
-      </c>
-      <c r="O12" s="3">
-        <v>37.661631090728598</v>
-      </c>
-      <c r="P12" s="3">
-        <v>7.6019708834509404E-4</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>5.2426121787214598E-2</v>
-      </c>
-      <c r="R12" s="3">
-        <v>82.0652891264277</v>
+      <c r="B12">
+        <v>-181.43923865300101</v>
+      </c>
+      <c r="C12">
+        <v>26847.509516837399</v>
+      </c>
+      <c r="D12">
+        <v>0.15896193296399899</v>
+      </c>
+      <c r="E12">
+        <v>19258.341729677799</v>
+      </c>
+      <c r="F12">
+        <v>0.53041533987770495</v>
+      </c>
+      <c r="G12">
+        <v>1.87554885058532E-2</v>
+      </c>
+      <c r="H12">
+        <v>21.062139208696699</v>
+      </c>
+      <c r="I12">
+        <v>28.6174963396778</v>
+      </c>
+      <c r="J12">
+        <v>3.6725401835481699E-3</v>
+      </c>
+      <c r="K12">
+        <v>2.3901396281120202E-3</v>
+      </c>
+      <c r="L12">
+        <v>1.8609188105633001E-2</v>
+      </c>
+      <c r="M12">
+        <v>10.5052035364936</v>
+      </c>
+      <c r="N12">
+        <v>1.1608667289496299</v>
+      </c>
+      <c r="O12">
+        <v>149.83958558783999</v>
+      </c>
+      <c r="P12">
+        <v>1.1915457962816099E-3</v>
+      </c>
+      <c r="Q12">
+        <v>4.6896233349175899E-2</v>
+      </c>
+      <c r="R12">
+        <v>128.53383121463301</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>4</v>
       </c>
-      <c r="B14" s="3">
-        <v>219.14450867052</v>
-      </c>
-      <c r="C14" s="3">
-        <v>40149.913294797603</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.15654417674068899</v>
-      </c>
-      <c r="E14" s="3">
-        <v>20751.4032324855</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0.50450486144259599</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1.92508404039319E-2</v>
-      </c>
-      <c r="H14" s="3">
-        <v>22.571222266656001</v>
-      </c>
-      <c r="I14" s="3">
-        <v>28.5783815028901</v>
-      </c>
-      <c r="J14" s="3">
-        <v>2.9571277712018402E-3</v>
-      </c>
-      <c r="K14" s="3">
-        <v>2.1782330022583501E-3</v>
-      </c>
-      <c r="L14" s="3">
-        <v>1.82647033998482E-2</v>
-      </c>
-      <c r="M14" s="3">
-        <v>11.5803641748772</v>
-      </c>
-      <c r="N14" s="3">
-        <v>1.4281646360268501</v>
-      </c>
-      <c r="O14" s="3">
-        <v>133.679490960864</v>
-      </c>
-      <c r="P14" s="3">
-        <v>9.5635193697134896E-4</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>4.3639964178610401E-2</v>
-      </c>
-      <c r="R14" s="3">
-        <v>150.65945600836301</v>
+      <c r="B14">
+        <v>225.29999999999899</v>
+      </c>
+      <c r="C14">
+        <v>51806.327272727198</v>
+      </c>
+      <c r="D14">
+        <v>0.220591251068708</v>
+      </c>
+      <c r="E14">
+        <v>29031.0083701363</v>
+      </c>
+      <c r="F14">
+        <v>0.73928579096666303</v>
+      </c>
+      <c r="G14">
+        <v>2.4873178324701699E-2</v>
+      </c>
+      <c r="H14">
+        <v>40.811164606518098</v>
+      </c>
+      <c r="I14">
+        <v>27.965422727272699</v>
+      </c>
+      <c r="J14">
+        <v>2.3801473206919799E-3</v>
+      </c>
+      <c r="K14">
+        <v>2.5485874635714301E-3</v>
+      </c>
+      <c r="L14">
+        <v>9.9426917108033797E-3</v>
+      </c>
+      <c r="M14">
+        <v>0.95346087777365995</v>
+      </c>
+      <c r="N14">
+        <v>0.73002219799011603</v>
+      </c>
+      <c r="O14">
+        <v>33.303404343714</v>
+      </c>
+      <c r="P14">
+        <v>5.0003400096708102E-4</v>
+      </c>
+      <c r="Q14">
+        <v>5.62819624882279E-2</v>
+      </c>
+      <c r="R14">
+        <v>488.99538470722098</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>4</v>
       </c>
-      <c r="B15" s="3">
-        <v>-190.50676982591801</v>
-      </c>
-      <c r="C15" s="3">
-        <v>29844.307543520299</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.15851866913503199</v>
-      </c>
-      <c r="E15" s="3">
-        <v>19537.151776731102</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.52806717439677198</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1.9316424298973799E-2</v>
-      </c>
-      <c r="H15" s="3">
-        <v>20.915500760460802</v>
-      </c>
-      <c r="I15" s="3">
-        <v>28.2567504835589</v>
-      </c>
-      <c r="J15" s="3">
-        <v>3.4651037313576999E-3</v>
-      </c>
-      <c r="K15" s="3">
-        <v>2.3570455335997901E-3</v>
-      </c>
-      <c r="L15" s="3">
-        <v>1.82704749837472E-2</v>
-      </c>
-      <c r="M15" s="3">
-        <v>11.759632236998399</v>
-      </c>
-      <c r="N15" s="3">
-        <v>1.20079201213774</v>
-      </c>
-      <c r="O15" s="3">
-        <v>144.675727124742</v>
-      </c>
-      <c r="P15" s="3">
-        <v>1.08177750178526E-3</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>4.6499515579815E-2</v>
-      </c>
-      <c r="R15" s="3">
-        <v>135.069045673391</v>
+      <c r="B15">
+        <v>-264.569282136894</v>
+      </c>
+      <c r="C15">
+        <v>46114.836393989899</v>
+      </c>
+      <c r="D15">
+        <v>0.23984961569982599</v>
+      </c>
+      <c r="E15">
+        <v>28488.340148681102</v>
+      </c>
+      <c r="F15">
+        <v>0.68399878993770102</v>
+      </c>
+      <c r="G15">
+        <v>2.32974294823412E-2</v>
+      </c>
+      <c r="H15">
+        <v>32.100419501179701</v>
+      </c>
+      <c r="I15">
+        <v>27.1517512520868</v>
+      </c>
+      <c r="J15">
+        <v>2.7021587629471799E-3</v>
+      </c>
+      <c r="K15">
+        <v>2.4970380371228699E-3</v>
+      </c>
+      <c r="L15">
+        <v>1.1312103764666501E-2</v>
+      </c>
+      <c r="M15">
+        <v>1.12328092054002</v>
+      </c>
+      <c r="N15">
+        <v>0.56865567678134799</v>
+      </c>
+      <c r="O15">
+        <v>30.413169349860102</v>
+      </c>
+      <c r="P15">
+        <v>6.27422348073935E-4</v>
+      </c>
+      <c r="Q15">
+        <v>6.0249429325647898E-2</v>
+      </c>
+      <c r="R15">
+        <v>485.27250043777798</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>5</v>
       </c>
-      <c r="B17" s="3">
-        <v>89.056426332288297</v>
-      </c>
-      <c r="C17" s="3">
-        <v>19350.673981191201</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0.15276458998838299</v>
-      </c>
-      <c r="E17" s="3">
-        <v>19482.065943855701</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0.51169725299193802</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1.8797816259467401E-2</v>
-      </c>
-      <c r="H17" s="3">
-        <v>20.835019607373699</v>
-      </c>
-      <c r="I17" s="3">
-        <v>31.031598746081499</v>
-      </c>
-      <c r="J17" s="3">
-        <v>4.2460703763974404E-3</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1.91988106616875E-3</v>
-      </c>
-      <c r="L17" s="3">
-        <v>2.0356889546591098E-2</v>
-      </c>
-      <c r="M17" s="3">
-        <v>2.9280274001565001</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1.11558178339156</v>
-      </c>
-      <c r="O17" s="3">
-        <v>132.369678813397</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1.5172682096336199E-3</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>4.5115759559384301E-2</v>
-      </c>
-      <c r="R17" s="3">
-        <v>101.963166421262</v>
+      <c r="B17">
+        <v>148.77467105263099</v>
+      </c>
+      <c r="C17">
+        <v>35588.633223684199</v>
+      </c>
+      <c r="D17">
+        <v>0.14937642157545</v>
+      </c>
+      <c r="E17">
+        <v>20804.770158470299</v>
+      </c>
+      <c r="F17">
+        <v>0.50865507398930698</v>
+      </c>
+      <c r="G17">
+        <v>1.94505538966302E-2</v>
+      </c>
+      <c r="H17">
+        <v>22.093937846066801</v>
+      </c>
+      <c r="I17">
+        <v>26.112401315789398</v>
+      </c>
+      <c r="J17">
+        <v>2.5419234874131001E-3</v>
+      </c>
+      <c r="K17">
+        <v>1.9804272645450901E-3</v>
+      </c>
+      <c r="L17">
+        <v>1.39890981049398E-2</v>
+      </c>
+      <c r="M17">
+        <v>1.72453018750617</v>
+      </c>
+      <c r="N17">
+        <v>0.83180796945328594</v>
+      </c>
+      <c r="O17">
+        <v>61.409776730088701</v>
+      </c>
+      <c r="P17">
+        <v>8.0121633459783901E-4</v>
+      </c>
+      <c r="Q17">
+        <v>4.5959695966722697E-2</v>
+      </c>
+      <c r="R17">
+        <v>84.354130286406303</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>5</v>
       </c>
-      <c r="B18" s="3">
-        <v>-159.611111111111</v>
-      </c>
-      <c r="C18" s="3">
-        <v>18166.9927140254</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0.15205736624431701</v>
-      </c>
-      <c r="E18" s="3">
-        <v>18705.7539720446</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0.51138641227932102</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1.84626496766058E-2</v>
-      </c>
-      <c r="H18" s="3">
-        <v>19.547660620304399</v>
-      </c>
-      <c r="I18" s="3">
-        <v>29.5500546448087</v>
-      </c>
-      <c r="J18" s="3">
-        <v>4.41546134892103E-3</v>
-      </c>
-      <c r="K18" s="3">
-        <v>2.1477244689941401E-3</v>
-      </c>
-      <c r="L18" s="3">
-        <v>1.9522984242629299E-2</v>
-      </c>
-      <c r="M18" s="3">
-        <v>3.2899959072475302</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0.99348289189728101</v>
-      </c>
-      <c r="O18" s="3">
-        <v>106.260747396517</v>
-      </c>
-      <c r="P18" s="3">
-        <v>1.6565737973614999E-3</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>5.0346607736948698E-2</v>
-      </c>
-      <c r="R18" s="3">
-        <v>75.643798854421902</v>
+      <c r="B18">
+        <v>-204.614818024263</v>
+      </c>
+      <c r="C18">
+        <v>29522.399913344801</v>
+      </c>
+      <c r="D18">
+        <v>0.16093559519766101</v>
+      </c>
+      <c r="E18">
+        <v>20449.2173397357</v>
+      </c>
+      <c r="F18">
+        <v>0.52349998223152505</v>
+      </c>
+      <c r="G18">
+        <v>1.8027522644776299E-2</v>
+      </c>
+      <c r="H18">
+        <v>20.231381264018701</v>
+      </c>
+      <c r="I18">
+        <v>26.798019930675899</v>
+      </c>
+      <c r="J18">
+        <v>2.8493069948863298E-3</v>
+      </c>
+      <c r="K18">
+        <v>2.02349855196778E-3</v>
+      </c>
+      <c r="L18">
+        <v>1.53937920221299E-2</v>
+      </c>
+      <c r="M18">
+        <v>1.93694164419835</v>
+      </c>
+      <c r="N18">
+        <v>0.74246331278468902</v>
+      </c>
+      <c r="O18">
+        <v>54.489950213812698</v>
+      </c>
+      <c r="P18">
+        <v>9.7069052066609202E-4</v>
+      </c>
+      <c r="Q18">
+        <v>5.1523349088738797E-2</v>
+      </c>
+      <c r="R18">
+        <v>72.877972830000203</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -24369,67 +24282,67 @@
       <c r="B25" s="2"/>
       <c r="C25" s="15">
         <f t="shared" ref="C25:R25" si="0">(C2/C3)-1</f>
-        <v>-2.2361362147371167E-2</v>
+        <v>0.22909919179535332</v>
       </c>
       <c r="D25" s="15">
         <f t="shared" si="0"/>
-        <v>-3.6498348617514553E-2</v>
+        <v>3.6382550652092949E-2</v>
       </c>
       <c r="E25" s="15">
         <f t="shared" si="0"/>
-        <v>4.3608381985468236E-2</v>
+        <v>9.0125200727525945E-2</v>
       </c>
       <c r="F25" s="15">
         <f t="shared" si="0"/>
-        <v>-2.8069556850598865E-2</v>
+        <v>2.9189878384101586E-3</v>
       </c>
       <c r="G25" s="15">
         <f t="shared" si="0"/>
-        <v>6.8803136598327264E-2</v>
+        <v>-4.3042958042078805E-3</v>
       </c>
       <c r="H25" s="15">
         <f t="shared" si="0"/>
-        <v>7.5068486899888764E-2</v>
+        <v>0.17816098881314479</v>
       </c>
       <c r="I25" s="15">
         <f t="shared" si="0"/>
-        <v>6.9031328926258517E-2</v>
+        <v>1.1073487309625873E-2</v>
       </c>
       <c r="J25" s="15">
         <f t="shared" ref="J25" si="1">(J2/J3)-1</f>
-        <v>-6.8063519272547723E-2</v>
+        <v>-5.4738771003485787E-2</v>
       </c>
       <c r="K25" s="15">
         <f t="shared" si="0"/>
-        <v>-9.2166052680093813E-3</v>
+        <v>-3.3656559926331653E-4</v>
       </c>
       <c r="L25" s="15">
         <f t="shared" si="0"/>
-        <v>-3.2814757917575488E-2</v>
+        <v>-7.1073423335624941E-2</v>
       </c>
       <c r="M25" s="15">
         <f t="shared" si="0"/>
-        <v>0.1084504683310521</v>
+        <v>-9.6161276220158576E-2</v>
       </c>
       <c r="N25" s="15">
         <f t="shared" si="0"/>
-        <v>0.21357607119848376</v>
+        <v>-3.2366694132117679E-3</v>
       </c>
       <c r="O25" s="15">
         <f t="shared" si="0"/>
-        <v>0.13494696022694908</v>
+        <v>0.10055050838750135</v>
       </c>
       <c r="P25" s="15">
         <f t="shared" ref="P25:Q25" si="2">(P2/P3)-1</f>
-        <v>-6.8941932546585205E-2</v>
+        <v>-0.16806709282402021</v>
       </c>
       <c r="Q25" s="15">
         <f t="shared" si="2"/>
-        <v>-0.16555938301421202</v>
+        <v>-6.4405769844172123E-2</v>
       </c>
       <c r="R25" s="15">
         <f t="shared" si="0"/>
-        <v>0.21045922516870563</v>
+        <v>0.22663851188633211</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -24439,67 +24352,67 @@
       </c>
       <c r="C26" s="15">
         <f>(C5/C6)-1</f>
-        <v>0.13984257272513756</v>
+        <v>8.36566528798941E-2</v>
       </c>
       <c r="D26" s="15">
         <f t="shared" ref="D26:R26" si="3">(D5/D6)-1</f>
-        <v>-7.9596642594295663E-2</v>
+        <v>-6.0186182889287454E-2</v>
       </c>
       <c r="E26" s="15">
         <f t="shared" si="3"/>
-        <v>-5.5258448074902988E-3</v>
+        <v>1.8081939386427326E-3</v>
       </c>
       <c r="F26" s="15">
         <f t="shared" si="3"/>
-        <v>7.6770791168738306E-2</v>
+        <v>2.536020587715182E-2</v>
       </c>
       <c r="G26" s="15">
         <f t="shared" si="3"/>
-        <v>6.1702702165945977E-2</v>
+        <v>0.11601800876587154</v>
       </c>
       <c r="H26" s="15">
         <f t="shared" si="3"/>
-        <v>0.20360319951613137</v>
+        <v>0.13731349822507077</v>
       </c>
       <c r="I26" s="15">
         <f t="shared" si="3"/>
-        <v>1.27371878183975E-2</v>
+        <v>-6.6499369478166814E-3</v>
       </c>
       <c r="J26" s="15">
         <f t="shared" ref="J26" si="4">(J5/J6)-1</f>
-        <v>-0.10353403770815772</v>
+        <v>-8.0506407707561345E-2</v>
       </c>
       <c r="K26" s="15">
         <f t="shared" si="3"/>
-        <v>1.1231675828397458E-2</v>
+        <v>-3.4650993474598879E-2</v>
       </c>
       <c r="L26" s="15">
         <f t="shared" si="3"/>
-        <v>-0.20786589700124891</v>
+        <v>-0.22484666667296915</v>
       </c>
       <c r="M26" s="15">
         <f t="shared" si="3"/>
-        <v>-0.10998303872495085</v>
+        <v>-0.1487460254898848</v>
       </c>
       <c r="N26" s="15">
         <f t="shared" si="3"/>
-        <v>0.21768908799077913</v>
+        <v>7.4562413847174547E-2</v>
       </c>
       <c r="O26" s="15">
         <f t="shared" si="3"/>
-        <v>8.9253220501512631E-2</v>
+        <v>5.0614033975793227E-3</v>
       </c>
       <c r="P26" s="15">
         <f t="shared" ref="P26:Q26" si="5">(P5/P6)-1</f>
-        <v>-0.19644031035714538</v>
+        <v>-0.1651900337451182</v>
       </c>
       <c r="Q26" s="15">
         <f t="shared" si="5"/>
-        <v>-4.4608715586735626E-2</v>
+        <v>-3.6131811647346468E-2</v>
       </c>
       <c r="R26" s="15">
         <f t="shared" si="3"/>
-        <v>-5.694215586592255E-2</v>
+        <v>7.611727723797812E-2</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -24509,67 +24422,67 @@
       </c>
       <c r="C27" s="15">
         <f>(C8/C9)-1</f>
-        <v>0.24398997142082024</v>
+        <v>-7.6275991904954044E-2</v>
       </c>
       <c r="D27" s="15">
         <f t="shared" ref="D27:R27" si="6">(D8/D9)-1</f>
-        <v>2.6232823354374712E-2</v>
+        <v>-1.0994855769997924E-2</v>
       </c>
       <c r="E27" s="15">
         <f t="shared" si="6"/>
-        <v>8.6100910795062768E-2</v>
+        <v>3.746910759519384E-2</v>
       </c>
       <c r="F27" s="15">
         <f t="shared" si="6"/>
-        <v>1.4834832717793844E-3</v>
+        <v>1.5083230852055429E-2</v>
       </c>
       <c r="G27" s="15">
         <f t="shared" si="6"/>
-        <v>9.0111558437828698E-3</v>
+        <v>5.1004915082374147E-2</v>
       </c>
       <c r="H27" s="15">
         <f t="shared" si="6"/>
-        <v>0.17828946324162653</v>
+        <v>0.15815664360496062</v>
       </c>
       <c r="I27" s="15">
         <f t="shared" si="6"/>
-        <v>1.1392985094433206E-2</v>
+        <v>0.1012571234389299</v>
       </c>
       <c r="J27" s="15">
         <f t="shared" ref="J27" si="7">(J8/J9)-1</f>
-        <v>-6.764820955944395E-2</v>
+        <v>-8.4789807608210199E-2</v>
       </c>
       <c r="K27" s="15">
         <f t="shared" si="6"/>
-        <v>-1.0790698287126532E-2</v>
+        <v>-6.7252544304793771E-2</v>
       </c>
       <c r="L27" s="15">
         <f t="shared" si="6"/>
-        <v>-9.4627884399331785E-2</v>
+        <v>0.12409461704433111</v>
       </c>
       <c r="M27" s="15">
         <f t="shared" si="6"/>
-        <v>-0.12418725859792146</v>
+        <v>-0.12336625308754645</v>
       </c>
       <c r="N27" s="15">
         <f t="shared" si="6"/>
-        <v>-3.3718807312379528E-3</v>
+        <v>0.11559578275065086</v>
       </c>
       <c r="O27" s="15">
         <f t="shared" si="6"/>
-        <v>9.2781404894237252E-2</v>
+        <v>0.11814331159496128</v>
       </c>
       <c r="P27" s="15">
         <f t="shared" ref="P27:Q27" si="8">(P8/P9)-1</f>
-        <v>-0.17829110903732071</v>
+        <v>-5.3715179708376248E-2</v>
       </c>
       <c r="Q27" s="15">
         <f t="shared" si="8"/>
-        <v>-7.8473048146794122E-2</v>
+        <v>-0.13787170305301211</v>
       </c>
       <c r="R27" s="15">
         <f t="shared" si="6"/>
-        <v>0.22037883288208548</v>
+        <v>0.32954868892633638</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -24579,67 +24492,67 @@
       </c>
       <c r="C28" s="15">
         <f>(C11/C12)-1</f>
-        <v>0.11582142874240775</v>
+        <v>0.35866079174714471</v>
       </c>
       <c r="D28" s="15">
         <f t="shared" ref="D28:R28" si="9">(D11/D12)-1</f>
-        <v>-7.9872330247848233E-2</v>
+        <v>-1.4468145066554139E-2</v>
       </c>
       <c r="E28" s="15">
         <f t="shared" si="9"/>
-        <v>3.6808197954598665E-3</v>
+        <v>6.070097493711657E-2</v>
       </c>
       <c r="F28" s="15">
         <f t="shared" si="9"/>
-        <v>-1.9489978879576708E-2</v>
+        <v>-3.7611584439731116E-2</v>
       </c>
       <c r="G28" s="15">
         <f t="shared" si="9"/>
-        <v>0.15626501544359517</v>
+        <v>4.3536727863535463E-2</v>
       </c>
       <c r="H28" s="15">
         <f t="shared" si="9"/>
-        <v>0.1229101116791087</v>
+        <v>3.480927149526547E-2</v>
       </c>
       <c r="I28" s="15">
         <f t="shared" si="9"/>
-        <v>-3.0164158203593971E-2</v>
+        <v>8.4449872609724252E-3</v>
       </c>
       <c r="J28" s="15">
         <f t="shared" ref="J28" si="10">(J11/J12)-1</f>
-        <v>-8.4983226199908946E-2</v>
+        <v>-9.5119886243536844E-2</v>
       </c>
       <c r="K28" s="15">
         <f t="shared" si="9"/>
-        <v>3.0998203774739164E-3</v>
+        <v>-5.2878350684593123E-2</v>
       </c>
       <c r="L28" s="15">
         <f t="shared" si="9"/>
-        <v>-0.12283655106651414</v>
+        <v>-5.4368016439940714E-3</v>
       </c>
       <c r="M28" s="15">
         <f t="shared" si="9"/>
-        <v>-0.1336889204438747</v>
+        <v>1.9401759532022389E-2</v>
       </c>
       <c r="N28" s="15">
         <f t="shared" si="9"/>
-        <v>0.11027316714013535</v>
+        <v>0.18480245732222089</v>
       </c>
       <c r="O28" s="15">
         <f t="shared" si="9"/>
-        <v>0.10244400776936358</v>
+        <v>-5.396561824582502E-2</v>
       </c>
       <c r="P28" s="15">
         <f t="shared" ref="P28:Q28" si="11">(P11/P12)-1</f>
-        <v>-0.18434254523143678</v>
+        <v>-0.14784361988836692</v>
       </c>
       <c r="Q28" s="15">
         <f t="shared" si="11"/>
-        <v>-9.1878525010875345E-2</v>
+        <v>-7.7503654230315133E-2</v>
       </c>
       <c r="R28" s="15">
         <f t="shared" si="9"/>
-        <v>7.7850134340584409E-2</v>
+        <v>0.10100530650594952</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -24649,67 +24562,67 @@
       </c>
       <c r="C29" s="15">
         <f>(C14/C15)-1</f>
-        <v>0.34531227559055311</v>
+        <v>0.12341995166395225</v>
       </c>
       <c r="D29" s="15">
         <f t="shared" ref="D29:R29" si="12">(D14/D15)-1</f>
-        <v>-1.2455898129330456E-2</v>
+        <v>-8.0293497969244232E-2</v>
       </c>
       <c r="E29" s="15">
         <f t="shared" si="12"/>
-        <v>6.2150894338681484E-2</v>
+        <v>1.9048783418865511E-2</v>
       </c>
       <c r="F29" s="15">
         <f t="shared" si="12"/>
-        <v>-4.4619915981507385E-2</v>
+        <v>8.0829091867249625E-2</v>
       </c>
       <c r="G29" s="15">
         <f t="shared" si="12"/>
-        <v>-3.3952399277843437E-3</v>
+        <v>6.7636167481690324E-2</v>
       </c>
       <c r="H29" s="15">
         <f t="shared" si="12"/>
-        <v>7.9162412851487618E-2</v>
+        <v>0.27135922958945358</v>
       </c>
       <c r="I29" s="15">
         <f t="shared" si="12"/>
-        <v>1.1382448930861377E-2</v>
+        <v>2.996755044017152E-2</v>
       </c>
       <c r="J29" s="15">
         <f t="shared" ref="J29" si="13">(J14/J15)-1</f>
-        <v>-0.14659762002473276</v>
+        <v>-0.11916821715685932</v>
       </c>
       <c r="K29" s="15">
         <f t="shared" si="12"/>
-        <v>-7.5862994071374201E-2</v>
+        <v>2.064422955605294E-2</v>
       </c>
       <c r="L29" s="15">
         <f t="shared" si="12"/>
-        <v>-3.1589676262577804E-4</v>
+        <v>-0.12105723942707247</v>
       </c>
       <c r="M29" s="15">
         <f t="shared" si="12"/>
-        <v>-1.5244359560597665E-2</v>
+        <v>-0.15118216615369795</v>
       </c>
       <c r="N29" s="15">
         <f t="shared" si="12"/>
-        <v>0.18935221219895038</v>
+        <v>0.28376841698322575</v>
       </c>
       <c r="O29" s="15">
         <f t="shared" si="12"/>
-        <v>-7.6006088805739003E-2</v>
+        <v>9.5032351301696627E-2</v>
       </c>
       <c r="P29" s="15">
         <f t="shared" ref="P29:Q29" si="14">(P14/P15)-1</f>
-        <v>-0.11594395761320686</v>
+        <v>-0.20303444322299247</v>
       </c>
       <c r="Q29" s="15">
         <f t="shared" si="14"/>
-        <v>-6.1496369705105081E-2</v>
+        <v>-6.5850695713246643E-2</v>
       </c>
       <c r="R29" s="15">
         <f t="shared" si="12"/>
-        <v>0.11542548670012076</v>
+        <v>7.6717396227572454E-3</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -24719,67 +24632,67 @@
       </c>
       <c r="C30" s="15">
         <f>(C17/C18)-1</f>
-        <v>6.5155597615887517E-2</v>
+        <v>0.20547900333798141</v>
       </c>
       <c r="D30" s="15">
         <f t="shared" ref="D30:R30" si="15">(D17/D18)-1</f>
-        <v>4.6510324460680152E-3</v>
+        <v>-7.1824841533745465E-2</v>
       </c>
       <c r="E30" s="15">
         <f t="shared" si="15"/>
-        <v>4.1501239296276582E-2</v>
+        <v>1.7387111341601758E-2</v>
       </c>
       <c r="F30" s="15">
         <f t="shared" si="15"/>
-        <v>6.0783920955498338E-4</v>
+        <v>-2.8357036764239507E-2</v>
       </c>
       <c r="G30" s="15">
         <f t="shared" si="15"/>
-        <v>1.8153763881805896E-2</v>
+        <v>7.8936594888496359E-2</v>
       </c>
       <c r="H30" s="15">
         <f t="shared" si="15"/>
-        <v>6.5857445147789351E-2</v>
+        <v>9.2062749336874861E-2</v>
       </c>
       <c r="I30" s="15">
         <f t="shared" si="15"/>
-        <v>5.0136763504532889E-2</v>
+        <v>-2.5584674414756536E-2</v>
       </c>
       <c r="J30" s="15">
         <f t="shared" ref="J30" si="16">(J17/J18)-1</f>
-        <v>-3.8363142407527251E-2</v>
+        <v>-0.1078800943615037</v>
       </c>
       <c r="K30" s="15">
         <f t="shared" si="15"/>
-        <v>-0.10608595567759105</v>
+        <v>-2.128555386452069E-2</v>
       </c>
       <c r="L30" s="15">
         <f>(L17/L18)-1</f>
-        <v>4.2714028429164497E-2</v>
+        <v>-9.125067528330455E-2</v>
       </c>
       <c r="M30" s="15">
         <f>(M17/M18)-1</f>
-        <v>-0.11002095968984338</v>
+        <v>-0.10966332275853963</v>
       </c>
       <c r="N30" s="15">
         <f t="shared" si="15"/>
-        <v>0.12289984305729051</v>
+        <v>0.12033544975239274</v>
       </c>
       <c r="O30" s="15">
         <f t="shared" si="15"/>
-        <v>0.24570626554557617</v>
+        <v>0.12699271130040213</v>
       </c>
       <c r="P30" s="15">
         <f t="shared" ref="P30:Q30" si="17">(P17/P18)-1</f>
-        <v>-8.4092593973029373E-2</v>
+        <v>-0.17459136816537479</v>
       </c>
       <c r="Q30" s="15">
         <f t="shared" si="17"/>
-        <v>-0.10389673530527754</v>
+        <v>-0.10798314202040338</v>
       </c>
       <c r="R30" s="15">
         <f t="shared" si="15"/>
-        <v>0.34793820465696434</v>
+        <v>0.15747086548601064</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -24788,66 +24701,66 @@
       </c>
       <c r="C31" s="47">
         <f>AVERAGE(C25:C30)</f>
-        <v>0.14796008065790583</v>
+        <v>0.15400659991989529</v>
       </c>
       <c r="D31" s="47">
         <f t="shared" ref="D31:R31" si="18">AVERAGE(D25:D30)</f>
-        <v>-2.9589893964757696E-2</v>
+        <v>-3.3564162096122709E-2</v>
       </c>
       <c r="E31" s="47">
         <f t="shared" si="18"/>
-        <v>3.8586066900576442E-2</v>
+        <v>3.7756561993157724E-2</v>
       </c>
       <c r="F31" s="47">
         <f t="shared" si="18"/>
-        <v>-2.2195563436017141E-3</v>
+        <v>9.7038158718160683E-3</v>
       </c>
       <c r="G31" s="47">
         <f t="shared" si="18"/>
-        <v>5.1756755667612141E-2</v>
+        <v>5.8804686379626658E-2</v>
       </c>
       <c r="H31" s="47">
         <f t="shared" si="18"/>
-        <v>0.12081518655600539</v>
+        <v>0.14531039684412836</v>
       </c>
       <c r="I31" s="47">
         <f t="shared" si="18"/>
-        <v>2.0752759345148253E-2</v>
+        <v>1.9751422847854416E-2</v>
       </c>
       <c r="J31" s="47">
         <v>3.7582281853761536E-2</v>
       </c>
       <c r="K31" s="47">
         <f t="shared" si="18"/>
-        <v>-3.1270792849704965E-2</v>
+        <v>-2.5959963061952807E-2</v>
       </c>
       <c r="L31" s="47">
         <f t="shared" si="18"/>
-        <v>-6.9291159786355264E-2</v>
+        <v>-6.4928364886439008E-2</v>
       </c>
       <c r="M31" s="47">
         <f t="shared" si="18"/>
-        <v>-6.4112344781022665E-2</v>
+        <v>-0.10161954736296751</v>
       </c>
       <c r="N31" s="47">
         <f t="shared" si="18"/>
-        <v>0.14173641680906687</v>
+        <v>0.12930464187374216</v>
       </c>
       <c r="O31" s="47">
         <f t="shared" si="18"/>
-        <v>9.8187628355316622E-2</v>
+        <v>6.530244462271928E-2</v>
       </c>
       <c r="P31" s="47">
         <f t="shared" si="18"/>
-        <v>-0.13800874145978739</v>
+        <v>-0.15207362292570814</v>
       </c>
       <c r="Q31" s="47">
         <f t="shared" si="18"/>
-        <v>-9.0985462794833286E-2</v>
+        <v>-8.162446275141598E-2</v>
       </c>
       <c r="R31" s="47">
         <f t="shared" si="18"/>
-        <v>0.15251828798042302</v>
+        <v>0.14974206494422734</v>
       </c>
     </row>
   </sheetData>

--- a/migforecasting/clustering/AN-method.xlsx
+++ b/migforecasting/clustering/AN-method.xlsx
@@ -18,15 +18,6 @@
     <sheet name="Прогноз поселения" sheetId="4" r:id="rId4"/>
     <sheet name="Анализ совместный" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Анализ совместный'!$C$24:$R$24</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Анализ совместный'!$C$25:$R$25</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Анализ совместный'!$C$26:$R$26</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Анализ совместный'!$C$27:$R$27</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Анализ совместный'!$C$28:$R$28</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Анализ совместный'!$C$29:$R$29</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Анализ совместный'!$C$30:$R$30</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
@@ -465,7 +456,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -629,6 +620,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1632,7 +1626,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2708,7 +2701,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3714,6 +3706,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4718,6 +4711,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18589,7 +18583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
@@ -21706,7 +21700,7 @@
   <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+      <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22718,7 +22712,7 @@
       <c r="S22" s="51">
         <v>-108.99000000000009</v>
       </c>
-      <c r="T22" s="52">
+      <c r="T22" s="61">
         <v>-119.38</v>
       </c>
       <c r="U22" s="51">
@@ -22786,7 +22780,7 @@
       <c r="S23" s="51">
         <v>-185.66</v>
       </c>
-      <c r="T23" s="52">
+      <c r="T23" s="61">
         <v>-186.2299999999999</v>
       </c>
       <c r="U23" s="51">
@@ -23082,6 +23076,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C3">
+    <cfRule type="colorScale" priority="160">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D3">
     <cfRule type="colorScale" priority="159">
       <colorScale>
         <cfvo type="min"/>
@@ -23093,7 +23099,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D3">
+  <conditionalFormatting sqref="E2:E3">
     <cfRule type="colorScale" priority="158">
       <colorScale>
         <cfvo type="min"/>
@@ -23105,7 +23111,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="F2:F3">
     <cfRule type="colorScale" priority="157">
       <colorScale>
         <cfvo type="min"/>
@@ -23117,7 +23123,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F3">
+  <conditionalFormatting sqref="G2:G3">
     <cfRule type="colorScale" priority="156">
       <colorScale>
         <cfvo type="min"/>
@@ -23129,7 +23135,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G3">
+  <conditionalFormatting sqref="H2:H3">
     <cfRule type="colorScale" priority="155">
       <colorScale>
         <cfvo type="min"/>
@@ -23141,7 +23147,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H3">
+  <conditionalFormatting sqref="I2:I3">
     <cfRule type="colorScale" priority="154">
       <colorScale>
         <cfvo type="min"/>
@@ -23153,7 +23159,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I3">
+  <conditionalFormatting sqref="J2:J3">
     <cfRule type="colorScale" priority="153">
       <colorScale>
         <cfvo type="min"/>
@@ -23165,7 +23171,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J3">
+  <conditionalFormatting sqref="K2:K3">
     <cfRule type="colorScale" priority="152">
       <colorScale>
         <cfvo type="min"/>
@@ -23177,7 +23183,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K3">
+  <conditionalFormatting sqref="L2:L3">
     <cfRule type="colorScale" priority="151">
       <colorScale>
         <cfvo type="min"/>
@@ -23189,7 +23195,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L3">
+  <conditionalFormatting sqref="M2:M3">
     <cfRule type="colorScale" priority="150">
       <colorScale>
         <cfvo type="min"/>
@@ -23201,7 +23207,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M3">
+  <conditionalFormatting sqref="N2:N3">
     <cfRule type="colorScale" priority="149">
       <colorScale>
         <cfvo type="min"/>
@@ -23213,7 +23219,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N3">
+  <conditionalFormatting sqref="O2:O3">
     <cfRule type="colorScale" priority="148">
       <colorScale>
         <cfvo type="min"/>
@@ -23225,7 +23231,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O3">
+  <conditionalFormatting sqref="P2:P3">
     <cfRule type="colorScale" priority="147">
       <colorScale>
         <cfvo type="min"/>
@@ -23237,7 +23243,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P3">
+  <conditionalFormatting sqref="Q2:Q3">
     <cfRule type="colorScale" priority="146">
       <colorScale>
         <cfvo type="min"/>
@@ -23249,7 +23255,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q3">
+  <conditionalFormatting sqref="R2:R3">
     <cfRule type="colorScale" priority="145">
       <colorScale>
         <cfvo type="min"/>
@@ -23261,7 +23267,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R3">
+  <conditionalFormatting sqref="E4">
     <cfRule type="colorScale" priority="144">
       <colorScale>
         <cfvo type="min"/>
@@ -23273,7 +23279,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="G4">
     <cfRule type="colorScale" priority="143">
       <colorScale>
         <cfvo type="min"/>
@@ -23285,7 +23291,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
+  <conditionalFormatting sqref="H4">
     <cfRule type="colorScale" priority="142">
       <colorScale>
         <cfvo type="min"/>
@@ -23297,7 +23303,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
+  <conditionalFormatting sqref="I4">
     <cfRule type="colorScale" priority="141">
       <colorScale>
         <cfvo type="min"/>
@@ -23309,7 +23315,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
+  <conditionalFormatting sqref="P4">
     <cfRule type="colorScale" priority="140">
       <colorScale>
         <cfvo type="min"/>
@@ -23321,7 +23327,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P4">
+  <conditionalFormatting sqref="C7:C8">
     <cfRule type="colorScale" priority="139">
       <colorScale>
         <cfvo type="min"/>
@@ -23333,7 +23339,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:C8">
+  <conditionalFormatting sqref="D7:D8">
     <cfRule type="colorScale" priority="138">
       <colorScale>
         <cfvo type="min"/>
@@ -23345,7 +23351,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D8">
+  <conditionalFormatting sqref="E7:E8">
     <cfRule type="colorScale" priority="137">
       <colorScale>
         <cfvo type="min"/>
@@ -23357,7 +23363,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7:E8">
+  <conditionalFormatting sqref="F7:F8">
     <cfRule type="colorScale" priority="136">
       <colorScale>
         <cfvo type="min"/>
@@ -23369,7 +23375,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7:F8">
+  <conditionalFormatting sqref="G7:G8">
     <cfRule type="colorScale" priority="135">
       <colorScale>
         <cfvo type="min"/>
@@ -23381,7 +23387,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:G8">
+  <conditionalFormatting sqref="H7:H8">
     <cfRule type="colorScale" priority="134">
       <colorScale>
         <cfvo type="min"/>
@@ -23393,7 +23399,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:H8">
+  <conditionalFormatting sqref="I7:I8">
     <cfRule type="colorScale" priority="133">
       <colorScale>
         <cfvo type="min"/>
@@ -23405,7 +23411,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:I8">
+  <conditionalFormatting sqref="J7:J8">
     <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="min"/>
@@ -23417,7 +23423,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7:J8">
+  <conditionalFormatting sqref="K7:K8">
     <cfRule type="colorScale" priority="131">
       <colorScale>
         <cfvo type="min"/>
@@ -23429,7 +23435,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:K8">
+  <conditionalFormatting sqref="L7:L8">
     <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="min"/>
@@ -23441,7 +23447,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7:L8">
+  <conditionalFormatting sqref="M7:M8">
     <cfRule type="colorScale" priority="129">
       <colorScale>
         <cfvo type="min"/>
@@ -23453,7 +23459,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M7:M8">
+  <conditionalFormatting sqref="N7:N8">
     <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="min"/>
@@ -23465,7 +23471,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N7:N8">
+  <conditionalFormatting sqref="O7:O8">
     <cfRule type="colorScale" priority="127">
       <colorScale>
         <cfvo type="min"/>
@@ -23477,7 +23483,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O7:O8">
+  <conditionalFormatting sqref="P7:P8">
     <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="min"/>
@@ -23489,7 +23495,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P7:P8">
+  <conditionalFormatting sqref="Q7:Q8">
     <cfRule type="colorScale" priority="125">
       <colorScale>
         <cfvo type="min"/>
@@ -23501,7 +23507,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q7:Q8">
+  <conditionalFormatting sqref="R7:R8">
     <cfRule type="colorScale" priority="124">
       <colorScale>
         <cfvo type="min"/>
@@ -23513,7 +23519,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R7:R8">
+  <conditionalFormatting sqref="F9">
     <cfRule type="colorScale" priority="123">
       <colorScale>
         <cfvo type="min"/>
@@ -23525,7 +23531,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
+  <conditionalFormatting sqref="G9">
     <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="min"/>
@@ -23537,7 +23543,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
+  <conditionalFormatting sqref="H9">
     <cfRule type="colorScale" priority="121">
       <colorScale>
         <cfvo type="min"/>
@@ -23549,7 +23555,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
+  <conditionalFormatting sqref="N9">
     <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="min"/>
@@ -23561,7 +23567,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N9">
+  <conditionalFormatting sqref="C12:C13">
     <cfRule type="colorScale" priority="119">
       <colorScale>
         <cfvo type="min"/>
@@ -23573,7 +23579,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C13">
+  <conditionalFormatting sqref="D12:D13">
     <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="min"/>
@@ -23585,7 +23591,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:D13">
+  <conditionalFormatting sqref="E12:E13">
     <cfRule type="colorScale" priority="117">
       <colorScale>
         <cfvo type="min"/>
@@ -23597,7 +23603,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E13">
+  <conditionalFormatting sqref="F12:F13">
     <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="min"/>
@@ -23609,7 +23615,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12:F13">
+  <conditionalFormatting sqref="G12:G13">
     <cfRule type="colorScale" priority="115">
       <colorScale>
         <cfvo type="min"/>
@@ -23621,7 +23627,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G13">
+  <conditionalFormatting sqref="H12:H13">
     <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="min"/>
@@ -23633,7 +23639,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H13">
+  <conditionalFormatting sqref="I12:I13">
     <cfRule type="colorScale" priority="113">
       <colorScale>
         <cfvo type="min"/>
@@ -23645,7 +23651,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I13">
+  <conditionalFormatting sqref="J12:J13">
     <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="min"/>
@@ -23657,7 +23663,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12:J13">
+  <conditionalFormatting sqref="K12:K13">
     <cfRule type="colorScale" priority="111">
       <colorScale>
         <cfvo type="min"/>
@@ -23669,7 +23675,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:K13">
+  <conditionalFormatting sqref="L12:L13">
     <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="min"/>
@@ -23681,7 +23687,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L12:L13">
+  <conditionalFormatting sqref="M12:M13">
     <cfRule type="colorScale" priority="109">
       <colorScale>
         <cfvo type="min"/>
@@ -23693,7 +23699,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M12:M13">
+  <conditionalFormatting sqref="N12:N13">
     <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="min"/>
@@ -23705,7 +23711,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N12:N13">
+  <conditionalFormatting sqref="O12:O13">
     <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min"/>
@@ -23717,7 +23723,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O12:O13">
+  <conditionalFormatting sqref="P12:P13">
     <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="min"/>
@@ -23729,7 +23735,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P12:P13">
+  <conditionalFormatting sqref="Q12:Q13">
     <cfRule type="colorScale" priority="105">
       <colorScale>
         <cfvo type="min"/>
@@ -23741,7 +23747,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q12:Q13">
+  <conditionalFormatting sqref="R12:R13">
     <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="min"/>
@@ -23753,7 +23759,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R12:R13">
+  <conditionalFormatting sqref="E14">
     <cfRule type="colorScale" priority="103">
       <colorScale>
         <cfvo type="min"/>
@@ -23765,7 +23771,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
+  <conditionalFormatting sqref="H14">
     <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="min"/>
@@ -23777,7 +23783,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
+  <conditionalFormatting sqref="I14">
     <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="min"/>
@@ -23789,7 +23795,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
+  <conditionalFormatting sqref="L14">
     <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="min"/>
@@ -23801,7 +23807,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
+  <conditionalFormatting sqref="M14">
     <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="min"/>
@@ -23813,7 +23819,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14">
+  <conditionalFormatting sqref="N14">
     <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="min"/>
@@ -23825,7 +23831,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N14">
+  <conditionalFormatting sqref="O14">
     <cfRule type="colorScale" priority="97">
       <colorScale>
         <cfvo type="min"/>
@@ -23837,7 +23843,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O14">
+  <conditionalFormatting sqref="P14">
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="min"/>
@@ -23849,7 +23855,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P14">
+  <conditionalFormatting sqref="R14">
     <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
@@ -23861,7 +23867,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R14">
+  <conditionalFormatting sqref="C17:C18">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
@@ -23873,7 +23879,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C18">
+  <conditionalFormatting sqref="D17:D18">
     <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
@@ -23885,7 +23891,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D18">
+  <conditionalFormatting sqref="E17:E18">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
@@ -23897,7 +23903,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E18">
+  <conditionalFormatting sqref="F17:F18">
     <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="min"/>
@@ -23909,7 +23915,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17:F18">
+  <conditionalFormatting sqref="G17:G18">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min"/>
@@ -23921,7 +23927,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17:G18">
+  <conditionalFormatting sqref="H17:H18">
     <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min"/>
@@ -23933,7 +23939,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17:H18">
+  <conditionalFormatting sqref="I17:I18">
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min"/>
@@ -23945,7 +23951,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17:I18">
+  <conditionalFormatting sqref="J17:J18">
     <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="min"/>
@@ -23957,7 +23963,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17:J18">
+  <conditionalFormatting sqref="K17:K18">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
@@ -23969,7 +23975,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:K18">
+  <conditionalFormatting sqref="L17:L18">
     <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="min"/>
@@ -23981,7 +23987,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L17:L18">
+  <conditionalFormatting sqref="M17:M18">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
@@ -23993,7 +23999,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M17:M18">
+  <conditionalFormatting sqref="N17:N18">
     <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
@@ -24005,7 +24011,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N17:N18">
+  <conditionalFormatting sqref="O17:O18">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
@@ -24017,7 +24023,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O17:O18">
+  <conditionalFormatting sqref="P17:P18">
     <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
@@ -24029,7 +24035,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P17:P18">
+  <conditionalFormatting sqref="Q17:Q18">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
@@ -24041,7 +24047,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q17:Q18">
+  <conditionalFormatting sqref="R17:R18">
     <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
@@ -24053,7 +24059,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R17:R18">
+  <conditionalFormatting sqref="D19">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
@@ -24065,7 +24071,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
+  <conditionalFormatting sqref="E19">
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
@@ -24077,7 +24083,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
+  <conditionalFormatting sqref="G19">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
@@ -24089,7 +24095,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
+  <conditionalFormatting sqref="H19">
     <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
@@ -24101,7 +24107,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
+  <conditionalFormatting sqref="J19">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
@@ -24113,7 +24119,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
+  <conditionalFormatting sqref="K19">
     <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
@@ -24125,7 +24131,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19">
+  <conditionalFormatting sqref="P19">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
@@ -24137,7 +24143,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P19">
+  <conditionalFormatting sqref="C22:C23">
     <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
@@ -24149,7 +24155,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C23">
+  <conditionalFormatting sqref="D22:D23">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
@@ -24161,7 +24167,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D23">
+  <conditionalFormatting sqref="E22:E23">
     <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
@@ -24173,7 +24179,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22:E23">
+  <conditionalFormatting sqref="F22:F23">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
@@ -24185,7 +24191,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:F23">
+  <conditionalFormatting sqref="G22:G23">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
@@ -24197,7 +24203,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22:G23">
+  <conditionalFormatting sqref="H22:H23">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -24209,7 +24215,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22:H23">
+  <conditionalFormatting sqref="I22:I23">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -24221,7 +24227,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22:I23">
+  <conditionalFormatting sqref="J22:J23">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -24233,7 +24239,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22:J23">
+  <conditionalFormatting sqref="K22:K23">
     <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
@@ -24245,7 +24251,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:K23">
+  <conditionalFormatting sqref="L22:L23">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
@@ -24257,7 +24263,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L22:L23">
+  <conditionalFormatting sqref="M22:M23">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
@@ -24269,7 +24275,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M22:M23">
+  <conditionalFormatting sqref="N22:N23">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -24281,7 +24287,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N22:N23">
+  <conditionalFormatting sqref="O22:O23">
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
@@ -24293,7 +24299,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O22:O23">
+  <conditionalFormatting sqref="P22:P23">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -24305,7 +24311,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P22:P23">
+  <conditionalFormatting sqref="Q22:Q23">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -24317,7 +24323,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q22:Q23">
+  <conditionalFormatting sqref="R22:R23">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -24329,7 +24335,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R22:R23">
+  <conditionalFormatting sqref="E24">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -24341,7 +24347,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
+  <conditionalFormatting sqref="F24">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -24353,7 +24359,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
+  <conditionalFormatting sqref="H24">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -24365,7 +24371,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
+  <conditionalFormatting sqref="I24">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -24377,7 +24383,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
+  <conditionalFormatting sqref="J24">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -24389,7 +24395,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J24">
+  <conditionalFormatting sqref="K24">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -24401,7 +24407,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
+  <conditionalFormatting sqref="M24">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -24413,7 +24419,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M24">
+  <conditionalFormatting sqref="N24">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -24425,7 +24431,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N24">
+  <conditionalFormatting sqref="O24">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -24437,7 +24443,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O24">
+  <conditionalFormatting sqref="Q24">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -24449,7 +24455,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q24">
+  <conditionalFormatting sqref="R24">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -24461,7 +24467,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R24">
+  <conditionalFormatting sqref="C27:C28">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -24473,7 +24479,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C28">
+  <conditionalFormatting sqref="D27:D28">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -24485,7 +24491,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D28">
+  <conditionalFormatting sqref="E27:E28">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -24497,7 +24503,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E28">
+  <conditionalFormatting sqref="F27:F28">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -24509,7 +24515,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F28">
+  <conditionalFormatting sqref="G27:G28">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -24521,7 +24527,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27:G28">
+  <conditionalFormatting sqref="H27:H28">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -24533,7 +24539,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27:H28">
+  <conditionalFormatting sqref="I27:I28">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -24545,7 +24551,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27:I28">
+  <conditionalFormatting sqref="J27:J28">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -24557,7 +24563,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J27:J28">
+  <conditionalFormatting sqref="K27:K28">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -24569,7 +24575,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27:K28">
+  <conditionalFormatting sqref="L27:L28">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -24581,7 +24587,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L27:L28">
+  <conditionalFormatting sqref="M27:M28">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -24593,7 +24599,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M27:M28">
+  <conditionalFormatting sqref="N27:N28">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -24605,7 +24611,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N27:N28">
+  <conditionalFormatting sqref="O27:O28">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -24617,7 +24623,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O27:O28">
+  <conditionalFormatting sqref="P27:P28">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -24629,7 +24635,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P27:P28">
+  <conditionalFormatting sqref="Q27:Q28">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -24641,7 +24647,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q27:Q28">
+  <conditionalFormatting sqref="R27:R28">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -24653,7 +24659,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R27:R28">
+  <conditionalFormatting sqref="F29">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -24665,7 +24671,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
+  <conditionalFormatting sqref="G29">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -24677,7 +24683,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+  <conditionalFormatting sqref="H29">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -24689,7 +24695,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
+  <conditionalFormatting sqref="I29">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -24701,7 +24707,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
+  <conditionalFormatting sqref="J29">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -24713,7 +24719,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J29">
+  <conditionalFormatting sqref="K29">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -24725,7 +24731,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29">
+  <conditionalFormatting sqref="L29">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -24737,7 +24743,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L29">
+  <conditionalFormatting sqref="N29">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -24749,7 +24755,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N29">
+  <conditionalFormatting sqref="S2:S4">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -24761,7 +24767,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S4">
+  <conditionalFormatting sqref="S7:S9">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -24773,7 +24779,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S7:S9">
+  <conditionalFormatting sqref="S17">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -24785,7 +24791,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S17">
+  <conditionalFormatting sqref="S22:S24">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -24797,7 +24803,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S22:S24">
+  <conditionalFormatting sqref="S27:S29">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -24809,7 +24815,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S27:S29">
+  <conditionalFormatting sqref="T7:T9">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -24821,7 +24827,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T7:T9">
+  <conditionalFormatting sqref="T17:T19">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -24833,7 +24839,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T17:T19">
+  <conditionalFormatting sqref="T27:T29">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -24845,7 +24851,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T27:T29">
+  <conditionalFormatting sqref="V7:V9">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -24857,7 +24863,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V7:V9">
+  <conditionalFormatting sqref="V22:V24">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -24869,7 +24875,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V22:V24">
+  <conditionalFormatting sqref="V27:V29">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -24881,7 +24887,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V27:V29">
+  <conditionalFormatting sqref="U7:U9">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -24893,7 +24899,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U7:U9">
+  <conditionalFormatting sqref="U13:U14">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -24905,7 +24911,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U13:U14">
+  <conditionalFormatting sqref="U17:U19">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -24917,7 +24923,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U17:U19">
+  <conditionalFormatting sqref="U22:U23">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -24929,7 +24935,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U22:U23">
+  <conditionalFormatting sqref="U27:U29">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -24941,7 +24947,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U27:U29">
+  <conditionalFormatting sqref="S17:S18">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -24953,7 +24959,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S17:S18">
+  <conditionalFormatting sqref="V17:V18">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -24965,7 +24971,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V17:V18">
+  <conditionalFormatting sqref="V12:V13">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -24977,7 +24983,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V12:V13">
+  <conditionalFormatting sqref="T22:T23">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -24998,8 +25004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AK40" sqref="AK40"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25225,23 +25231,23 @@
         <v>101102.97564972579</v>
       </c>
       <c r="AG2" s="5">
-        <f>N2*$C2</f>
+        <f t="shared" ref="AG2:AK3" si="0">N2*$C2</f>
         <v>120574.19315861978</v>
       </c>
       <c r="AH2" s="5">
-        <f>O2*$C2</f>
+        <f t="shared" si="0"/>
         <v>4717355.206267274</v>
       </c>
       <c r="AI2" s="5">
-        <f>P2*$C2</f>
+        <f t="shared" si="0"/>
         <v>35.752251160859089</v>
       </c>
       <c r="AJ2" s="5">
-        <f>Q2*$C2</f>
+        <f t="shared" si="0"/>
         <v>1599.1393204301278</v>
       </c>
       <c r="AK2" s="5">
-        <f>R2*$C2</f>
+        <f t="shared" si="0"/>
         <v>5013077.512856801</v>
       </c>
     </row>
@@ -25341,23 +25347,23 @@
         <v>91009.360062225765</v>
       </c>
       <c r="AG3" s="5">
-        <f>N3*$C3</f>
+        <f t="shared" si="0"/>
         <v>98418.191151287509</v>
       </c>
       <c r="AH3" s="5">
-        <f>O3*$C3</f>
+        <f t="shared" si="0"/>
         <v>3487399.2276362171</v>
       </c>
       <c r="AI3" s="5">
-        <f>P3*$C3</f>
+        <f t="shared" si="0"/>
         <v>34.964567159816269</v>
       </c>
       <c r="AJ3" s="5">
-        <f>Q3*$C3</f>
+        <f t="shared" si="0"/>
         <v>1390.6307683498012</v>
       </c>
       <c r="AK3" s="5">
-        <f>R3*$C3</f>
+        <f t="shared" si="0"/>
         <v>3325070.7526296591</v>
       </c>
     </row>
@@ -25492,23 +25498,23 @@
         <v>28977.998578687864</v>
       </c>
       <c r="AG5" s="5">
-        <f>N5*$C5</f>
+        <f t="shared" ref="AG5:AK6" si="1">N5*$C5</f>
         <v>24766.251315762191</v>
       </c>
       <c r="AH5" s="5">
-        <f>O5*$C5</f>
+        <f t="shared" si="1"/>
         <v>827690.06333850382</v>
       </c>
       <c r="AI5" s="5">
-        <f>P5*$C5</f>
+        <f t="shared" si="1"/>
         <v>21.095615783084529</v>
       </c>
       <c r="AJ5" s="5">
-        <f>Q5*$C5</f>
+        <f t="shared" si="1"/>
         <v>2896.8590066809597</v>
       </c>
       <c r="AK5" s="5">
-        <f>R5*$C5</f>
+        <f t="shared" si="1"/>
         <v>8379778.1909793671</v>
       </c>
     </row>
@@ -25608,23 +25614,23 @@
         <v>31413.58720617303</v>
       </c>
       <c r="AG6" s="5">
-        <f>N6*$C6</f>
+        <f t="shared" si="1"/>
         <v>21268.503269140554</v>
       </c>
       <c r="AH6" s="5">
-        <f>O6*$C6</f>
+        <f t="shared" si="1"/>
         <v>759947.24405907537</v>
       </c>
       <c r="AI6" s="5">
-        <f>P6*$C6</f>
+        <f t="shared" si="1"/>
         <v>23.319158816485647</v>
       </c>
       <c r="AJ6" s="5">
-        <f>Q6*$C6</f>
+        <f t="shared" si="1"/>
         <v>2773.4351124873888</v>
       </c>
       <c r="AK6" s="5">
-        <f>R6*$C6</f>
+        <f t="shared" si="1"/>
         <v>7185900.798823663</v>
       </c>
     </row>
@@ -25759,23 +25765,23 @@
         <v>32749.978346102071</v>
       </c>
       <c r="AG8" s="5">
-        <f>N8*$C8</f>
+        <f t="shared" ref="AG8:AK9" si="2">N8*$C8</f>
         <v>14259.056285147479</v>
       </c>
       <c r="AH8" s="5">
-        <f>O8*$C8</f>
+        <f t="shared" si="2"/>
         <v>1321756.1130112109</v>
       </c>
       <c r="AI8" s="5">
-        <f>P8*$C8</f>
+        <f t="shared" si="2"/>
         <v>22.706877133008756</v>
       </c>
       <c r="AJ8" s="5">
-        <f>Q8*$C8</f>
+        <f t="shared" si="2"/>
         <v>609.58223327103974</v>
       </c>
       <c r="AK8" s="5">
-        <f>R8*$C8</f>
+        <f t="shared" si="2"/>
         <v>1212990.4258594345</v>
       </c>
     </row>
@@ -25875,23 +25881,23 @@
         <v>40443.673957716193</v>
       </c>
       <c r="AG9" s="5">
-        <f>N9*$C9</f>
+        <f t="shared" si="2"/>
         <v>13836.991945909762</v>
       </c>
       <c r="AH9" s="5">
-        <f>O9*$C9</f>
+        <f t="shared" si="2"/>
         <v>1279710.1837556844</v>
       </c>
       <c r="AI9" s="5">
-        <f>P9*$C9</f>
+        <f t="shared" si="2"/>
         <v>25.977257851092066</v>
       </c>
       <c r="AJ9" s="5">
-        <f>Q9*$C9</f>
+        <f t="shared" si="2"/>
         <v>765.45236554794838</v>
       </c>
       <c r="AK9" s="5">
-        <f>R9*$C9</f>
+        <f t="shared" si="2"/>
         <v>987667.80104823667</v>
       </c>
     </row>
@@ -26026,23 +26032,23 @@
         <v>390629.37411319534</v>
       </c>
       <c r="AG11" s="5">
-        <f>N11*$C11</f>
+        <f t="shared" ref="AG11:AK12" si="3">N11*$C11</f>
         <v>50169.914191199998</v>
       </c>
       <c r="AH11" s="5">
-        <f>O11*$C11</f>
+        <f t="shared" si="3"/>
         <v>5170690.3577637998</v>
       </c>
       <c r="AI11" s="5">
-        <f>P11*$C11</f>
+        <f t="shared" si="3"/>
         <v>37.037791832750614</v>
       </c>
       <c r="AJ11" s="5">
-        <f>Q11*$C11</f>
+        <f t="shared" si="3"/>
         <v>1578.0387530220921</v>
       </c>
       <c r="AK11" s="5">
-        <f>R11*$C11</f>
+        <f t="shared" si="3"/>
         <v>5162046.5029202029</v>
       </c>
     </row>
@@ -26142,23 +26148,23 @@
         <v>282038.5519223258</v>
       </c>
       <c r="AG12" s="5">
-        <f>N12*$C12</f>
+        <f t="shared" si="3"/>
         <v>31166.38055325509</v>
       </c>
       <c r="AH12" s="5">
-        <f>O12*$C12</f>
+        <f t="shared" si="3"/>
         <v>4022819.7000685059</v>
       </c>
       <c r="AI12" s="5">
-        <f>P12*$C12</f>
+        <f t="shared" si="3"/>
         <v>31.990037105418118</v>
       </c>
       <c r="AJ12" s="5">
-        <f>Q12*$C12</f>
+        <f t="shared" si="3"/>
         <v>1259.0470711458274</v>
       </c>
       <c r="AK12" s="5">
-        <f>R12*$C12</f>
+        <f t="shared" si="3"/>
         <v>3450813.2567704315</v>
       </c>
     </row>
@@ -26293,23 +26299,23 @@
         <v>49395.306275683972</v>
       </c>
       <c r="AG14" s="5">
-        <f>N14*$C14</f>
+        <f t="shared" ref="AG14:AK15" si="4">N14*$C14</f>
         <v>37819.7689054316</v>
       </c>
       <c r="AH14" s="5">
-        <f>O14*$C14</f>
+        <f t="shared" si="4"/>
         <v>1725327.0647264121</v>
       </c>
       <c r="AI14" s="5">
-        <f>P14*$C14</f>
+        <f t="shared" si="4"/>
         <v>25.904925101591786</v>
       </c>
       <c r="AJ14" s="5">
-        <f>Q14*$C14</f>
+        <f t="shared" si="4"/>
         <v>2915.7617682164901</v>
       </c>
       <c r="AK14" s="5">
-        <f>R14*$C14</f>
+        <f t="shared" si="4"/>
         <v>25333054.934995431</v>
       </c>
     </row>
@@ -26409,23 +26415,23 @@
         <v>51799.915875193394</v>
       </c>
       <c r="AG15" s="5">
-        <f>N15*$C15</f>
+        <f t="shared" si="4"/>
         <v>26223.463499285463</v>
       </c>
       <c r="AH15" s="5">
-        <f>O15*$C15</f>
+        <f t="shared" si="4"/>
         <v>1402498.3287915068</v>
       </c>
       <c r="AI15" s="5">
-        <f>P15*$C15</f>
+        <f t="shared" si="4"/>
         <v>28.933478931362497</v>
       </c>
       <c r="AJ15" s="5">
-        <f>Q15*$C15</f>
+        <f t="shared" si="4"/>
         <v>2778.3925761835098</v>
       </c>
       <c r="AK15" s="5">
-        <f>R15*$C15</f>
+        <f t="shared" si="4"/>
         <v>22378261.964190524</v>
       </c>
     </row>
@@ -26560,23 +26566,23 @@
         <v>61373.672326328422</v>
       </c>
       <c r="AG17" s="5">
-        <f>N17*$C17</f>
+        <f t="shared" ref="AG17:AK18" si="5">N17*$C17</f>
         <v>29602.908737410504</v>
       </c>
       <c r="AH17" s="5">
-        <f>O17*$C17</f>
+        <f t="shared" si="5"/>
         <v>2185490.0203954638</v>
       </c>
       <c r="AI17" s="5">
-        <f>P17*$C17</f>
+        <f t="shared" si="5"/>
         <v>28.514194264827129</v>
       </c>
       <c r="AJ17" s="5">
-        <f>Q17*$C17</f>
+        <f t="shared" si="5"/>
         <v>1635.6427628317319</v>
       </c>
       <c r="AK17" s="5">
-        <f>R17*$C17</f>
+        <f t="shared" si="5"/>
         <v>3002048.203665785</v>
       </c>
     </row>
@@ -26676,23 +26682,23 @@
         <v>57183.165828835306</v>
       </c>
       <c r="AG18" s="5">
-        <f>N18*$C18</f>
+        <f t="shared" si="5"/>
         <v>21919.298841016396</v>
       </c>
       <c r="AH18" s="5">
-        <f>O18*$C18</f>
+        <f t="shared" si="5"/>
         <v>1608674.1014704264</v>
       </c>
       <c r="AI18" s="5">
-        <f>P18*$C18</f>
+        <f t="shared" si="5"/>
         <v>28.657113743197254</v>
       </c>
       <c r="AJ18" s="5">
-        <f>Q18*$C18</f>
+        <f t="shared" si="5"/>
         <v>1521.0929166726162</v>
       </c>
       <c r="AK18" s="5">
-        <f>R18*$C18</f>
+        <f t="shared" si="5"/>
         <v>2151532.6587611428</v>
       </c>
     </row>
@@ -26808,67 +26814,67 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="15">
-        <f t="shared" ref="C25:R25" si="0">(C2/C3)-1</f>
+        <f t="shared" ref="C25:R25" si="6">(C2/C3)-1</f>
         <v>0.22909919179535332</v>
       </c>
       <c r="D25" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>3.6382550652092949E-2</v>
       </c>
       <c r="E25" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>9.0125200727525945E-2</v>
       </c>
       <c r="F25" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2.9189878384101586E-3</v>
       </c>
       <c r="G25" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-4.3042958042078805E-3</v>
       </c>
       <c r="H25" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.17816098881314479</v>
       </c>
       <c r="I25" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1.1073487309625873E-2</v>
       </c>
       <c r="J25" s="15">
-        <f t="shared" ref="J25" si="1">(J2/J3)-1</f>
+        <f t="shared" ref="J25" si="7">(J2/J3)-1</f>
         <v>-5.4738771003485787E-2</v>
       </c>
       <c r="K25" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-3.3656559926331653E-4</v>
       </c>
       <c r="L25" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-7.1073423335624941E-2</v>
       </c>
       <c r="M25" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-9.6161276220158576E-2</v>
       </c>
       <c r="N25" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-3.2366694132117679E-3</v>
       </c>
       <c r="O25" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.10055050838750135</v>
       </c>
       <c r="P25" s="15">
-        <f t="shared" ref="P25:Q25" si="2">(P2/P3)-1</f>
+        <f t="shared" ref="P25:Q25" si="8">(P2/P3)-1</f>
         <v>-0.16806709282402021</v>
       </c>
       <c r="Q25" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-6.4405769844172123E-2</v>
       </c>
       <c r="R25" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.22663851188633211</v>
       </c>
       <c r="T25" s="2">
@@ -26876,67 +26882,67 @@
       </c>
       <c r="U25" s="2"/>
       <c r="V25" s="15">
-        <f t="shared" ref="V25:AK25" si="3">(V2/V3)-1</f>
+        <f t="shared" ref="V25:AK25" si="9">(V2/V3)-1</f>
         <v>0.22909919179535332</v>
       </c>
       <c r="W25" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3.6382550652092949E-2</v>
       </c>
       <c r="X25" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>9.0125200727525945E-2</v>
       </c>
       <c r="Y25" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.23268691738840364</v>
       </c>
       <c r="Z25" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.22380878530115345</v>
       </c>
       <c r="AA25" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.44807671915505054</v>
       </c>
       <c r="AB25" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.1073487309625873E-2</v>
       </c>
       <c r="AC25" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.16181981259509803</v>
       </c>
       <c r="AD25" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.22868551928931291</v>
       </c>
       <c r="AE25" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.14174290461540795</v>
       </c>
       <c r="AF25" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.11090744491114668</v>
       </c>
       <c r="AG25" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.22512100403546609</v>
       </c>
       <c r="AH25" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.35268574038904332</v>
       </c>
       <c r="AI25" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2.252806383795547E-2</v>
       </c>
       <c r="AJ25" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.14993811213292396</v>
       </c>
       <c r="AK25" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.50766040358454578</v>
       </c>
     </row>
@@ -26950,63 +26956,63 @@
         <v>8.36566528798941E-2</v>
       </c>
       <c r="D26" s="15">
-        <f t="shared" ref="D26:R26" si="4">(D5/D6)-1</f>
+        <f t="shared" ref="D26:R26" si="10">(D5/D6)-1</f>
         <v>-6.0186182889287454E-2</v>
       </c>
       <c r="E26" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.8081939386427326E-3</v>
       </c>
       <c r="F26" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.536020587715182E-2</v>
       </c>
       <c r="G26" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.11601800876587154</v>
       </c>
       <c r="H26" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.13731349822507077</v>
       </c>
       <c r="I26" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-6.6499369478166814E-3</v>
       </c>
       <c r="J26" s="15">
-        <f t="shared" ref="J26" si="5">(J5/J6)-1</f>
+        <f t="shared" ref="J26" si="11">(J5/J6)-1</f>
         <v>-8.0506407707561345E-2</v>
       </c>
       <c r="K26" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-3.4650993474598879E-2</v>
       </c>
       <c r="L26" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.22484666667296915</v>
       </c>
       <c r="M26" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.1487460254898848</v>
       </c>
       <c r="N26" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>7.4562413847174547E-2</v>
       </c>
       <c r="O26" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>5.0614033975793227E-3</v>
       </c>
       <c r="P26" s="15">
-        <f t="shared" ref="P26:Q26" si="6">(P5/P6)-1</f>
+        <f t="shared" ref="P26:Q26" si="12">(P5/P6)-1</f>
         <v>-0.1651900337451182</v>
       </c>
       <c r="Q26" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-3.6131811647346468E-2</v>
       </c>
       <c r="R26" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>7.611727723797812E-2</v>
       </c>
       <c r="T26" s="2">
@@ -27018,63 +27024,63 @@
         <v>8.36566528798941E-2</v>
       </c>
       <c r="W26" s="15">
-        <f t="shared" ref="W26:AK26" si="7">(W5/W6)-1</f>
+        <f t="shared" ref="W26:AK26" si="13">(W5/W6)-1</f>
         <v>-6.0186182889287454E-2</v>
       </c>
       <c r="X26" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.8081939386427326E-3</v>
       </c>
       <c r="Y26" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.11113840869707325</v>
       </c>
       <c r="Z26" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.20938033993290861</v>
       </c>
       <c r="AA26" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.23245733876170349</v>
       </c>
       <c r="AB26" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-6.6499369478166814E-3</v>
       </c>
       <c r="AC26" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-3.5846514318659262E-3</v>
       </c>
       <c r="AD26" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>4.6106873272247162E-2</v>
       </c>
       <c r="AE26" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-0.15999993333813689</v>
       </c>
       <c r="AF26" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-7.7532967231661809E-2</v>
       </c>
       <c r="AG26" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.16445670870016893</v>
       </c>
       <c r="AH26" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>8.9141476344590131E-2</v>
       </c>
       <c r="AI26" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-9.5352626177457434E-2</v>
       </c>
       <c r="AJ26" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>4.4502174807643735E-2</v>
       </c>
       <c r="AK26" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.16614164675793219</v>
       </c>
     </row>
@@ -27088,63 +27094,63 @@
         <v>-7.6275991904954044E-2</v>
       </c>
       <c r="D27" s="15">
-        <f t="shared" ref="D27:R27" si="8">(D8/D9)-1</f>
+        <f t="shared" ref="D27:R27" si="14">(D8/D9)-1</f>
         <v>-1.0994855769997924E-2</v>
       </c>
       <c r="E27" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>3.746910759519384E-2</v>
       </c>
       <c r="F27" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.5083230852055429E-2</v>
       </c>
       <c r="G27" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5.1004915082374147E-2</v>
       </c>
       <c r="H27" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.15815664360496062</v>
       </c>
       <c r="I27" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.1012571234389299</v>
       </c>
       <c r="J27" s="15">
-        <f t="shared" ref="J27" si="9">(J8/J9)-1</f>
+        <f t="shared" ref="J27" si="15">(J8/J9)-1</f>
         <v>-8.4789807608210199E-2</v>
       </c>
       <c r="K27" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-6.7252544304793771E-2</v>
       </c>
       <c r="L27" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.12409461704433111</v>
       </c>
       <c r="M27" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-0.12336625308754645</v>
       </c>
       <c r="N27" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.11559578275065086</v>
       </c>
       <c r="O27" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.11814331159496128</v>
       </c>
       <c r="P27" s="15">
-        <f t="shared" ref="P27:Q27" si="10">(P8/P9)-1</f>
+        <f t="shared" ref="P27:Q27" si="16">(P8/P9)-1</f>
         <v>-5.3715179708376248E-2</v>
       </c>
       <c r="Q27" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-0.13787170305301211</v>
       </c>
       <c r="R27" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.32954868892633638</v>
       </c>
       <c r="T27" s="2">
@@ -27156,63 +27162,63 @@
         <v>-7.6275991904954044E-2</v>
       </c>
       <c r="W27" s="15">
-        <f t="shared" ref="W27:AK27" si="11">(W8/W9)-1</f>
+        <f t="shared" ref="W27:AK27" si="17">(W8/W9)-1</f>
         <v>-1.0994855769997924E-2</v>
       </c>
       <c r="X27" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>3.746910759519384E-2</v>
       </c>
       <c r="Y27" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-6.2343249447270654E-2</v>
       </c>
       <c r="Z27" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-2.9161527312515867E-2</v>
       </c>
       <c r="AA27" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>6.9817096832679892E-2</v>
       </c>
       <c r="AB27" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.1012571234389299</v>
       </c>
       <c r="AC27" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-0.15459837283441769</v>
       </c>
       <c r="AD27" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-0.13839878168476782</v>
       </c>
       <c r="AE27" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>3.8353185134255341E-2</v>
       </c>
       <c r="AF27" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-0.19023236167065016</v>
       </c>
       <c r="AG27" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>3.0502607856361497E-2</v>
       </c>
       <c r="AH27" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>3.2855821411165387E-2</v>
       </c>
       <c r="AI27" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-0.12589399300072102</v>
       </c>
       <c r="AJ27" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-0.20363139405197228</v>
       </c>
       <c r="AK27" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.22813604389254905</v>
       </c>
     </row>
@@ -27226,63 +27232,63 @@
         <v>0.35866079174714471</v>
       </c>
       <c r="D28" s="15">
-        <f t="shared" ref="D28:R28" si="12">(D11/D12)-1</f>
+        <f t="shared" ref="D28:R28" si="18">(D11/D12)-1</f>
         <v>-1.4468145066554139E-2</v>
       </c>
       <c r="E28" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>6.070097493711657E-2</v>
       </c>
       <c r="F28" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-3.7611584439731116E-2</v>
       </c>
       <c r="G28" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>4.3536727863535463E-2</v>
       </c>
       <c r="H28" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>3.480927149526547E-2</v>
       </c>
       <c r="I28" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>8.4449872609724252E-3</v>
       </c>
       <c r="J28" s="15">
-        <f t="shared" ref="J28" si="13">(J11/J12)-1</f>
+        <f t="shared" ref="J28" si="19">(J11/J12)-1</f>
         <v>-9.5119886243536844E-2</v>
       </c>
       <c r="K28" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-5.2878350684593123E-2</v>
       </c>
       <c r="L28" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-5.4368016439940714E-3</v>
       </c>
       <c r="M28" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1.9401759532022389E-2</v>
       </c>
       <c r="N28" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.18480245732222089</v>
       </c>
       <c r="O28" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-5.396561824582502E-2</v>
       </c>
       <c r="P28" s="15">
-        <f t="shared" ref="P28:Q28" si="14">(P11/P12)-1</f>
+        <f t="shared" ref="P28:Q28" si="20">(P11/P12)-1</f>
         <v>-0.14784361988836692</v>
       </c>
       <c r="Q28" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>-7.7503654230315133E-2</v>
       </c>
       <c r="R28" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.10100530650594952</v>
       </c>
       <c r="T28" s="2">
@@ -27294,63 +27300,63 @@
         <v>0.35866079174714471</v>
       </c>
       <c r="W28" s="15">
-        <f t="shared" ref="W28:AK28" si="15">(W11/W12)-1</f>
+        <f t="shared" ref="W28:AK28" si="21">(W11/W12)-1</f>
         <v>-1.4468145066554139E-2</v>
       </c>
       <c r="X28" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>6.070097493711657E-2</v>
       </c>
       <c r="Y28" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.30755940665339487</v>
       </c>
       <c r="Z28" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.41781243689629588</v>
       </c>
       <c r="AA28" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.40595478411704322</v>
       </c>
       <c r="AB28" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>8.4449872609724252E-3</v>
       </c>
       <c r="AC28" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.2294251317926026</v>
       </c>
       <c r="AD28" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.28681704993973245</v>
       </c>
       <c r="AE28" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.35127402252094364</v>
       </c>
       <c r="AF28" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.38502120171421028</v>
       </c>
       <c r="AG28" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.60974464472937107</v>
       </c>
       <c r="AH28" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.28533982213414788</v>
       </c>
       <c r="AI28" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.15779146209485218</v>
       </c>
       <c r="AJ28" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.25335961552728792</v>
       </c>
       <c r="AK28" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.49589274145518125</v>
       </c>
     </row>
@@ -27364,63 +27370,63 @@
         <v>0.12341995166395225</v>
       </c>
       <c r="D29" s="15">
-        <f t="shared" ref="D29:R29" si="16">(D14/D15)-1</f>
+        <f t="shared" ref="D29:R29" si="22">(D14/D15)-1</f>
         <v>-8.0293497969244232E-2</v>
       </c>
       <c r="E29" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1.9048783418865511E-2</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>8.0829091867249625E-2</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>6.7636167481690324E-2</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.27135922958945358</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>2.996755044017152E-2</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" ref="J29" si="17">(J14/J15)-1</f>
+        <f t="shared" ref="J29" si="23">(J14/J15)-1</f>
         <v>-0.11916821715685932</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>2.064422955605294E-2</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>-0.12105723942707247</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>-0.15118216615369795</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.28376841698322575</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>9.5032351301696627E-2</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" ref="P29:Q29" si="18">(P14/P15)-1</f>
+        <f t="shared" ref="P29:Q29" si="24">(P14/P15)-1</f>
         <v>-0.20303444322299247</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>-6.5850695713246643E-2</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>7.6717396227572454E-3</v>
       </c>
       <c r="T29" s="2">
@@ -27432,63 +27438,63 @@
         <v>0.12341995166395225</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" ref="W29:AK29" si="19">(W14/W15)-1</f>
+        <f t="shared" ref="W29:AK29" si="25">(W14/W15)-1</f>
         <v>-8.0293497969244232E-2</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1.9048783418865511E-2</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.21422496614249886</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.19940377166696766</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.42827032425290334</v>
       </c>
       <c r="AB29" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>2.996755044017152E-2</v>
       </c>
       <c r="AC29" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-1.0456001094286016E-2</v>
       </c>
       <c r="AD29" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.14661209103395256</v>
       </c>
       <c r="AE29" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-1.2578166401780999E-2</v>
       </c>
       <c r="AF29" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-4.6421110128886722E-2</v>
       </c>
       <c r="AG29" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.44221105295500385</v>
       </c>
       <c r="AH29" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.23018119116981595</v>
       </c>
       <c r="AI29" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-0.10467299272773956</v>
       </c>
       <c r="AJ29" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>4.944196626873909E-2</v>
       </c>
       <c r="AK29" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.13203853702012869</v>
       </c>
     </row>
@@ -27502,35 +27508,35 @@
         <v>0.20547900333798141</v>
       </c>
       <c r="D30" s="15">
-        <f t="shared" ref="D30:R30" si="20">(D17/D18)-1</f>
+        <f t="shared" ref="D30:R30" si="26">(D17/D18)-1</f>
         <v>-7.1824841533745465E-2</v>
       </c>
       <c r="E30" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.7387111341601758E-2</v>
       </c>
       <c r="F30" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>-2.8357036764239507E-2</v>
       </c>
       <c r="G30" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>7.8936594888496359E-2</v>
       </c>
       <c r="H30" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>9.2062749336874861E-2</v>
       </c>
       <c r="I30" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>-2.5584674414756536E-2</v>
       </c>
       <c r="J30" s="15">
-        <f t="shared" ref="J30" si="21">(J17/J18)-1</f>
+        <f t="shared" ref="J30" si="27">(J17/J18)-1</f>
         <v>-0.1078800943615037</v>
       </c>
       <c r="K30" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>-2.128555386452069E-2</v>
       </c>
       <c r="L30" s="15">
@@ -27542,23 +27548,23 @@
         <v>-0.10966332275853963</v>
       </c>
       <c r="N30" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.12033544975239274</v>
       </c>
       <c r="O30" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.12699271130040213</v>
       </c>
       <c r="P30" s="15">
-        <f t="shared" ref="P30:Q30" si="22">(P17/P18)-1</f>
+        <f t="shared" ref="P30:Q30" si="28">(P17/P18)-1</f>
         <v>-0.17459136816537479</v>
       </c>
       <c r="Q30" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>-0.10798314202040338</v>
       </c>
       <c r="R30" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.15747086548601064</v>
       </c>
       <c r="T30" s="2">
@@ -27570,35 +27576,35 @@
         <v>0.20547900333798141</v>
       </c>
       <c r="W30" s="15">
-        <f t="shared" ref="W30:AK30" si="23">(W17/W18)-1</f>
+        <f t="shared" ref="W30:AD30" si="29">(W17/W18)-1</f>
         <v>-7.1824841533745465E-2</v>
       </c>
       <c r="X30" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1.7387111341601758E-2</v>
       </c>
       <c r="Y30" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.17129519092180745</v>
       </c>
       <c r="Z30" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.30063541107106007</v>
       </c>
       <c r="AA30" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.31645871465315167</v>
       </c>
       <c r="AB30" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>-2.5584674414756536E-2</v>
       </c>
       <c r="AC30" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>7.5431814707068501E-2</v>
       </c>
       <c r="AD30" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.17981971507988215</v>
       </c>
       <c r="AE30" s="15">
@@ -27610,23 +27616,23 @@
         <v>7.3282170316285589E-2</v>
       </c>
       <c r="AG30" s="15">
-        <f t="shared" ref="AG30:AK30" si="24">(AG17/AG18)-1</f>
+        <f t="shared" ref="AG30:AK30" si="30">(AG17/AG18)-1</f>
         <v>0.35054086137172358</v>
       </c>
       <c r="AH30" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.35856605038757849</v>
       </c>
       <c r="AI30" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-4.9872251494291753E-3</v>
       </c>
       <c r="AJ30" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>7.5307592917921884E-2</v>
       </c>
       <c r="AK30" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.39530682531882699</v>
       </c>
     </row>
@@ -27639,62 +27645,62 @@
         <v>0.15400659991989529</v>
       </c>
       <c r="D31" s="47">
-        <f t="shared" ref="D31:R31" si="25">AVERAGE(D25:D30)</f>
+        <f t="shared" ref="D31:R31" si="31">AVERAGE(D25:D30)</f>
         <v>-3.3564162096122709E-2</v>
       </c>
       <c r="E31" s="47">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>3.7756561993157724E-2</v>
       </c>
       <c r="F31" s="47">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>9.7038158718160683E-3</v>
       </c>
       <c r="G31" s="47">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>5.8804686379626658E-2</v>
       </c>
       <c r="H31" s="47">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.14531039684412836</v>
       </c>
       <c r="I31" s="47">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>1.9751422847854416E-2</v>
       </c>
       <c r="J31" s="47">
         <v>3.7582281853761536E-2</v>
       </c>
       <c r="K31" s="47">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-2.5959963061952807E-2</v>
       </c>
       <c r="L31" s="47">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-6.4928364886439008E-2</v>
       </c>
       <c r="M31" s="47">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-0.10161954736296751</v>
       </c>
       <c r="N31" s="47">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.12930464187374216</v>
       </c>
       <c r="O31" s="47">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>6.530244462271928E-2</v>
       </c>
       <c r="P31" s="47">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-0.15207362292570814</v>
       </c>
       <c r="Q31" s="47">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-8.162446275141598E-2</v>
       </c>
       <c r="R31" s="47">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.14974206494422734</v>
       </c>
       <c r="T31" s="42" t="s">
@@ -27705,62 +27711,62 @@
         <v>0.15400659991989529</v>
       </c>
       <c r="W31" s="47">
-        <f t="shared" ref="W31:AK31" si="26">AVERAGE(W25:W30)</f>
+        <f t="shared" ref="W31:AB31" si="32">AVERAGE(W25:W30)</f>
         <v>-3.3564162096122709E-2</v>
       </c>
       <c r="X31" s="47">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>3.7756561993157724E-2</v>
       </c>
       <c r="Y31" s="47">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.1624269400593179</v>
       </c>
       <c r="Z31" s="47">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.22031320292597831</v>
       </c>
       <c r="AA31" s="47">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.31683916296208869</v>
       </c>
       <c r="AB31" s="47">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.9751422847854416E-2</v>
       </c>
       <c r="AC31" s="47">
         <v>3.7582281853761536E-2</v>
       </c>
       <c r="AD31" s="47">
-        <f t="shared" ref="AD31:AK31" si="27">AVERAGE(AD25:AD30)</f>
+        <f t="shared" ref="AD31:AK31" si="33">AVERAGE(AD25:AD30)</f>
         <v>0.1249404111550599</v>
       </c>
       <c r="AE31" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.5711707129039088E-2</v>
       </c>
       <c r="AF31" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>4.2504062985073976E-2</v>
       </c>
       <c r="AG31" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.30376281327468252</v>
       </c>
       <c r="AH31" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.22479501697272353</v>
       </c>
       <c r="AI31" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-2.5097885187089924E-2</v>
       </c>
       <c r="AJ31" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>6.1486344600424049E-2</v>
       </c>
       <c r="AK31" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.32086269967152731</v>
       </c>
     </row>

--- a/migforecasting/clustering/AN-method.xlsx
+++ b/migforecasting/clustering/AN-method.xlsx
@@ -3706,7 +3706,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4711,7 +4710,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4882,7 +4880,7 @@
                   <c:v>0.22909919179535332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6382550652092949E-2</c:v>
+                  <c:v>0.27381695539729423</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>9.0125200727525945E-2</c:v>
@@ -5020,7 +5018,7 @@
                   <c:v>8.36566528798941E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-6.0186182889287454E-2</c:v>
+                  <c:v>1.8435495380471734E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.8081939386427326E-3</c:v>
@@ -5158,7 +5156,7 @@
                   <c:v>-7.6275991904954044E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.0994855769997924E-2</c:v>
+                  <c:v>-8.643220414524333E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.746910759519384E-2</c:v>
@@ -5296,7 +5294,7 @@
                   <c:v>0.35866079174714471</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.4468145066554139E-2</c:v>
+                  <c:v>0.3390034903159076</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6.070097493711657E-2</c:v>
@@ -5434,7 +5432,7 @@
                   <c:v>0.12341995166395225</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8.0293497969244232E-2</c:v>
+                  <c:v>3.3216634056414396E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.9048783418865511E-2</c:v>
@@ -5572,7 +5570,7 @@
                   <c:v>0.20547900333798141</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7.1824841533745465E-2</c:v>
+                  <c:v>0.11889566495097337</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.7387111341601758E-2</c:v>
@@ -25005,7 +25003,7 @@
   <dimension ref="A1:AK31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25194,7 +25192,8 @@
         <v>38817.632653061199</v>
       </c>
       <c r="W2" s="5">
-        <v>0.14551526855531799</v>
+        <f>D2*C2</f>
+        <v>5648.5582401918809</v>
       </c>
       <c r="X2" s="5">
         <v>20815.4167831292</v>
@@ -25310,7 +25309,8 @@
         <v>31582.1806020066</v>
       </c>
       <c r="W3" s="5">
-        <v>0.14040690714423901</v>
+        <f>D3*C3</f>
+        <v>4434.3562991985273</v>
       </c>
       <c r="X3" s="5">
         <v>19094.5193902842</v>
@@ -25386,7 +25386,6 @@
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
@@ -25461,7 +25460,8 @@
         <v>52024.114446528998</v>
       </c>
       <c r="W5" s="5">
-        <v>0.19618415437127301</v>
+        <f>D5*C5</f>
+        <v>10206.306899606619</v>
       </c>
       <c r="X5" s="5">
         <v>24430.417592114401</v>
@@ -25577,7 +25577,8 @@
         <v>48007.931578947297</v>
       </c>
       <c r="W6" s="5">
-        <v>0.20874789325231</v>
+        <f>D6*C6</f>
+        <v>10021.554576506293</v>
       </c>
       <c r="X6" s="5">
         <v>24386.322391779799</v>
@@ -25728,7 +25729,8 @@
         <v>13790.127725856601</v>
       </c>
       <c r="W8" s="5">
-        <v>0.15143622707954499</v>
+        <f>D8*C8</f>
+        <v>2088.3249137487496</v>
       </c>
       <c r="X8" s="5">
         <v>19210.228831246099</v>
@@ -25844,7 +25846,8 @@
         <v>14928.839788732301</v>
       </c>
       <c r="W9" s="5">
-        <v>0.15311975672022099</v>
+        <f>D9*C9</f>
+        <v>2285.9003165658451</v>
       </c>
       <c r="X9" s="5">
         <v>18516.434552711198</v>
@@ -25995,7 +25998,8 @@
         <v>36476.658536585302</v>
       </c>
       <c r="W11" s="5">
-        <v>0.15666204865781599</v>
+        <f>D11*C11</f>
+        <v>5714.5080545330657</v>
       </c>
       <c r="X11" s="5">
         <v>20427.341848341399</v>
@@ -26111,7 +26115,8 @@
         <v>26847.509516837399</v>
       </c>
       <c r="W12" s="5">
-        <v>0.15896193296399899</v>
+        <f>D12*C12</f>
+        <v>4267.7320080658319</v>
       </c>
       <c r="X12" s="5">
         <v>19258.341729677799</v>
@@ -26262,7 +26267,8 @@
         <v>51806.327272727198</v>
       </c>
       <c r="W14" s="5">
-        <v>0.220591251068708</v>
+        <f>D14*C14</f>
+        <v>11428.022546365821</v>
       </c>
       <c r="X14" s="5">
         <v>29031.0083701363</v>
@@ -26378,7 +26384,8 @@
         <v>46114.836393989899</v>
       </c>
       <c r="W15" s="5">
-        <v>0.23984961569982599</v>
+        <f>D15*C15</f>
+        <v>11060.625787158826</v>
       </c>
       <c r="X15" s="5">
         <v>28488.340148681102</v>
@@ -26529,7 +26536,8 @@
         <v>35588.633223684199</v>
       </c>
       <c r="W17" s="5">
-        <v>0.14937642157545</v>
+        <f>D17*C17</f>
+        <v>5316.1026797151171</v>
       </c>
       <c r="X17" s="5">
         <v>20804.770158470299</v>
@@ -26645,7 +26653,8 @@
         <v>29522.399913344801</v>
       </c>
       <c r="W18" s="5">
-        <v>0.16093559519766101</v>
+        <f>D18*C18</f>
+        <v>4751.2050017175216</v>
       </c>
       <c r="X18" s="5">
         <v>20449.2173397357</v>
@@ -26886,8 +26895,8 @@
         <v>0.22909919179535332</v>
       </c>
       <c r="W25" s="15">
-        <f t="shared" si="9"/>
-        <v>3.6382550652092949E-2</v>
+        <f>(W2/W3)-1</f>
+        <v>0.27381695539729423</v>
       </c>
       <c r="X25" s="15">
         <f t="shared" si="9"/>
@@ -27025,7 +27034,7 @@
       </c>
       <c r="W26" s="15">
         <f t="shared" ref="W26:AK26" si="13">(W5/W6)-1</f>
-        <v>-6.0186182889287454E-2</v>
+        <v>1.8435495380471734E-2</v>
       </c>
       <c r="X26" s="15">
         <f t="shared" si="13"/>
@@ -27163,7 +27172,7 @@
       </c>
       <c r="W27" s="15">
         <f t="shared" ref="W27:AK27" si="17">(W8/W9)-1</f>
-        <v>-1.0994855769997924E-2</v>
+        <v>-8.643220414524333E-2</v>
       </c>
       <c r="X27" s="15">
         <f t="shared" si="17"/>
@@ -27301,7 +27310,7 @@
       </c>
       <c r="W28" s="15">
         <f t="shared" ref="W28:AK28" si="21">(W11/W12)-1</f>
-        <v>-1.4468145066554139E-2</v>
+        <v>0.3390034903159076</v>
       </c>
       <c r="X28" s="15">
         <f t="shared" si="21"/>
@@ -27439,7 +27448,7 @@
       </c>
       <c r="W29" s="15">
         <f t="shared" ref="W29:AK29" si="25">(W14/W15)-1</f>
-        <v>-8.0293497969244232E-2</v>
+        <v>3.3216634056414396E-2</v>
       </c>
       <c r="X29" s="15">
         <f t="shared" si="25"/>
@@ -27577,7 +27586,7 @@
       </c>
       <c r="W30" s="15">
         <f t="shared" ref="W30:AD30" si="29">(W17/W18)-1</f>
-        <v>-7.1824841533745465E-2</v>
+        <v>0.11889566495097337</v>
       </c>
       <c r="X30" s="15">
         <f t="shared" si="29"/>
@@ -27712,7 +27721,7 @@
       </c>
       <c r="W31" s="47">
         <f t="shared" ref="W31:AB31" si="32">AVERAGE(W25:W30)</f>
-        <v>-3.3564162096122709E-2</v>
+        <v>0.11615600599263633</v>
       </c>
       <c r="X31" s="47">
         <f t="shared" si="32"/>
@@ -27772,6 +27781,198 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C3">
+    <cfRule type="colorScale" priority="320">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D3">
+    <cfRule type="colorScale" priority="319">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="colorScale" priority="318">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F3">
+    <cfRule type="colorScale" priority="317">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G3">
+    <cfRule type="colorScale" priority="316">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H3">
+    <cfRule type="colorScale" priority="315">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I3">
+    <cfRule type="colorScale" priority="314">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J3">
+    <cfRule type="colorScale" priority="313">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K3">
+    <cfRule type="colorScale" priority="312">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L3">
+    <cfRule type="colorScale" priority="311">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M3">
+    <cfRule type="colorScale" priority="310">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N3">
+    <cfRule type="colorScale" priority="309">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O3">
+    <cfRule type="colorScale" priority="308">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P3">
+    <cfRule type="colorScale" priority="307">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q3">
+    <cfRule type="colorScale" priority="306">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:R3">
+    <cfRule type="colorScale" priority="305">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C6">
     <cfRule type="colorScale" priority="304">
       <colorScale>
         <cfvo type="min"/>
@@ -27783,7 +27984,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D3">
+  <conditionalFormatting sqref="D5:D6">
     <cfRule type="colorScale" priority="303">
       <colorScale>
         <cfvo type="min"/>
@@ -27795,7 +27996,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E5:E6">
     <cfRule type="colorScale" priority="302">
       <colorScale>
         <cfvo type="min"/>
@@ -27807,7 +28008,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F3">
+  <conditionalFormatting sqref="F5:F6">
     <cfRule type="colorScale" priority="301">
       <colorScale>
         <cfvo type="min"/>
@@ -27819,7 +28020,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G3">
+  <conditionalFormatting sqref="G5:G6">
     <cfRule type="colorScale" priority="300">
       <colorScale>
         <cfvo type="min"/>
@@ -27831,7 +28032,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H3">
+  <conditionalFormatting sqref="H5:H6">
     <cfRule type="colorScale" priority="299">
       <colorScale>
         <cfvo type="min"/>
@@ -27843,7 +28044,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I3">
+  <conditionalFormatting sqref="I5:I6">
     <cfRule type="colorScale" priority="298">
       <colorScale>
         <cfvo type="min"/>
@@ -27855,7 +28056,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J3">
+  <conditionalFormatting sqref="J5:J6">
     <cfRule type="colorScale" priority="297">
       <colorScale>
         <cfvo type="min"/>
@@ -27867,7 +28068,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K3">
+  <conditionalFormatting sqref="K5:K6">
     <cfRule type="colorScale" priority="296">
       <colorScale>
         <cfvo type="min"/>
@@ -27879,7 +28080,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L3">
+  <conditionalFormatting sqref="L5:L6">
     <cfRule type="colorScale" priority="295">
       <colorScale>
         <cfvo type="min"/>
@@ -27891,7 +28092,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M3">
+  <conditionalFormatting sqref="M5:M6">
     <cfRule type="colorScale" priority="294">
       <colorScale>
         <cfvo type="min"/>
@@ -27903,7 +28104,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N3">
+  <conditionalFormatting sqref="N5:N6">
     <cfRule type="colorScale" priority="293">
       <colorScale>
         <cfvo type="min"/>
@@ -27915,7 +28116,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O3">
+  <conditionalFormatting sqref="O5:R6">
     <cfRule type="colorScale" priority="292">
       <colorScale>
         <cfvo type="min"/>
@@ -27927,7 +28128,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P3">
+  <conditionalFormatting sqref="O5:O6">
     <cfRule type="colorScale" priority="291">
       <colorScale>
         <cfvo type="min"/>
@@ -27939,7 +28140,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q3">
+  <conditionalFormatting sqref="P5:P6">
     <cfRule type="colorScale" priority="290">
       <colorScale>
         <cfvo type="min"/>
@@ -27951,7 +28152,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R3">
+  <conditionalFormatting sqref="Q5:Q6">
     <cfRule type="colorScale" priority="289">
       <colorScale>
         <cfvo type="min"/>
@@ -27963,7 +28164,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C6">
+  <conditionalFormatting sqref="R5:R6">
     <cfRule type="colorScale" priority="288">
       <colorScale>
         <cfvo type="min"/>
@@ -27975,7 +28176,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D6">
+  <conditionalFormatting sqref="C8:C9">
     <cfRule type="colorScale" priority="287">
       <colorScale>
         <cfvo type="min"/>
@@ -27987,7 +28188,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E6">
+  <conditionalFormatting sqref="D8:D9">
     <cfRule type="colorScale" priority="286">
       <colorScale>
         <cfvo type="min"/>
@@ -27999,7 +28200,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F6">
+  <conditionalFormatting sqref="E8:E9">
     <cfRule type="colorScale" priority="285">
       <colorScale>
         <cfvo type="min"/>
@@ -28011,7 +28212,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G6">
+  <conditionalFormatting sqref="F8:F9">
     <cfRule type="colorScale" priority="284">
       <colorScale>
         <cfvo type="min"/>
@@ -28023,7 +28224,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H6">
+  <conditionalFormatting sqref="G8:G9">
     <cfRule type="colorScale" priority="283">
       <colorScale>
         <cfvo type="min"/>
@@ -28035,7 +28236,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I6">
+  <conditionalFormatting sqref="H8:H9">
     <cfRule type="colorScale" priority="282">
       <colorScale>
         <cfvo type="min"/>
@@ -28047,7 +28248,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J6">
+  <conditionalFormatting sqref="I8:I9">
     <cfRule type="colorScale" priority="281">
       <colorScale>
         <cfvo type="min"/>
@@ -28059,7 +28260,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K6">
+  <conditionalFormatting sqref="J8:J9">
     <cfRule type="colorScale" priority="280">
       <colorScale>
         <cfvo type="min"/>
@@ -28071,7 +28272,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L6">
+  <conditionalFormatting sqref="K8:K9">
     <cfRule type="colorScale" priority="279">
       <colorScale>
         <cfvo type="min"/>
@@ -28083,7 +28284,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M6">
+  <conditionalFormatting sqref="L8:L9">
     <cfRule type="colorScale" priority="278">
       <colorScale>
         <cfvo type="min"/>
@@ -28095,7 +28296,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:N6">
+  <conditionalFormatting sqref="M8:M9">
     <cfRule type="colorScale" priority="277">
       <colorScale>
         <cfvo type="min"/>
@@ -28107,7 +28308,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5:R6">
+  <conditionalFormatting sqref="N8:N9">
     <cfRule type="colorScale" priority="276">
       <colorScale>
         <cfvo type="min"/>
@@ -28119,7 +28320,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5:O6">
+  <conditionalFormatting sqref="O8:O9">
     <cfRule type="colorScale" priority="275">
       <colorScale>
         <cfvo type="min"/>
@@ -28131,7 +28332,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P5:P6">
+  <conditionalFormatting sqref="P8:P9">
     <cfRule type="colorScale" priority="274">
       <colorScale>
         <cfvo type="min"/>
@@ -28143,7 +28344,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:Q6">
+  <conditionalFormatting sqref="Q8:Q9">
     <cfRule type="colorScale" priority="273">
       <colorScale>
         <cfvo type="min"/>
@@ -28155,7 +28356,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R5:R6">
+  <conditionalFormatting sqref="R8:R9">
     <cfRule type="colorScale" priority="272">
       <colorScale>
         <cfvo type="min"/>
@@ -28167,7 +28368,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8:C9">
+  <conditionalFormatting sqref="R11:R12">
     <cfRule type="colorScale" priority="271">
       <colorScale>
         <cfvo type="min"/>
@@ -28179,7 +28380,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D9">
+  <conditionalFormatting sqref="R14:R15">
     <cfRule type="colorScale" priority="270">
       <colorScale>
         <cfvo type="min"/>
@@ -28191,7 +28392,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E9">
+  <conditionalFormatting sqref="R17:R18">
     <cfRule type="colorScale" priority="269">
       <colorScale>
         <cfvo type="min"/>
@@ -28203,7 +28404,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F9">
+  <conditionalFormatting sqref="C11:C12">
     <cfRule type="colorScale" priority="268">
       <colorScale>
         <cfvo type="min"/>
@@ -28215,7 +28416,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G9">
+  <conditionalFormatting sqref="C14:C15">
     <cfRule type="colorScale" priority="267">
       <colorScale>
         <cfvo type="min"/>
@@ -28227,7 +28428,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H9">
+  <conditionalFormatting sqref="C17:C18">
     <cfRule type="colorScale" priority="266">
       <colorScale>
         <cfvo type="min"/>
@@ -28239,7 +28440,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I9">
+  <conditionalFormatting sqref="D11:D12">
     <cfRule type="colorScale" priority="265">
       <colorScale>
         <cfvo type="min"/>
@@ -28251,7 +28452,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:J9">
+  <conditionalFormatting sqref="E11:E12">
     <cfRule type="colorScale" priority="264">
       <colorScale>
         <cfvo type="min"/>
@@ -28263,7 +28464,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K9">
+  <conditionalFormatting sqref="F11:F12">
     <cfRule type="colorScale" priority="263">
       <colorScale>
         <cfvo type="min"/>
@@ -28275,7 +28476,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8:L9">
+  <conditionalFormatting sqref="G11:G12">
     <cfRule type="colorScale" priority="262">
       <colorScale>
         <cfvo type="min"/>
@@ -28287,7 +28488,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8:M9">
+  <conditionalFormatting sqref="H11:H12">
     <cfRule type="colorScale" priority="261">
       <colorScale>
         <cfvo type="min"/>
@@ -28299,7 +28500,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8:N9">
+  <conditionalFormatting sqref="I11:I12">
     <cfRule type="colorScale" priority="260">
       <colorScale>
         <cfvo type="min"/>
@@ -28311,7 +28512,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O8:O9">
+  <conditionalFormatting sqref="J11:J12">
     <cfRule type="colorScale" priority="259">
       <colorScale>
         <cfvo type="min"/>
@@ -28323,7 +28524,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P8:P9">
+  <conditionalFormatting sqref="K11:K12">
     <cfRule type="colorScale" priority="258">
       <colorScale>
         <cfvo type="min"/>
@@ -28335,7 +28536,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q8:Q9">
+  <conditionalFormatting sqref="L11:L12">
     <cfRule type="colorScale" priority="257">
       <colorScale>
         <cfvo type="min"/>
@@ -28347,7 +28548,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R8:R9">
+  <conditionalFormatting sqref="M11:M12">
     <cfRule type="colorScale" priority="256">
       <colorScale>
         <cfvo type="min"/>
@@ -28359,7 +28560,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R11:R12">
+  <conditionalFormatting sqref="N11:N12">
     <cfRule type="colorScale" priority="255">
       <colorScale>
         <cfvo type="min"/>
@@ -28371,7 +28572,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R14:R15">
+  <conditionalFormatting sqref="O11:O12">
     <cfRule type="colorScale" priority="254">
       <colorScale>
         <cfvo type="min"/>
@@ -28383,7 +28584,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R17:R18">
+  <conditionalFormatting sqref="P11:P12">
     <cfRule type="colorScale" priority="253">
       <colorScale>
         <cfvo type="min"/>
@@ -28395,7 +28596,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C12">
+  <conditionalFormatting sqref="Q11:Q12">
     <cfRule type="colorScale" priority="252">
       <colorScale>
         <cfvo type="min"/>
@@ -28407,7 +28608,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14:C15">
+  <conditionalFormatting sqref="D14:D15">
     <cfRule type="colorScale" priority="251">
       <colorScale>
         <cfvo type="min"/>
@@ -28419,7 +28620,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C18">
+  <conditionalFormatting sqref="E14:E15">
     <cfRule type="colorScale" priority="250">
       <colorScale>
         <cfvo type="min"/>
@@ -28431,7 +28632,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D12">
+  <conditionalFormatting sqref="F14:F15">
     <cfRule type="colorScale" priority="249">
       <colorScale>
         <cfvo type="min"/>
@@ -28443,7 +28644,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E12">
+  <conditionalFormatting sqref="G14:G15">
     <cfRule type="colorScale" priority="248">
       <colorScale>
         <cfvo type="min"/>
@@ -28455,7 +28656,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F12">
+  <conditionalFormatting sqref="H14:H15">
     <cfRule type="colorScale" priority="247">
       <colorScale>
         <cfvo type="min"/>
@@ -28467,7 +28668,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11:G12">
+  <conditionalFormatting sqref="I14:I15">
     <cfRule type="colorScale" priority="246">
       <colorScale>
         <cfvo type="min"/>
@@ -28479,7 +28680,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H12">
+  <conditionalFormatting sqref="J14:J15">
     <cfRule type="colorScale" priority="245">
       <colorScale>
         <cfvo type="min"/>
@@ -28491,7 +28692,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11:I12">
+  <conditionalFormatting sqref="K14:K15">
     <cfRule type="colorScale" priority="244">
       <colorScale>
         <cfvo type="min"/>
@@ -28503,7 +28704,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11:J12">
+  <conditionalFormatting sqref="L14:L15">
     <cfRule type="colorScale" priority="243">
       <colorScale>
         <cfvo type="min"/>
@@ -28515,7 +28716,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:K12">
+  <conditionalFormatting sqref="M14:M15">
     <cfRule type="colorScale" priority="242">
       <colorScale>
         <cfvo type="min"/>
@@ -28527,7 +28728,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L11:L12">
+  <conditionalFormatting sqref="N14:N15">
     <cfRule type="colorScale" priority="241">
       <colorScale>
         <cfvo type="min"/>
@@ -28539,7 +28740,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M11:M12">
+  <conditionalFormatting sqref="O14:O15">
     <cfRule type="colorScale" priority="240">
       <colorScale>
         <cfvo type="min"/>
@@ -28551,7 +28752,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N11:N12">
+  <conditionalFormatting sqref="P14:P15">
     <cfRule type="colorScale" priority="239">
       <colorScale>
         <cfvo type="min"/>
@@ -28563,7 +28764,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O11:O12">
+  <conditionalFormatting sqref="Q14:Q15">
     <cfRule type="colorScale" priority="238">
       <colorScale>
         <cfvo type="min"/>
@@ -28575,7 +28776,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P11:P12">
+  <conditionalFormatting sqref="D17:D18">
     <cfRule type="colorScale" priority="237">
       <colorScale>
         <cfvo type="min"/>
@@ -28587,7 +28788,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q11:Q12">
+  <conditionalFormatting sqref="E17:E18">
     <cfRule type="colorScale" priority="236">
       <colorScale>
         <cfvo type="min"/>
@@ -28599,7 +28800,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
+  <conditionalFormatting sqref="F17:F18">
     <cfRule type="colorScale" priority="235">
       <colorScale>
         <cfvo type="min"/>
@@ -28611,7 +28812,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E15">
+  <conditionalFormatting sqref="G17:G18">
     <cfRule type="colorScale" priority="234">
       <colorScale>
         <cfvo type="min"/>
@@ -28623,7 +28824,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:F15">
+  <conditionalFormatting sqref="H17:H18">
     <cfRule type="colorScale" priority="233">
       <colorScale>
         <cfvo type="min"/>
@@ -28635,7 +28836,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G15">
+  <conditionalFormatting sqref="I17:I18">
     <cfRule type="colorScale" priority="232">
       <colorScale>
         <cfvo type="min"/>
@@ -28647,7 +28848,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:H15">
+  <conditionalFormatting sqref="J17:J18">
     <cfRule type="colorScale" priority="231">
       <colorScale>
         <cfvo type="min"/>
@@ -28659,7 +28860,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14:I15">
+  <conditionalFormatting sqref="K17:K18">
     <cfRule type="colorScale" priority="230">
       <colorScale>
         <cfvo type="min"/>
@@ -28671,7 +28872,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J14:J15">
+  <conditionalFormatting sqref="L17:L18">
     <cfRule type="colorScale" priority="229">
       <colorScale>
         <cfvo type="min"/>
@@ -28683,7 +28884,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:K15">
+  <conditionalFormatting sqref="M17:M18">
     <cfRule type="colorScale" priority="228">
       <colorScale>
         <cfvo type="min"/>
@@ -28695,7 +28896,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14:L15">
+  <conditionalFormatting sqref="N17:N18">
     <cfRule type="colorScale" priority="227">
       <colorScale>
         <cfvo type="min"/>
@@ -28707,7 +28908,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14:M15">
+  <conditionalFormatting sqref="O17:O18">
     <cfRule type="colorScale" priority="226">
       <colorScale>
         <cfvo type="min"/>
@@ -28719,7 +28920,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N14:N15">
+  <conditionalFormatting sqref="P17:P18">
     <cfRule type="colorScale" priority="225">
       <colorScale>
         <cfvo type="min"/>
@@ -28731,7 +28932,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O14:O15">
+  <conditionalFormatting sqref="Q17:Q18">
     <cfRule type="colorScale" priority="224">
       <colorScale>
         <cfvo type="min"/>
@@ -28743,7 +28944,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P14:P15">
+  <conditionalFormatting sqref="C25:G25 M25:O25 R25 K25 I25">
     <cfRule type="colorScale" priority="223">
       <colorScale>
         <cfvo type="min"/>
@@ -28755,7 +28956,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q14:Q15">
+  <conditionalFormatting sqref="C26:G26 M26:O26 R26 K26 I26">
     <cfRule type="colorScale" priority="222">
       <colorScale>
         <cfvo type="min"/>
@@ -28767,7 +28968,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D18">
+  <conditionalFormatting sqref="C27:G27 M27:O27 R27 K27 I27">
     <cfRule type="colorScale" priority="221">
       <colorScale>
         <cfvo type="min"/>
@@ -28779,7 +28980,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E18">
+  <conditionalFormatting sqref="C28:G28 M28:O28 R28 K28 I28">
     <cfRule type="colorScale" priority="220">
       <colorScale>
         <cfvo type="min"/>
@@ -28791,7 +28992,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17:F18">
+  <conditionalFormatting sqref="C29:G29 M29:O29 R29 K29 I29">
     <cfRule type="colorScale" priority="219">
       <colorScale>
         <cfvo type="min"/>
@@ -28803,7 +29004,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17:G18">
+  <conditionalFormatting sqref="C30:G30 M30:O30 R30 K30 I30">
     <cfRule type="colorScale" priority="218">
       <colorScale>
         <cfvo type="min"/>
@@ -28815,31 +29016,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17:H18">
-    <cfRule type="colorScale" priority="217">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17:I18">
-    <cfRule type="colorScale" priority="216">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J17:J18">
+  <conditionalFormatting sqref="L25">
     <cfRule type="colorScale" priority="215">
       <colorScale>
         <cfvo type="min"/>
@@ -28851,7 +29028,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:K18">
+  <conditionalFormatting sqref="L26">
     <cfRule type="colorScale" priority="214">
       <colorScale>
         <cfvo type="min"/>
@@ -28863,7 +29040,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L17:L18">
+  <conditionalFormatting sqref="L27">
     <cfRule type="colorScale" priority="213">
       <colorScale>
         <cfvo type="min"/>
@@ -28875,7 +29052,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M17:M18">
+  <conditionalFormatting sqref="L28">
     <cfRule type="colorScale" priority="212">
       <colorScale>
         <cfvo type="min"/>
@@ -28887,7 +29064,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N17:N18">
+  <conditionalFormatting sqref="L29">
     <cfRule type="colorScale" priority="211">
       <colorScale>
         <cfvo type="min"/>
@@ -28899,7 +29076,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O17:O18">
+  <conditionalFormatting sqref="L30">
     <cfRule type="colorScale" priority="210">
       <colorScale>
         <cfvo type="min"/>
@@ -28911,7 +29088,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P17:P18">
+  <conditionalFormatting sqref="L25:L30">
     <cfRule type="colorScale" priority="209">
       <colorScale>
         <cfvo type="min"/>
@@ -28923,7 +29100,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q17:Q18">
+  <conditionalFormatting sqref="P25">
     <cfRule type="colorScale" priority="208">
       <colorScale>
         <cfvo type="min"/>
@@ -28935,7 +29112,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:G25 M25:O25 R25 K25 I25">
+  <conditionalFormatting sqref="P26">
     <cfRule type="colorScale" priority="207">
       <colorScale>
         <cfvo type="min"/>
@@ -28947,7 +29124,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:G26 M26:O26 R26 K26 I26">
+  <conditionalFormatting sqref="P27">
     <cfRule type="colorScale" priority="206">
       <colorScale>
         <cfvo type="min"/>
@@ -28959,7 +29136,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:G27 M27:O27 R27 K27 I27">
+  <conditionalFormatting sqref="P28">
     <cfRule type="colorScale" priority="205">
       <colorScale>
         <cfvo type="min"/>
@@ -28971,7 +29148,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:G28 M28:O28 R28 K28 I28">
+  <conditionalFormatting sqref="P29">
     <cfRule type="colorScale" priority="204">
       <colorScale>
         <cfvo type="min"/>
@@ -28983,7 +29160,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:G29 M29:O29 R29 K29 I29">
+  <conditionalFormatting sqref="P30">
     <cfRule type="colorScale" priority="203">
       <colorScale>
         <cfvo type="min"/>
@@ -28995,7 +29172,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30:G30 M30:O30 R30 K30 I30">
+  <conditionalFormatting sqref="Q25">
     <cfRule type="colorScale" priority="202">
       <colorScale>
         <cfvo type="min"/>
@@ -29007,7 +29184,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L25">
+  <conditionalFormatting sqref="Q26">
+    <cfRule type="colorScale" priority="201">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q27">
+    <cfRule type="colorScale" priority="200">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q28">
     <cfRule type="colorScale" priority="199">
       <colorScale>
         <cfvo type="min"/>
@@ -29019,7 +29220,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L26">
+  <conditionalFormatting sqref="Q29">
     <cfRule type="colorScale" priority="198">
       <colorScale>
         <cfvo type="min"/>
@@ -29031,7 +29232,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L27">
+  <conditionalFormatting sqref="Q30">
     <cfRule type="colorScale" priority="197">
       <colorScale>
         <cfvo type="min"/>
@@ -29043,7 +29244,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L28">
+  <conditionalFormatting sqref="P25:P30">
     <cfRule type="colorScale" priority="196">
       <colorScale>
         <cfvo type="min"/>
@@ -29055,7 +29256,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L29">
+  <conditionalFormatting sqref="Q25:Q30">
     <cfRule type="colorScale" priority="195">
       <colorScale>
         <cfvo type="min"/>
@@ -29067,7 +29268,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L30">
+  <conditionalFormatting sqref="J25">
     <cfRule type="colorScale" priority="194">
       <colorScale>
         <cfvo type="min"/>
@@ -29079,7 +29280,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L25:L30">
+  <conditionalFormatting sqref="J26">
     <cfRule type="colorScale" priority="193">
       <colorScale>
         <cfvo type="min"/>
@@ -29091,7 +29292,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P25">
+  <conditionalFormatting sqref="J27">
     <cfRule type="colorScale" priority="192">
       <colorScale>
         <cfvo type="min"/>
@@ -29103,7 +29304,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P26">
+  <conditionalFormatting sqref="J28">
     <cfRule type="colorScale" priority="191">
       <colorScale>
         <cfvo type="min"/>
@@ -29115,7 +29316,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P27">
+  <conditionalFormatting sqref="J29">
     <cfRule type="colorScale" priority="190">
       <colorScale>
         <cfvo type="min"/>
@@ -29127,7 +29328,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P28">
+  <conditionalFormatting sqref="J30">
     <cfRule type="colorScale" priority="189">
       <colorScale>
         <cfvo type="min"/>
@@ -29139,7 +29340,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P29">
+  <conditionalFormatting sqref="J25:J30">
     <cfRule type="colorScale" priority="188">
       <colorScale>
         <cfvo type="min"/>
@@ -29151,31 +29352,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P30">
-    <cfRule type="colorScale" priority="187">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q25">
-    <cfRule type="colorScale" priority="186">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q26">
+  <conditionalFormatting sqref="H25:H30">
     <cfRule type="colorScale" priority="185">
       <colorScale>
         <cfvo type="min"/>
@@ -29187,7 +29364,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q27">
+  <conditionalFormatting sqref="C25:R30">
     <cfRule type="colorScale" priority="184">
       <colorScale>
         <cfvo type="min"/>
@@ -29199,7 +29376,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q28">
+  <conditionalFormatting sqref="V2:V3">
     <cfRule type="colorScale" priority="183">
       <colorScale>
         <cfvo type="min"/>
@@ -29211,7 +29388,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q29">
+  <conditionalFormatting sqref="V5:V6">
     <cfRule type="colorScale" priority="182">
       <colorScale>
         <cfvo type="min"/>
@@ -29223,7 +29400,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q30">
+  <conditionalFormatting sqref="V8:V9">
     <cfRule type="colorScale" priority="181">
       <colorScale>
         <cfvo type="min"/>
@@ -29235,7 +29412,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P25:P30">
+  <conditionalFormatting sqref="V11:V12">
     <cfRule type="colorScale" priority="180">
       <colorScale>
         <cfvo type="min"/>
@@ -29247,7 +29424,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q25:Q30">
+  <conditionalFormatting sqref="V14:V15">
     <cfRule type="colorScale" priority="179">
       <colorScale>
         <cfvo type="min"/>
@@ -29259,7 +29436,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
+  <conditionalFormatting sqref="V17:V18">
     <cfRule type="colorScale" priority="178">
       <colorScale>
         <cfvo type="min"/>
@@ -29271,79 +29448,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26">
-    <cfRule type="colorScale" priority="177">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
-    <cfRule type="colorScale" priority="176">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
-    <cfRule type="colorScale" priority="175">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29">
-    <cfRule type="colorScale" priority="174">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
-    <cfRule type="colorScale" priority="173">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25:J30">
-    <cfRule type="colorScale" priority="172">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25:H30">
+  <conditionalFormatting sqref="X2:X3">
+    <cfRule type="colorScale" priority="171">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X5:X6">
+    <cfRule type="colorScale" priority="170">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X8:X9">
     <cfRule type="colorScale" priority="169">
       <colorScale>
         <cfvo type="min"/>
@@ -29355,7 +29484,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:R30">
+  <conditionalFormatting sqref="X11:X12">
     <cfRule type="colorScale" priority="168">
       <colorScale>
         <cfvo type="min"/>
@@ -29367,7 +29496,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V3">
+  <conditionalFormatting sqref="X14:X15">
     <cfRule type="colorScale" priority="167">
       <colorScale>
         <cfvo type="min"/>
@@ -29379,7 +29508,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V5:V6">
+  <conditionalFormatting sqref="X17:X18">
     <cfRule type="colorScale" priority="166">
       <colorScale>
         <cfvo type="min"/>
@@ -29391,7 +29520,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V8:V9">
+  <conditionalFormatting sqref="Y2:Y3">
     <cfRule type="colorScale" priority="165">
       <colorScale>
         <cfvo type="min"/>
@@ -29403,7 +29532,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V11:V12">
+  <conditionalFormatting sqref="Y5:Y6">
     <cfRule type="colorScale" priority="164">
       <colorScale>
         <cfvo type="min"/>
@@ -29415,7 +29544,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V14:V15">
+  <conditionalFormatting sqref="Y8:Y9">
     <cfRule type="colorScale" priority="163">
       <colorScale>
         <cfvo type="min"/>
@@ -29427,7 +29556,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V17:V18">
+  <conditionalFormatting sqref="Y11:Y12">
     <cfRule type="colorScale" priority="162">
       <colorScale>
         <cfvo type="min"/>
@@ -29439,8 +29568,1328 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Y14:Y15">
+    <cfRule type="colorScale" priority="161">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y17:Y18">
+    <cfRule type="colorScale" priority="160">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z2:Z3">
+    <cfRule type="colorScale" priority="159">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z5:Z6">
+    <cfRule type="colorScale" priority="153">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z8:Z9">
+    <cfRule type="colorScale" priority="152">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z11:Z12">
+    <cfRule type="colorScale" priority="151">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z14:Z15">
+    <cfRule type="colorScale" priority="150">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z17:Z18">
+    <cfRule type="colorScale" priority="149">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB2:AB3">
+    <cfRule type="colorScale" priority="148">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB5:AB6">
+    <cfRule type="colorScale" priority="147">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB8:AB9">
+    <cfRule type="colorScale" priority="146">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB11:AB12">
+    <cfRule type="colorScale" priority="145">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB14:AB15">
+    <cfRule type="colorScale" priority="144">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB17:AB18">
+    <cfRule type="colorScale" priority="143">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA2:AA3">
+    <cfRule type="colorScale" priority="142">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA5:AA6">
+    <cfRule type="colorScale" priority="136">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA8:AA9">
+    <cfRule type="colorScale" priority="135">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA11:AA12">
+    <cfRule type="colorScale" priority="134">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA14:AA15">
+    <cfRule type="colorScale" priority="133">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA17:AA18">
+    <cfRule type="colorScale" priority="132">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC2:AC3">
+    <cfRule type="colorScale" priority="131">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC5:AC6">
+    <cfRule type="colorScale" priority="125">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC8:AC9">
+    <cfRule type="colorScale" priority="124">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC11:AC12">
+    <cfRule type="colorScale" priority="123">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC14:AC15">
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC17:AC18">
+    <cfRule type="colorScale" priority="121">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD2:AD3">
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD5:AD6">
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD8:AD9">
+    <cfRule type="colorScale" priority="113">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD11:AD12">
+    <cfRule type="colorScale" priority="112">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD14:AD15">
+    <cfRule type="colorScale" priority="111">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD17:AD18">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE2:AE3">
+    <cfRule type="colorScale" priority="109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE5:AE6">
+    <cfRule type="colorScale" priority="103">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE8:AE9">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE11:AE12">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE14:AE15">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE17:AE18">
+    <cfRule type="colorScale" priority="99">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF2:AF3">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF5:AF6">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF8:AF9">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF11:AF12">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF14:AF15">
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF17:AF18">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG2:AG3">
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG5:AG6">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG8:AG9">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG11:AG12">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG14:AG15">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG17:AG18">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH2:AH3">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH5:AH6">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH8:AH9">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH11:AH12">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH14:AH15">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH17:AH18">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI2:AI3">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI5:AI6">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI8:AI9">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI11:AI12">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI14:AI15">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI17:AI18">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ2:AJ3">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ5:AJ6">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ8:AJ9">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ11:AJ12">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ14:AJ15">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ17:AJ18">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK2:AK3">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK5:AK6">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK8:AK9">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK11:AK12">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK14:AK15">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK17:AK18">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V25:Z25 AF25:AH25 AK25 AD25 AB25">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V26:Z26 AF26:AH26 AK26 AD26 AB26">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V27:Z27 AF27:AH27 AK27 AD27 AB27">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V28:Z28 AF28:AH28 AK28 AD28 AB28">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V29:Z29 AF29:AH29 AK29 AD29 AB29">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V30:Z30 AF30:AH30 AK30 AD30 AB30">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE25">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE26">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE27">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE28">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE29">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE30">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE25:AE30">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI25">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI26">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI27">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI28">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI29">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI30">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ25">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ26">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ27">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ28">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ29">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ30">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI25:AI30">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ25:AJ30">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC25">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC26">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC27">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC28">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC29">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC30">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC25:AC30">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA25:AA30">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V25:AK30">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="W2:W3">
-    <cfRule type="colorScale" priority="161">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -29452,7 +30901,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W5:W6">
-    <cfRule type="colorScale" priority="160">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -29464,7 +30913,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W8:W9">
-    <cfRule type="colorScale" priority="159">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -29476,7 +30925,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W11:W12">
-    <cfRule type="colorScale" priority="158">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -29488,7 +30937,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W14:W15">
-    <cfRule type="colorScale" priority="157">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -29500,1446 +30949,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W17:W18">
-    <cfRule type="colorScale" priority="156">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X3">
-    <cfRule type="colorScale" priority="155">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X5:X6">
-    <cfRule type="colorScale" priority="154">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X8:X9">
-    <cfRule type="colorScale" priority="153">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X11:X12">
-    <cfRule type="colorScale" priority="152">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X14:X15">
-    <cfRule type="colorScale" priority="151">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X17:X18">
-    <cfRule type="colorScale" priority="150">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Y3">
-    <cfRule type="colorScale" priority="149">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y5:Y6">
-    <cfRule type="colorScale" priority="148">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y8:Y9">
-    <cfRule type="colorScale" priority="147">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y11:Y12">
-    <cfRule type="colorScale" priority="146">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y14:Y15">
-    <cfRule type="colorScale" priority="145">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y17:Y18">
-    <cfRule type="colorScale" priority="144">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:Z3">
-    <cfRule type="colorScale" priority="143">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z5:Z6">
-    <cfRule type="colorScale" priority="137">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z8:Z9">
-    <cfRule type="colorScale" priority="136">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z11:Z12">
-    <cfRule type="colorScale" priority="135">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z14:Z15">
-    <cfRule type="colorScale" priority="134">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z17:Z18">
-    <cfRule type="colorScale" priority="133">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AB3">
-    <cfRule type="colorScale" priority="132">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB5:AB6">
-    <cfRule type="colorScale" priority="131">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB8:AB9">
-    <cfRule type="colorScale" priority="130">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB11:AB12">
-    <cfRule type="colorScale" priority="129">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB14:AB15">
-    <cfRule type="colorScale" priority="128">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB17:AB18">
-    <cfRule type="colorScale" priority="127">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AA3">
-    <cfRule type="colorScale" priority="126">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA5:AA6">
-    <cfRule type="colorScale" priority="120">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA8:AA9">
-    <cfRule type="colorScale" priority="119">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA11:AA12">
-    <cfRule type="colorScale" priority="118">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA14:AA15">
-    <cfRule type="colorScale" priority="117">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA17:AA18">
-    <cfRule type="colorScale" priority="116">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC2:AC3">
-    <cfRule type="colorScale" priority="115">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC5:AC6">
-    <cfRule type="colorScale" priority="109">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC8:AC9">
-    <cfRule type="colorScale" priority="108">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC11:AC12">
-    <cfRule type="colorScale" priority="107">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC14:AC15">
-    <cfRule type="colorScale" priority="106">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC17:AC18">
-    <cfRule type="colorScale" priority="105">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD2:AD3">
-    <cfRule type="colorScale" priority="104">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD5:AD6">
-    <cfRule type="colorScale" priority="98">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD8:AD9">
-    <cfRule type="colorScale" priority="97">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD11:AD12">
-    <cfRule type="colorScale" priority="96">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD14:AD15">
-    <cfRule type="colorScale" priority="95">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD17:AD18">
-    <cfRule type="colorScale" priority="94">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE2:AE3">
-    <cfRule type="colorScale" priority="93">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE5:AE6">
-    <cfRule type="colorScale" priority="87">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE8:AE9">
-    <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE11:AE12">
-    <cfRule type="colorScale" priority="85">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE14:AE15">
-    <cfRule type="colorScale" priority="84">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE17:AE18">
-    <cfRule type="colorScale" priority="83">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF2:AF3">
-    <cfRule type="colorScale" priority="82">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF5:AF6">
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF8:AF9">
-    <cfRule type="colorScale" priority="75">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF11:AF12">
-    <cfRule type="colorScale" priority="74">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF14:AF15">
-    <cfRule type="colorScale" priority="73">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF17:AF18">
-    <cfRule type="colorScale" priority="72">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AG3">
-    <cfRule type="colorScale" priority="71">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG5:AG6">
-    <cfRule type="colorScale" priority="65">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG8:AG9">
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG11:AG12">
-    <cfRule type="colorScale" priority="63">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG14:AG15">
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG17:AG18">
-    <cfRule type="colorScale" priority="61">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH2:AH3">
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH5:AH6">
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH8:AH9">
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH11:AH12">
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH14:AH15">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH17:AH18">
-    <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI2:AI3">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI5:AI6">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI8:AI9">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI11:AI12">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI14:AI15">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI17:AI18">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ2:AJ3">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ5:AJ6">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ8:AJ9">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ11:AJ12">
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ14:AJ15">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ17:AJ18">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK2:AK3">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK5:AK6">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK8:AK9">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK11:AK12">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK14:AK15">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK17:AK18">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V25:Z25 AF25:AH25 AK25 AD25 AB25">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V26:Z26 AF26:AH26 AK26 AD26 AB26">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V27:Z27 AF27:AH27 AK27 AD27 AB27">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V28:Z28 AF28:AH28 AK28 AD28 AB28">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V29:Z29 AF29:AH29 AK29 AD29 AB29">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V30:Z30 AF30:AH30 AK30 AD30 AB30">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE25">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE26">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE27">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE28">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE29">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE30">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE25:AE30">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI25">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI26">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI27">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI28">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI29">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI30">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ25">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ26">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ27">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ28">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ29">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ30">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI25:AI30">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ25:AJ30">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC25">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC26">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC27">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC28">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC29">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC30">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC25:AC30">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA25:AA30">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V25:AK30">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/migforecasting/clustering/AN-method.xlsx
+++ b/migforecasting/clustering/AN-method.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12255" activeTab="4"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ мун-районы" sheetId="1" r:id="rId1"/>
@@ -1626,6 +1626,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2701,6 +2702,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3706,6 +3708,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4710,6 +4713,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10325,16 +10329,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>714376</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>546288</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>129708</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>45946</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>115421</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10781,7 +10785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
@@ -18581,7 +18585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B22" workbookViewId="0">
       <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
@@ -25002,8 +25006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27678,7 +27682,8 @@
         <v>1.9751422847854416E-2</v>
       </c>
       <c r="J31" s="47">
-        <v>3.7582281853761536E-2</v>
+        <f t="shared" si="31"/>
+        <v>-9.0367197346859537E-2</v>
       </c>
       <c r="K31" s="47">
         <f t="shared" si="31"/>

--- a/migforecasting/clustering/AN-method.xlsx
+++ b/migforecasting/clustering/AN-method.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12255" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ мун-районы" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,23 @@
     <sheet name="Анализ поселения" sheetId="3" r:id="rId3"/>
     <sheet name="Прогноз поселения" sheetId="4" r:id="rId4"/>
     <sheet name="Анализ совместный" sheetId="5" r:id="rId5"/>
+    <sheet name="График" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">График!$B$21:$Q$21</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">График!$B$34:$Q$34</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">График!$B$35:$Q$35</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">График!$B$36:$Q$36</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">График!$B$37:$Q$37</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">График!$B$38:$Q$38</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">График!$B$39:$Q$39</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="43">
   <si>
     <t>clust</t>
   </si>
@@ -131,6 +141,27 @@
   </si>
   <si>
     <t>livestock abs</t>
+  </si>
+  <si>
+    <t>макс</t>
+  </si>
+  <si>
+    <t>Cluster 0</t>
+  </si>
+  <si>
+    <t>Cluster 1</t>
+  </si>
+  <si>
+    <t>Cluster 2</t>
+  </si>
+  <si>
+    <t>Cluster 3</t>
+  </si>
+  <si>
+    <t>Cluster 4</t>
+  </si>
+  <si>
+    <t>Cluster 5</t>
   </si>
 </sst>
 </file>
@@ -456,7 +487,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -623,6 +654,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -6884,6 +6916,1050 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="filled"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Cluster 0</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="10196"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="50800">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>График!$B$21:$Q$21</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>popsize</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>avgemployers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>avgsalary</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>shoparea</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>foodseats</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>retailturnover</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>livarea</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sportsvenue</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>servicesnum</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>roadslen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>livestock</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>harvest</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>agrprod</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>hospitals</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>beforeschool</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>factoriescap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>График!$B$34:$Q$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.70377260140353692</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4483557388533414</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69385236796200678</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41349230737400106</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53250154527519444</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43225486925252077</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90694637878773232</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94326177485606666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.43345878253134523</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.28559758578678957</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.89245069427139467</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.52505954492088236</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.17476248419436782</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A397-41FE-A296-EB89B948A5AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Cluster 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="10196"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="50800">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>График!$B$21:$Q$21</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>popsize</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>avgemployers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>avgsalary</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>shoparea</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>foodseats</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>retailturnover</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>livarea</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sportsvenue</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>servicesnum</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>roadslen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>livestock</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>harvest</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>agrprod</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>hospitals</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>beforeschool</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>factoriescap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>График!$B$35:$Q$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89946986480101188</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84870119778779918</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.81968960269085922</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99141613459754252</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6831003236689932</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.9779196312790813E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.21021166891245233</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.17269109376184449</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.62806522768268702</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.99580969819423371</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3262471044908134</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A397-41FE-A296-EB89B948A5AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Cluster 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:alpha val="10196"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="50800">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>График!$B$21:$Q$21</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>popsize</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>avgemployers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>avgsalary</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>shoparea</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>foodseats</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>retailturnover</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>livarea</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sportsvenue</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>servicesnum</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>roadslen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>livestock</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>harvest</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>agrprod</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>hospitals</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>beforeschool</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>factoriescap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>График!$B$36:$Q$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.28709767175285722</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19450814319479476</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65589517884777593</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18568920865687921</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19037871546419971</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16947697299390951</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.47610122758483897</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18727672623544803</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.76230035066888835</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.10881097413875086</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12829691918097522</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.28296768920708426</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.68843785877548624</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.24148179266887737</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.6124449500265605E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A397-41FE-A296-EB89B948A5AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Cluster 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:alpha val="10196"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="50800">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:alpha val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>График!$B$21:$Q$21</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>popsize</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>avgemployers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>avgsalary</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>shoparea</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>foodseats</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>retailturnover</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>livarea</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sportsvenue</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>servicesnum</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>roadslen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>livestock</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>harvest</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>agrprod</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>hospitals</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>beforeschool</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>factoriescap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>График!$B$37:$Q$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.6330388167537353</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44387905909480607</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68995363473277282</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38037787992215172</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.40496016146916258</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31794249976434003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85002450600434698</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88666256245398278</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45069853669906856</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95204632869653472</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.37141152191553817</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.97611615705265953</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.49824533241851682</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.18052026897286472</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A397-41FE-A296-EB89B948A5AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Cluster 4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:alpha val="10196"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="50800">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:alpha val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>График!$B$21:$Q$21</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>popsize</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>avgemployers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>avgsalary</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>shoparea</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>foodseats</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>retailturnover</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>livarea</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sportsvenue</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>servicesnum</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>roadslen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>livestock</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>harvest</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>agrprod</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>hospitals</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>beforeschool</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>factoriescap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>График!$B$38:$Q$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.97889793878432119</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80846278123709669</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78597901707061113</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8400459684966588</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.81512987741569243</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75918365696320556</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.84022870640376579</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15043860162515557</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.29244502089207919</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.34022102263903042</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.77546480929447126</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A397-41FE-A296-EB89B948A5AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Cluster 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:alpha val="10196"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="50800">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:alpha val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>График!$B$21:$Q$21</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>popsize</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>avgemployers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>avgsalary</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>shoparea</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>foodseats</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>retailturnover</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>livarea</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sportsvenue</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>servicesnum</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>roadslen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>livestock</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>harvest</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>agrprod</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>hospitals</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>beforeschool</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>factoriescap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>График!$B$39:$Q$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.65090174323182826</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44766175059196139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71721931072828116</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38844495301953907</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.40727974986835075</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32333773903395346</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78249413151688396</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70419719490783539</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.39994712761696805</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7717983274934751</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.17624868611455571</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.23526940327529927</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.41270027421501487</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.80845418905546695</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.55438182539061065</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.10801590057378728</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A397-41FE-A296-EB89B948A5AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1069825648"/>
+        <c:axId val="1069827312"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="1069825648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1069827312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1069827312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1069825648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7085,6 +8161,46 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10295,6 +11411,547 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="319">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="43000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="10196"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="50800">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="30000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="10196"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="50800">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="30000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="50800" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="30000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" kern="1200" spc="70" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="63500" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -10490,6 +12147,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>560853</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>126344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>231961</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10785,7 +12477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
@@ -25006,8 +26698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK31"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView topLeftCell="M16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:AK18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30969,4 +32661,1769 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Q39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z6" sqref="Z6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>38817.632653061199</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5648.5582401918809</v>
+      </c>
+      <c r="D3" s="2">
+        <v>20815.4167831292</v>
+      </c>
+      <c r="E3" s="2">
+        <v>19721.961700869851</v>
+      </c>
+      <c r="F3" s="2">
+        <v>881.00766886934832</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1094086.8605928773</v>
+      </c>
+      <c r="H3" s="2">
+        <v>30.831632653061199</v>
+      </c>
+      <c r="I3" s="2">
+        <v>125.67723086911656</v>
+      </c>
+      <c r="J3" s="2">
+        <v>77.805859831260051</v>
+      </c>
+      <c r="K3" s="2">
+        <v>657.77532591485419</v>
+      </c>
+      <c r="L3" s="2">
+        <v>101102.97564972579</v>
+      </c>
+      <c r="M3" s="2">
+        <v>120574.19315861978</v>
+      </c>
+      <c r="N3" s="2">
+        <v>4717355.206267274</v>
+      </c>
+      <c r="O3" s="2">
+        <v>35.752251160859089</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1599.1393204301278</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>5013077.512856801</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>31582.1806020066</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4434.3562991985273</v>
+      </c>
+      <c r="D4" s="2">
+        <v>19094.5193902842</v>
+      </c>
+      <c r="E4" s="2">
+        <v>15999.165256538305</v>
+      </c>
+      <c r="F4" s="2">
+        <v>719.88996929169048</v>
+      </c>
+      <c r="G4" s="2">
+        <v>755544.8175641374</v>
+      </c>
+      <c r="H4" s="2">
+        <v>30.4939581939799</v>
+      </c>
+      <c r="I4" s="2">
+        <v>108.1727385836171</v>
+      </c>
+      <c r="J4" s="2">
+        <v>63.324470427765711</v>
+      </c>
+      <c r="K4" s="2">
+        <v>576.11509846555475</v>
+      </c>
+      <c r="L4" s="2">
+        <v>91009.360062225765</v>
+      </c>
+      <c r="M4" s="2">
+        <v>98418.191151287509</v>
+      </c>
+      <c r="N4" s="2">
+        <v>3487399.2276362171</v>
+      </c>
+      <c r="O4" s="2">
+        <v>34.964567159816269</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1390.6307683498012</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>3325070.7526296591</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>52024.114446528998</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10206.306899606619</v>
+      </c>
+      <c r="D6" s="2">
+        <v>24430.417592114401</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45468.347505469341</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1645.6410443006491</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2362294.7641864121</v>
+      </c>
+      <c r="H6" s="2">
+        <v>27.620294559099399</v>
+      </c>
+      <c r="I6" s="2">
+        <v>122.67344831038196</v>
+      </c>
+      <c r="J6" s="2">
+        <v>166.46398701290835</v>
+      </c>
+      <c r="K6" s="2">
+        <v>384.78892776104192</v>
+      </c>
+      <c r="L6" s="2">
+        <v>28977.998578687864</v>
+      </c>
+      <c r="M6" s="2">
+        <v>24766.251315762191</v>
+      </c>
+      <c r="N6" s="2">
+        <v>827690.06333850382</v>
+      </c>
+      <c r="O6" s="2">
+        <v>21.095615783084529</v>
+      </c>
+      <c r="P6" s="2">
+        <v>2896.8590066809597</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>8379778.1909793671</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>48007.931578947297</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10021.554576506293</v>
+      </c>
+      <c r="D7" s="2">
+        <v>24386.322391779799</v>
+      </c>
+      <c r="E7" s="2">
+        <v>40920.507426960212</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1360.7307725805617</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1916735.5249471751</v>
+      </c>
+      <c r="H7" s="2">
+        <v>27.805197368420998</v>
+      </c>
+      <c r="I7" s="2">
+        <v>123.11477185359078</v>
+      </c>
+      <c r="J7" s="2">
+        <v>159.12713248141179</v>
+      </c>
+      <c r="K7" s="2">
+        <v>458.08202050528689</v>
+      </c>
+      <c r="L7" s="2">
+        <v>31413.58720617303</v>
+      </c>
+      <c r="M7" s="2">
+        <v>21268.503269140554</v>
+      </c>
+      <c r="N7" s="2">
+        <v>759947.24405907537</v>
+      </c>
+      <c r="O7" s="2">
+        <v>23.319158816485647</v>
+      </c>
+      <c r="P7" s="2">
+        <v>2773.4351124873888</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>7185900.798823663</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>13790.127725856601</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2088.3249137487496</v>
+      </c>
+      <c r="D9" s="2">
+        <v>19210.228831246099</v>
+      </c>
+      <c r="E9" s="2">
+        <v>7762.6753209116032</v>
+      </c>
+      <c r="F9" s="2">
+        <v>281.9402175474014</v>
+      </c>
+      <c r="G9" s="2">
+        <v>374829.37895564421</v>
+      </c>
+      <c r="H9" s="2">
+        <v>35.438037383177502</v>
+      </c>
+      <c r="I9" s="2">
+        <v>54.072514242661704</v>
+      </c>
+      <c r="J9" s="2">
+        <v>28.221234650144268</v>
+      </c>
+      <c r="K9" s="2">
+        <v>479.14656225630722</v>
+      </c>
+      <c r="L9" s="2">
+        <v>32749.978346102071</v>
+      </c>
+      <c r="M9" s="2">
+        <v>14259.056285147479</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1321756.1130112109</v>
+      </c>
+      <c r="O9" s="2">
+        <v>22.706877133008756</v>
+      </c>
+      <c r="P9" s="2">
+        <v>609.58223327103974</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>1212990.4258594345</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>14928.839788732301</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2285.9003165658451</v>
+      </c>
+      <c r="D10" s="2">
+        <v>18516.434552711198</v>
+      </c>
+      <c r="E10" s="2">
+        <v>8278.8027882651786</v>
+      </c>
+      <c r="F10" s="2">
+        <v>290.40898715821578</v>
+      </c>
+      <c r="G10" s="2">
+        <v>350367.72179596953</v>
+      </c>
+      <c r="H10" s="2">
+        <v>32.179621478873202</v>
+      </c>
+      <c r="I10" s="2">
+        <v>63.960740676538748</v>
+      </c>
+      <c r="J10" s="2">
+        <v>32.75440430008657</v>
+      </c>
+      <c r="K10" s="2">
+        <v>461.44854093586207</v>
+      </c>
+      <c r="L10" s="2">
+        <v>40443.673957716193</v>
+      </c>
+      <c r="M10" s="2">
+        <v>13836.991945909762</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1279710.1837556844</v>
+      </c>
+      <c r="O10" s="2">
+        <v>25.977257851092066</v>
+      </c>
+      <c r="P10" s="2">
+        <v>765.45236554794838</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>987667.80104823667</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>36476.658536585302</v>
+      </c>
+      <c r="C12" s="2">
+        <v>5714.5080545330657</v>
+      </c>
+      <c r="D12" s="2">
+        <v>20427.341848341399</v>
+      </c>
+      <c r="E12" s="2">
+        <v>18620.078602856647</v>
+      </c>
+      <c r="F12" s="2">
+        <v>713.92266024672676</v>
+      </c>
+      <c r="G12" s="2">
+        <v>795019.6038440204</v>
+      </c>
+      <c r="H12" s="2">
+        <v>28.859170731707302</v>
+      </c>
+      <c r="I12" s="2">
+        <v>121.21954458437749</v>
+      </c>
+      <c r="J12" s="2">
+        <v>82.574144705994001</v>
+      </c>
+      <c r="K12" s="2">
+        <v>675.1104937785783</v>
+      </c>
+      <c r="L12" s="2">
+        <v>390629.37411319534</v>
+      </c>
+      <c r="M12" s="2">
+        <v>50169.914191199998</v>
+      </c>
+      <c r="N12" s="2">
+        <v>5170690.3577637998</v>
+      </c>
+      <c r="O12" s="2">
+        <v>37.037791832750614</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1578.0387530220921</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>5162046.5029202029</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>26847.509516837399</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4267.7320080658319</v>
+      </c>
+      <c r="D13" s="2">
+        <v>19258.341729677799</v>
+      </c>
+      <c r="E13" s="2">
+        <v>14240.330885243227</v>
+      </c>
+      <c r="F13" s="2">
+        <v>503.53815615382825</v>
+      </c>
+      <c r="G13" s="2">
+        <v>565465.9828504388</v>
+      </c>
+      <c r="H13" s="2">
+        <v>28.6174963396778</v>
+      </c>
+      <c r="I13" s="2">
+        <v>98.598557528777263</v>
+      </c>
+      <c r="J13" s="2">
+        <v>64.169296412307659</v>
+      </c>
+      <c r="K13" s="2">
+        <v>499.6103547665993</v>
+      </c>
+      <c r="L13" s="2">
+        <v>282038.5519223258</v>
+      </c>
+      <c r="M13" s="2">
+        <v>31166.38055325509</v>
+      </c>
+      <c r="N13" s="2">
+        <v>4022819.7000685059</v>
+      </c>
+      <c r="O13" s="2">
+        <v>31.990037105418118</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1259.0470711458274</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>3450813.2567704315</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>51806.327272727198</v>
+      </c>
+      <c r="C15" s="2">
+        <v>11428.022546365821</v>
+      </c>
+      <c r="D15" s="2">
+        <v>29031.0083701363</v>
+      </c>
+      <c r="E15" s="2">
+        <v>38299.681634895933</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1288.5880166024006</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2114276.5499864174</v>
+      </c>
+      <c r="H15" s="2">
+        <v>27.965422727272699</v>
+      </c>
+      <c r="I15" s="2">
+        <v>123.30669105307349</v>
+      </c>
+      <c r="J15" s="2">
+        <v>132.03295622095121</v>
+      </c>
+      <c r="K15" s="2">
+        <v>515.09434074171179</v>
+      </c>
+      <c r="L15" s="2">
+        <v>49395.306275683972</v>
+      </c>
+      <c r="M15" s="2">
+        <v>37819.7689054316</v>
+      </c>
+      <c r="N15" s="2">
+        <v>1725327.0647264121</v>
+      </c>
+      <c r="O15" s="2">
+        <v>25.904925101591786</v>
+      </c>
+      <c r="P15" s="2">
+        <v>2915.7617682164901</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>25333054.934995431</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>46114.836393989899</v>
+      </c>
+      <c r="C16" s="2">
+        <v>11060.625787158826</v>
+      </c>
+      <c r="D16" s="2">
+        <v>28488.340148681102</v>
+      </c>
+      <c r="E16" s="2">
+        <v>31542.492291664148</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1074.3571489786812</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1480305.5934753448</v>
+      </c>
+      <c r="H16" s="2">
+        <v>27.1517512520868</v>
+      </c>
+      <c r="I16" s="2">
+        <v>124.60960926389534</v>
+      </c>
+      <c r="J16" s="2">
+        <v>115.15050055149082</v>
+      </c>
+      <c r="K16" s="2">
+        <v>521.65581437943285</v>
+      </c>
+      <c r="L16" s="2">
+        <v>51799.915875193394</v>
+      </c>
+      <c r="M16" s="2">
+        <v>26223.463499285463</v>
+      </c>
+      <c r="N16" s="2">
+        <v>1402498.3287915068</v>
+      </c>
+      <c r="O16" s="2">
+        <v>28.933478931362497</v>
+      </c>
+      <c r="P16" s="2">
+        <v>2778.3925761835098</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>22378261.964190524</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>35588.633223684199</v>
+      </c>
+      <c r="C18" s="2">
+        <v>5316.1026797151171</v>
+      </c>
+      <c r="D18" s="2">
+        <v>20804.770158470299</v>
+      </c>
+      <c r="E18" s="2">
+        <v>18102.338865571393</v>
+      </c>
+      <c r="F18" s="2">
+        <v>692.21862862467367</v>
+      </c>
+      <c r="G18" s="2">
+        <v>786293.0504705467</v>
+      </c>
+      <c r="H18" s="2">
+        <v>26.112401315789398</v>
+      </c>
+      <c r="I18" s="2">
+        <v>90.463582676213051</v>
+      </c>
+      <c r="J18" s="2">
+        <v>70.480699544079414</v>
+      </c>
+      <c r="K18" s="2">
+        <v>497.85288158683824</v>
+      </c>
+      <c r="L18" s="2">
+        <v>61373.672326328422</v>
+      </c>
+      <c r="M18" s="2">
+        <v>29602.908737410504</v>
+      </c>
+      <c r="N18" s="2">
+        <v>2185490.0203954638</v>
+      </c>
+      <c r="O18" s="2">
+        <v>28.514194264827129</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1635.6427628317319</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>3002048.203665785</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>29522.399913344801</v>
+      </c>
+      <c r="C19" s="2">
+        <v>4751.2050017175216</v>
+      </c>
+      <c r="D19" s="2">
+        <v>20449.2173397357</v>
+      </c>
+      <c r="E19" s="2">
+        <v>15454.97583006798</v>
+      </c>
+      <c r="F19" s="2">
+        <v>532.21573296596523</v>
+      </c>
+      <c r="G19" s="2">
+        <v>597278.92847571138</v>
+      </c>
+      <c r="H19" s="2">
+        <v>26.798019930675899</v>
+      </c>
+      <c r="I19" s="2">
+        <v>84.118380578924913</v>
+      </c>
+      <c r="J19" s="2">
+        <v>59.738533475266919</v>
+      </c>
+      <c r="K19" s="2">
+        <v>454.46168426017567</v>
+      </c>
+      <c r="L19" s="2">
+        <v>57183.165828835306</v>
+      </c>
+      <c r="M19" s="2">
+        <v>21919.298841016396</v>
+      </c>
+      <c r="N19" s="2">
+        <v>1608674.1014704264</v>
+      </c>
+      <c r="O19" s="2">
+        <v>28.657113743197254</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1521.0929166726162</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>2151532.6587611428</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="42"/>
+      <c r="B21" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="N21" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="O21" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="P21" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22">
+        <f>AVERAGE(B3:B4)</f>
+        <v>35199.906627533899</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:Q25" si="0">AVERAGE(C3:C4)</f>
+        <v>5041.4572696952036</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>19954.9680867067</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>17860.563478704076</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>800.44881908051934</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>924815.83907850739</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>30.662795423520549</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>116.92498472636683</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>70.565165129512877</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>616.94521219020453</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>96056.167855975771</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>109496.19215495363</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>4102377.2169517456</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="0"/>
+        <v>35.358409160337679</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>1494.8850443899646</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="0"/>
+        <v>4169074.1327432301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23">
+        <f>AVERAGE(B6:B7)</f>
+        <v>50016.023012738151</v>
+      </c>
+      <c r="C23">
+        <f>AVERAGE(C6:C7)</f>
+        <v>10113.930738056457</v>
+      </c>
+      <c r="D23">
+        <f>AVERAGE(D6:D7)</f>
+        <v>24408.3699919471</v>
+      </c>
+      <c r="E23">
+        <f>AVERAGE(E6:E7)</f>
+        <v>43194.42746621478</v>
+      </c>
+      <c r="F23">
+        <f>AVERAGE(F6:F7)</f>
+        <v>1503.1859084406055</v>
+      </c>
+      <c r="G23">
+        <f>AVERAGE(G6:G7)</f>
+        <v>2139515.1445667935</v>
+      </c>
+      <c r="H23">
+        <f>AVERAGE(H6:H7)</f>
+        <v>27.712745963760199</v>
+      </c>
+      <c r="I23">
+        <f>AVERAGE(I6:I7)</f>
+        <v>122.89411008198637</v>
+      </c>
+      <c r="J23">
+        <f>AVERAGE(J6:J7)</f>
+        <v>162.79555974716007</v>
+      </c>
+      <c r="K23">
+        <f>AVERAGE(K6:K7)</f>
+        <v>421.4354741331644</v>
+      </c>
+      <c r="L23">
+        <f>AVERAGE(L6:L7)</f>
+        <v>30195.792892430447</v>
+      </c>
+      <c r="M23">
+        <f>AVERAGE(M6:M7)</f>
+        <v>23017.377292451372</v>
+      </c>
+      <c r="N23">
+        <f>AVERAGE(N6:N7)</f>
+        <v>793818.65369878965</v>
+      </c>
+      <c r="O23">
+        <f>AVERAGE(O6:O7)</f>
+        <v>22.20738729978509</v>
+      </c>
+      <c r="P23">
+        <f>AVERAGE(P6:P7)</f>
+        <v>2835.1470595841743</v>
+      </c>
+      <c r="Q23">
+        <f>AVERAGE(Q6:Q7)</f>
+        <v>7782839.4949015155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24">
+        <f>AVERAGE(B9:B10)</f>
+        <v>14359.483757294451</v>
+      </c>
+      <c r="C24">
+        <f>AVERAGE(C9:C10)</f>
+        <v>2187.1126151572971</v>
+      </c>
+      <c r="D24">
+        <f>AVERAGE(D9:D10)</f>
+        <v>18863.331691978648</v>
+      </c>
+      <c r="E24">
+        <f>AVERAGE(E9:E10)</f>
+        <v>8020.7390545883909</v>
+      </c>
+      <c r="F24">
+        <f>AVERAGE(F9:F10)</f>
+        <v>286.17460235280862</v>
+      </c>
+      <c r="G24">
+        <f>AVERAGE(G9:G10)</f>
+        <v>362598.55037580687</v>
+      </c>
+      <c r="H24">
+        <f>AVERAGE(H9:H10)</f>
+        <v>33.808829431025352</v>
+      </c>
+      <c r="I24">
+        <f>AVERAGE(I9:I10)</f>
+        <v>59.01662745960023</v>
+      </c>
+      <c r="J24">
+        <f>AVERAGE(J9:J10)</f>
+        <v>30.487819475115419</v>
+      </c>
+      <c r="K24">
+        <f>AVERAGE(K9:K10)</f>
+        <v>470.29755159608465</v>
+      </c>
+      <c r="L24">
+        <f>AVERAGE(L9:L10)</f>
+        <v>36596.826151909132</v>
+      </c>
+      <c r="M24">
+        <f>AVERAGE(M9:M10)</f>
+        <v>14048.02411552862</v>
+      </c>
+      <c r="N24">
+        <f>AVERAGE(N9:N10)</f>
+        <v>1300733.1483834477</v>
+      </c>
+      <c r="O24">
+        <f>AVERAGE(O9:O10)</f>
+        <v>24.342067492050411</v>
+      </c>
+      <c r="P24">
+        <f>AVERAGE(P9:P10)</f>
+        <v>687.51729940949406</v>
+      </c>
+      <c r="Q24">
+        <f>AVERAGE(Q9:Q10)</f>
+        <v>1100329.1134538357</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25">
+        <f>AVERAGE(B12:B13)</f>
+        <v>31662.084026711353</v>
+      </c>
+      <c r="C25">
+        <f>AVERAGE(C12:C13)</f>
+        <v>4991.1200312994488</v>
+      </c>
+      <c r="D25">
+        <f>AVERAGE(D12:D13)</f>
+        <v>19842.841789009599</v>
+      </c>
+      <c r="E25">
+        <f>AVERAGE(E12:E13)</f>
+        <v>16430.204744049937</v>
+      </c>
+      <c r="F25">
+        <f>AVERAGE(F12:F13)</f>
+        <v>608.73040820027745</v>
+      </c>
+      <c r="G25">
+        <f>AVERAGE(G12:G13)</f>
+        <v>680242.7933472296</v>
+      </c>
+      <c r="H25">
+        <f>AVERAGE(H12:H13)</f>
+        <v>28.738333535692551</v>
+      </c>
+      <c r="I25">
+        <f>AVERAGE(I12:I13)</f>
+        <v>109.90905105657737</v>
+      </c>
+      <c r="J25">
+        <f>AVERAGE(J12:J13)</f>
+        <v>73.37172055915083</v>
+      </c>
+      <c r="K25">
+        <f>AVERAGE(K12:K13)</f>
+        <v>587.36042427258883</v>
+      </c>
+      <c r="L25">
+        <f>AVERAGE(L12:L13)</f>
+        <v>336333.96301776054</v>
+      </c>
+      <c r="M25">
+        <f>AVERAGE(M12:M13)</f>
+        <v>40668.14737222754</v>
+      </c>
+      <c r="N25">
+        <f>AVERAGE(N12:N13)</f>
+        <v>4596755.0289161531</v>
+      </c>
+      <c r="O25">
+        <f>AVERAGE(O12:O13)</f>
+        <v>34.513914469084369</v>
+      </c>
+      <c r="P25">
+        <f>AVERAGE(P12:P13)</f>
+        <v>1418.5429120839599</v>
+      </c>
+      <c r="Q25">
+        <f>AVERAGE(Q12:Q13)</f>
+        <v>4306429.8798453175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26">
+        <f>AVERAGE(B15:B16)</f>
+        <v>48960.581833358548</v>
+      </c>
+      <c r="C26">
+        <f>AVERAGE(C15:C16)</f>
+        <v>11244.324166762322</v>
+      </c>
+      <c r="D26">
+        <f>AVERAGE(D15:D16)</f>
+        <v>28759.674259408701</v>
+      </c>
+      <c r="E26">
+        <f>AVERAGE(E15:E16)</f>
+        <v>34921.086963280039</v>
+      </c>
+      <c r="F26">
+        <f>AVERAGE(F15:F16)</f>
+        <v>1181.4725827905409</v>
+      </c>
+      <c r="G26">
+        <f>AVERAGE(G15:G16)</f>
+        <v>1797291.071730881</v>
+      </c>
+      <c r="H26">
+        <f>AVERAGE(H15:H16)</f>
+        <v>27.55858698967975</v>
+      </c>
+      <c r="I26">
+        <f>AVERAGE(I15:I16)</f>
+        <v>123.95815015848441</v>
+      </c>
+      <c r="J26">
+        <f>AVERAGE(J15:J16)</f>
+        <v>123.59172838622101</v>
+      </c>
+      <c r="K26">
+        <f>AVERAGE(K15:K16)</f>
+        <v>518.37507756057232</v>
+      </c>
+      <c r="L26">
+        <f>AVERAGE(L15:L16)</f>
+        <v>50597.611075438683</v>
+      </c>
+      <c r="M26">
+        <f>AVERAGE(M15:M16)</f>
+        <v>32021.616202358531</v>
+      </c>
+      <c r="N26">
+        <f>AVERAGE(N15:N16)</f>
+        <v>1563912.6967589594</v>
+      </c>
+      <c r="O26">
+        <f>AVERAGE(O15:O16)</f>
+        <v>27.419202016477144</v>
+      </c>
+      <c r="P26">
+        <f>AVERAGE(P15:P16)</f>
+        <v>2847.0771721999999</v>
+      </c>
+      <c r="Q26">
+        <f>AVERAGE(Q15:Q16)</f>
+        <v>23855658.449592978</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27">
+        <f>AVERAGE(B18:B19)</f>
+        <v>32555.5165685145</v>
+      </c>
+      <c r="C27">
+        <f>AVERAGE(C18:C19)</f>
+        <v>5033.6538407163189</v>
+      </c>
+      <c r="D27">
+        <f>AVERAGE(D18:D19)</f>
+        <v>20626.993749103</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(E18:E19)</f>
+        <v>16778.657347819688</v>
+      </c>
+      <c r="F27">
+        <f>AVERAGE(F18:F19)</f>
+        <v>612.21718079531945</v>
+      </c>
+      <c r="G27">
+        <f>AVERAGE(G18:G19)</f>
+        <v>691785.98947312904</v>
+      </c>
+      <c r="H27">
+        <f>AVERAGE(H18:H19)</f>
+        <v>26.455210623232649</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(I18:I19)</f>
+        <v>87.290981627568982</v>
+      </c>
+      <c r="J27">
+        <f>AVERAGE(J18:J19)</f>
+        <v>65.109616509673174</v>
+      </c>
+      <c r="K27">
+        <f>AVERAGE(K18:K19)</f>
+        <v>476.15728292350695</v>
+      </c>
+      <c r="L27">
+        <f>AVERAGE(L18:L19)</f>
+        <v>59278.419077581864</v>
+      </c>
+      <c r="M27">
+        <f>AVERAGE(M18:M19)</f>
+        <v>25761.103789213448</v>
+      </c>
+      <c r="N27">
+        <f>AVERAGE(N18:N19)</f>
+        <v>1897082.060932945</v>
+      </c>
+      <c r="O27">
+        <f>AVERAGE(O18:O19)</f>
+        <v>28.585654004012191</v>
+      </c>
+      <c r="P27">
+        <f>AVERAGE(P18:P19)</f>
+        <v>1578.3678397521739</v>
+      </c>
+      <c r="Q27">
+        <f>AVERAGE(Q18:Q19)</f>
+        <v>2576790.4312134637</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29">
+        <f>MAX(B22:B27)</f>
+        <v>50016.023012738151</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:Q29" si="1">MAX(C22:C27)</f>
+        <v>11244.324166762322</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>28759.674259408701</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>43194.42746621478</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>1503.1859084406055</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>2139515.1445667935</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>33.808829431025352</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>123.95815015848441</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>162.79555974716007</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>616.94521219020453</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>336333.96301776054</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="1"/>
+        <v>109496.19215495363</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="1"/>
+        <v>4596755.0289161531</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>35.358409160337679</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>2847.0771721999999</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="1"/>
+        <v>23855658.449592978</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="42"/>
+      <c r="B33" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="M33" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="N33" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="O33" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="P33" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q33" s="62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="2">
+        <f>B22/B$29</f>
+        <v>0.70377260140353692</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" ref="C34:Q34" si="2">C22/C$29</f>
+        <v>0.4483557388533414</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="2"/>
+        <v>0.69385236796200678</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="2"/>
+        <v>0.41349230737400106</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="2"/>
+        <v>0.53250154527519444</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="2"/>
+        <v>0.43225486925252077</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" si="2"/>
+        <v>0.90694637878773232</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="2"/>
+        <v>0.94326177485606666</v>
+      </c>
+      <c r="J34" s="2">
+        <f t="shared" si="2"/>
+        <v>0.43345878253134523</v>
+      </c>
+      <c r="K34" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L34" s="2">
+        <f t="shared" si="2"/>
+        <v>0.28559758578678957</v>
+      </c>
+      <c r="M34" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N34" s="2">
+        <f t="shared" si="2"/>
+        <v>0.89245069427139467</v>
+      </c>
+      <c r="O34" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P34" s="2">
+        <f t="shared" si="2"/>
+        <v>0.52505954492088236</v>
+      </c>
+      <c r="Q34" s="2">
+        <f t="shared" si="2"/>
+        <v>0.17476248419436782</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="2">
+        <f t="shared" ref="B35:Q39" si="3">B23/B$29</f>
+        <v>1</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="3"/>
+        <v>0.89946986480101188</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="3"/>
+        <v>0.84870119778779918</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="3"/>
+        <v>0.81968960269085922</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="3"/>
+        <v>0.99141613459754252</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K35" s="2">
+        <f t="shared" si="3"/>
+        <v>0.6831003236689932</v>
+      </c>
+      <c r="L35" s="2">
+        <f t="shared" si="3"/>
+        <v>8.9779196312790813E-2</v>
+      </c>
+      <c r="M35" s="2">
+        <f t="shared" si="3"/>
+        <v>0.21021166891245233</v>
+      </c>
+      <c r="N35" s="2">
+        <f t="shared" si="3"/>
+        <v>0.17269109376184449</v>
+      </c>
+      <c r="O35" s="2">
+        <f t="shared" si="3"/>
+        <v>0.62806522768268702</v>
+      </c>
+      <c r="P35" s="2">
+        <f t="shared" si="3"/>
+        <v>0.99580969819423371</v>
+      </c>
+      <c r="Q35" s="2">
+        <f t="shared" si="3"/>
+        <v>0.3262471044908134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="2">
+        <f t="shared" si="3"/>
+        <v>0.28709767175285722</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="3"/>
+        <v>0.19450814319479476</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="3"/>
+        <v>0.65589517884777593</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="3"/>
+        <v>0.18568920865687921</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="3"/>
+        <v>0.19037871546419971</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="3"/>
+        <v>0.16947697299390951</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="3"/>
+        <v>0.47610122758483897</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" si="3"/>
+        <v>0.18727672623544803</v>
+      </c>
+      <c r="K36" s="2">
+        <f t="shared" si="3"/>
+        <v>0.76230035066888835</v>
+      </c>
+      <c r="L36" s="2">
+        <f t="shared" si="3"/>
+        <v>0.10881097413875086</v>
+      </c>
+      <c r="M36" s="2">
+        <f t="shared" si="3"/>
+        <v>0.12829691918097522</v>
+      </c>
+      <c r="N36" s="2">
+        <f t="shared" si="3"/>
+        <v>0.28296768920708426</v>
+      </c>
+      <c r="O36" s="2">
+        <f t="shared" si="3"/>
+        <v>0.68843785877548624</v>
+      </c>
+      <c r="P36" s="2">
+        <f t="shared" si="3"/>
+        <v>0.24148179266887737</v>
+      </c>
+      <c r="Q36" s="2">
+        <f t="shared" si="3"/>
+        <v>4.6124449500265605E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="2">
+        <f t="shared" si="3"/>
+        <v>0.6330388167537353</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="3"/>
+        <v>0.44387905909480607</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="3"/>
+        <v>0.68995363473277282</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="3"/>
+        <v>0.38037787992215172</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="3"/>
+        <v>0.40496016146916258</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="3"/>
+        <v>0.31794249976434003</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="3"/>
+        <v>0.85002450600434698</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="3"/>
+        <v>0.88666256245398278</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="3"/>
+        <v>0.45069853669906856</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" si="3"/>
+        <v>0.95204632869653472</v>
+      </c>
+      <c r="L37" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M37" s="2">
+        <f t="shared" si="3"/>
+        <v>0.37141152191553817</v>
+      </c>
+      <c r="N37" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O37" s="2">
+        <f t="shared" si="3"/>
+        <v>0.97611615705265953</v>
+      </c>
+      <c r="P37" s="2">
+        <f t="shared" si="3"/>
+        <v>0.49824533241851682</v>
+      </c>
+      <c r="Q37" s="2">
+        <f t="shared" si="3"/>
+        <v>0.18052026897286472</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="2">
+        <f t="shared" si="3"/>
+        <v>0.97889793878432119</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="3"/>
+        <v>0.80846278123709669</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="3"/>
+        <v>0.78597901707061113</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="3"/>
+        <v>0.8400459684966588</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="3"/>
+        <v>0.81512987741569243</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="3"/>
+        <v>0.75918365696320556</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" si="3"/>
+        <v>0.84022870640376579</v>
+      </c>
+      <c r="L38" s="2">
+        <f t="shared" si="3"/>
+        <v>0.15043860162515557</v>
+      </c>
+      <c r="M38" s="2">
+        <f t="shared" si="3"/>
+        <v>0.29244502089207919</v>
+      </c>
+      <c r="N38" s="2">
+        <f t="shared" si="3"/>
+        <v>0.34022102263903042</v>
+      </c>
+      <c r="O38" s="2">
+        <f t="shared" si="3"/>
+        <v>0.77546480929447126</v>
+      </c>
+      <c r="P38" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q38" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="2">
+        <f t="shared" si="3"/>
+        <v>0.65090174323182826</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="3"/>
+        <v>0.44766175059196139</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="3"/>
+        <v>0.71721931072828116</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="3"/>
+        <v>0.38844495301953907</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="3"/>
+        <v>0.40727974986835075</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="3"/>
+        <v>0.32333773903395346</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="3"/>
+        <v>0.78249413151688396</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" si="3"/>
+        <v>0.70419719490783539</v>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" si="3"/>
+        <v>0.39994712761696805</v>
+      </c>
+      <c r="K39" s="2">
+        <f t="shared" si="3"/>
+        <v>0.7717983274934751</v>
+      </c>
+      <c r="L39" s="2">
+        <f t="shared" si="3"/>
+        <v>0.17624868611455571</v>
+      </c>
+      <c r="M39" s="2">
+        <f t="shared" si="3"/>
+        <v>0.23526940327529927</v>
+      </c>
+      <c r="N39" s="2">
+        <f t="shared" si="3"/>
+        <v>0.41270027421501487</v>
+      </c>
+      <c r="O39" s="2">
+        <f t="shared" si="3"/>
+        <v>0.80845418905546695</v>
+      </c>
+      <c r="P39" s="2">
+        <f t="shared" si="3"/>
+        <v>0.55438182539061065</v>
+      </c>
+      <c r="Q39" s="2">
+        <f t="shared" si="3"/>
+        <v>0.10801590057378728</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/migforecasting/clustering/AN-method.xlsx
+++ b/migforecasting/clustering/AN-method.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12255" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12255" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ мун-районы" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
     <sheet name="Анализ совместный" sheetId="5" r:id="rId5"/>
     <sheet name="График" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">График!$B$21:$Q$21</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">График!$B$34:$Q$34</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">График!$B$35:$Q$35</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">График!$B$36:$Q$36</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">График!$B$37:$Q$37</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">График!$B$38:$Q$38</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">График!$B$39:$Q$39</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
@@ -1658,7 +1649,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2734,7 +2724,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3740,7 +3729,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4745,7 +4733,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -26698,8 +26685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK31"/>
   <sheetViews>
-    <sheetView topLeftCell="M16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:AK18"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF21" sqref="AF21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32667,7 +32654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
@@ -33476,7 +33463,7 @@
         <v>35199.906627533899</v>
       </c>
       <c r="C22">
-        <f t="shared" ref="C22:Q25" si="0">AVERAGE(C3:C4)</f>
+        <f t="shared" ref="C22:Q22" si="0">AVERAGE(C3:C4)</f>
         <v>5041.4572696952036</v>
       </c>
       <c r="D22">
@@ -33541,67 +33528,67 @@
         <v>38</v>
       </c>
       <c r="B23">
-        <f>AVERAGE(B6:B7)</f>
+        <f t="shared" ref="B23:Q23" si="1">AVERAGE(B6:B7)</f>
         <v>50016.023012738151</v>
       </c>
       <c r="C23">
-        <f>AVERAGE(C6:C7)</f>
+        <f t="shared" si="1"/>
         <v>10113.930738056457</v>
       </c>
       <c r="D23">
-        <f>AVERAGE(D6:D7)</f>
+        <f t="shared" si="1"/>
         <v>24408.3699919471</v>
       </c>
       <c r="E23">
-        <f>AVERAGE(E6:E7)</f>
+        <f t="shared" si="1"/>
         <v>43194.42746621478</v>
       </c>
       <c r="F23">
-        <f>AVERAGE(F6:F7)</f>
+        <f t="shared" si="1"/>
         <v>1503.1859084406055</v>
       </c>
       <c r="G23">
-        <f>AVERAGE(G6:G7)</f>
+        <f t="shared" si="1"/>
         <v>2139515.1445667935</v>
       </c>
       <c r="H23">
-        <f>AVERAGE(H6:H7)</f>
+        <f t="shared" si="1"/>
         <v>27.712745963760199</v>
       </c>
       <c r="I23">
-        <f>AVERAGE(I6:I7)</f>
+        <f t="shared" si="1"/>
         <v>122.89411008198637</v>
       </c>
       <c r="J23">
-        <f>AVERAGE(J6:J7)</f>
+        <f t="shared" si="1"/>
         <v>162.79555974716007</v>
       </c>
       <c r="K23">
-        <f>AVERAGE(K6:K7)</f>
+        <f t="shared" si="1"/>
         <v>421.4354741331644</v>
       </c>
       <c r="L23">
-        <f>AVERAGE(L6:L7)</f>
+        <f t="shared" si="1"/>
         <v>30195.792892430447</v>
       </c>
       <c r="M23">
-        <f>AVERAGE(M6:M7)</f>
+        <f t="shared" si="1"/>
         <v>23017.377292451372</v>
       </c>
       <c r="N23">
-        <f>AVERAGE(N6:N7)</f>
+        <f t="shared" si="1"/>
         <v>793818.65369878965</v>
       </c>
       <c r="O23">
-        <f>AVERAGE(O6:O7)</f>
+        <f t="shared" si="1"/>
         <v>22.20738729978509</v>
       </c>
       <c r="P23">
-        <f>AVERAGE(P6:P7)</f>
+        <f t="shared" si="1"/>
         <v>2835.1470595841743</v>
       </c>
       <c r="Q23">
-        <f>AVERAGE(Q6:Q7)</f>
+        <f t="shared" si="1"/>
         <v>7782839.4949015155</v>
       </c>
     </row>
@@ -33610,67 +33597,67 @@
         <v>39</v>
       </c>
       <c r="B24">
-        <f>AVERAGE(B9:B10)</f>
+        <f t="shared" ref="B24:Q24" si="2">AVERAGE(B9:B10)</f>
         <v>14359.483757294451</v>
       </c>
       <c r="C24">
-        <f>AVERAGE(C9:C10)</f>
+        <f t="shared" si="2"/>
         <v>2187.1126151572971</v>
       </c>
       <c r="D24">
-        <f>AVERAGE(D9:D10)</f>
+        <f t="shared" si="2"/>
         <v>18863.331691978648</v>
       </c>
       <c r="E24">
-        <f>AVERAGE(E9:E10)</f>
+        <f t="shared" si="2"/>
         <v>8020.7390545883909</v>
       </c>
       <c r="F24">
-        <f>AVERAGE(F9:F10)</f>
+        <f t="shared" si="2"/>
         <v>286.17460235280862</v>
       </c>
       <c r="G24">
-        <f>AVERAGE(G9:G10)</f>
+        <f t="shared" si="2"/>
         <v>362598.55037580687</v>
       </c>
       <c r="H24">
-        <f>AVERAGE(H9:H10)</f>
+        <f t="shared" si="2"/>
         <v>33.808829431025352</v>
       </c>
       <c r="I24">
-        <f>AVERAGE(I9:I10)</f>
+        <f t="shared" si="2"/>
         <v>59.01662745960023</v>
       </c>
       <c r="J24">
-        <f>AVERAGE(J9:J10)</f>
+        <f t="shared" si="2"/>
         <v>30.487819475115419</v>
       </c>
       <c r="K24">
-        <f>AVERAGE(K9:K10)</f>
+        <f t="shared" si="2"/>
         <v>470.29755159608465</v>
       </c>
       <c r="L24">
-        <f>AVERAGE(L9:L10)</f>
+        <f t="shared" si="2"/>
         <v>36596.826151909132</v>
       </c>
       <c r="M24">
-        <f>AVERAGE(M9:M10)</f>
+        <f t="shared" si="2"/>
         <v>14048.02411552862</v>
       </c>
       <c r="N24">
-        <f>AVERAGE(N9:N10)</f>
+        <f t="shared" si="2"/>
         <v>1300733.1483834477</v>
       </c>
       <c r="O24">
-        <f>AVERAGE(O9:O10)</f>
+        <f t="shared" si="2"/>
         <v>24.342067492050411</v>
       </c>
       <c r="P24">
-        <f>AVERAGE(P9:P10)</f>
+        <f t="shared" si="2"/>
         <v>687.51729940949406</v>
       </c>
       <c r="Q24">
-        <f>AVERAGE(Q9:Q10)</f>
+        <f t="shared" si="2"/>
         <v>1100329.1134538357</v>
       </c>
     </row>
@@ -33679,67 +33666,67 @@
         <v>40</v>
       </c>
       <c r="B25">
-        <f>AVERAGE(B12:B13)</f>
+        <f t="shared" ref="B25:Q25" si="3">AVERAGE(B12:B13)</f>
         <v>31662.084026711353</v>
       </c>
       <c r="C25">
-        <f>AVERAGE(C12:C13)</f>
+        <f t="shared" si="3"/>
         <v>4991.1200312994488</v>
       </c>
       <c r="D25">
-        <f>AVERAGE(D12:D13)</f>
+        <f t="shared" si="3"/>
         <v>19842.841789009599</v>
       </c>
       <c r="E25">
-        <f>AVERAGE(E12:E13)</f>
+        <f t="shared" si="3"/>
         <v>16430.204744049937</v>
       </c>
       <c r="F25">
-        <f>AVERAGE(F12:F13)</f>
+        <f t="shared" si="3"/>
         <v>608.73040820027745</v>
       </c>
       <c r="G25">
-        <f>AVERAGE(G12:G13)</f>
+        <f t="shared" si="3"/>
         <v>680242.7933472296</v>
       </c>
       <c r="H25">
-        <f>AVERAGE(H12:H13)</f>
+        <f t="shared" si="3"/>
         <v>28.738333535692551</v>
       </c>
       <c r="I25">
-        <f>AVERAGE(I12:I13)</f>
+        <f t="shared" si="3"/>
         <v>109.90905105657737</v>
       </c>
       <c r="J25">
-        <f>AVERAGE(J12:J13)</f>
+        <f t="shared" si="3"/>
         <v>73.37172055915083</v>
       </c>
       <c r="K25">
-        <f>AVERAGE(K12:K13)</f>
+        <f t="shared" si="3"/>
         <v>587.36042427258883</v>
       </c>
       <c r="L25">
-        <f>AVERAGE(L12:L13)</f>
+        <f t="shared" si="3"/>
         <v>336333.96301776054</v>
       </c>
       <c r="M25">
-        <f>AVERAGE(M12:M13)</f>
+        <f t="shared" si="3"/>
         <v>40668.14737222754</v>
       </c>
       <c r="N25">
-        <f>AVERAGE(N12:N13)</f>
+        <f t="shared" si="3"/>
         <v>4596755.0289161531</v>
       </c>
       <c r="O25">
-        <f>AVERAGE(O12:O13)</f>
+        <f t="shared" si="3"/>
         <v>34.513914469084369</v>
       </c>
       <c r="P25">
-        <f>AVERAGE(P12:P13)</f>
+        <f t="shared" si="3"/>
         <v>1418.5429120839599</v>
       </c>
       <c r="Q25">
-        <f>AVERAGE(Q12:Q13)</f>
+        <f t="shared" si="3"/>
         <v>4306429.8798453175</v>
       </c>
     </row>
@@ -33748,67 +33735,67 @@
         <v>41</v>
       </c>
       <c r="B26">
-        <f>AVERAGE(B15:B16)</f>
+        <f t="shared" ref="B26:Q26" si="4">AVERAGE(B15:B16)</f>
         <v>48960.581833358548</v>
       </c>
       <c r="C26">
-        <f>AVERAGE(C15:C16)</f>
+        <f t="shared" si="4"/>
         <v>11244.324166762322</v>
       </c>
       <c r="D26">
-        <f>AVERAGE(D15:D16)</f>
+        <f t="shared" si="4"/>
         <v>28759.674259408701</v>
       </c>
       <c r="E26">
-        <f>AVERAGE(E15:E16)</f>
+        <f t="shared" si="4"/>
         <v>34921.086963280039</v>
       </c>
       <c r="F26">
-        <f>AVERAGE(F15:F16)</f>
+        <f t="shared" si="4"/>
         <v>1181.4725827905409</v>
       </c>
       <c r="G26">
-        <f>AVERAGE(G15:G16)</f>
+        <f t="shared" si="4"/>
         <v>1797291.071730881</v>
       </c>
       <c r="H26">
-        <f>AVERAGE(H15:H16)</f>
+        <f t="shared" si="4"/>
         <v>27.55858698967975</v>
       </c>
       <c r="I26">
-        <f>AVERAGE(I15:I16)</f>
+        <f t="shared" si="4"/>
         <v>123.95815015848441</v>
       </c>
       <c r="J26">
-        <f>AVERAGE(J15:J16)</f>
+        <f t="shared" si="4"/>
         <v>123.59172838622101</v>
       </c>
       <c r="K26">
-        <f>AVERAGE(K15:K16)</f>
+        <f t="shared" si="4"/>
         <v>518.37507756057232</v>
       </c>
       <c r="L26">
-        <f>AVERAGE(L15:L16)</f>
+        <f t="shared" si="4"/>
         <v>50597.611075438683</v>
       </c>
       <c r="M26">
-        <f>AVERAGE(M15:M16)</f>
+        <f t="shared" si="4"/>
         <v>32021.616202358531</v>
       </c>
       <c r="N26">
-        <f>AVERAGE(N15:N16)</f>
+        <f t="shared" si="4"/>
         <v>1563912.6967589594</v>
       </c>
       <c r="O26">
-        <f>AVERAGE(O15:O16)</f>
+        <f t="shared" si="4"/>
         <v>27.419202016477144</v>
       </c>
       <c r="P26">
-        <f>AVERAGE(P15:P16)</f>
+        <f t="shared" si="4"/>
         <v>2847.0771721999999</v>
       </c>
       <c r="Q26">
-        <f>AVERAGE(Q15:Q16)</f>
+        <f t="shared" si="4"/>
         <v>23855658.449592978</v>
       </c>
     </row>
@@ -33817,67 +33804,67 @@
         <v>42</v>
       </c>
       <c r="B27">
-        <f>AVERAGE(B18:B19)</f>
+        <f t="shared" ref="B27:Q27" si="5">AVERAGE(B18:B19)</f>
         <v>32555.5165685145</v>
       </c>
       <c r="C27">
-        <f>AVERAGE(C18:C19)</f>
+        <f t="shared" si="5"/>
         <v>5033.6538407163189</v>
       </c>
       <c r="D27">
-        <f>AVERAGE(D18:D19)</f>
+        <f t="shared" si="5"/>
         <v>20626.993749103</v>
       </c>
       <c r="E27">
-        <f>AVERAGE(E18:E19)</f>
+        <f t="shared" si="5"/>
         <v>16778.657347819688</v>
       </c>
       <c r="F27">
-        <f>AVERAGE(F18:F19)</f>
+        <f t="shared" si="5"/>
         <v>612.21718079531945</v>
       </c>
       <c r="G27">
-        <f>AVERAGE(G18:G19)</f>
+        <f t="shared" si="5"/>
         <v>691785.98947312904</v>
       </c>
       <c r="H27">
-        <f>AVERAGE(H18:H19)</f>
+        <f t="shared" si="5"/>
         <v>26.455210623232649</v>
       </c>
       <c r="I27">
-        <f>AVERAGE(I18:I19)</f>
+        <f t="shared" si="5"/>
         <v>87.290981627568982</v>
       </c>
       <c r="J27">
-        <f>AVERAGE(J18:J19)</f>
+        <f t="shared" si="5"/>
         <v>65.109616509673174</v>
       </c>
       <c r="K27">
-        <f>AVERAGE(K18:K19)</f>
+        <f t="shared" si="5"/>
         <v>476.15728292350695</v>
       </c>
       <c r="L27">
-        <f>AVERAGE(L18:L19)</f>
+        <f t="shared" si="5"/>
         <v>59278.419077581864</v>
       </c>
       <c r="M27">
-        <f>AVERAGE(M18:M19)</f>
+        <f t="shared" si="5"/>
         <v>25761.103789213448</v>
       </c>
       <c r="N27">
-        <f>AVERAGE(N18:N19)</f>
+        <f t="shared" si="5"/>
         <v>1897082.060932945</v>
       </c>
       <c r="O27">
-        <f>AVERAGE(O18:O19)</f>
+        <f t="shared" si="5"/>
         <v>28.585654004012191</v>
       </c>
       <c r="P27">
-        <f>AVERAGE(P18:P19)</f>
+        <f t="shared" si="5"/>
         <v>1578.3678397521739</v>
       </c>
       <c r="Q27">
-        <f>AVERAGE(Q18:Q19)</f>
+        <f t="shared" si="5"/>
         <v>2576790.4312134637</v>
       </c>
     </row>
@@ -33890,63 +33877,63 @@
         <v>50016.023012738151</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C29:Q29" si="1">MAX(C22:C27)</f>
+        <f t="shared" ref="C29:Q29" si="6">MAX(C22:C27)</f>
         <v>11244.324166762322</v>
       </c>
       <c r="D29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>28759.674259408701</v>
       </c>
       <c r="E29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>43194.42746621478</v>
       </c>
       <c r="F29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1503.1859084406055</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2139515.1445667935</v>
       </c>
       <c r="H29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>33.808829431025352</v>
       </c>
       <c r="I29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>123.95815015848441</v>
       </c>
       <c r="J29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>162.79555974716007</v>
       </c>
       <c r="K29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>616.94521219020453</v>
       </c>
       <c r="L29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>336333.96301776054</v>
       </c>
       <c r="M29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>109496.19215495363</v>
       </c>
       <c r="N29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>4596755.0289161531</v>
       </c>
       <c r="O29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>35.358409160337679</v>
       </c>
       <c r="P29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2847.0771721999999</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>23855658.449592978</v>
       </c>
     </row>
@@ -34016,63 +34003,63 @@
         <v>0.70377260140353692</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" ref="C34:Q34" si="2">C22/C$29</f>
+        <f t="shared" ref="C34:Q34" si="7">C22/C$29</f>
         <v>0.4483557388533414</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.69385236796200678</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.41349230737400106</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.53250154527519444</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.43225486925252077</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.90694637878773232</v>
       </c>
       <c r="I34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.94326177485606666</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.43345878253134523</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.28559758578678957</v>
       </c>
       <c r="M34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="N34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.89245069427139467</v>
       </c>
       <c r="O34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.52505954492088236</v>
       </c>
       <c r="Q34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.17476248419436782</v>
       </c>
     </row>
@@ -34081,67 +34068,67 @@
         <v>38</v>
       </c>
       <c r="B35" s="2">
-        <f t="shared" ref="B35:Q39" si="3">B23/B$29</f>
+        <f t="shared" ref="B35:Q39" si="8">B23/B$29</f>
         <v>1</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.89946986480101188</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.84870119778779918</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.81968960269085922</v>
       </c>
       <c r="I35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.99141613459754252</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.6831003236689932</v>
       </c>
       <c r="L35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>8.9779196312790813E-2</v>
       </c>
       <c r="M35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.21021166891245233</v>
       </c>
       <c r="N35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.17269109376184449</v>
       </c>
       <c r="O35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.62806522768268702</v>
       </c>
       <c r="P35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.99580969819423371</v>
       </c>
       <c r="Q35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.3262471044908134</v>
       </c>
     </row>
@@ -34150,67 +34137,67 @@
         <v>39</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.28709767175285722</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.19450814319479476</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.65589517884777593</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.18568920865687921</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.19037871546419971</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.16947697299390951</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.47610122758483897</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.18727672623544803</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.76230035066888835</v>
       </c>
       <c r="L36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.10881097413875086</v>
       </c>
       <c r="M36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.12829691918097522</v>
       </c>
       <c r="N36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.28296768920708426</v>
       </c>
       <c r="O36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.68843785877548624</v>
       </c>
       <c r="P36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.24148179266887737</v>
       </c>
       <c r="Q36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.6124449500265605E-2</v>
       </c>
     </row>
@@ -34219,67 +34206,67 @@
         <v>40</v>
       </c>
       <c r="B37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.6330388167537353</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.44387905909480607</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.68995363473277282</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.38037787992215172</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.40496016146916258</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.31794249976434003</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.85002450600434698</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.88666256245398278</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.45069853669906856</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.95204632869653472</v>
       </c>
       <c r="L37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.37141152191553817</v>
       </c>
       <c r="N37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.97611615705265953</v>
       </c>
       <c r="P37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.49824533241851682</v>
       </c>
       <c r="Q37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.18052026897286472</v>
       </c>
     </row>
@@ -34288,67 +34275,67 @@
         <v>41</v>
       </c>
       <c r="B38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.97889793878432119</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.80846278123709669</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.78597901707061113</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.8400459684966588</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.81512987741569243</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.75918365696320556</v>
       </c>
       <c r="K38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.84022870640376579</v>
       </c>
       <c r="L38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.15043860162515557</v>
       </c>
       <c r="M38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.29244502089207919</v>
       </c>
       <c r="N38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.34022102263903042</v>
       </c>
       <c r="O38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.77546480929447126</v>
       </c>
       <c r="P38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -34357,67 +34344,67 @@
         <v>42</v>
       </c>
       <c r="B39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.65090174323182826</v>
       </c>
       <c r="C39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.44766175059196139</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.71721931072828116</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.38844495301953907</v>
       </c>
       <c r="F39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.40727974986835075</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.32333773903395346</v>
       </c>
       <c r="H39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.78249413151688396</v>
       </c>
       <c r="I39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.70419719490783539</v>
       </c>
       <c r="J39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.39994712761696805</v>
       </c>
       <c r="K39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.7717983274934751</v>
       </c>
       <c r="L39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.17624868611455571</v>
       </c>
       <c r="M39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.23526940327529927</v>
       </c>
       <c r="N39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.41270027421501487</v>
       </c>
       <c r="O39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.80845418905546695</v>
       </c>
       <c r="P39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.55438182539061065</v>
       </c>
       <c r="Q39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.10801590057378728</v>
       </c>
     </row>

--- a/migforecasting/clustering/AN-method.xlsx
+++ b/migforecasting/clustering/AN-method.xlsx
@@ -19,6 +19,15 @@
     <sheet name="Анализ совместный" sheetId="5" r:id="rId5"/>
     <sheet name="График" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Анализ совместный'!$V$24:$AK$24</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Анализ совместный'!$V$25:$AK$25</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Анализ совместный'!$V$26:$AK$26</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Анализ совместный'!$V$27:$AK$27</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Анализ совместный'!$V$28:$AK$28</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Анализ совместный'!$V$29:$AK$29</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Анализ совместный'!$V$30:$AK$30</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
@@ -26685,8 +26694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF21" sqref="AF21"/>
+    <sheetView tabSelected="1" topLeftCell="M22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X33" sqref="X33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32655,7 +32664,7 @@
   <dimension ref="A2:Q39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/migforecasting/clustering/AN-method.xlsx
+++ b/migforecasting/clustering/AN-method.xlsx
@@ -19,21 +19,12 @@
     <sheet name="Анализ совместный" sheetId="5" r:id="rId5"/>
     <sheet name="График" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Анализ совместный'!$V$24:$AK$24</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Анализ совместный'!$V$25:$AK$25</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Анализ совместный'!$V$26:$AK$26</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Анализ совместный'!$V$27:$AK$27</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Анализ совместный'!$V$28:$AK$28</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Анализ совместный'!$V$29:$AK$29</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Анализ совместный'!$V$30:$AK$30</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="59">
   <si>
     <t>clust</t>
   </si>
@@ -163,6 +154,67 @@
   <si>
     <t>Cluster 5</t>
   </si>
+  <si>
+    <t>retailturnover 15%</t>
+  </si>
+  <si>
+    <t>avgemployers -3%</t>
+  </si>
+  <si>
+    <t>avgsalary 4%</t>
+  </si>
+  <si>
+    <t>shoparea 1%</t>
+  </si>
+  <si>
+    <t>foodseats 6%</t>
+  </si>
+  <si>
+    <t>livarea 2%</t>
+  </si>
+  <si>
+    <t>sportsvenue -9%</t>
+  </si>
+  <si>
+    <t>servicesnum -3%</t>
+  </si>
+  <si>
+    <t>roadslen -6%</t>
+  </si>
+  <si>
+    <t>livestock -10%</t>
+  </si>
+  <si>
+    <t>harvest 13%</t>
+  </si>
+  <si>
+    <t>agrprod 7%</t>
+  </si>
+  <si>
+    <t>hospitals -15%</t>
+  </si>
+  <si>
+    <t>factoriescap 15%</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">popsize </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>15%</t>
+    </r>
+  </si>
+  <si>
+    <t>preschool -8%</t>
+  </si>
 </sst>
 </file>
 
@@ -174,7 +226,7 @@
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +270,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -5904,52 +5964,52 @@
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>popsize</c:v>
+                  <c:v>popsize 15%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>avgemployers</c:v>
+                  <c:v>avgemployers -3%</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>avgsalary</c:v>
+                  <c:v>avgsalary 4%</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>shoparea</c:v>
+                  <c:v>shoparea 1%</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>foodseats</c:v>
+                  <c:v>foodseats 6%</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>retailturnover</c:v>
+                  <c:v>retailturnover 15%</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>livarea</c:v>
+                  <c:v>livarea 2%</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>sportsvenue</c:v>
+                  <c:v>sportsvenue -9%</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>servicesnum</c:v>
+                  <c:v>servicesnum -3%</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>roadslen</c:v>
+                  <c:v>roadslen -6%</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>livestock</c:v>
+                  <c:v>livestock -10%</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>harvest</c:v>
+                  <c:v>harvest 13%</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>agrprod</c:v>
+                  <c:v>agrprod 7%</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>hospitals</c:v>
+                  <c:v>hospitals -15%</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>beforeschool</c:v>
+                  <c:v>preschool -8%</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>factoriescap</c:v>
+                  <c:v>factoriescap 15%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6042,52 +6102,52 @@
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>popsize</c:v>
+                  <c:v>popsize 15%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>avgemployers</c:v>
+                  <c:v>avgemployers -3%</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>avgsalary</c:v>
+                  <c:v>avgsalary 4%</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>shoparea</c:v>
+                  <c:v>shoparea 1%</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>foodseats</c:v>
+                  <c:v>foodseats 6%</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>retailturnover</c:v>
+                  <c:v>retailturnover 15%</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>livarea</c:v>
+                  <c:v>livarea 2%</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>sportsvenue</c:v>
+                  <c:v>sportsvenue -9%</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>servicesnum</c:v>
+                  <c:v>servicesnum -3%</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>roadslen</c:v>
+                  <c:v>roadslen -6%</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>livestock</c:v>
+                  <c:v>livestock -10%</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>harvest</c:v>
+                  <c:v>harvest 13%</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>agrprod</c:v>
+                  <c:v>agrprod 7%</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>hospitals</c:v>
+                  <c:v>hospitals -15%</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>beforeschool</c:v>
+                  <c:v>preschool -8%</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>factoriescap</c:v>
+                  <c:v>factoriescap 15%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6180,52 +6240,52 @@
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>popsize</c:v>
+                  <c:v>popsize 15%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>avgemployers</c:v>
+                  <c:v>avgemployers -3%</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>avgsalary</c:v>
+                  <c:v>avgsalary 4%</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>shoparea</c:v>
+                  <c:v>shoparea 1%</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>foodseats</c:v>
+                  <c:v>foodseats 6%</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>retailturnover</c:v>
+                  <c:v>retailturnover 15%</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>livarea</c:v>
+                  <c:v>livarea 2%</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>sportsvenue</c:v>
+                  <c:v>sportsvenue -9%</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>servicesnum</c:v>
+                  <c:v>servicesnum -3%</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>roadslen</c:v>
+                  <c:v>roadslen -6%</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>livestock</c:v>
+                  <c:v>livestock -10%</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>harvest</c:v>
+                  <c:v>harvest 13%</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>agrprod</c:v>
+                  <c:v>agrprod 7%</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>hospitals</c:v>
+                  <c:v>hospitals -15%</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>beforeschool</c:v>
+                  <c:v>preschool -8%</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>factoriescap</c:v>
+                  <c:v>factoriescap 15%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6318,52 +6378,52 @@
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>popsize</c:v>
+                  <c:v>popsize 15%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>avgemployers</c:v>
+                  <c:v>avgemployers -3%</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>avgsalary</c:v>
+                  <c:v>avgsalary 4%</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>shoparea</c:v>
+                  <c:v>shoparea 1%</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>foodseats</c:v>
+                  <c:v>foodseats 6%</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>retailturnover</c:v>
+                  <c:v>retailturnover 15%</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>livarea</c:v>
+                  <c:v>livarea 2%</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>sportsvenue</c:v>
+                  <c:v>sportsvenue -9%</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>servicesnum</c:v>
+                  <c:v>servicesnum -3%</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>roadslen</c:v>
+                  <c:v>roadslen -6%</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>livestock</c:v>
+                  <c:v>livestock -10%</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>harvest</c:v>
+                  <c:v>harvest 13%</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>agrprod</c:v>
+                  <c:v>agrprod 7%</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>hospitals</c:v>
+                  <c:v>hospitals -15%</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>beforeschool</c:v>
+                  <c:v>preschool -8%</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>factoriescap</c:v>
+                  <c:v>factoriescap 15%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6456,52 +6516,52 @@
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>popsize</c:v>
+                  <c:v>popsize 15%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>avgemployers</c:v>
+                  <c:v>avgemployers -3%</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>avgsalary</c:v>
+                  <c:v>avgsalary 4%</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>shoparea</c:v>
+                  <c:v>shoparea 1%</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>foodseats</c:v>
+                  <c:v>foodseats 6%</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>retailturnover</c:v>
+                  <c:v>retailturnover 15%</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>livarea</c:v>
+                  <c:v>livarea 2%</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>sportsvenue</c:v>
+                  <c:v>sportsvenue -9%</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>servicesnum</c:v>
+                  <c:v>servicesnum -3%</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>roadslen</c:v>
+                  <c:v>roadslen -6%</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>livestock</c:v>
+                  <c:v>livestock -10%</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>harvest</c:v>
+                  <c:v>harvest 13%</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>agrprod</c:v>
+                  <c:v>agrprod 7%</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>hospitals</c:v>
+                  <c:v>hospitals -15%</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>beforeschool</c:v>
+                  <c:v>preschool -8%</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>factoriescap</c:v>
+                  <c:v>factoriescap 15%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6594,52 +6654,52 @@
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>popsize</c:v>
+                  <c:v>popsize 15%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>avgemployers</c:v>
+                  <c:v>avgemployers -3%</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>avgsalary</c:v>
+                  <c:v>avgsalary 4%</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>shoparea</c:v>
+                  <c:v>shoparea 1%</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>foodseats</c:v>
+                  <c:v>foodseats 6%</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>retailturnover</c:v>
+                  <c:v>retailturnover 15%</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>livarea</c:v>
+                  <c:v>livarea 2%</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>sportsvenue</c:v>
+                  <c:v>sportsvenue -9%</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>servicesnum</c:v>
+                  <c:v>servicesnum -3%</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>roadslen</c:v>
+                  <c:v>roadslen -6%</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>livestock</c:v>
+                  <c:v>livestock -10%</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>harvest</c:v>
+                  <c:v>harvest 13%</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>agrprod</c:v>
+                  <c:v>agrprod 7%</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>hospitals</c:v>
+                  <c:v>hospitals -15%</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>beforeschool</c:v>
+                  <c:v>preschool -8%</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>factoriescap</c:v>
+                  <c:v>factoriescap 15%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7892,7 +7952,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -26694,8 +26753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X33" sqref="X33"/>
+    <sheetView tabSelected="1" topLeftCell="Q31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AJ40" sqref="AJ40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28413,52 +28472,52 @@
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C24" s="35" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="I24" s="35" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="J24" s="35" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="K24" s="35" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L24" s="35" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="M24" s="35" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="N24" s="35" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="O24" s="35" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="P24" s="35" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="Q24" s="35" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="R24" s="35" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="V24" s="35" t="s">
         <v>2</v>

--- a/migforecasting/clustering/AN-method.xlsx
+++ b/migforecasting/clustering/AN-method.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12255" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12255" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ мун-районы" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="60">
   <si>
     <t>clust</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>preschool -8%</t>
+  </si>
+  <si>
+    <t>preschool</t>
   </si>
 </sst>
 </file>
@@ -7061,7 +7064,7 @@
                   <c:v>hospitals</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>beforeschool</c:v>
+                  <c:v>preschool</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>factoriescap</c:v>
@@ -7201,7 +7204,7 @@
                   <c:v>hospitals</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>beforeschool</c:v>
+                  <c:v>preschool</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>factoriescap</c:v>
@@ -7339,7 +7342,7 @@
                   <c:v>hospitals</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>beforeschool</c:v>
+                  <c:v>preschool</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>factoriescap</c:v>
@@ -7479,7 +7482,7 @@
                   <c:v>hospitals</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>beforeschool</c:v>
+                  <c:v>preschool</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>factoriescap</c:v>
@@ -7619,7 +7622,7 @@
                   <c:v>hospitals</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>beforeschool</c:v>
+                  <c:v>preschool</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>factoriescap</c:v>
@@ -7759,7 +7762,7 @@
                   <c:v>hospitals</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>beforeschool</c:v>
+                  <c:v>preschool</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>factoriescap</c:v>
@@ -7952,6 +7955,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -26753,7 +26757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="Q31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AJ40" sqref="AJ40"/>
     </sheetView>
   </sheetViews>
@@ -32722,8 +32726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33516,7 +33520,7 @@
         <v>15</v>
       </c>
       <c r="P21" s="42" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="42" t="s">
         <v>17</v>
